--- a/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
@@ -715,7 +715,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -937,6 +937,12 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -946,7 +952,7 @@
               <c:f>'model4(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1167,6 +1173,12 @@
                   <c:v>478.14314005402412</c:v>
                 </c:pt>
                 <c:pt idx="73">
+                  <c:v>478.14314005402412</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>478.14314005402412</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>478.14314005402412</c:v>
                 </c:pt>
               </c:numCache>
@@ -1210,7 +1222,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1432,6 +1444,12 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1441,7 +1459,7 @@
               <c:f>'model4(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1660,6 +1678,12 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>723.89175466506435</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>719.80874077677595</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>720.4747421369733</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1702,7 +1726,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1924,6 +1948,12 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1933,7 +1963,7 @@
               <c:f>'model4(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2155,6 +2185,12 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>241.66560072275183</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>242.33160208294919</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>242.33160208294919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2176,11 +2212,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="469072128"/>
-        <c:axId val="469164416"/>
+        <c:axId val="77504896"/>
+        <c:axId val="77506432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="469072128"/>
+        <c:axId val="77504896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2223,14 +2259,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469164416"/>
+        <c:crossAx val="77506432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="469164416"/>
+        <c:axId val="77506432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2279,7 +2315,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469072128"/>
+        <c:crossAx val="77504896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2476,7 +2512,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2662,6 +2698,12 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2671,7 +2713,7 @@
               <c:f>'model4(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2856,6 +2898,12 @@
                   <c:v>800.1080953813339</c:v>
                 </c:pt>
                 <c:pt idx="61">
+                  <c:v>800.1080953813339</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>800.1080953813339</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>800.1080953813339</c:v>
                 </c:pt>
               </c:numCache>
@@ -2899,7 +2947,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3085,6 +3133,12 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3094,7 +3148,7 @@
               <c:f>'model4(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3280,6 +3334,12 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>1094.4167426984752</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1125.1977572215014</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1133.1773505742453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3322,7 +3382,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3508,6 +3568,12 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3517,7 +3583,7 @@
               <c:f>'model4(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3703,6 +3769,12 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>294.30864731714132</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>325.08966184016754</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>333.06925519291144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3724,11 +3796,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="480470912"/>
-        <c:axId val="480472448"/>
+        <c:axId val="450800256"/>
+        <c:axId val="481427840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="480470912"/>
+        <c:axId val="450800256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3771,14 +3843,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480472448"/>
+        <c:crossAx val="481427840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="480472448"/>
+        <c:axId val="481427840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3827,7 +3899,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480470912"/>
+        <c:crossAx val="450800256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4024,7 +4096,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4210,6 +4282,12 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4219,7 +4297,7 @@
               <c:f>'model4(3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4404,6 +4482,12 @@
                   <c:v>173.99021895188429</c:v>
                 </c:pt>
                 <c:pt idx="61">
+                  <c:v>173.99021895188429</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>173.99021895188429</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>173.99021895188429</c:v>
                 </c:pt>
               </c:numCache>
@@ -4447,7 +4531,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4633,6 +4717,12 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4642,7 +4732,7 @@
               <c:f>'model4(3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4828,6 +4918,12 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>246.69628114626209</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>254.93539772849959</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>257.11280601379377</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4870,7 +4966,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5056,6 +5152,12 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5065,7 +5167,7 @@
               <c:f>'model4(3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5251,6 +5353,12 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>72.706062194377807</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>80.945178776615307</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>83.122587061909485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5272,11 +5380,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="484662656"/>
-        <c:axId val="489675392"/>
+        <c:axId val="546432896"/>
+        <c:axId val="546434432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="484662656"/>
+        <c:axId val="546432896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5319,14 +5427,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489675392"/>
+        <c:crossAx val="546434432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489675392"/>
+        <c:axId val="546434432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5375,7 +5483,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484662656"/>
+        <c:crossAx val="546432896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5879,8 +5987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF77"/>
+  <sheetPr codeName="Sheet1">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AF79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9058,6 +9168,76 @@
         <v>708.17280377094357</v>
       </c>
     </row>
+    <row r="78" spans="1:11" ht="12.75">
+      <c r="A78" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B78" s="25">
+        <v>1.2987200000000001</v>
+      </c>
+      <c r="C78" s="20">
+        <v>1.0354160636182892</v>
+      </c>
+      <c r="D78" s="21">
+        <v>-12.301938366029718</v>
+      </c>
+      <c r="E78" s="22">
+        <v>-9.4723561399144671</v>
+      </c>
+      <c r="F78" s="22">
+        <v>0</v>
+      </c>
+      <c r="G78" s="22">
+        <v>0</v>
+      </c>
+      <c r="H78" s="22">
+        <v>478.14314005402412</v>
+      </c>
+      <c r="I78" s="22">
+        <v>720.4747421369733</v>
+      </c>
+      <c r="J78" s="22">
+        <v>242.33160208294919</v>
+      </c>
+      <c r="K78" s="21">
+        <v>720.4747421369733</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="12.75">
+      <c r="A79" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B79" s="25">
+        <v>1.32033</v>
+      </c>
+      <c r="C79" s="20">
+        <v>1.0393539895356432</v>
+      </c>
+      <c r="D79" s="21">
+        <v>0</v>
+      </c>
+      <c r="E79" s="22">
+        <v>0</v>
+      </c>
+      <c r="F79" s="22">
+        <v>0</v>
+      </c>
+      <c r="G79" s="22">
+        <v>0</v>
+      </c>
+      <c r="H79" s="22">
+        <v>478.14314005402412</v>
+      </c>
+      <c r="I79" s="22">
+        <v>720.4747421369733</v>
+      </c>
+      <c r="J79" s="22">
+        <v>242.33160208294919</v>
+      </c>
+      <c r="K79" s="21">
+        <v>720.4747421369733</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -9074,7 +9254,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF65"/>
+  <dimension ref="A1:AF67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11730,6 +11910,76 @@
         <v>556.63113538471544</v>
       </c>
     </row>
+    <row r="66" spans="1:11" ht="12.75">
+      <c r="A66" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B66" s="25">
+        <v>1.2987200000000001</v>
+      </c>
+      <c r="C66" s="20">
+        <v>1.0590856</v>
+      </c>
+      <c r="D66" s="21">
+        <v>-89.008200778208106</v>
+      </c>
+      <c r="E66" s="22">
+        <v>-68.535327690501489</v>
+      </c>
+      <c r="F66" s="22">
+        <v>369.25466694790083</v>
+      </c>
+      <c r="G66" s="22">
+        <v>479.55842105857778</v>
+      </c>
+      <c r="H66" s="22">
+        <v>800.1080953813339</v>
+      </c>
+      <c r="I66" s="22">
+        <v>1125.1977572215014</v>
+      </c>
+      <c r="J66" s="22">
+        <v>325.08966184016754</v>
+      </c>
+      <c r="K66" s="21">
+        <v>645.63933616292354</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="12.75">
+      <c r="A67" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B67" s="25">
+        <v>1.32033</v>
+      </c>
+      <c r="C67" s="20">
+        <v>1.0924141600000008</v>
+      </c>
+      <c r="D67" s="21">
+        <v>-80.515726690503115</v>
+      </c>
+      <c r="E67" s="22">
+        <v>-60.981517265004292</v>
+      </c>
+      <c r="F67" s="22">
+        <v>308.27314968289653</v>
+      </c>
+      <c r="G67" s="22">
+        <v>407.02228772081878</v>
+      </c>
+      <c r="H67" s="22">
+        <v>800.1080953813339</v>
+      </c>
+      <c r="I67" s="22">
+        <v>1133.1773505742453</v>
+      </c>
+      <c r="J67" s="22">
+        <v>333.06925519291144</v>
+      </c>
+      <c r="K67" s="21">
+        <v>726.15506285342667</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -11746,7 +11996,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AF65"/>
+  <dimension ref="A1:AF67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14402,6 +14652,76 @@
         <v>102.74786412469552</v>
       </c>
     </row>
+    <row r="66" spans="1:11" ht="12.75">
+      <c r="A66" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B66" s="25">
+        <v>1.2987200000000001</v>
+      </c>
+      <c r="C66" s="20">
+        <v>1.0590856</v>
+      </c>
+      <c r="D66" s="21">
+        <v>-21.329426788565446</v>
+      </c>
+      <c r="E66" s="22">
+        <v>-16.42342212991672</v>
+      </c>
+      <c r="F66" s="22">
+        <v>100.7592913139388</v>
+      </c>
+      <c r="G66" s="22">
+        <v>130.85810681523861</v>
+      </c>
+      <c r="H66" s="22">
+        <v>173.99021895188429</v>
+      </c>
+      <c r="I66" s="22">
+        <v>254.93539772849959</v>
+      </c>
+      <c r="J66" s="22">
+        <v>80.945178776615307</v>
+      </c>
+      <c r="K66" s="21">
+        <v>124.07729091326097</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="12.75">
+      <c r="A67" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B67" s="25">
+        <v>1.32033</v>
+      </c>
+      <c r="C67" s="20">
+        <v>1.0924141600000008</v>
+      </c>
+      <c r="D67" s="21">
+        <v>-18.350809481876375</v>
+      </c>
+      <c r="E67" s="22">
+        <v>-13.898653731927908</v>
+      </c>
+      <c r="F67" s="22">
+        <v>86.860637582010895</v>
+      </c>
+      <c r="G67" s="22">
+        <v>114.68470561865645</v>
+      </c>
+      <c r="H67" s="22">
+        <v>173.99021895188429</v>
+      </c>
+      <c r="I67" s="22">
+        <v>257.11280601379377</v>
+      </c>
+      <c r="J67" s="22">
+        <v>83.122587061909485</v>
+      </c>
+      <c r="K67" s="21">
+        <v>142.42810039513733</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
@@ -715,7 +715,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -943,6 +943,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -952,7 +955,7 @@
               <c:f>'model4(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1179,6 +1182,9 @@
                   <c:v>478.14314005402412</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>478.14314005402412</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>478.14314005402412</c:v>
                 </c:pt>
               </c:numCache>
@@ -1222,7 +1228,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1450,6 +1456,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1459,7 +1468,7 @@
               <c:f>'model4(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1683,6 +1692,9 @@
                   <c:v>719.80874077677595</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>720.4747421369733</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>720.4747421369733</c:v>
                 </c:pt>
               </c:numCache>
@@ -1726,7 +1738,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1954,6 +1966,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1963,7 +1978,7 @@
               <c:f>'model4(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2190,6 +2205,9 @@
                   <c:v>242.33160208294919</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>242.33160208294919</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>242.33160208294919</c:v>
                 </c:pt>
               </c:numCache>
@@ -2212,11 +2230,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77504896"/>
-        <c:axId val="77506432"/>
+        <c:axId val="382687104"/>
+        <c:axId val="382688640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="77504896"/>
+        <c:axId val="382687104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2259,14 +2277,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77506432"/>
+        <c:crossAx val="382688640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="77506432"/>
+        <c:axId val="382688640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2315,7 +2333,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77504896"/>
+        <c:crossAx val="382687104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2512,7 +2530,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2704,6 +2722,9 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2713,7 +2734,7 @@
               <c:f>'model4(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2904,6 +2925,9 @@
                   <c:v>800.1080953813339</c:v>
                 </c:pt>
                 <c:pt idx="63">
+                  <c:v>800.1080953813339</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>800.1080953813339</c:v>
                 </c:pt>
               </c:numCache>
@@ -2947,7 +2971,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3139,6 +3163,9 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3148,7 +3175,7 @@
               <c:f>'model4(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3339,6 +3366,9 @@
                   <c:v>1125.1977572215014</c:v>
                 </c:pt>
                 <c:pt idx="63">
+                  <c:v>1133.1773505742453</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>1133.1773505742453</c:v>
                 </c:pt>
               </c:numCache>
@@ -3382,7 +3412,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3574,6 +3604,9 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3583,7 +3616,7 @@
               <c:f>'model4(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3774,6 +3807,9 @@
                   <c:v>325.08966184016754</c:v>
                 </c:pt>
                 <c:pt idx="63">
+                  <c:v>333.06925519291144</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>333.06925519291144</c:v>
                 </c:pt>
               </c:numCache>
@@ -3796,11 +3832,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="450800256"/>
-        <c:axId val="481427840"/>
+        <c:axId val="388867200"/>
+        <c:axId val="388868736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="450800256"/>
+        <c:axId val="388867200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3843,14 +3879,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481427840"/>
+        <c:crossAx val="388868736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="481427840"/>
+        <c:axId val="388868736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3899,7 +3935,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="450800256"/>
+        <c:crossAx val="388867200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4096,7 +4132,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4288,6 +4324,9 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4297,7 +4336,7 @@
               <c:f>'model4(3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4488,6 +4527,9 @@
                   <c:v>173.99021895188429</c:v>
                 </c:pt>
                 <c:pt idx="63">
+                  <c:v>173.99021895188429</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>173.99021895188429</c:v>
                 </c:pt>
               </c:numCache>
@@ -4531,7 +4573,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4723,6 +4765,9 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4732,7 +4777,7 @@
               <c:f>'model4(3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4923,6 +4968,9 @@
                   <c:v>254.93539772849959</c:v>
                 </c:pt>
                 <c:pt idx="63">
+                  <c:v>257.11280601379377</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>257.11280601379377</c:v>
                 </c:pt>
               </c:numCache>
@@ -4966,7 +5014,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5158,6 +5206,9 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5167,7 +5218,7 @@
               <c:f>'model4(3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5358,6 +5409,9 @@
                   <c:v>80.945178776615307</c:v>
                 </c:pt>
                 <c:pt idx="63">
+                  <c:v>83.122587061909485</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>83.122587061909485</c:v>
                 </c:pt>
               </c:numCache>
@@ -5380,11 +5434,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="546432896"/>
-        <c:axId val="546434432"/>
+        <c:axId val="388884736"/>
+        <c:axId val="388956160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="546432896"/>
+        <c:axId val="388884736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5427,14 +5481,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="546434432"/>
+        <c:crossAx val="388956160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="546434432"/>
+        <c:axId val="388956160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5483,7 +5537,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="546432896"/>
+        <c:crossAx val="388884736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5591,7 +5645,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5634,7 +5688,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5677,7 +5731,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5990,7 +6044,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF79"/>
+  <dimension ref="A1:AF80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9238,6 +9292,41 @@
         <v>720.4747421369733</v>
       </c>
     </row>
+    <row r="80" spans="1:11" ht="12.75">
+      <c r="A80" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B80" s="25">
+        <v>1.32033</v>
+      </c>
+      <c r="C80" s="20">
+        <v>1.0393539895356432</v>
+      </c>
+      <c r="D80" s="21">
+        <v>0</v>
+      </c>
+      <c r="E80" s="22">
+        <v>0</v>
+      </c>
+      <c r="F80" s="22">
+        <v>0</v>
+      </c>
+      <c r="G80" s="22">
+        <v>0</v>
+      </c>
+      <c r="H80" s="22">
+        <v>478.14314005402412</v>
+      </c>
+      <c r="I80" s="22">
+        <v>720.4747421369733</v>
+      </c>
+      <c r="J80" s="22">
+        <v>242.33160208294919</v>
+      </c>
+      <c r="K80" s="21">
+        <v>720.4747421369733</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -9254,7 +9343,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF67"/>
+  <dimension ref="A1:AF68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11980,6 +12069,41 @@
         <v>726.15506285342667</v>
       </c>
     </row>
+    <row r="68" spans="1:11" ht="12.75">
+      <c r="A68" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B68" s="25">
+        <v>1.32033</v>
+      </c>
+      <c r="C68" s="20">
+        <v>1.0924141600000008</v>
+      </c>
+      <c r="D68" s="21">
+        <v>-80.515726690503115</v>
+      </c>
+      <c r="E68" s="22">
+        <v>-60.981517265004292</v>
+      </c>
+      <c r="F68" s="22">
+        <v>247.29163241789223</v>
+      </c>
+      <c r="G68" s="22">
+        <v>326.50656103031565</v>
+      </c>
+      <c r="H68" s="22">
+        <v>800.1080953813339</v>
+      </c>
+      <c r="I68" s="22">
+        <v>1133.1773505742453</v>
+      </c>
+      <c r="J68" s="22">
+        <v>333.06925519291144</v>
+      </c>
+      <c r="K68" s="21">
+        <v>806.6707895439298</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -11996,7 +12120,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AF67"/>
+  <dimension ref="A1:AF68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14722,6 +14846,41 @@
         <v>142.42810039513733</v>
       </c>
     </row>
+    <row r="68" spans="1:11" ht="12.75">
+      <c r="A68" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B68" s="25">
+        <v>1.32033</v>
+      </c>
+      <c r="C68" s="20">
+        <v>1.0924141600000008</v>
+      </c>
+      <c r="D68" s="21">
+        <v>-18.350809481876375</v>
+      </c>
+      <c r="E68" s="22">
+        <v>-13.898653731927908</v>
+      </c>
+      <c r="F68" s="22">
+        <v>72.961983850082987</v>
+      </c>
+      <c r="G68" s="22">
+        <v>96.333896136780069</v>
+      </c>
+      <c r="H68" s="22">
+        <v>173.99021895188429</v>
+      </c>
+      <c r="I68" s="22">
+        <v>257.11280601379377</v>
+      </c>
+      <c r="J68" s="22">
+        <v>83.122587061909485</v>
+      </c>
+      <c r="K68" s="21">
+        <v>160.77890987701372</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
@@ -2230,11 +2230,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="382687104"/>
-        <c:axId val="382688640"/>
+        <c:axId val="557222144"/>
+        <c:axId val="557223936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="382687104"/>
+        <c:axId val="557222144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2277,14 +2277,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382688640"/>
+        <c:crossAx val="557223936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="382688640"/>
+        <c:axId val="557223936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2333,7 +2333,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382687104"/>
+        <c:crossAx val="557222144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3369,7 +3369,7 @@
                   <c:v>1133.1773505742453</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1133.1773505742453</c:v>
+                  <c:v>1114.2339655262315</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3810,7 +3810,7 @@
                   <c:v>333.06925519291144</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>333.06925519291144</c:v>
+                  <c:v>314.12587014489759</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3832,11 +3832,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="388867200"/>
-        <c:axId val="388868736"/>
+        <c:axId val="561941120"/>
+        <c:axId val="567492992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="388867200"/>
+        <c:axId val="561941120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3879,14 +3879,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388868736"/>
+        <c:crossAx val="567492992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="388868736"/>
+        <c:axId val="567492992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3935,7 +3935,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388867200"/>
+        <c:crossAx val="561941120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4971,7 +4971,7 @@
                   <c:v>257.11280601379377</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>257.11280601379377</c:v>
+                  <c:v>251.77521983437924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5412,7 +5412,7 @@
                   <c:v>83.122587061909485</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>83.122587061909485</c:v>
+                  <c:v>77.785000882494955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5434,11 +5434,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="388884736"/>
-        <c:axId val="388956160"/>
+        <c:axId val="568449280"/>
+        <c:axId val="568455168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="388884736"/>
+        <c:axId val="568449280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5481,14 +5481,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388956160"/>
+        <c:crossAx val="568455168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="388956160"/>
+        <c:axId val="568455168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5537,7 +5537,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388884736"/>
+        <c:crossAx val="568449280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9297,10 +9297,10 @@
         <v>45138</v>
       </c>
       <c r="B80" s="25">
-        <v>1.32033</v>
+        <v>1.25888</v>
       </c>
       <c r="C80" s="20">
-        <v>1.0393539895356432</v>
+        <v>1.0426825419354826</v>
       </c>
       <c r="D80" s="21">
         <v>0</v>
@@ -12074,34 +12074,34 @@
         <v>45138</v>
       </c>
       <c r="B68" s="25">
-        <v>1.32033</v>
+        <v>1.25888</v>
       </c>
       <c r="C68" s="20">
-        <v>1.0924141600000008</v>
+        <v>1.1188947600000003</v>
       </c>
       <c r="D68" s="21">
-        <v>-80.515726690503115</v>
+        <v>-30.373594497679139</v>
       </c>
       <c r="E68" s="22">
-        <v>-60.981517265004292</v>
+        <v>-24.127474022686147</v>
       </c>
       <c r="F68" s="22">
-        <v>247.29163241789223</v>
+        <v>284.14567566021037</v>
       </c>
       <c r="G68" s="22">
-        <v>326.50656103031565</v>
+        <v>357.70530817512565</v>
       </c>
       <c r="H68" s="22">
         <v>800.1080953813339</v>
       </c>
       <c r="I68" s="22">
-        <v>1133.1773505742453</v>
+        <v>1114.2339655262315</v>
       </c>
       <c r="J68" s="22">
-        <v>333.06925519291144</v>
+        <v>314.12587014489759</v>
       </c>
       <c r="K68" s="21">
-        <v>806.6707895439298</v>
+        <v>756.52865735110584</v>
       </c>
     </row>
   </sheetData>
@@ -12123,7 +12123,7 @@
   <dimension ref="A1:AF68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C10" sqref="C10"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
@@ -14851,34 +14851,34 @@
         <v>45138</v>
       </c>
       <c r="B68" s="25">
-        <v>1.32033</v>
+        <v>1.25888</v>
       </c>
       <c r="C68" s="20">
-        <v>1.0924141600000008</v>
+        <v>1.1188947600000003</v>
       </c>
       <c r="D68" s="21">
-        <v>-18.350809481876375</v>
+        <v>-4.2518549154202834</v>
       </c>
       <c r="E68" s="22">
-        <v>-13.898653731927908</v>
+        <v>-3.3774902416594776</v>
       </c>
       <c r="F68" s="22">
-        <v>72.961983850082987</v>
+        <v>83.483147340351422</v>
       </c>
       <c r="G68" s="22">
-        <v>96.333896136780069</v>
+        <v>105.0952645238216</v>
       </c>
       <c r="H68" s="22">
         <v>173.99021895188429</v>
       </c>
       <c r="I68" s="22">
-        <v>257.11280601379377</v>
+        <v>251.77521983437924</v>
       </c>
       <c r="J68" s="22">
-        <v>83.122587061909485</v>
+        <v>77.785000882494955</v>
       </c>
       <c r="K68" s="21">
-        <v>160.77890987701372</v>
+        <v>146.67995531055763</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
@@ -715,7 +715,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -946,6 +946,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -955,7 +958,7 @@
               <c:f>'model4(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1185,6 +1188,9 @@
                   <c:v>478.14314005402412</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>478.14314005402412</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>478.14314005402412</c:v>
                 </c:pt>
               </c:numCache>
@@ -1228,7 +1234,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1459,6 +1465,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1468,7 +1477,7 @@
               <c:f>'model4(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1695,6 +1704,9 @@
                   <c:v>720.4747421369733</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>720.4747421369733</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>720.4747421369733</c:v>
                 </c:pt>
               </c:numCache>
@@ -1738,7 +1750,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1969,6 +1981,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1978,7 +1993,7 @@
               <c:f>'model4(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2208,6 +2223,9 @@
                   <c:v>242.33160208294919</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>242.33160208294919</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>242.33160208294919</c:v>
                 </c:pt>
               </c:numCache>
@@ -2230,11 +2248,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="557222144"/>
-        <c:axId val="557223936"/>
+        <c:axId val="89893504"/>
+        <c:axId val="90329856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="557222144"/>
+        <c:axId val="89893504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2277,14 +2295,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="557223936"/>
+        <c:crossAx val="90329856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="557223936"/>
+        <c:axId val="90329856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2333,7 +2351,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="557222144"/>
+        <c:crossAx val="89893504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2530,7 +2548,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2725,6 +2743,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2734,7 +2755,7 @@
               <c:f>'model4(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2928,6 +2949,9 @@
                   <c:v>800.1080953813339</c:v>
                 </c:pt>
                 <c:pt idx="64">
+                  <c:v>800.1080953813339</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>800.1080953813339</c:v>
                 </c:pt>
               </c:numCache>
@@ -2971,7 +2995,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3166,6 +3190,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3175,7 +3202,7 @@
               <c:f>'model4(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3370,6 +3397,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>1114.2339655262315</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1112.5773962371325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3412,7 +3442,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3607,6 +3637,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3616,7 +3649,7 @@
               <c:f>'model4(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3811,6 +3844,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>314.12587014489759</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>312.46930085579856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3832,11 +3868,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="561941120"/>
-        <c:axId val="567492992"/>
+        <c:axId val="535581824"/>
+        <c:axId val="535583744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="561941120"/>
+        <c:axId val="535581824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3879,14 +3915,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567492992"/>
+        <c:crossAx val="535583744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="567492992"/>
+        <c:axId val="535583744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3935,7 +3971,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561941120"/>
+        <c:crossAx val="535581824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4132,7 +4168,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4327,6 +4363,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4336,7 +4375,7 @@
               <c:f>'model4(3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4530,6 +4569,9 @@
                   <c:v>173.99021895188429</c:v>
                 </c:pt>
                 <c:pt idx="64">
+                  <c:v>173.99021895188429</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>173.99021895188429</c:v>
                 </c:pt>
               </c:numCache>
@@ -4573,7 +4615,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4768,6 +4810,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4777,7 +4822,7 @@
               <c:f>'model4(3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4972,6 +5017,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>251.77521983437924</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>251.28851308538498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5014,7 +5062,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5209,6 +5257,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5218,7 +5269,7 @@
               <c:f>'model4(3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5413,6 +5464,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>77.785000882494955</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>77.29829413350069</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5434,11 +5488,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="568449280"/>
-        <c:axId val="568455168"/>
+        <c:axId val="97701888"/>
+        <c:axId val="97703424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="568449280"/>
+        <c:axId val="97701888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5481,14 +5535,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568455168"/>
+        <c:crossAx val="97703424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="568455168"/>
+        <c:axId val="97703424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5537,7 +5591,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568449280"/>
+        <c:crossAx val="97701888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6044,7 +6098,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF80"/>
+  <dimension ref="A1:AF81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9327,6 +9381,41 @@
         <v>720.4747421369733</v>
       </c>
     </row>
+    <row r="81" spans="1:11" ht="12.75">
+      <c r="A81" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B81" s="25">
+        <v>1.25305</v>
+      </c>
+      <c r="C81" s="20">
+        <v>1.0455482644628087</v>
+      </c>
+      <c r="D81" s="21">
+        <v>0</v>
+      </c>
+      <c r="E81" s="22">
+        <v>0</v>
+      </c>
+      <c r="F81" s="22">
+        <v>0</v>
+      </c>
+      <c r="G81" s="22">
+        <v>0</v>
+      </c>
+      <c r="H81" s="22">
+        <v>478.14314005402412</v>
+      </c>
+      <c r="I81" s="22">
+        <v>720.4747421369733</v>
+      </c>
+      <c r="J81" s="22">
+        <v>242.33160208294919</v>
+      </c>
+      <c r="K81" s="21">
+        <v>720.4747421369733</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -9343,7 +9432,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF68"/>
+  <dimension ref="A1:AF69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12104,6 +12193,41 @@
         <v>756.52865735110584</v>
       </c>
     </row>
+    <row r="69" spans="1:11" ht="12.75">
+      <c r="A69" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B69" s="25">
+        <v>1.25305</v>
+      </c>
+      <c r="C69" s="20">
+        <v>1.1386268800000001</v>
+      </c>
+      <c r="D69" s="21">
+        <v>-20.293608105328275</v>
+      </c>
+      <c r="E69" s="22">
+        <v>-16.195369781994554</v>
+      </c>
+      <c r="F69" s="22">
+        <v>267.95030587821583</v>
+      </c>
+      <c r="G69" s="22">
+        <v>335.75513078069832</v>
+      </c>
+      <c r="H69" s="22">
+        <v>800.1080953813339</v>
+      </c>
+      <c r="I69" s="22">
+        <v>1112.5773962371325</v>
+      </c>
+      <c r="J69" s="22">
+        <v>312.46930085579856</v>
+      </c>
+      <c r="K69" s="21">
+        <v>776.82226545643414</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -12120,10 +12244,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AF68"/>
+  <dimension ref="A1:AF69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C10" sqref="C10"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
@@ -14881,6 +15005,41 @@
         <v>146.67995531055763</v>
       </c>
     </row>
+    <row r="69" spans="1:11" ht="12.75">
+      <c r="A69" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B69" s="25">
+        <v>1.25305</v>
+      </c>
+      <c r="C69" s="20">
+        <v>1.1386268800000001</v>
+      </c>
+      <c r="D69" s="21">
+        <v>-2.3220579554689471</v>
+      </c>
+      <c r="E69" s="22">
+        <v>-1.8531247400095345</v>
+      </c>
+      <c r="F69" s="22">
+        <v>81.630022600341889</v>
+      </c>
+      <c r="G69" s="22">
+        <v>102.2864998193584</v>
+      </c>
+      <c r="H69" s="22">
+        <v>173.99021895188429</v>
+      </c>
+      <c r="I69" s="22">
+        <v>251.28851308538498</v>
+      </c>
+      <c r="J69" s="22">
+        <v>77.29829413350069</v>
+      </c>
+      <c r="K69" s="21">
+        <v>149.00201326602658</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
@@ -715,7 +715,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -949,6 +949,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -958,7 +961,7 @@
               <c:f>'model4(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1191,6 +1194,9 @@
                   <c:v>478.14314005402412</c:v>
                 </c:pt>
                 <c:pt idx="77">
+                  <c:v>478.14314005402412</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>478.14314005402412</c:v>
                 </c:pt>
               </c:numCache>
@@ -1234,7 +1240,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1468,6 +1474,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1477,7 +1486,7 @@
               <c:f>'model4(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1707,6 +1716,9 @@
                   <c:v>720.4747421369733</c:v>
                 </c:pt>
                 <c:pt idx="77">
+                  <c:v>720.4747421369733</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>720.4747421369733</c:v>
                 </c:pt>
               </c:numCache>
@@ -1750,7 +1762,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1984,6 +1996,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1993,7 +2008,7 @@
               <c:f>'model4(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2226,6 +2241,9 @@
                   <c:v>242.33160208294919</c:v>
                 </c:pt>
                 <c:pt idx="77">
+                  <c:v>242.33160208294919</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>242.33160208294919</c:v>
                 </c:pt>
               </c:numCache>
@@ -2248,11 +2266,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89893504"/>
-        <c:axId val="90329856"/>
+        <c:axId val="429628800"/>
+        <c:axId val="429765760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="89893504"/>
+        <c:axId val="429628800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2295,14 +2313,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90329856"/>
+        <c:crossAx val="429765760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="90329856"/>
+        <c:axId val="429765760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2351,7 +2369,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89893504"/>
+        <c:crossAx val="429628800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2548,7 +2566,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2746,6 +2764,9 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2755,7 +2776,7 @@
               <c:f>'model4(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2952,6 +2973,9 @@
                   <c:v>800.1080953813339</c:v>
                 </c:pt>
                 <c:pt idx="65">
+                  <c:v>800.1080953813339</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>800.1080953813339</c:v>
                 </c:pt>
               </c:numCache>
@@ -2995,7 +3019,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3193,6 +3217,9 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3202,7 +3229,7 @@
               <c:f>'model4(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3400,6 +3427,9 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>1112.5773962371325</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1106.8298621760446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3442,7 +3472,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3640,6 +3670,9 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3649,7 +3682,7 @@
               <c:f>'model4(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3847,6 +3880,9 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>312.46930085579856</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>306.72176679471067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3868,11 +3904,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="535581824"/>
-        <c:axId val="535583744"/>
+        <c:axId val="453794816"/>
+        <c:axId val="517657728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="535581824"/>
+        <c:axId val="453794816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3915,14 +3951,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="535583744"/>
+        <c:crossAx val="517657728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="535583744"/>
+        <c:axId val="517657728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3971,7 +4007,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="535581824"/>
+        <c:crossAx val="453794816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4168,7 +4204,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4366,6 +4402,9 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4375,7 +4414,7 @@
               <c:f>'model4(3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4572,6 +4611,9 @@
                   <c:v>173.99021895188429</c:v>
                 </c:pt>
                 <c:pt idx="65">
+                  <c:v>173.99021895188429</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>173.99021895188429</c:v>
                 </c:pt>
               </c:numCache>
@@ -4615,7 +4657,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4813,6 +4855,9 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4822,7 +4867,7 @@
               <c:f>'model4(3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5020,6 +5065,9 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>251.28851308538498</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>249.53754910060766</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5062,7 +5110,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5260,6 +5308,9 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5269,7 +5320,7 @@
               <c:f>'model4(3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5467,6 +5518,9 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>77.29829413350069</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>75.547330148723375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5488,11 +5542,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97701888"/>
-        <c:axId val="97703424"/>
+        <c:axId val="91553792"/>
+        <c:axId val="91555328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="97701888"/>
+        <c:axId val="91553792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5535,14 +5589,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97703424"/>
+        <c:crossAx val="91555328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="97703424"/>
+        <c:axId val="91555328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5591,7 +5645,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97701888"/>
+        <c:crossAx val="91553792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5699,7 +5753,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5742,7 +5796,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5785,7 +5839,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6098,7 +6152,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF81"/>
+  <dimension ref="A1:AF82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9416,6 +9470,41 @@
         <v>720.4747421369733</v>
       </c>
     </row>
+    <row r="82" spans="1:11" ht="12.75">
+      <c r="A82" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B82" s="25">
+        <v>1.2315999999999998</v>
+      </c>
+      <c r="C82" s="20">
+        <v>1.0475409711779438</v>
+      </c>
+      <c r="D82" s="21">
+        <v>0</v>
+      </c>
+      <c r="E82" s="22">
+        <v>0</v>
+      </c>
+      <c r="F82" s="22">
+        <v>0</v>
+      </c>
+      <c r="G82" s="22">
+        <v>0</v>
+      </c>
+      <c r="H82" s="22">
+        <v>478.14314005402412</v>
+      </c>
+      <c r="I82" s="22">
+        <v>720.4747421369733</v>
+      </c>
+      <c r="J82" s="22">
+        <v>242.33160208294919</v>
+      </c>
+      <c r="K82" s="21">
+        <v>720.4747421369733</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -9432,7 +9521,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF69"/>
+  <dimension ref="A1:AF70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12228,6 +12317,41 @@
         <v>776.82226545643414</v>
       </c>
     </row>
+    <row r="70" spans="1:11" ht="12.75">
+      <c r="A70" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B70" s="25">
+        <v>1.2315999999999998</v>
+      </c>
+      <c r="C70" s="20">
+        <v>1.1595792</v>
+      </c>
+      <c r="D70" s="21">
+        <v>-8.0398432305919485</v>
+      </c>
+      <c r="E70" s="22">
+        <v>-6.527966247638803</v>
+      </c>
+      <c r="F70" s="22">
+        <v>261.42233963057703</v>
+      </c>
+      <c r="G70" s="22">
+        <v>321.96775348901861</v>
+      </c>
+      <c r="H70" s="22">
+        <v>800.1080953813339</v>
+      </c>
+      <c r="I70" s="22">
+        <v>1106.8298621760446</v>
+      </c>
+      <c r="J70" s="22">
+        <v>306.72176679471067</v>
+      </c>
+      <c r="K70" s="21">
+        <v>784.86210868702608</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -12244,7 +12368,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AF69"/>
+  <dimension ref="A1:AF70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15040,6 +15164,41 @@
         <v>149.00201326602658</v>
       </c>
     </row>
+    <row r="70" spans="1:11" ht="12.75">
+      <c r="A70" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B70" s="25">
+        <v>1.2315999999999998</v>
+      </c>
+      <c r="C70" s="20">
+        <v>1.1595792</v>
+      </c>
+      <c r="D70" s="21">
+        <v>-0.5790359413418148</v>
+      </c>
+      <c r="E70" s="22">
+        <v>-0.47014935152794324</v>
+      </c>
+      <c r="F70" s="22">
+        <v>81.159873248813952</v>
+      </c>
+      <c r="G70" s="22">
+        <v>99.956499893239254</v>
+      </c>
+      <c r="H70" s="22">
+        <v>173.99021895188429</v>
+      </c>
+      <c r="I70" s="22">
+        <v>249.53754910060766</v>
+      </c>
+      <c r="J70" s="22">
+        <v>75.547330148723375</v>
+      </c>
+      <c r="K70" s="21">
+        <v>149.58104920736841</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
@@ -715,7 +715,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -952,6 +952,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -961,7 +964,7 @@
               <c:f>'model4(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1029,175 +1032,178 @@
                   <c:v>273.53000271347906</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>325.03320494363652</c:v>
+                  <c:v>325.38695714961136</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>325.03694240160678</c:v>
+                  <c:v>325.38909799295487</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>325.03694240160678</c:v>
+                  <c:v>325.38909799295487</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>325.03694240160678</c:v>
+                  <c:v>325.38909799295487</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>325.04287967871653</c:v>
+                  <c:v>325.39311049113576</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>387.47014939532522</c:v>
+                  <c:v>387.6217777903621</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>411.14609660028157</c:v>
+                  <c:v>411.17943913804055</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>413.38597872647875</c:v>
+                  <c:v>413.38399657560086</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>413.74379588160713</c:v>
+                  <c:v>413.72808880469648</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>421.39124839514665</c:v>
+                  <c:v>421.31276487356826</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>464.78345852637074</c:v>
+                  <c:v>464.55935255264319</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>469.54723818955296</c:v>
+                  <c:v>469.27597018464593</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>471.00666055822069</c:v>
+                  <c:v>470.70980436236283</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>478.14314005402412</c:v>
+                  <c:v>477.7906842909785</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>478.14314005402412</c:v>
+                  <c:v>477.7906842909785</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>478.14314005402412</c:v>
+                  <c:v>477.7906842909785</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>478.14314005402412</c:v>
+                  <c:v>477.7906842909785</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>478.14314005402412</c:v>
+                  <c:v>477.7906842909785</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>478.14314005402412</c:v>
+                  <c:v>477.7906842909785</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>478.14314005402412</c:v>
+                  <c:v>477.7906842909785</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>478.14314005402412</c:v>
+                  <c:v>477.7906842909785</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>478.14314005402412</c:v>
+                  <c:v>477.7906842909785</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>478.14314005402412</c:v>
+                  <c:v>477.7906842909785</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>477.7906842909785</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1240,7 +1246,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1477,6 +1483,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1486,7 +1495,7 @@
               <c:f>'model4(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1554,172 +1563,175 @@
                   <c:v>256.81815366368033</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>309.79590940520603</c:v>
+                  <c:v>309.78371402441792</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>387.30485714265319</c:v>
+                  <c:v>387.84865603416119</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>426.13827423863478</c:v>
+                  <c:v>426.7387908059535</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>411.33334314574387</c:v>
+                  <c:v>411.9152166953026</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>391.53453113167387</c:v>
+                  <c:v>392.09197566567309</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>401.48531172885009</c:v>
+                  <c:v>402.05401033300228</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>403.53685128271212</c:v>
+                  <c:v>404.10774833232256</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>416.62627955681558</c:v>
+                  <c:v>417.21032433637623</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>431.04889375728624</c:v>
+                  <c:v>431.64547494630381</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>436.57932102337048</c:v>
+                  <c:v>437.17958728329086</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>438.46356348935939</c:v>
+                  <c:v>439.06463646461111</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>461.89394834371285</c:v>
+                  <c:v>462.4989477732662</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>493.58436391760927</c:v>
+                  <c:v>494.18044192296361</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>511.22758584306769</c:v>
+                  <c:v>511.80074417233186</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>494.4146027656252</c:v>
+                  <c:v>495.06942687390398</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>499.79048268794531</c:v>
+                  <c:v>500.39541038362876</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>499.59426954009558</c:v>
+                  <c:v>500.21251916564194</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>562.02153925670427</c:v>
+                  <c:v>562.44118646486822</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>591.30745897412828</c:v>
+                  <c:v>591.59097309082517</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>602.06969442324657</c:v>
+                  <c:v>602.28677890016763</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>604.70320312796184</c:v>
+                  <c:v>604.89765392692493</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>606.62434809210959</c:v>
+                  <c:v>606.77911089699853</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>638.99273958437857</c:v>
+                  <c:v>639.04961786949764</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>661.72179571132949</c:v>
+                  <c:v>661.6591640311317</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>667.27633562275685</c:v>
+                  <c:v>667.17091762957727</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>668.05173961811045</c:v>
+                  <c:v>667.91817463193593</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>689.98547117466865</c:v>
+                  <c:v>689.75401738685093</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>705.03246830434284</c:v>
+                  <c:v>704.7283116702439</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>723.89175466506435</c:v>
+                  <c:v>723.46658595462122</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>719.80874077677595</c:v>
+                  <c:v>719.46109753752114</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>720.4747421369733</c:v>
+                  <c:v>720.0405566801802</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>720.4747421369733</c:v>
+                  <c:v>720.0405566801802</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>720.4747421369733</c:v>
+                  <c:v>720.0405566801802</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>720.4747421369733</c:v>
+                  <c:v>720.0405566801802</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>720.0405566801802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1762,7 +1774,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1999,6 +2011,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2008,7 +2023,7 @@
               <c:f>'model4(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2076,175 +2091,178 @@
                   <c:v>-16.71184904979873</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-15.237295538430487</c:v>
+                  <c:v>-15.603243125193444</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>62.267914741046411</c:v>
+                  <c:v>62.459558041206321</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>101.101331837028</c:v>
+                  <c:v>101.34969281299863</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>86.296400744137088</c:v>
+                  <c:v>86.526118702347731</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>66.491651452957342</c:v>
+                  <c:v>66.698865174537332</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>76.442432050133561</c:v>
+                  <c:v>76.660899841866524</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>78.49397160399559</c:v>
+                  <c:v>78.7146378411868</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>91.583399878099044</c:v>
+                  <c:v>91.817213845240474</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>106.00601407856971</c:v>
+                  <c:v>106.25236445516805</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>111.53644134465395</c:v>
+                  <c:v>111.7864767921551</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>113.42068381064286</c:v>
+                  <c:v>113.67152597347535</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>136.85106866499632</c:v>
+                  <c:v>137.10583728213044</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>168.54148423889274</c:v>
+                  <c:v>168.78733143182785</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>186.18470616435116</c:v>
+                  <c:v>186.4076336811961</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>169.37172308690867</c:v>
+                  <c:v>169.67631638276822</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>174.74760300922878</c:v>
+                  <c:v>175.002299892493</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450618</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>174.55138986137905</c:v>
+                  <c:v>174.81940867450612</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>180.16136237384671</c:v>
+                  <c:v>180.41153395278462</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>188.68371569676782</c:v>
+                  <c:v>188.90278232456677</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>190.95940724635471</c:v>
+                  <c:v>191.16956512222845</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>185.23309969696294</c:v>
+                  <c:v>185.46634602343028</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>174.20928105800783</c:v>
+                  <c:v>174.49026531685445</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>192.17455752177653</c:v>
+                  <c:v>192.38319384648577</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>196.26967506453616</c:v>
+                  <c:v>196.46111326721444</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>189.90859956408633</c:v>
+                  <c:v>190.12749034095742</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>211.84233112064453</c:v>
+                  <c:v>211.96333309587243</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>226.88932825031873</c:v>
+                  <c:v>226.93762737926539</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>245.74861461104024</c:v>
+                  <c:v>245.67590166364272</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>241.66560072275183</c:v>
+                  <c:v>241.67041324654264</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>242.33160208294919</c:v>
+                  <c:v>242.2498723892017</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>242.33160208294919</c:v>
+                  <c:v>242.2498723892017</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>242.33160208294919</c:v>
+                  <c:v>242.2498723892017</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>242.33160208294919</c:v>
+                  <c:v>242.2498723892017</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>242.33160208294919</c:v>
+                  <c:v>242.2498723892017</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>242.2498723892017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2266,11 +2284,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="429628800"/>
-        <c:axId val="429765760"/>
+        <c:axId val="40718336"/>
+        <c:axId val="40751104"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="429628800"/>
+        <c:axId val="40718336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2313,14 +2331,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429765760"/>
+        <c:crossAx val="40751104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="429765760"/>
+        <c:axId val="40751104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2369,7 +2387,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429628800"/>
+        <c:crossAx val="40718336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2566,7 +2584,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2767,6 +2785,9 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2776,7 +2797,7 @@
               <c:f>'model4(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2808,175 +2829,178 @@
                   <c:v>185.03707217220185</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>209.14011370667839</c:v>
+                  <c:v>209.1825781335356</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>209.14866921123638</c:v>
+                  <c:v>209.19113363809359</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>209.22253831117848</c:v>
+                  <c:v>209.26500273803569</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>220.2192914171483</c:v>
+                  <c:v>220.26175584400551</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>227.18319121653508</c:v>
+                  <c:v>227.22565564339229</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>227.18319121653508</c:v>
+                  <c:v>227.22565564339229</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>227.18319121653508</c:v>
+                  <c:v>227.22565564339229</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>227.18319121653508</c:v>
+                  <c:v>227.22565564339229</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>228.92924822760713</c:v>
+                  <c:v>228.97171265446434</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>231.54125890759914</c:v>
+                  <c:v>231.58372333445635</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>234.48667653762507</c:v>
+                  <c:v>234.52914096448228</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>234.52221079453955</c:v>
+                  <c:v>234.56467522139675</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>234.52221079453955</c:v>
+                  <c:v>234.56467522139675</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>258.65405290100887</c:v>
+                  <c:v>258.510591972295</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>267.61133928691748</c:v>
+                  <c:v>267.32609642104512</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>311.10731294066159</c:v>
+                  <c:v>310.83507438003988</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>517.61497925690787</c:v>
+                  <c:v>517.18453863087416</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>628.13163606858564</c:v>
+                  <c:v>627.54367730117099</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>666.5000436490476</c:v>
+                  <c:v>665.65594637804895</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>684.47587167623954</c:v>
+                  <c:v>683.42686226068815</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>714.17304275173694</c:v>
+                  <c:v>712.97388590161097</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>783.02887270848282</c:v>
+                  <c:v>781.66787723058087</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>793.37919744907413</c:v>
+                  <c:v>791.96993467838092</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>795.66633228391186</c:v>
+                  <c:v>794.21786136695403</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>800.1080953813339</c:v>
+                  <c:v>798.60485211015759</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>800.1080953813339</c:v>
+                  <c:v>798.60485211015759</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>800.1080953813339</c:v>
+                  <c:v>798.60485211015759</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>800.1080953813339</c:v>
+                  <c:v>798.60485211015759</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>800.1080953813339</c:v>
+                  <c:v>798.60485211015759</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>800.1080953813339</c:v>
+                  <c:v>798.60485211015759</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>800.1080953813339</c:v>
+                  <c:v>798.60485211015759</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>800.1080953813339</c:v>
+                  <c:v>798.60485211015759</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>800.1080953813339</c:v>
+                  <c:v>798.60485211015759</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>800.1080953813339</c:v>
+                  <c:v>798.60485211015759</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>798.60485211015759</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3019,7 +3043,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3220,6 +3244,9 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3229,7 +3256,7 @@
               <c:f>'model4(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3261,175 +3288,178 @@
                   <c:v>171.9813844465306</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>197.13303073129683</c:v>
+                  <c:v>196.91525748289962</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>248.95751656724673</c:v>
+                  <c:v>249.05707537096129</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>274.38269269244358</c:v>
+                  <c:v>274.48364641468703</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>265.58456781765511</c:v>
+                  <c:v>265.70210089456555</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>254.58947795469115</c:v>
+                  <c:v>254.74613552258083</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>259.95239430549697</c:v>
+                  <c:v>260.08400534442558</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>260.99530380742254</c:v>
+                  <c:v>261.12110816488894</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>267.28517398517306</c:v>
+                  <c:v>267.36856417233184</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>273.62326650780085</c:v>
+                  <c:v>273.65872081695909</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>275.77655232235537</c:v>
+                  <c:v>275.79407041892637</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>276.42499673857697</c:v>
+                  <c:v>276.43745264844472</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>283.78575995833921</c:v>
+                  <c:v>283.73492233354239</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>292.11173157417034</c:v>
+                  <c:v>291.99306209889534</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>294.16875843451413</c:v>
+                  <c:v>294.02335070053988</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>294.16875843451413</c:v>
+                  <c:v>294.02335070053988</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>294.16875843451413</c:v>
+                  <c:v>294.02335070053988</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>294.16875843451413</c:v>
+                  <c:v>294.02335070053988</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>294.16875843451413</c:v>
+                  <c:v>294.02335070053988</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>294.16875843451413</c:v>
+                  <c:v>294.02335070053988</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>294.16875843451413</c:v>
+                  <c:v>294.02335070053988</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>294.16875843451413</c:v>
+                  <c:v>294.02335070053988</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>294.16875843451413</c:v>
+                  <c:v>294.02335070053988</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>294.16875843451413</c:v>
+                  <c:v>294.02335070053988</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>294.16875843451413</c:v>
+                  <c:v>294.02335070053988</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>294.17731393907212</c:v>
+                  <c:v>294.03190620509787</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>294.25119804139393</c:v>
+                  <c:v>294.10579030741968</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>305.24245947398606</c:v>
+                  <c:v>305.09705174001181</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>312.42542349205377</c:v>
+                  <c:v>312.28001575807951</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>313.69907954345859</c:v>
+                  <c:v>313.55367180948434</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>314.83349500880718</c:v>
+                  <c:v>314.68808727483292</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>314.39624236642305</c:v>
+                  <c:v>314.2508346324488</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>315.61043479806125</c:v>
+                  <c:v>315.465027064087</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>318.09067799408388</c:v>
+                  <c:v>317.94527026010962</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>320.96365573289745</c:v>
+                  <c:v>320.8182479989232</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>321.50587447367957</c:v>
+                  <c:v>321.36046673970532</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>321.80638751270993</c:v>
+                  <c:v>321.66097977873568</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>343.98629931715521</c:v>
+                  <c:v>343.65496622760992</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>354.38794492595275</c:v>
+                  <c:v>353.90796541112189</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>393.37270917334888</c:v>
+                  <c:v>392.93621163834564</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>581.69029424457608</c:v>
+                  <c:v>581.15541980601915</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>717.08355487892106</c:v>
+                  <c:v>716.35616321097018</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>793.75688203213667</c:v>
+                  <c:v>792.71927160514224</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>822.58961131345916</c:v>
+                  <c:v>821.3272754244133</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>824.08131654938677</c:v>
+                  <c:v>822.72968318312189</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>839.45929196710279</c:v>
+                  <c:v>838.07005806377356</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>918.7065132587428</c:v>
+                  <c:v>917.10871130036696</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>936.49842022788368</c:v>
+                  <c:v>934.82472464972864</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>916.97898329904501</c:v>
+                  <c:v>915.30849147938511</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>996.67820228590813</c:v>
+                  <c:v>994.80913936743536</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1051.9175519619439</c:v>
+                  <c:v>1049.9051071093913</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1128.8889399828101</c:v>
+                  <c:v>1126.6633509874846</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1094.4167426984752</c:v>
+                  <c:v>1092.3065196049665</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1125.1977572215014</c:v>
+                  <c:v>1122.9726095522383</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1133.1773505742453</c:v>
+                  <c:v>1130.9168804745734</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1114.2339655262315</c:v>
+                  <c:v>1112.0739379693</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1112.5773962371325</c:v>
+                  <c:v>1110.4268980540689</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1106.8298621760446</c:v>
+                  <c:v>1104.7144248968345</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1100.1291702505141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3472,7 +3502,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3673,6 +3703,9 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3682,7 +3715,7 @@
               <c:f>'model4(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3714,175 +3747,178 @@
                   <c:v>-13.055687725671248</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-12.007082975381564</c:v>
+                  <c:v>-12.26732065063598</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39.817402860568336</c:v>
+                  <c:v>39.874497237425686</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65.242578985765192</c:v>
+                  <c:v>65.30106828115143</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>56.444454110976721</c:v>
+                  <c:v>56.519522761029947</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45.449364248012756</c:v>
+                  <c:v>45.563557389045229</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>50.812280598818575</c:v>
+                  <c:v>50.901427210889977</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>51.855190100744153</c:v>
+                  <c:v>51.938530031353338</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>58.145060278494668</c:v>
+                  <c:v>58.185986038796244</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>64.483152801122458</c:v>
+                  <c:v>64.47614268342349</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>66.63643861567698</c:v>
+                  <c:v>66.611492285390767</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>67.284883031898573</c:v>
+                  <c:v>67.254874514909119</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>74.645646251660821</c:v>
+                  <c:v>74.552344200006786</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>82.971617867491943</c:v>
+                  <c:v>82.810483965359737</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>85.02864472783574</c:v>
+                  <c:v>84.840772567004279</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>85.02864472783574</c:v>
+                  <c:v>84.840772567004279</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>85.02864472783574</c:v>
+                  <c:v>84.840772567004279</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>85.02864472783574</c:v>
+                  <c:v>84.840772567004279</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>85.02864472783574</c:v>
+                  <c:v>84.840772567004279</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>85.02864472783574</c:v>
+                  <c:v>84.840772567004279</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>85.02864472783574</c:v>
+                  <c:v>84.840772567004279</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>85.02864472783574</c:v>
+                  <c:v>84.840772567004279</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>85.02864472783574</c:v>
+                  <c:v>84.840772567004279</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>85.02864472783574</c:v>
+                  <c:v>84.840772567004279</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>85.02864472783574</c:v>
+                  <c:v>84.840772567004279</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>85.02864472783574</c:v>
+                  <c:v>84.840772567004279</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>85.028659730215452</c:v>
+                  <c:v>84.840787569383991</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>85.023168056837761</c:v>
+                  <c:v>84.835295896006301</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>85.242232275518688</c:v>
+                  <c:v>85.054360114687228</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>86.515888326923516</c:v>
+                  <c:v>86.328016166092056</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>87.650303792272098</c:v>
+                  <c:v>87.462431631440637</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>87.213051149887974</c:v>
+                  <c:v>87.025178989056514</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>86.681186570454116</c:v>
+                  <c:v>86.493314409622656</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>86.549419086484733</c:v>
+                  <c:v>86.361546925653272</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>86.476979195272378</c:v>
+                  <c:v>86.289107034440917</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>86.983663679140022</c:v>
+                  <c:v>86.795791518308562</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>87.284176718170386</c:v>
+                  <c:v>87.096304557338925</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>85.332246416146347</c:v>
+                  <c:v>85.144374255314915</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>86.776605639035267</c:v>
+                  <c:v>86.581868990076771</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>82.265396232687294</c:v>
+                  <c:v>82.101137258305755</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>64.075314987668207</c:v>
+                  <c:v>63.970881175144996</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>88.951918810335428</c:v>
+                  <c:v>88.812485909799193</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>127.25683838308908</c:v>
+                  <c:v>127.06332522709329</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>138.11373963721962</c:v>
+                  <c:v>137.90041316372515</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>109.90827379764983</c:v>
+                  <c:v>109.75579728151092</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>56.430419258619963</c:v>
+                  <c:v>56.402180833192688</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>125.32731580966868</c:v>
+                  <c:v>125.13877662198604</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>140.83208794397183</c:v>
+                  <c:v>140.60686328277461</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>116.87088791771112</c:v>
+                  <c:v>116.70363936922752</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>196.57010690457423</c:v>
+                  <c:v>196.20428725727777</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>251.80945658061</c:v>
+                  <c:v>251.30025499923374</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>328.78084460147625</c:v>
+                  <c:v>328.058498877327</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>294.30864731714132</c:v>
+                  <c:v>293.70166749480893</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>325.08966184016754</c:v>
+                  <c:v>324.36775744208069</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>333.06925519291144</c:v>
+                  <c:v>332.31202836441582</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>314.12587014489759</c:v>
+                  <c:v>313.46908585914241</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>312.46930085579856</c:v>
+                  <c:v>311.82204594391135</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>306.72176679471067</c:v>
+                  <c:v>306.10957278667695</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>301.52431814035651</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3904,11 +3940,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="453794816"/>
-        <c:axId val="517657728"/>
+        <c:axId val="444489088"/>
+        <c:axId val="447552128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="453794816"/>
+        <c:axId val="444489088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3951,14 +3987,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517657728"/>
+        <c:crossAx val="447552128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="517657728"/>
+        <c:axId val="447552128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4007,7 +4043,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453794816"/>
+        <c:crossAx val="444489088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4204,7 +4240,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4405,6 +4441,9 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4414,7 +4453,7 @@
               <c:f>'model4(3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4446,175 +4485,178 @@
                   <c:v>25.663806972387135</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>28.66948131889956</c:v>
+                  <c:v>28.677427853646215</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>28.669501419201968</c:v>
+                  <c:v>28.677447953948622</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>28.670011370101271</c:v>
+                  <c:v>28.677957904847926</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>29.596267004476857</c:v>
+                  <c:v>29.604213539223512</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>30.063047737126023</c:v>
+                  <c:v>30.070994271872678</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>30.063047737126023</c:v>
+                  <c:v>30.070994271872678</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>30.063047737126023</c:v>
+                  <c:v>30.070994271872678</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>30.063047737126023</c:v>
+                  <c:v>30.070994271872678</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>30.121650997800039</c:v>
+                  <c:v>30.129597532546693</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>30.228876125822254</c:v>
+                  <c:v>30.236822660568908</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>30.357273006783753</c:v>
+                  <c:v>30.365219541530408</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>30.357443146227229</c:v>
+                  <c:v>30.365389680973884</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>30.357443146227229</c:v>
+                  <c:v>30.365389680973884</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>33.368506293619845</c:v>
+                  <c:v>33.341721541936707</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>34.049430605681692</c:v>
+                  <c:v>34.006542809939198</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>41.335742144558075</c:v>
+                  <c:v>41.296122254786006</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>116.71266763039853</c:v>
+                  <c:v>116.58644683103796</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>146.2231126755604</c:v>
+                  <c:v>146.03382300690384</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>152.25974622751653</c:v>
+                  <c:v>152.01010882894948</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>154.19557752842726</c:v>
+                  <c:v>153.91293391210289</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>158.30619223914755</c:v>
+                  <c:v>157.99241346206267</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>172.81879229900457</c:v>
+                  <c:v>172.45387801215671</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>173.66458730175353</c:v>
+                  <c:v>173.29376354764605</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>173.75244337810571</c:v>
+                  <c:v>173.37937017080512</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>173.99021895188429</c:v>
+                  <c:v>173.61276123697687</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>173.99021895188429</c:v>
+                  <c:v>173.61276123697687</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>173.99021895188429</c:v>
+                  <c:v>173.61276123697687</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>173.99021895188429</c:v>
+                  <c:v>173.61276123697687</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>173.99021895188429</c:v>
+                  <c:v>173.61276123697687</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>173.99021895188429</c:v>
+                  <c:v>173.61276123697687</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>173.99021895188429</c:v>
+                  <c:v>173.61276123697687</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>173.99021895188429</c:v>
+                  <c:v>173.61276123697687</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>173.99021895188429</c:v>
+                  <c:v>173.61276123697687</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>173.99021895188429</c:v>
+                  <c:v>173.61276123697687</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>173.61276123697687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4657,7 +4699,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4858,6 +4900,9 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4867,7 +4912,7 @@
               <c:f>'model4(3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4899,175 +4944,178 @@
                   <c:v>24.232998752585281</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.386426518384923</c:v>
+                  <c:v>27.357704321337661</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.58606966258175</c:v>
+                  <c:v>34.601837938980289</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>38.162079489278284</c:v>
+                  <c:v>38.178709265279807</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36.926711743404724</c:v>
+                  <c:v>36.94667629580718</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>35.35127372036677</c:v>
+                  <c:v>35.378368760151886</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36.132891533045736</c:v>
+                  <c:v>36.155902092843739</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>36.288698573886833</c:v>
+                  <c:v>36.310782512884686</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>37.253475091367719</c:v>
+                  <c:v>37.268966545298241</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38.256758933844644</c:v>
+                  <c:v>38.26479591588182</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>38.609173101553345</c:v>
+                  <c:v>38.614453698874527</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>38.720176521530576</c:v>
+                  <c:v>38.724714594989976</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>40.052650673906498</c:v>
+                  <c:v>40.047918583279149</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41.675453476851665</c:v>
+                  <c:v>41.66246591697179</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42.027499187512902</c:v>
+                  <c:v>42.015733490645488</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42.027499187512902</c:v>
+                  <c:v>42.015733490645488</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42.027499187512902</c:v>
+                  <c:v>42.015733490645488</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42.027499187512902</c:v>
+                  <c:v>42.015733490645488</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42.027499187512902</c:v>
+                  <c:v>42.015733490645488</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42.027499187512902</c:v>
+                  <c:v>42.015733490645488</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42.027499187512902</c:v>
+                  <c:v>42.015733490645488</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>42.027499187512902</c:v>
+                  <c:v>42.015733490645488</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>42.027499187512902</c:v>
+                  <c:v>42.015733490645488</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>42.027499187512902</c:v>
+                  <c:v>42.015733490645488</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>42.027499187512902</c:v>
+                  <c:v>42.015733490645488</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>42.027519287815309</c:v>
+                  <c:v>42.015753590947895</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>42.028029273961202</c:v>
+                  <c:v>42.016263577093788</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>42.954249596891891</c:v>
+                  <c:v>42.942483900024477</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43.439363663050706</c:v>
+                  <c:v>43.427597966183292</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43.5378608270927</c:v>
+                  <c:v>43.526095130225286</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43.626411610413939</c:v>
+                  <c:v>43.614645913546525</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>43.591390241815077</c:v>
+                  <c:v>43.579624544947663</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43.604017099891436</c:v>
+                  <c:v>43.592251403024022</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43.700937483289422</c:v>
+                  <c:v>43.689171786422008</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43.824182934376665</c:v>
+                  <c:v>43.812417237509251</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43.857904626765503</c:v>
+                  <c:v>43.846138929898089</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>43.877765592769855</c:v>
+                  <c:v>43.865999895902441</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>46.757231213994338</c:v>
+                  <c:v>46.710734230697135</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47.586635453642039</c:v>
+                  <c:v>47.522753124027133</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>54.431047376239619</c:v>
+                  <c:v>54.375180495166894</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>127.40431668673457</c:v>
+                  <c:v>127.2709126299242</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>164.52343925219552</c:v>
+                  <c:v>164.31603540024796</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>181.87707840212593</c:v>
+                  <c:v>181.59114734694097</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>186.9028505543275</c:v>
+                  <c:v>186.57782483832852</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>183.15927273195547</c:v>
+                  <c:v>182.82017818011477</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>183.20860498880955</c:v>
+                  <c:v>182.8520889446236</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>202.15815463475377</c:v>
+                  <c:v>201.75129868373025</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>206.27280346284675</c:v>
+                  <c:v>205.85371862411347</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>200.30674170877987</c:v>
+                  <c:v>199.89872415090301</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>220.82303168082353</c:v>
+                  <c:v>220.36342079233245</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>235.19915748494455</c:v>
+                  <c:v>234.70275549347008</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>255.6827037041661</c:v>
+                  <c:v>255.13160996817459</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>246.69628114626209</c:v>
+                  <c:v>246.17478973640564</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>254.93539772849959</c:v>
+                  <c:v>254.3844172346171</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>257.11280601379377</c:v>
+                  <c:v>256.55276195703544</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>251.77521983437924</c:v>
+                  <c:v>251.24094884280933</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>251.28851308538498</c:v>
+                  <c:v>250.75668728454005</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>249.53754910060766</c:v>
+                  <c:v>249.01471975620359</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>247.5896506719719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5110,7 +5158,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5311,6 +5359,9 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5320,7 +5371,7 @@
               <c:f>'model4(3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5352,175 +5403,178 @@
                   <c:v>-1.4308082198018539</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.2830548005146376</c:v>
+                  <c:v>-1.3197235323085543</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.9165883436821893</c:v>
+                  <c:v>5.924410085334074</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.4925981703787237</c:v>
+                  <c:v>9.5012814116335917</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.2572304245051633</c:v>
+                  <c:v>8.2692484421609649</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.6817924014672094</c:v>
+                  <c:v>6.7009409065056715</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.463410214146176</c:v>
+                  <c:v>7.4784742391975243</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.619217254987273</c:v>
+                  <c:v>7.6333546592384707</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.5839937724681583</c:v>
+                  <c:v>8.5915386916520262</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.5872776149450836</c:v>
+                  <c:v>9.5873680622356048</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.9396917826537852</c:v>
+                  <c:v>9.9370258452283124</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.050695202631015</c:v>
+                  <c:v>10.047286741343761</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11.383169355006938</c:v>
+                  <c:v>11.370490729632934</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>13.005972157952105</c:v>
+                  <c:v>12.985038063325575</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>13.358017868613342</c:v>
+                  <c:v>13.338305636999273</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>13.358017868613342</c:v>
+                  <c:v>13.338305636999273</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>13.358017868613342</c:v>
+                  <c:v>13.338305636999273</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>13.358017868613342</c:v>
+                  <c:v>13.338305636999273</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>13.358017868613342</c:v>
+                  <c:v>13.338305636999273</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>13.358017868613342</c:v>
+                  <c:v>13.338305636999273</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>13.358017868613342</c:v>
+                  <c:v>13.338305636999273</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>13.358017868613342</c:v>
+                  <c:v>13.338305636999273</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>13.358017868613342</c:v>
+                  <c:v>13.338305636999273</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>13.358017868613342</c:v>
+                  <c:v>13.338305636999273</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>13.358017868613342</c:v>
+                  <c:v>13.338305636999273</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>13.358017868613342</c:v>
+                  <c:v>13.338305636999273</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>13.358017903859931</c:v>
+                  <c:v>13.338305672245863</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>13.357982592415034</c:v>
+                  <c:v>13.338270360800966</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>13.376315925924683</c:v>
+                  <c:v>13.356603694310614</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>13.474813089966677</c:v>
+                  <c:v>13.455100858352608</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>13.563363873287916</c:v>
+                  <c:v>13.543651641673847</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>13.528342504689054</c:v>
+                  <c:v>13.508630273074985</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>13.482366102091397</c:v>
+                  <c:v>13.462653870477329</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>13.472061357467169</c:v>
+                  <c:v>13.4523491258531</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>13.466909927592912</c:v>
+                  <c:v>13.447197695978844</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>13.500461480538274</c:v>
+                  <c:v>13.480749248924205</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>13.520322446542625</c:v>
+                  <c:v>13.500610214928557</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>13.388724920374493</c:v>
+                  <c:v>13.369012688760428</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>13.537204847960346</c:v>
+                  <c:v>13.516210314087935</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>13.095305231681543</c:v>
+                  <c:v>13.079058240380888</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>10.691649056336047</c:v>
+                  <c:v>10.684465798886237</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>18.300326576635115</c:v>
+                  <c:v>18.282212393344111</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>29.617332174609402</c:v>
+                  <c:v>29.581038517991487</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>32.707273025900236</c:v>
+                  <c:v>32.664890926225638</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>24.853080492807919</c:v>
+                  <c:v>24.827764718052094</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>10.389812689804984</c:v>
+                  <c:v>10.398210932466895</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>28.493567333000243</c:v>
+                  <c:v>28.457535136084203</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>32.520360084741043</c:v>
+                  <c:v>32.474348453308352</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>26.31652275689558</c:v>
+                  <c:v>26.285962913926141</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>46.832812728939246</c:v>
+                  <c:v>46.750659555355583</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>61.208938533060262</c:v>
+                  <c:v>61.089994256493213</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>81.692484752281814</c:v>
+                  <c:v>81.518848731197721</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>72.706062194377807</c:v>
+                  <c:v>72.562028499428777</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>80.945178776615307</c:v>
+                  <c:v>80.771655997640238</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>83.122587061909485</c:v>
+                  <c:v>82.940000720058578</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>77.785000882494955</c:v>
+                  <c:v>77.628187605832466</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>77.29829413350069</c:v>
+                  <c:v>77.143926047563184</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>75.547330148723375</c:v>
+                  <c:v>75.401958519226724</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>73.97688943499503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5542,11 +5596,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91553792"/>
-        <c:axId val="91555328"/>
+        <c:axId val="504782208"/>
+        <c:axId val="504784000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="91553792"/>
+        <c:axId val="504782208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5589,14 +5643,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91555328"/>
+        <c:crossAx val="504784000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="91555328"/>
+        <c:axId val="504784000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5645,7 +5699,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91553792"/>
+        <c:crossAx val="504782208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5753,7 +5807,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5796,7 +5850,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5839,7 +5893,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6152,7 +6206,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF82"/>
+  <dimension ref="A1:AF83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6522,22 +6576,22 @@
       </c>
       <c r="AB6" s="1">
         <f>VLOOKUP(AA6,O:P,2,)</f>
-        <v>51.512876965237467</v>
+        <v>51.863107777656694</v>
       </c>
       <c r="AC6" s="1">
         <f t="shared" si="3"/>
-        <v>-51.512876965237467</v>
+        <v>-51.863107777656694</v>
       </c>
       <c r="AD6" s="6">
         <v>43830</v>
       </c>
       <c r="AE6" s="7">
         <f>VLOOKUP(AD6,O:P,2,)</f>
-        <v>51.512876965237467</v>
+        <v>51.863107777656694</v>
       </c>
       <c r="AF6" s="7">
         <f t="shared" si="4"/>
-        <v>-51.512876965237467</v>
+        <v>-51.863107777656694</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="14.1" customHeight="1">
@@ -6579,25 +6633,25 @@
         <v>43830</v>
       </c>
       <c r="P7" s="10">
-        <v>51.512876965237467</v>
+        <v>51.863107777656694</v>
       </c>
       <c r="Q7" s="5">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="R7" s="5">
-        <v>461.89394834371285</v>
+        <v>462.4989477732662</v>
       </c>
       <c r="S7" s="5">
-        <v>136.85106866499632</v>
+        <v>137.10583728213044</v>
       </c>
       <c r="T7" s="5">
-        <v>116.59050896649936</v>
+        <v>117.2927175491765</v>
       </c>
       <c r="U7" s="9">
-        <v>0.421024662346902</v>
+        <v>0.42135445669144067</v>
       </c>
       <c r="V7" s="9">
-        <v>0.20122403369315078</v>
+        <v>0.20147159559258454</v>
       </c>
       <c r="Z7" s="8">
         <f>IRR(Z4:Z6)</f>
@@ -6607,7 +6661,7 @@
         <v>43830</v>
       </c>
       <c r="AC7" s="1">
-        <v>461.89394834371285</v>
+        <v>462.4989477732662</v>
       </c>
       <c r="AD7" s="6">
         <v>44196</v>
@@ -6663,32 +6717,32 @@
         <v>0</v>
       </c>
       <c r="Q8" s="5">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="R8" s="5">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="S8" s="5">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="T8" s="5">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="U8" s="9">
-        <v>0.53701034778522638</v>
+        <v>0.5372560236774544</v>
       </c>
       <c r="V8" s="9">
-        <v>0.1590053261392681</v>
+        <v>0.15912234163115446</v>
       </c>
       <c r="AC8" s="2">
         <f>IRR(AC4:AC7)</f>
-        <v>0.20122403369315078</v>
+        <v>0.20147159559258454</v>
       </c>
       <c r="AD8" s="6">
         <v>44196</v>
       </c>
       <c r="AF8" s="7">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="14.1" customHeight="1">
@@ -6733,26 +6787,26 @@
         <v>0</v>
       </c>
       <c r="Q9" s="5">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="R9" s="5">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="S9" s="5">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="T9" s="5">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="U9" s="9">
-        <v>0.53701034778522638</v>
+        <v>0.5372560236774544</v>
       </c>
       <c r="V9" s="9">
         <v>0.11623036743162096</v>
       </c>
       <c r="AF9" s="2">
         <f>IRR(AF4:AF8)</f>
-        <v>0.1590053261392681</v>
+        <v>0.15912234163115446</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="14.1" customHeight="1">
@@ -6794,22 +6848,22 @@
         <v>44925</v>
       </c>
       <c r="P10" s="10">
-        <v>153.10026037530758</v>
+        <v>152.39757379984275</v>
       </c>
       <c r="Q10" s="5">
-        <v>478.14314005402412</v>
+        <v>477.7906842909785</v>
       </c>
       <c r="R10" s="5">
-        <v>668.05173961811045</v>
+        <v>667.91817463193593</v>
       </c>
       <c r="S10" s="5">
-        <v>189.90859956408633</v>
+        <v>190.12749034095742</v>
       </c>
       <c r="T10" s="5">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="U10" s="9">
-        <v>0.39717938762569943</v>
+        <v>0.39793050930471513</v>
       </c>
       <c r="V10" s="9">
         <v>9.2107928430304797E-2</v>
@@ -7491,31 +7545,31 @@
         <v>43496</v>
       </c>
       <c r="B26" s="25">
-        <v>0.67819000000000007</v>
+        <v>0.67716999999999994</v>
       </c>
       <c r="C26" s="20">
-        <v>0.86047514038876904</v>
+        <v>0.86008008620689669</v>
       </c>
       <c r="D26" s="21">
-        <v>51.503202230157484</v>
+        <v>51.856954436132327</v>
       </c>
       <c r="E26" s="22">
-        <v>75.942143396625539</v>
+        <v>76.578930602555246</v>
       </c>
       <c r="F26" s="22">
-        <v>434.71428728182707</v>
+        <v>435.35107448775682</v>
       </c>
       <c r="G26" s="22">
-        <v>294.81888249166235</v>
+        <v>294.80668711087424</v>
       </c>
       <c r="H26" s="22">
-        <v>325.03320494363652</v>
+        <v>325.38695714961136</v>
       </c>
       <c r="I26" s="22">
-        <v>309.79590940520603</v>
+        <v>309.78371402441792</v>
       </c>
       <c r="J26" s="22">
-        <v>-15.237295538430487</v>
+        <v>-15.603243125193444</v>
       </c>
       <c r="K26" s="21">
         <v>14.977026913543675</v>
@@ -7530,28 +7584,28 @@
         <v>0.85648000000000002</v>
       </c>
       <c r="C27" s="20">
-        <v>0.8580328242677826</v>
+        <v>0.85765524008350746</v>
       </c>
       <c r="D27" s="21">
-        <v>3.7374579702524938E-3</v>
+        <v>2.1408433435180091E-3</v>
       </c>
       <c r="E27" s="22">
-        <v>4.3637422593084414E-3</v>
+        <v>2.4995835787385685E-3</v>
       </c>
       <c r="F27" s="22">
-        <v>434.7186510240864</v>
+        <v>435.35357407133557</v>
       </c>
       <c r="G27" s="22">
-        <v>372.32783022910951</v>
+        <v>372.87162912061751</v>
       </c>
       <c r="H27" s="22">
-        <v>325.03694240160678</v>
+        <v>325.38909799295487</v>
       </c>
       <c r="I27" s="22">
-        <v>387.30485714265319</v>
+        <v>387.84865603416119</v>
       </c>
       <c r="J27" s="22">
-        <v>62.267914741046411</v>
+        <v>62.459558041206321</v>
       </c>
       <c r="K27" s="21">
         <v>14.977026913543675</v>
@@ -7566,31 +7620,31 @@
         <v>0.94580999999999993</v>
       </c>
       <c r="C28" s="20">
-        <v>0.86124096192384803</v>
+        <v>0.86087282000000032</v>
       </c>
       <c r="D28" s="21">
-        <v>-11.085479411744728</v>
+        <v>-11.182203046846118</v>
       </c>
       <c r="E28" s="22">
-        <v>-11.720619798632631</v>
+        <v>-11.822885195595434</v>
       </c>
       <c r="F28" s="22">
-        <v>422.99803122545376</v>
+        <v>423.53068887574011</v>
       </c>
       <c r="G28" s="22">
-        <v>400.0757679133464</v>
+        <v>400.57956084556372</v>
       </c>
       <c r="H28" s="22">
-        <v>325.03694240160678</v>
+        <v>325.38909799295487</v>
       </c>
       <c r="I28" s="22">
-        <v>426.13827423863478</v>
+        <v>426.7387908059535</v>
       </c>
       <c r="J28" s="22">
-        <v>101.101331837028</v>
+        <v>101.34969281299863</v>
       </c>
       <c r="K28" s="21">
-        <v>26.062506325288403</v>
+        <v>26.159229960389794</v>
       </c>
       <c r="L28" s="7"/>
     </row>
@@ -7602,31 +7656,31 @@
         <v>0.9108099999999999</v>
       </c>
       <c r="C29" s="20">
-        <v>0.86549344230769254</v>
+        <v>0.86513197696737065</v>
       </c>
       <c r="D29" s="21">
-        <v>-3.1830651216743431</v>
+        <v>-3.2340467716625816</v>
       </c>
       <c r="E29" s="22">
-        <v>-3.4947630369389264</v>
+        <v>-3.5507370051520977</v>
       </c>
       <c r="F29" s="22">
-        <v>419.50326818851482</v>
+        <v>419.97995187058802</v>
       </c>
       <c r="G29" s="22">
-        <v>382.08777169878113</v>
+        <v>382.52193996325025</v>
       </c>
       <c r="H29" s="22">
-        <v>325.03694240160678</v>
+        <v>325.38909799295487</v>
       </c>
       <c r="I29" s="22">
-        <v>411.33334314574387</v>
+        <v>411.9152166953026</v>
       </c>
       <c r="J29" s="22">
-        <v>86.296400744137088</v>
+        <v>86.526118702347731</v>
       </c>
       <c r="K29" s="21">
-        <v>29.245571446962746</v>
+        <v>29.393276732052374</v>
       </c>
       <c r="L29" s="7"/>
     </row>
@@ -7638,31 +7692,31 @@
         <v>0.86360000000000003</v>
       </c>
       <c r="C30" s="20">
-        <v>0.86555716666666693</v>
+        <v>0.86520894639556412</v>
       </c>
       <c r="D30" s="21">
-        <v>5.937277109723629E-3</v>
+        <v>4.0124981808879077E-3</v>
       </c>
       <c r="E30" s="22">
-        <v>6.8750313915280558E-3</v>
+        <v>4.6462461566557523E-3</v>
       </c>
       <c r="F30" s="22">
-        <v>419.51014321990635</v>
+        <v>419.98459811674468</v>
       </c>
       <c r="G30" s="22">
-        <v>362.28895968471113</v>
+        <v>362.69869893362073</v>
       </c>
       <c r="H30" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I30" s="22">
-        <v>391.53453113167387</v>
+        <v>392.09197566567309</v>
       </c>
       <c r="J30" s="22">
-        <v>66.491651452957342</v>
+        <v>66.698865174537332</v>
       </c>
       <c r="K30" s="21">
-        <v>29.245571446962746</v>
+        <v>29.393276732052374</v>
       </c>
       <c r="L30" s="7"/>
     </row>
@@ -7674,31 +7728,31 @@
         <v>0.88732</v>
       </c>
       <c r="C31" s="20">
-        <v>0.86554053667263009</v>
+        <v>0.86520416071428607</v>
       </c>
       <c r="D31" s="21">
-        <v>-0.73523478538378861</v>
+        <v>-0.75812103833286737</v>
       </c>
       <c r="E31" s="22">
-        <v>-0.82860161540795729</v>
+        <v>-0.85439417384130567</v>
       </c>
       <c r="F31" s="22">
-        <v>418.68154160449842</v>
+        <v>419.13020394290339</v>
       </c>
       <c r="G31" s="22">
-        <v>371.50450549650355</v>
+        <v>371.90261256261704</v>
       </c>
       <c r="H31" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I31" s="22">
-        <v>401.48531172885009</v>
+        <v>402.05401033300228</v>
       </c>
       <c r="J31" s="22">
-        <v>76.442432050133561</v>
+        <v>76.660899841866524</v>
       </c>
       <c r="K31" s="21">
-        <v>29.980806232346534</v>
+        <v>30.151397770385241</v>
       </c>
       <c r="L31" s="7"/>
     </row>
@@ -7710,31 +7764,31 @@
         <v>0.89222000000000001</v>
       </c>
       <c r="C32" s="20">
-        <v>0.86642510309278375</v>
+        <v>0.86610048027444275</v>
       </c>
       <c r="D32" s="21">
-        <v>-1.031333895003568</v>
+        <v>-1.057455431575351</v>
       </c>
       <c r="E32" s="22">
-        <v>-1.1559188260782856</v>
+        <v>-1.1851958391151858</v>
       </c>
       <c r="F32" s="22">
-        <v>417.52562277842014</v>
+        <v>417.94500810378821</v>
       </c>
       <c r="G32" s="22">
-        <v>372.52471115536201</v>
+        <v>372.89889513036195</v>
       </c>
       <c r="H32" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I32" s="22">
-        <v>403.53685128271212</v>
+        <v>404.10774833232256</v>
       </c>
       <c r="J32" s="22">
-        <v>78.49397160399559</v>
+        <v>78.7146378411868</v>
       </c>
       <c r="K32" s="21">
-        <v>31.012140127350101</v>
+        <v>31.208853201960594</v>
       </c>
       <c r="L32" s="7"/>
     </row>
@@ -7746,31 +7800,31 @@
         <v>0.92357</v>
       </c>
       <c r="C33" s="20">
-        <v>0.86719825870646772</v>
+        <v>0.86687626446280996</v>
       </c>
       <c r="D33" s="21">
-        <v>-4.9255484855206459</v>
+        <v>-4.9819784561993092</v>
       </c>
       <c r="E33" s="22">
-        <v>-5.3331620619126285</v>
+        <v>-5.3942618926549253</v>
       </c>
       <c r="F33" s="22">
-        <v>412.19246071650753</v>
+        <v>412.55074621113329</v>
       </c>
       <c r="G33" s="22">
-        <v>380.68859094394486</v>
+        <v>381.01949267821635</v>
       </c>
       <c r="H33" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I33" s="22">
-        <v>416.62627955681558</v>
+        <v>417.21032433637623</v>
       </c>
       <c r="J33" s="22">
-        <v>91.583399878099044</v>
+        <v>91.817213845240474</v>
       </c>
       <c r="K33" s="21">
-        <v>35.937688612870744</v>
+        <v>36.190831658159901</v>
       </c>
       <c r="L33" s="7"/>
     </row>
@@ -7782,31 +7836,31 @@
         <v>0.95855999999999997</v>
       </c>
       <c r="C34" s="20">
-        <v>0.87132205457463874</v>
+        <v>0.87099716799999982</v>
       </c>
       <c r="D34" s="21">
-        <v>-11.79621163915937</v>
+        <v>-11.884236799183387</v>
       </c>
       <c r="E34" s="22">
-        <v>-12.306179727048249</v>
+        <v>-12.398010348004703</v>
       </c>
       <c r="F34" s="22">
-        <v>399.88628098945929</v>
+        <v>400.15273586312856</v>
       </c>
       <c r="G34" s="22">
-        <v>383.3149935052561</v>
+        <v>383.57040648896049</v>
       </c>
       <c r="H34" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I34" s="22">
-        <v>431.04889375728624</v>
+        <v>431.64547494630381</v>
       </c>
       <c r="J34" s="22">
-        <v>106.00601407856971</v>
+        <v>106.25236445516805</v>
       </c>
       <c r="K34" s="21">
-        <v>47.733900252030111</v>
+        <v>48.075068457343292</v>
       </c>
       <c r="L34" s="7"/>
     </row>
@@ -7818,31 +7872,31 @@
         <v>0.97238999999999998</v>
       </c>
       <c r="C35" s="20">
-        <v>0.87426804992199714</v>
+        <v>0.87394309486780741</v>
       </c>
       <c r="D35" s="21">
-        <v>-14.923271485020626</v>
+        <v>-15.02227935166573</v>
       </c>
       <c r="E35" s="22">
-        <v>-15.347002216210189</v>
+        <v>-15.448821307979031</v>
       </c>
       <c r="F35" s="22">
-        <v>384.53927877324912</v>
+        <v>384.70391455514954</v>
       </c>
       <c r="G35" s="22">
-        <v>373.92214928631972</v>
+        <v>374.08223947428183</v>
       </c>
       <c r="H35" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I35" s="22">
-        <v>436.57932102337048</v>
+        <v>437.17958728329086</v>
       </c>
       <c r="J35" s="22">
-        <v>111.53644134465395</v>
+        <v>111.7864767921551</v>
       </c>
       <c r="K35" s="21">
-        <v>62.657171737050739</v>
+        <v>63.097347809009023</v>
       </c>
       <c r="L35" s="7"/>
     </row>
@@ -7854,31 +7908,31 @@
         <v>0.97728999999999999</v>
       </c>
       <c r="C36" s="20">
-        <v>0.87806616314199404</v>
+        <v>0.87774004518072291</v>
       </c>
       <c r="D36" s="21">
-        <v>-15.260323191277481</v>
+        <v>-15.360799932006168</v>
       </c>
       <c r="E36" s="22">
-        <v>-15.6149384433254</v>
+        <v>-15.717750035308013</v>
       </c>
       <c r="F36" s="22">
-        <v>368.92434032992372</v>
+        <v>368.98616451984151</v>
       </c>
       <c r="G36" s="22">
-        <v>360.54606856103118</v>
+        <v>360.60648872359593</v>
       </c>
       <c r="H36" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I36" s="22">
-        <v>438.46356348935939</v>
+        <v>439.06463646461111</v>
       </c>
       <c r="J36" s="22">
-        <v>113.42068381064286</v>
+        <v>113.67152597347535</v>
       </c>
       <c r="K36" s="21">
-        <v>77.917494928328225</v>
+        <v>78.458147741015196</v>
       </c>
       <c r="L36" s="7"/>
       <c r="O36" s="3"/>
@@ -7891,31 +7945,31 @@
         <v>1.0407999999999999</v>
       </c>
       <c r="C37" s="20">
-        <v>0.8828432602339179</v>
+        <v>0.88251367346938747</v>
       </c>
       <c r="D37" s="21">
-        <v>-38.673014038171132</v>
+        <v>-38.834569808161298</v>
       </c>
       <c r="E37" s="22">
-        <v>-37.157008107389636</v>
+        <v>-37.312230791853672</v>
       </c>
       <c r="F37" s="22">
-        <v>331.76733222253409</v>
+        <v>331.67393372798784</v>
       </c>
       <c r="G37" s="22">
-        <v>345.30343937721346</v>
+        <v>345.20623022408972</v>
       </c>
       <c r="H37" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I37" s="22">
-        <v>461.89394834371285</v>
+        <v>462.4989477732662</v>
       </c>
       <c r="J37" s="22">
-        <v>136.85106866499632</v>
+        <v>137.10583728213044</v>
       </c>
       <c r="K37" s="21">
-        <v>116.59050896649936</v>
+        <v>117.2927175491765</v>
       </c>
       <c r="L37" s="7"/>
     </row>
@@ -7927,31 +7981,31 @@
         <v>1.13632</v>
       </c>
       <c r="C38" s="20">
-        <v>0.88820977142857116</v>
+        <v>0.88787240740740703</v>
       </c>
       <c r="D38" s="21">
-        <v>-95.415962558738329</v>
+        <v>-95.675619710835349</v>
       </c>
       <c r="E38" s="22">
-        <v>-83.969271471714237</v>
+        <v>-84.197778540231056</v>
       </c>
       <c r="F38" s="22">
-        <v>247.79806075081984</v>
+        <v>247.47615518775677</v>
       </c>
       <c r="G38" s="22">
-        <v>281.57789239237161</v>
+        <v>281.21210466295179</v>
       </c>
       <c r="H38" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I38" s="22">
-        <v>493.58436391760927</v>
+        <v>494.18044192296361</v>
       </c>
       <c r="J38" s="22">
-        <v>168.54148423889274</v>
+        <v>168.78733143182785</v>
       </c>
       <c r="K38" s="21">
-        <v>212.00647152523769</v>
+        <v>212.96833726001185</v>
       </c>
       <c r="L38" s="7"/>
     </row>
@@ -7963,31 +8017,31 @@
         <v>1.2075199999999999</v>
       </c>
       <c r="C39" s="20">
-        <v>0.89720491666666646</v>
+        <v>0.89685198060941806</v>
       </c>
       <c r="D39" s="21">
-        <v>-149.2579489634692</v>
+        <v>-149.59765832170376</v>
       </c>
       <c r="E39" s="22">
-        <v>-123.60702014332617</v>
+        <v>-123.88834828549736</v>
       </c>
       <c r="F39" s="22">
-        <v>124.19104060749368</v>
+        <v>123.58780690225942</v>
       </c>
       <c r="G39" s="22">
-        <v>149.96316535436077</v>
+        <v>149.23474859061628</v>
       </c>
       <c r="H39" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I39" s="22">
-        <v>511.22758584306769</v>
+        <v>511.80074417233186</v>
       </c>
       <c r="J39" s="22">
-        <v>186.18470616435116</v>
+        <v>186.4076336811961</v>
       </c>
       <c r="K39" s="21">
-        <v>361.26442048870689</v>
+        <v>362.56599558171558</v>
       </c>
       <c r="L39" s="7"/>
     </row>
@@ -7999,31 +8053,31 @@
         <v>1.0721400000000001</v>
       </c>
       <c r="C40" s="20">
-        <v>0.90529318059299169</v>
+        <v>0.90492893817204278</v>
       </c>
       <c r="D40" s="21">
-        <v>-43.148684776664062</v>
+        <v>-43.337285756331092</v>
       </c>
       <c r="E40" s="22">
-        <v>-40.245382857335848</v>
+        <v>-40.421293633602971</v>
       </c>
       <c r="F40" s="22">
-        <v>83.945657750157835</v>
+        <v>83.166513268656445</v>
       </c>
       <c r="G40" s="22">
-        <v>90.001497500254231</v>
+        <v>89.166145535857325</v>
       </c>
       <c r="H40" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I40" s="22">
-        <v>494.4146027656252</v>
+        <v>495.06942687390398</v>
       </c>
       <c r="J40" s="22">
-        <v>169.37172308690867</v>
+        <v>169.67631638276822</v>
       </c>
       <c r="K40" s="21">
-        <v>404.41310526537097</v>
+        <v>405.90328133804667</v>
       </c>
       <c r="L40" s="7"/>
     </row>
@@ -8035,31 +8089,31 @@
         <v>1.13618</v>
       </c>
       <c r="C41" s="20">
-        <v>0.91107858453473123</v>
+        <v>0.91070921568627439</v>
       </c>
       <c r="D41" s="21">
-        <v>-78.539503228924673</v>
+        <v>-78.797465597522176</v>
       </c>
       <c r="E41" s="22">
-        <v>-69.125933592322227</v>
+        <v>-69.352977166929691</v>
       </c>
       <c r="F41" s="22">
-        <v>14.819724157835608</v>
+        <v>13.813536101726754</v>
       </c>
       <c r="G41" s="22">
-        <v>16.837874193649661</v>
+        <v>15.694663448059902</v>
       </c>
       <c r="H41" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I41" s="22">
-        <v>499.79048268794531</v>
+        <v>500.39541038362876</v>
       </c>
       <c r="J41" s="22">
-        <v>174.74760300922878</v>
+        <v>175.002299892493</v>
       </c>
       <c r="K41" s="21">
-        <v>482.95260849429565</v>
+        <v>484.70074693556887</v>
       </c>
       <c r="L41" s="7"/>
     </row>
@@ -8071,13 +8125,13 @@
         <v>1.12294</v>
       </c>
       <c r="C42" s="20">
-        <v>0.91666642765685002</v>
+        <v>0.91629127713920799</v>
       </c>
       <c r="D42" s="21">
-        <v>-16.641661045799918</v>
+        <v>-15.511772230073042</v>
       </c>
       <c r="E42" s="22">
-        <v>-14.819724157835608</v>
+        <v>-13.813536101726754</v>
       </c>
       <c r="F42" s="22">
         <v>0</v>
@@ -8086,16 +8140,16 @@
         <v>0</v>
       </c>
       <c r="H42" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I42" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J42" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K42" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="L42" s="7"/>
     </row>
@@ -8107,7 +8161,7 @@
         <v>1.25214</v>
       </c>
       <c r="C43" s="20">
-        <v>0.92355369538077381</v>
+        <v>0.92317073474470712</v>
       </c>
       <c r="D43" s="21">
         <v>0</v>
@@ -8122,16 +8176,16 @@
         <v>0</v>
       </c>
       <c r="H43" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I43" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J43" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K43" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="L43" s="7"/>
     </row>
@@ -8143,7 +8197,7 @@
         <v>1.3561700000000001</v>
       </c>
       <c r="C44" s="20">
-        <v>0.93564675970873734</v>
+        <v>0.93524518159806236</v>
       </c>
       <c r="D44" s="21">
         <v>0</v>
@@ -8158,16 +8212,16 @@
         <v>0</v>
       </c>
       <c r="H44" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I44" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J44" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K44" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="L44" s="7"/>
     </row>
@@ -8179,7 +8233,7 @@
         <v>1.35833</v>
       </c>
       <c r="C45" s="20">
-        <v>0.9459795739644965</v>
+        <v>0.9455635537190078</v>
       </c>
       <c r="D45" s="21">
         <v>0</v>
@@ -8194,16 +8248,16 @@
         <v>0</v>
       </c>
       <c r="H45" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I45" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J45" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K45" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="L45" s="7"/>
     </row>
@@ -8215,7 +8269,7 @@
         <v>1.2336199999999999</v>
       </c>
       <c r="C46" s="20">
-        <v>0.95444417531718506</v>
+        <v>0.9540192059838889</v>
       </c>
       <c r="D46" s="21">
         <v>0</v>
@@ -8230,16 +8284,16 @@
         <v>0</v>
       </c>
       <c r="H46" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I46" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J46" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K46" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="L46" s="7"/>
     </row>
@@ -8251,7 +8305,7 @@
         <v>1.2367600000000001</v>
       </c>
       <c r="C47" s="20">
-        <v>0.96014630804076961</v>
+        <v>0.95971613559321989</v>
       </c>
       <c r="D47" s="21">
         <v>0</v>
@@ -8266,16 +8320,16 @@
         <v>0</v>
       </c>
       <c r="H47" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I47" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J47" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K47" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="L47" s="7"/>
     </row>
@@ -8287,7 +8341,7 @@
         <v>1.23942</v>
       </c>
       <c r="C48" s="20">
-        <v>0.96710720132743311</v>
+        <v>0.96667163355408336</v>
       </c>
       <c r="D48" s="21">
         <v>0</v>
@@ -8302,16 +8356,16 @@
         <v>0</v>
       </c>
       <c r="H48" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I48" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J48" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K48" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="L48" s="7"/>
     </row>
@@ -8323,7 +8377,7 @@
         <v>1.2531099999999999</v>
       </c>
       <c r="C49" s="20">
-        <v>0.97392800431499404</v>
+        <v>0.9734885360602793</v>
       </c>
       <c r="D49" s="21">
         <v>0</v>
@@ -8338,16 +8392,16 @@
         <v>0</v>
       </c>
       <c r="H49" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I49" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J49" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K49" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="14.1" customHeight="1">
@@ -8358,7 +8412,7 @@
         <v>1.2375</v>
       </c>
       <c r="C50" s="20">
-        <v>0.98019564941921822</v>
+        <v>0.97975223393045274</v>
       </c>
       <c r="D50" s="21">
         <v>0</v>
@@ -8373,16 +8427,16 @@
         <v>0</v>
       </c>
       <c r="H50" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I50" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J50" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K50" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="14.1" customHeight="1">
@@ -8393,7 +8447,7 @@
         <v>1.23967</v>
       </c>
       <c r="C51" s="20">
-        <v>0.984757931392931</v>
+        <v>0.98431195020746853</v>
       </c>
       <c r="D51" s="21">
         <v>0</v>
@@ -8408,16 +8462,16 @@
         <v>0</v>
       </c>
       <c r="H51" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I51" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J51" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K51" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="14.1" customHeight="1">
@@ -8428,7 +8482,7 @@
         <v>1.15709</v>
       </c>
       <c r="C52" s="20">
-        <v>0.98919197969543116</v>
+        <v>0.98874740628166125</v>
       </c>
       <c r="D52" s="21">
         <v>0</v>
@@ -8443,16 +8497,16 @@
         <v>0</v>
       </c>
       <c r="H52" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I52" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J52" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K52" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="14.1" customHeight="1">
@@ -8463,7 +8517,7 @@
         <v>1.17998</v>
       </c>
       <c r="C53" s="20">
-        <v>0.99311644135188804</v>
+        <v>0.99267334325396761</v>
       </c>
       <c r="D53" s="21">
         <v>0</v>
@@ -8478,16 +8532,16 @@
         <v>0</v>
       </c>
       <c r="H53" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I53" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J53" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K53" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="14.1" customHeight="1">
@@ -8498,7 +8552,7 @@
         <v>1.2623</v>
       </c>
       <c r="C54" s="20">
-        <v>0.99678004882812443</v>
+        <v>0.99633758284600327</v>
       </c>
       <c r="D54" s="21">
         <v>0</v>
@@ -8513,16 +8567,16 @@
         <v>0</v>
       </c>
       <c r="H54" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I54" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J54" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K54" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="14.1" customHeight="1">
@@ -8533,7 +8587,7 @@
         <v>1.33643</v>
       </c>
       <c r="C55" s="20">
-        <v>1.0025140478468895</v>
+        <v>1.0020695033428839</v>
       </c>
       <c r="D55" s="21">
         <v>0</v>
@@ -8548,16 +8602,16 @@
         <v>0</v>
       </c>
       <c r="H55" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I55" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J55" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K55" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="14.1" customHeight="1">
@@ -8568,7 +8622,7 @@
         <v>1.28626</v>
       </c>
       <c r="C56" s="20">
-        <v>1.0086370852858479</v>
+        <v>1.0081902338634234</v>
       </c>
       <c r="D56" s="21">
         <v>0</v>
@@ -8583,16 +8637,16 @@
         <v>0</v>
       </c>
       <c r="H56" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I56" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J56" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K56" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="14.1" customHeight="1">
@@ -8603,7 +8657,7 @@
         <v>1.2177899999999999</v>
       </c>
       <c r="C57" s="20">
-        <v>1.0138825528007342</v>
+        <v>1.0134350962419794</v>
       </c>
       <c r="D57" s="21">
         <v>0</v>
@@ -8618,16 +8672,16 @@
         <v>0</v>
       </c>
       <c r="H57" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I57" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J57" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K57" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="14.1" customHeight="1">
@@ -8638,7 +8692,7 @@
         <v>1.20347</v>
       </c>
       <c r="C58" s="20">
-        <v>1.0177556176735794</v>
+        <v>1.0173092439243918</v>
       </c>
       <c r="D58" s="21">
         <v>0</v>
@@ -8653,16 +8707,16 @@
         <v>0</v>
       </c>
       <c r="H58" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I58" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J58" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K58" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="14.1" customHeight="1">
@@ -8673,7 +8727,7 @@
         <v>1.1970999999999998</v>
       </c>
       <c r="C59" s="20">
-        <v>1.0204018311111105</v>
+        <v>1.0199570984915698</v>
       </c>
       <c r="D59" s="21">
         <v>0</v>
@@ -8688,16 +8742,16 @@
         <v>0</v>
       </c>
       <c r="H59" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I59" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J59" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K59" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="14.1" customHeight="1">
@@ -8708,7 +8762,7 @@
         <v>1.23373</v>
       </c>
       <c r="C60" s="20">
-        <v>1.0245603661726232</v>
+        <v>1.0241169103568308</v>
       </c>
       <c r="D60" s="21">
         <v>0</v>
@@ -8723,16 +8777,16 @@
         <v>0</v>
       </c>
       <c r="H60" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I60" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J60" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K60" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="14.1" customHeight="1">
@@ -8743,7 +8797,7 @@
         <v>1.2554100000000001</v>
       </c>
       <c r="C61" s="20">
-        <v>1.0289409572649562</v>
+        <v>1.0284987286689407</v>
       </c>
       <c r="D61" s="21">
         <v>0</v>
@@ -8758,16 +8812,16 @@
         <v>0</v>
       </c>
       <c r="H61" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I61" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J61" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K61" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="14.1" customHeight="1">
@@ -8778,7 +8832,7 @@
         <v>1.11076</v>
       </c>
       <c r="C62" s="20">
-        <v>1.0316563299663286</v>
+        <v>1.0313231318219969</v>
       </c>
       <c r="D62" s="21">
         <v>0</v>
@@ -8793,16 +8847,16 @@
         <v>0</v>
       </c>
       <c r="H62" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I62" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J62" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K62" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="14.1" customHeight="1">
@@ -8813,7 +8867,7 @@
         <v>1.15177</v>
       </c>
       <c r="C63" s="20">
-        <v>1.0331931727574739</v>
+        <v>1.0328605716652843</v>
       </c>
       <c r="D63" s="21">
         <v>0</v>
@@ -8828,16 +8882,16 @@
         <v>0</v>
       </c>
       <c r="H63" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I63" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J63" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K63" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="14.1" customHeight="1">
@@ -8848,7 +8902,7 @@
         <v>1.0468499999999998</v>
       </c>
       <c r="C64" s="20">
-        <v>1.0340066340668286</v>
+        <v>1.0336782682926817</v>
       </c>
       <c r="D64" s="21">
         <v>0</v>
@@ -8863,16 +8917,16 @@
         <v>0</v>
       </c>
       <c r="H64" s="22">
-        <v>325.04287967871653</v>
+        <v>325.39311049113576</v>
       </c>
       <c r="I64" s="22">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="J64" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450618</v>
       </c>
       <c r="K64" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="14.1" customHeight="1">
@@ -8883,31 +8937,31 @@
         <v>0.83169999999999999</v>
       </c>
       <c r="C65" s="20">
-        <v>1.032387961476724</v>
+        <v>1.0320684787830248</v>
       </c>
       <c r="D65" s="21">
-        <v>62.427269716608713</v>
+        <v>62.228667299226338</v>
       </c>
       <c r="E65" s="22">
-        <v>75.059840948188906</v>
+        <v>74.821050017105136</v>
       </c>
       <c r="F65" s="22">
-        <v>75.059840948188906</v>
+        <v>74.821050017105136</v>
       </c>
       <c r="G65" s="22">
-        <v>62.427269716608713</v>
+        <v>62.228667299226345</v>
       </c>
       <c r="H65" s="22">
-        <v>387.47014939532522</v>
+        <v>387.6217777903621</v>
       </c>
       <c r="I65" s="22">
-        <v>562.02153925670427</v>
+        <v>562.44118646486822</v>
       </c>
       <c r="J65" s="22">
-        <v>174.55138986137905</v>
+        <v>174.81940867450612</v>
       </c>
       <c r="K65" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="14.1" customHeight="1">
@@ -8918,31 +8972,31 @@
         <v>0.90644000000000002</v>
       </c>
       <c r="C66" s="20">
-        <v>1.0300312806324092</v>
+        <v>1.0297221608832787</v>
       </c>
       <c r="D66" s="21">
-        <v>23.675947204956337</v>
+        <v>23.557661347678451</v>
       </c>
       <c r="E66" s="22">
-        <v>26.119706991037837</v>
+        <v>25.989212024710351</v>
       </c>
       <c r="F66" s="22">
-        <v>101.17954793922675</v>
+        <v>100.81026204181549</v>
       </c>
       <c r="G66" s="22">
-        <v>91.713189434032699</v>
+        <v>91.378453925183237</v>
       </c>
       <c r="H66" s="22">
-        <v>411.14609660028157</v>
+        <v>411.17943913804055</v>
       </c>
       <c r="I66" s="22">
-        <v>591.30745897412828</v>
+        <v>591.59097309082517</v>
       </c>
       <c r="J66" s="22">
-        <v>180.16136237384671</v>
+        <v>180.41153395278462</v>
       </c>
       <c r="K66" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="14.1" customHeight="1">
@@ -8953,31 +9007,31 @@
         <v>0.99066999999999994</v>
       </c>
       <c r="C67" s="20">
-        <v>1.0286842768273694</v>
+        <v>1.0283833281613628</v>
       </c>
       <c r="D67" s="21">
-        <v>2.2398821261972124</v>
+        <v>2.2045574375602994</v>
       </c>
       <c r="E67" s="22">
-        <v>2.2609770419990638</v>
+        <v>2.225319670082166</v>
       </c>
       <c r="F67" s="22">
-        <v>103.44052498122582</v>
+        <v>103.03558171189766</v>
       </c>
       <c r="G67" s="22">
-        <v>102.47542488315098</v>
+        <v>102.07425973452565</v>
       </c>
       <c r="H67" s="22">
-        <v>413.38597872647875</v>
+        <v>413.38399657560086</v>
       </c>
       <c r="I67" s="22">
-        <v>602.06969442324657</v>
+        <v>602.28677890016763</v>
       </c>
       <c r="J67" s="22">
-        <v>188.68371569676782</v>
+        <v>188.90278232456677</v>
       </c>
       <c r="K67" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="14.1" customHeight="1">
@@ -8988,31 +9042,31 @@
         <v>1.01267</v>
       </c>
       <c r="C68" s="20">
-        <v>1.0278637413924998</v>
+        <v>1.027569496183204</v>
       </c>
       <c r="D68" s="21">
-        <v>0.35781715512835305</v>
+        <v>0.34409222909563486</v>
       </c>
       <c r="E68" s="22">
-        <v>0.35334033310787627</v>
+        <v>0.33978712620659729</v>
       </c>
       <c r="F68" s="22">
-        <v>103.7938653143337</v>
+        <v>103.37536883810427</v>
       </c>
       <c r="G68" s="22">
-        <v>105.1089335878663</v>
+        <v>104.68513476128304</v>
       </c>
       <c r="H68" s="22">
-        <v>413.74379588160713</v>
+        <v>413.72808880469648</v>
       </c>
       <c r="I68" s="22">
-        <v>604.70320312796184</v>
+        <v>604.89765392692493</v>
       </c>
       <c r="J68" s="22">
-        <v>190.95940724635471</v>
+        <v>191.16956512222845</v>
       </c>
       <c r="K68" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="14.1" customHeight="1">
@@ -9023,31 +9077,31 @@
         <v>0.95750000000000002</v>
       </c>
       <c r="C69" s="20">
-        <v>1.0277413007518783</v>
+        <v>1.027452408102024</v>
       </c>
       <c r="D69" s="21">
-        <v>7.6474525135395179</v>
+        <v>7.5846760688717678</v>
       </c>
       <c r="E69" s="22">
-        <v>7.986895575498191</v>
+        <v>7.9213327090044574</v>
       </c>
       <c r="F69" s="22">
-        <v>111.7807608898319</v>
+        <v>111.29670154710873</v>
       </c>
       <c r="G69" s="22">
-        <v>107.03007855201405</v>
+        <v>106.56659173135661</v>
       </c>
       <c r="H69" s="22">
-        <v>421.39124839514665</v>
+        <v>421.31276487356826</v>
       </c>
       <c r="I69" s="22">
-        <v>606.62434809210959</v>
+        <v>606.77911089699853</v>
       </c>
       <c r="J69" s="22">
-        <v>185.23309969696294</v>
+        <v>185.46634602343028</v>
       </c>
       <c r="K69" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="14.1" customHeight="1">
@@ -9058,31 +9112,31 @@
         <v>0.85887999999999998</v>
       </c>
       <c r="C70" s="20">
-        <v>1.0261969874167267</v>
+        <v>1.0259159970457883</v>
       </c>
       <c r="D70" s="21">
-        <v>43.392210131224097</v>
+        <v>43.246587679074935</v>
       </c>
       <c r="E70" s="22">
-        <v>50.521854195259053</v>
+        <v>50.352304954213551</v>
       </c>
       <c r="F70" s="22">
-        <v>162.30261508509096</v>
+        <v>161.64900650132228</v>
       </c>
       <c r="G70" s="22">
-        <v>139.39847004428293</v>
+        <v>138.83709870385567</v>
       </c>
       <c r="H70" s="22">
-        <v>464.78345852637074</v>
+        <v>464.55935255264319</v>
       </c>
       <c r="I70" s="22">
-        <v>638.99273958437857</v>
+        <v>639.04961786949764</v>
       </c>
       <c r="J70" s="22">
-        <v>174.20928105800783</v>
+        <v>174.49026531685445</v>
       </c>
       <c r="K70" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="14.1" customHeight="1">
@@ -9093,31 +9147,31 @@
         <v>0.96957000000000004</v>
       </c>
       <c r="C71" s="20">
-        <v>1.0250083101682501</v>
+        <v>1.0247332043795603</v>
       </c>
       <c r="D71" s="21">
-        <v>4.7637796631822038</v>
+        <v>4.716617632002758</v>
       </c>
       <c r="E71" s="22">
-        <v>4.9132911117115876</v>
+        <v>4.8646488979679212</v>
       </c>
       <c r="F71" s="22">
-        <v>167.21590619680256</v>
+        <v>166.5136553992902</v>
       </c>
       <c r="G71" s="22">
-        <v>162.12752617123388</v>
+        <v>161.44664486548982</v>
       </c>
       <c r="H71" s="22">
-        <v>469.54723818955296</v>
+        <v>469.27597018464593</v>
       </c>
       <c r="I71" s="22">
-        <v>661.72179571132949</v>
+        <v>661.6591640311317</v>
       </c>
       <c r="J71" s="22">
-        <v>192.17455752177653</v>
+        <v>192.38319384648577</v>
       </c>
       <c r="K71" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="14.1" customHeight="1">
@@ -9128,31 +9182,31 @@
         <v>0.99405999999999994</v>
       </c>
       <c r="C72" s="20">
-        <v>1.0247448956083498</v>
+        <v>1.0244747054597683</v>
       </c>
       <c r="D72" s="21">
-        <v>1.4594223686677592</v>
+        <v>1.4338341777169143</v>
       </c>
       <c r="E72" s="22">
-        <v>1.4681431389129018</v>
+        <v>1.4424020458693785</v>
       </c>
       <c r="F72" s="22">
-        <v>168.68404933571546</v>
+        <v>167.95605744515959</v>
       </c>
       <c r="G72" s="22">
-        <v>167.68206608266129</v>
+        <v>166.95839846393534</v>
       </c>
       <c r="H72" s="22">
-        <v>471.00666055822069</v>
+        <v>470.70980436236283</v>
       </c>
       <c r="I72" s="22">
-        <v>667.27633562275685</v>
+        <v>667.17091762957727</v>
       </c>
       <c r="J72" s="22">
-        <v>196.26967506453616</v>
+        <v>196.46111326721444</v>
       </c>
       <c r="K72" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="14.1" customHeight="1">
@@ -9163,31 +9217,31 @@
         <v>0.95635000000000003</v>
       </c>
       <c r="C73" s="20">
-        <v>1.0242041105598856</v>
+        <v>1.0239392715700129</v>
       </c>
       <c r="D73" s="21">
-        <v>7.1364794958034157</v>
+        <v>7.0808799286156621</v>
       </c>
       <c r="E73" s="22">
-        <v>7.4622047323714282</v>
+        <v>7.4040674738491781</v>
       </c>
       <c r="F73" s="22">
-        <v>176.14625406808688</v>
+        <v>175.36012491900877</v>
       </c>
       <c r="G73" s="22">
-        <v>168.45747007801489</v>
+        <v>167.70565546629405</v>
       </c>
       <c r="H73" s="22">
-        <v>478.14314005402412</v>
+        <v>477.7906842909785</v>
       </c>
       <c r="I73" s="22">
-        <v>668.05173961811045</v>
+        <v>667.91817463193593</v>
       </c>
       <c r="J73" s="22">
-        <v>189.90859956408633</v>
+        <v>190.12749034095742</v>
       </c>
       <c r="K73" s="21">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="14.1" customHeight="1">
@@ -9198,31 +9252,31 @@
         <v>1.08087</v>
       </c>
       <c r="C74" s="20">
-        <v>1.0241600981079177</v>
+        <v>1.0238983146853136</v>
       </c>
       <c r="D74" s="21">
-        <v>-4.9848201075448708</v>
+        <v>-5.0309480377732703</v>
       </c>
       <c r="E74" s="22">
-        <v>-4.6118590649614388</v>
+        <v>-4.6545357330421515</v>
       </c>
       <c r="F74" s="22">
-        <v>171.53439500312544</v>
+        <v>170.70558918596663</v>
       </c>
       <c r="G74" s="22">
-        <v>185.4063815270282</v>
+        <v>184.51055018343575</v>
       </c>
       <c r="H74" s="22">
-        <v>478.14314005402412</v>
+        <v>477.7906842909785</v>
       </c>
       <c r="I74" s="22">
-        <v>689.98547117466865</v>
+        <v>689.75401738685093</v>
       </c>
       <c r="J74" s="22">
-        <v>211.84233112064453</v>
+        <v>211.96333309587243</v>
       </c>
       <c r="K74" s="21">
-        <v>504.57908964764044</v>
+        <v>505.24346720341521</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="14.1" customHeight="1">
@@ -9233,31 +9287,31 @@
         <v>1.16859</v>
       </c>
       <c r="C75" s="20">
-        <v>1.0261586247408419</v>
+        <v>1.0258963172413778</v>
       </c>
       <c r="D75" s="21">
-        <v>-31.444379820233454</v>
+        <v>-31.560305003788415</v>
       </c>
       <c r="E75" s="22">
-        <v>-26.907965856488122</v>
+        <v>-27.007166759760405</v>
       </c>
       <c r="F75" s="22">
-        <v>144.62642914663732</v>
+        <v>143.69842242620624</v>
       </c>
       <c r="G75" s="22">
-        <v>169.00899883646892</v>
+        <v>167.92453946304036</v>
       </c>
       <c r="H75" s="22">
-        <v>478.14314005402412</v>
+        <v>477.7906842909785</v>
       </c>
       <c r="I75" s="22">
-        <v>705.03246830434284</v>
+        <v>704.7283116702439</v>
       </c>
       <c r="J75" s="22">
-        <v>226.88932825031873</v>
+        <v>226.93762737926539</v>
       </c>
       <c r="K75" s="21">
-        <v>536.02346946787395</v>
+        <v>536.80377220720356</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="14.1" customHeight="1">
@@ -9268,31 +9322,31 @@
         <v>1.2989900000000001</v>
       </c>
       <c r="C76" s="20">
-        <v>1.0293158435374137</v>
+        <v>1.0290512016293265</v>
       </c>
       <c r="D76" s="21">
-        <v>-112.72243352890169</v>
+        <v>-112.9437800419949</v>
       </c>
       <c r="E76" s="22">
-        <v>-86.776983293868071</v>
+        <v>-86.947382229266495</v>
       </c>
       <c r="F76" s="22">
-        <v>57.84944585276925</v>
+        <v>56.751040196939741</v>
       </c>
       <c r="G76" s="22">
-        <v>75.145851668288728</v>
+        <v>73.71903370542276</v>
       </c>
       <c r="H76" s="22">
-        <v>478.14314005402412</v>
+        <v>477.7906842909785</v>
       </c>
       <c r="I76" s="22">
-        <v>723.89175466506435</v>
+        <v>723.46658595462122</v>
       </c>
       <c r="J76" s="22">
-        <v>245.74861461104024</v>
+        <v>245.67590166364272</v>
       </c>
       <c r="K76" s="21">
-        <v>648.74590299677561</v>
+        <v>649.74755224919841</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="14.1" customHeight="1">
@@ -9303,31 +9357,31 @@
         <v>1.22841</v>
       </c>
       <c r="C77" s="20">
-        <v>1.0326041370047001</v>
+        <v>1.0323362533512053</v>
       </c>
       <c r="D77" s="21">
-        <v>-59.42690077416794</v>
+        <v>-59.589616893588399</v>
       </c>
       <c r="E77" s="22">
-        <v>-48.377089712854783</v>
+        <v>-48.509550470598903</v>
       </c>
       <c r="F77" s="22">
-        <v>9.4723561399144671</v>
+        <v>8.2414897263408378</v>
       </c>
       <c r="G77" s="22">
-        <v>11.63593700583233</v>
+        <v>10.123928394734348</v>
       </c>
       <c r="H77" s="22">
-        <v>478.14314005402412</v>
+        <v>477.7906842909785</v>
       </c>
       <c r="I77" s="22">
-        <v>719.80874077677595</v>
+        <v>719.46109753752114</v>
       </c>
       <c r="J77" s="22">
-        <v>241.66560072275183</v>
+        <v>241.67041324654264</v>
       </c>
       <c r="K77" s="21">
-        <v>708.17280377094357</v>
+        <v>709.33716914278682</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="12.75">
@@ -9338,13 +9392,13 @@
         <v>1.2987200000000001</v>
       </c>
       <c r="C78" s="20">
-        <v>1.0354160636182892</v>
+        <v>1.035146144179893</v>
       </c>
       <c r="D78" s="21">
-        <v>-12.301938366029718</v>
+        <v>-10.703387537393374</v>
       </c>
       <c r="E78" s="22">
-        <v>-9.4723561399144671</v>
+        <v>-8.2414897263408378</v>
       </c>
       <c r="F78" s="22">
         <v>0</v>
@@ -9353,16 +9407,16 @@
         <v>0</v>
       </c>
       <c r="H78" s="22">
-        <v>478.14314005402412</v>
+        <v>477.7906842909785</v>
       </c>
       <c r="I78" s="22">
-        <v>720.4747421369733</v>
+        <v>720.0405566801802</v>
       </c>
       <c r="J78" s="22">
-        <v>242.33160208294919</v>
+        <v>242.2498723892017</v>
       </c>
       <c r="K78" s="21">
-        <v>720.4747421369733</v>
+        <v>720.0405566801802</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="12.75">
@@ -9373,7 +9427,7 @@
         <v>1.32033</v>
       </c>
       <c r="C79" s="20">
-        <v>1.0393539895356432</v>
+        <v>1.0390798825065262</v>
       </c>
       <c r="D79" s="21">
         <v>0</v>
@@ -9388,16 +9442,16 @@
         <v>0</v>
       </c>
       <c r="H79" s="22">
-        <v>478.14314005402412</v>
+        <v>477.7906842909785</v>
       </c>
       <c r="I79" s="22">
-        <v>720.4747421369733</v>
+        <v>720.0405566801802</v>
       </c>
       <c r="J79" s="22">
-        <v>242.33160208294919</v>
+        <v>242.2498723892017</v>
       </c>
       <c r="K79" s="21">
-        <v>720.4747421369733</v>
+        <v>720.0405566801802</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="12.75">
@@ -9408,7 +9462,7 @@
         <v>1.25888</v>
       </c>
       <c r="C80" s="20">
-        <v>1.0426825419354826</v>
+        <v>1.0424057115260772</v>
       </c>
       <c r="D80" s="21">
         <v>0</v>
@@ -9423,16 +9477,16 @@
         <v>0</v>
       </c>
       <c r="H80" s="22">
-        <v>478.14314005402412</v>
+        <v>477.7906842909785</v>
       </c>
       <c r="I80" s="22">
-        <v>720.4747421369733</v>
+        <v>720.0405566801802</v>
       </c>
       <c r="J80" s="22">
-        <v>242.33160208294919</v>
+        <v>242.2498723892017</v>
       </c>
       <c r="K80" s="21">
-        <v>720.4747421369733</v>
+        <v>720.0405566801802</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="12.75">
@@ -9443,7 +9497,7 @@
         <v>1.25305</v>
       </c>
       <c r="C81" s="20">
-        <v>1.0455482644628087</v>
+        <v>1.0452700190355317</v>
       </c>
       <c r="D81" s="21">
         <v>0</v>
@@ -9458,16 +9512,16 @@
         <v>0</v>
       </c>
       <c r="H81" s="22">
-        <v>478.14314005402412</v>
+        <v>477.7906842909785</v>
       </c>
       <c r="I81" s="22">
-        <v>720.4747421369733</v>
+        <v>720.0405566801802</v>
       </c>
       <c r="J81" s="22">
-        <v>242.33160208294919</v>
+        <v>242.2498723892017</v>
       </c>
       <c r="K81" s="21">
-        <v>720.4747421369733</v>
+        <v>720.0405566801802</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="12.75">
@@ -9493,16 +9547,51 @@
         <v>0</v>
       </c>
       <c r="H82" s="22">
-        <v>478.14314005402412</v>
+        <v>477.7906842909785</v>
       </c>
       <c r="I82" s="22">
-        <v>720.4747421369733</v>
+        <v>720.0405566801802</v>
       </c>
       <c r="J82" s="22">
-        <v>242.33160208294919</v>
+        <v>242.2498723892017</v>
       </c>
       <c r="K82" s="21">
-        <v>720.4747421369733</v>
+        <v>720.0405566801802</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="12.75">
+      <c r="A83" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B83" s="25">
+        <v>1.2139500000000001</v>
+      </c>
+      <c r="C83" s="20">
+        <v>1.0492853130812139</v>
+      </c>
+      <c r="D83" s="21">
+        <v>0</v>
+      </c>
+      <c r="E83" s="22">
+        <v>0</v>
+      </c>
+      <c r="F83" s="22">
+        <v>0</v>
+      </c>
+      <c r="G83" s="22">
+        <v>0</v>
+      </c>
+      <c r="H83" s="22">
+        <v>477.7906842909785</v>
+      </c>
+      <c r="I83" s="22">
+        <v>720.0405566801802</v>
+      </c>
+      <c r="J83" s="22">
+        <v>242.2498723892017</v>
+      </c>
+      <c r="K83" s="21">
+        <v>720.0405566801802</v>
       </c>
     </row>
   </sheetData>
@@ -9521,7 +9610,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF70"/>
+  <dimension ref="A1:AF71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9788,22 +9877,22 @@
       </c>
       <c r="Y5" s="1">
         <f>VLOOKUP(X5,O:R,2,)</f>
-        <v>24.103041534476546</v>
+        <v>24.145505961333754</v>
       </c>
       <c r="Z5" s="1">
         <f t="shared" ref="Z5" si="2">0-Y5</f>
-        <v>-24.103041534476546</v>
+        <v>-24.145505961333754</v>
       </c>
       <c r="AA5" s="6">
         <v>43830</v>
       </c>
       <c r="AB5" s="7">
         <f>VLOOKUP(AA5,O:P,2,)</f>
-        <v>24.103041534476546</v>
+        <v>24.145505961333754</v>
       </c>
       <c r="AC5" s="7">
         <f t="shared" si="1"/>
-        <v>-24.103041534476546</v>
+        <v>-24.145505961333754</v>
       </c>
       <c r="AD5" s="6">
         <v>43830</v>
@@ -9855,31 +9944,31 @@
         <v>43830</v>
       </c>
       <c r="P6" s="10">
-        <v>24.103041534476546</v>
+        <v>24.145505961333754</v>
       </c>
       <c r="Q6" s="5">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="R6" s="5">
-        <v>283.78575995833921</v>
+        <v>283.73492233354239</v>
       </c>
       <c r="S6" s="5">
-        <v>74.645646251660821</v>
+        <v>74.552344200006786</v>
       </c>
       <c r="T6" s="5">
-        <v>193.06474595334512</v>
+        <v>193.75301417002311</v>
       </c>
       <c r="U6" s="9">
-        <v>0.35691692487244348</v>
+        <v>0.35639843846084979</v>
       </c>
       <c r="V6" s="9">
-        <v>0.17499537713441549</v>
+        <v>0.17477588642982766</v>
       </c>
       <c r="X6" s="6">
         <v>43830</v>
       </c>
       <c r="Z6" s="1">
-        <v>283.78575995833921</v>
+        <v>283.73492233354239</v>
       </c>
       <c r="AA6" s="6">
         <v>44196</v>
@@ -9945,32 +10034,32 @@
         <v>0</v>
       </c>
       <c r="Q7" s="5">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="R7" s="5">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="S7" s="5">
-        <v>85.02864472783574</v>
+        <v>84.840772567004279</v>
       </c>
       <c r="T7" s="5">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="U7" s="9">
-        <v>0.40656306062398662</v>
+        <v>0.40558240233966614</v>
       </c>
       <c r="V7" s="9">
-        <v>0.12526732833880572</v>
+        <v>0.12500423731317034</v>
       </c>
       <c r="Z7" s="2">
         <f>IRR(Z4:Z6)</f>
-        <v>0.17499537713441549</v>
+        <v>0.17477588642982766</v>
       </c>
       <c r="AA7" s="6">
         <v>44196</v>
       </c>
       <c r="AC7" s="7">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="AD7" s="6">
         <v>44561</v>
@@ -10025,26 +10114,26 @@
         <v>25.382097087861155</v>
       </c>
       <c r="Q8" s="5">
-        <v>234.52221079453955</v>
+        <v>234.56467522139675</v>
       </c>
       <c r="R8" s="5">
-        <v>321.80638751270993</v>
+        <v>321.66097977873568</v>
       </c>
       <c r="S8" s="5">
-        <v>87.284176718170386</v>
+        <v>87.096304557338925</v>
       </c>
       <c r="T8" s="5">
-        <v>304.86568360352226</v>
+        <v>304.720275869548</v>
       </c>
       <c r="U8" s="9">
-        <v>0.37217872210252356</v>
+        <v>0.3713104050093306</v>
       </c>
       <c r="V8" s="9">
         <v>9.161448749478418E-2</v>
       </c>
       <c r="AC8" s="2">
         <f>IRR(AC4:AC7)</f>
-        <v>0.12526732833880572</v>
+        <v>0.12500423731317034</v>
       </c>
       <c r="AD8" s="6">
         <v>44561</v>
@@ -10092,22 +10181,22 @@
         <v>44925</v>
       </c>
       <c r="P9" s="10">
-        <v>565.58588458679435</v>
+        <v>564.04017688876081</v>
       </c>
       <c r="Q9" s="5">
-        <v>800.1080953813339</v>
+        <v>798.60485211015759</v>
       </c>
       <c r="R9" s="5">
-        <v>916.97898329904501</v>
+        <v>915.30849147938511</v>
       </c>
       <c r="S9" s="5">
-        <v>116.87088791771112</v>
+        <v>116.70363936922752</v>
       </c>
       <c r="T9" s="5">
-        <v>304.86568360352226</v>
+        <v>304.720275869548</v>
       </c>
       <c r="U9" s="9">
-        <v>0.14606887318395412</v>
+        <v>0.14613439808293288</v>
       </c>
       <c r="V9" s="9">
         <v>6.5682800424140098E-2</v>
@@ -10306,31 +10395,31 @@
         <v>43496</v>
       </c>
       <c r="B14" s="25">
-        <v>0.67819000000000007</v>
+        <v>0.67716999999999994</v>
       </c>
       <c r="C14" s="20">
-        <v>0.80289104000000022</v>
+        <v>0.80198084000000014</v>
       </c>
       <c r="D14" s="21">
-        <v>24.103041534476539</v>
+        <v>24.145505961333757</v>
       </c>
       <c r="E14" s="22">
-        <v>35.540249096088907</v>
+        <v>35.656490927438838</v>
       </c>
       <c r="F14" s="22">
-        <v>290.6752248356608</v>
+        <v>290.7914666670107</v>
       </c>
       <c r="G14" s="22">
-        <v>197.13303073129683</v>
+        <v>196.91525748289962</v>
       </c>
       <c r="H14" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I14" s="22">
-        <v>197.13303073129683</v>
+        <v>196.91525748289962</v>
       </c>
       <c r="J14" s="22">
-        <v>-12.007082975381564</v>
+        <v>-12.26732065063598</v>
       </c>
       <c r="K14" s="21">
         <v>0</v>
@@ -10355,31 +10444,31 @@
         <v>0.85648000000000002</v>
       </c>
       <c r="C15" s="20">
-        <v>0.79863988000000019</v>
+        <v>0.79816120000000024</v>
       </c>
       <c r="D15" s="21">
-        <v>-5.1854931965022892</v>
+        <v>-5.2716777718319605</v>
       </c>
       <c r="E15" s="22">
-        <v>-6.0544241505957981</v>
+        <v>-6.155050639631936</v>
       </c>
       <c r="F15" s="22">
-        <v>284.62080068506498</v>
+        <v>284.63641602737874</v>
       </c>
       <c r="G15" s="22">
-        <v>243.77202337074445</v>
+        <v>243.78539759912934</v>
       </c>
       <c r="H15" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I15" s="22">
-        <v>248.95751656724673</v>
+        <v>249.05707537096129</v>
       </c>
       <c r="J15" s="22">
-        <v>39.817402860568336</v>
+        <v>39.874497237425686</v>
       </c>
       <c r="K15" s="21">
-        <v>5.1854931965022892</v>
+        <v>5.2716777718319605</v>
       </c>
       <c r="L15" s="7"/>
       <c r="X15" s="6">
@@ -10397,31 +10486,31 @@
         <v>0.94580999999999993</v>
       </c>
       <c r="C16" s="20">
-        <v>0.80337899999999995</v>
+        <v>0.80233468000000008</v>
       </c>
       <c r="D16" s="21">
-        <v>-31.444214129549987</v>
+        <v>-31.907009546108654</v>
       </c>
       <c r="E16" s="22">
-        <v>-33.245804262536865</v>
+        <v>-33.735115452478468</v>
       </c>
       <c r="F16" s="22">
-        <v>251.37499642252811</v>
+        <v>250.90130057490029</v>
       </c>
       <c r="G16" s="22">
-        <v>237.7529853663913</v>
+        <v>237.30495909674642</v>
       </c>
       <c r="H16" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I16" s="22">
-        <v>274.38269269244358</v>
+        <v>274.48364641468703</v>
       </c>
       <c r="J16" s="22">
-        <v>65.242578985765192</v>
+        <v>65.30106828115143</v>
       </c>
       <c r="K16" s="21">
-        <v>36.629707326052277</v>
+        <v>37.178687317940614</v>
       </c>
       <c r="L16" s="7"/>
       <c r="Z16" s="2">
@@ -10437,31 +10526,31 @@
         <v>0.9108099999999999</v>
       </c>
       <c r="C17" s="20">
-        <v>0.80660947999999977</v>
+        <v>0.80561315999999961</v>
       </c>
       <c r="D17" s="21">
-        <v>-16.82950997081916</v>
+        <v>-17.152881476277773</v>
       </c>
       <c r="E17" s="22">
-        <v>-18.477519977623391</v>
+        <v>-18.832557258130429</v>
       </c>
       <c r="F17" s="22">
-        <v>232.89747644490473</v>
+        <v>232.06874331676985</v>
       </c>
       <c r="G17" s="22">
-        <v>212.12535052078366</v>
+        <v>211.37053210034713</v>
       </c>
       <c r="H17" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I17" s="22">
-        <v>265.58456781765511</v>
+        <v>265.70210089456555</v>
       </c>
       <c r="J17" s="22">
-        <v>56.444454110976721</v>
+        <v>56.519522761029947</v>
       </c>
       <c r="K17" s="21">
-        <v>53.459217296871437</v>
+        <v>54.331568794218384</v>
       </c>
       <c r="L17" s="7"/>
     </row>
@@ -10473,31 +10562,31 @@
         <v>0.86360000000000003</v>
       </c>
       <c r="C18" s="20">
-        <v>0.8020255199999996</v>
+        <v>0.8010060799999994</v>
       </c>
       <c r="D18" s="21">
-        <v>-5.8766957102692023</v>
+        <v>-6.0728981724980429</v>
       </c>
       <c r="E18" s="22">
-        <v>-6.8048815542718879</v>
+        <v>-7.0320729185943058</v>
       </c>
       <c r="F18" s="22">
-        <v>226.09259489063282</v>
+        <v>225.03667039817554</v>
       </c>
       <c r="G18" s="22">
-        <v>195.2535649475505</v>
+        <v>194.3416685558644</v>
       </c>
       <c r="H18" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I18" s="22">
-        <v>254.58947795469115</v>
+        <v>254.74613552258083</v>
       </c>
       <c r="J18" s="22">
-        <v>45.449364248012756</v>
+        <v>45.563557389045229</v>
       </c>
       <c r="K18" s="21">
-        <v>59.33591300714064</v>
+        <v>60.404466966716427</v>
       </c>
       <c r="L18" s="7"/>
     </row>
@@ -10509,31 +10598,31 @@
         <v>0.88732</v>
       </c>
       <c r="C19" s="20">
-        <v>0.80021431999999926</v>
+        <v>0.79979107999999932</v>
       </c>
       <c r="D19" s="21">
-        <v>-11.760469206806921</v>
+        <v>-11.875033346368102</v>
       </c>
       <c r="E19" s="22">
-        <v>-13.253921028272687</v>
+        <v>-13.383033568913246</v>
       </c>
       <c r="F19" s="22">
-        <v>212.83867386236014</v>
+        <v>211.6536368292623</v>
       </c>
       <c r="G19" s="22">
-        <v>188.85601209154939</v>
+        <v>187.80450503134102</v>
       </c>
       <c r="H19" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I19" s="22">
-        <v>259.95239430549697</v>
+        <v>260.08400534442558</v>
       </c>
       <c r="J19" s="22">
-        <v>50.812280598818575</v>
+        <v>50.901427210889977</v>
       </c>
       <c r="K19" s="21">
-        <v>71.096382213947564</v>
+        <v>72.279500313084526</v>
       </c>
       <c r="L19" s="7"/>
     </row>
@@ -10545,31 +10634,31 @@
         <v>0.89222000000000001</v>
       </c>
       <c r="C20" s="20">
-        <v>0.80840215999999976</v>
+        <v>0.80782763999999974</v>
       </c>
       <c r="D20" s="21">
-        <v>-10.889416968511746</v>
+        <v>-11.039209160872952</v>
       </c>
       <c r="E20" s="22">
-        <v>-12.204856390253241</v>
+        <v>-12.372743449903558</v>
       </c>
       <c r="F20" s="22">
-        <v>200.6338174721069</v>
+        <v>199.28089337935873</v>
       </c>
       <c r="G20" s="22">
-        <v>179.00950462496323</v>
+        <v>177.80239869093145</v>
       </c>
       <c r="H20" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I20" s="22">
-        <v>260.99530380742254</v>
+        <v>261.12110816488894</v>
       </c>
       <c r="J20" s="22">
-        <v>51.855190100744153</v>
+        <v>51.938530031353338</v>
       </c>
       <c r="K20" s="21">
-        <v>81.985799182459317</v>
+        <v>83.318709473957483</v>
       </c>
       <c r="L20" s="7"/>
     </row>
@@ -10581,31 +10670,31 @@
         <v>0.92357</v>
       </c>
       <c r="C21" s="20">
-        <v>0.81579543999999959</v>
+        <v>0.81574827999999955</v>
       </c>
       <c r="D21" s="21">
-        <v>-18.003801463950214</v>
+        <v>-18.019561120825671</v>
       </c>
       <c r="E21" s="22">
-        <v>-19.493705364996931</v>
+        <v>-19.510769211673907</v>
       </c>
       <c r="F21" s="22">
-        <v>181.14011210710996</v>
+        <v>179.77012416768483</v>
       </c>
       <c r="G21" s="22">
-        <v>167.29557333876355</v>
+        <v>166.03029357754869</v>
       </c>
       <c r="H21" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I21" s="22">
-        <v>267.28517398517306</v>
+        <v>267.36856417233184</v>
       </c>
       <c r="J21" s="22">
-        <v>58.145060278494668</v>
+        <v>58.185986038796244</v>
       </c>
       <c r="K21" s="21">
-        <v>99.989600646409528</v>
+        <v>101.33827059478315</v>
       </c>
       <c r="L21" s="8"/>
     </row>
@@ -10617,31 +10706,31 @@
         <v>0.95855999999999997</v>
       </c>
       <c r="C22" s="20">
-        <v>0.83312139999999968</v>
+        <v>0.83330167999999971</v>
       </c>
       <c r="D22" s="21">
-        <v>-24.38900567343811</v>
+        <v>-24.318952430294821</v>
       </c>
       <c r="E22" s="22">
-        <v>-25.443379312132897</v>
+        <v>-25.370297561232288</v>
       </c>
       <c r="F22" s="22">
-        <v>155.69673279497707</v>
+        <v>154.39982660645254</v>
       </c>
       <c r="G22" s="22">
-        <v>149.2446601879532</v>
+        <v>148.00149779188115</v>
       </c>
       <c r="H22" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I22" s="22">
-        <v>273.62326650780085</v>
+        <v>273.65872081695909</v>
       </c>
       <c r="J22" s="22">
-        <v>64.483152801122458</v>
+        <v>64.47614268342349</v>
       </c>
       <c r="K22" s="21">
-        <v>124.37860631984763</v>
+        <v>125.65722302507797</v>
       </c>
       <c r="L22" s="7"/>
     </row>
@@ -10653,31 +10742,31 @@
         <v>0.97238999999999998</v>
       </c>
       <c r="C23" s="20">
-        <v>0.85132979999999947</v>
+        <v>0.85201527999999938</v>
       </c>
       <c r="D23" s="21">
-        <v>-22.716136637262188</v>
+        <v>-22.459613483371744</v>
       </c>
       <c r="E23" s="22">
-        <v>-23.361137647715616</v>
+        <v>-23.0973307863838</v>
       </c>
       <c r="F23" s="22">
-        <v>132.33559514726144</v>
+        <v>131.30249582006874</v>
       </c>
       <c r="G23" s="22">
-        <v>128.68180936524556</v>
+        <v>127.67723391047664</v>
       </c>
       <c r="H23" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I23" s="22">
-        <v>275.77655232235537</v>
+        <v>275.79407041892637</v>
       </c>
       <c r="J23" s="22">
-        <v>66.63643861567698</v>
+        <v>66.611492285390767</v>
       </c>
       <c r="K23" s="21">
-        <v>147.09474295710982</v>
+        <v>148.11683650844972</v>
       </c>
       <c r="L23" s="7"/>
       <c r="O23" s="3"/>
@@ -10690,31 +10779,31 @@
         <v>0.97728999999999999</v>
       </c>
       <c r="C24" s="20">
-        <v>0.87548991999999959</v>
+        <v>0.87560303999999967</v>
       </c>
       <c r="D24" s="21">
-        <v>-16.063047246410047</v>
+        <v>-16.027368642764582</v>
       </c>
       <c r="E24" s="22">
-        <v>-16.436315982369663</v>
+        <v>-16.399808289007954</v>
       </c>
       <c r="F24" s="22">
-        <v>115.89927916489178</v>
+        <v>114.90268753106079</v>
       </c>
       <c r="G24" s="22">
-        <v>113.26720653505708</v>
+        <v>112.2932474972304</v>
       </c>
       <c r="H24" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I24" s="22">
-        <v>276.42499673857697</v>
+        <v>276.43745264844472</v>
       </c>
       <c r="J24" s="22">
-        <v>67.284883031898573</v>
+        <v>67.254874514909119</v>
       </c>
       <c r="K24" s="21">
-        <v>163.15779020351985</v>
+        <v>164.14420515121429</v>
       </c>
       <c r="L24" s="7"/>
     </row>
@@ -10726,31 +10815,31 @@
         <v>1.0407999999999999</v>
       </c>
       <c r="C25" s="20">
-        <v>0.90189423999999996</v>
+        <v>0.90258836000000009</v>
       </c>
       <c r="D25" s="21">
-        <v>-29.906955749825276</v>
+        <v>-29.608809018808817</v>
       </c>
       <c r="E25" s="22">
-        <v>-28.734584694297922</v>
+        <v>-28.448125498471192</v>
       </c>
       <c r="F25" s="22">
-        <v>87.164694470593858</v>
+        <v>86.454562032589592</v>
       </c>
       <c r="G25" s="22">
-        <v>90.721014004994089</v>
+        <v>89.98190816351925</v>
       </c>
       <c r="H25" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I25" s="22">
-        <v>283.78575995833921</v>
+        <v>283.73492233354239</v>
       </c>
       <c r="J25" s="22">
-        <v>74.645646251660821</v>
+        <v>74.552344200006786</v>
       </c>
       <c r="K25" s="21">
-        <v>193.06474595334512</v>
+        <v>193.75301417002311</v>
       </c>
       <c r="L25" s="7"/>
     </row>
@@ -10762,31 +10851,31 @@
         <v>1.13632</v>
       </c>
       <c r="C26" s="20">
-        <v>0.92962908</v>
+        <v>0.93022331999999996</v>
       </c>
       <c r="D26" s="21">
-        <v>-66.217761436191921</v>
+        <v>-65.837554335884732</v>
       </c>
       <c r="E26" s="22">
-        <v>-58.27386778037166</v>
+        <v>-57.939272683649619</v>
       </c>
       <c r="F26" s="22">
-        <v>28.890826690222198</v>
+        <v>28.515289348939973</v>
       </c>
       <c r="G26" s="22">
-        <v>32.82922418463329</v>
+        <v>32.402493592987469</v>
       </c>
       <c r="H26" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I26" s="22">
-        <v>292.11173157417034</v>
+        <v>291.99306209889534</v>
       </c>
       <c r="J26" s="22">
-        <v>82.971617867491943</v>
+        <v>82.810483965359737</v>
       </c>
       <c r="K26" s="21">
-        <v>259.28250738953705</v>
+        <v>259.59056850590787</v>
       </c>
       <c r="L26" s="7"/>
     </row>
@@ -10798,13 +10887,13 @@
         <v>1.2075199999999999</v>
       </c>
       <c r="C27" s="20">
-        <v>0.96966315999999997</v>
+        <v>0.96999144000000015</v>
       </c>
       <c r="D27" s="21">
-        <v>-34.886251044977108</v>
+        <v>-34.432782194631997</v>
       </c>
       <c r="E27" s="22">
-        <v>-28.890826690222198</v>
+        <v>-28.515289348939973</v>
       </c>
       <c r="F27" s="22">
         <v>0</v>
@@ -10813,16 +10902,16 @@
         <v>0</v>
       </c>
       <c r="H27" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I27" s="22">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="J27" s="22">
-        <v>85.02864472783574</v>
+        <v>84.840772567004279</v>
       </c>
       <c r="K27" s="21">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="L27" s="7"/>
     </row>
@@ -10834,7 +10923,7 @@
         <v>1.0721400000000001</v>
       </c>
       <c r="C28" s="20">
-        <v>0.99416948000000038</v>
+        <v>0.9937777600000004</v>
       </c>
       <c r="D28" s="21">
         <v>0</v>
@@ -10849,16 +10938,16 @@
         <v>0</v>
       </c>
       <c r="H28" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I28" s="22">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="J28" s="22">
-        <v>85.02864472783574</v>
+        <v>84.840772567004279</v>
       </c>
       <c r="K28" s="21">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="L28" s="7"/>
     </row>
@@ -10870,7 +10959,7 @@
         <v>1.13618</v>
       </c>
       <c r="C29" s="20">
-        <v>1.0066833200000003</v>
+        <v>1.0062796800000002</v>
       </c>
       <c r="D29" s="21">
         <v>0</v>
@@ -10885,16 +10974,16 @@
         <v>0</v>
       </c>
       <c r="H29" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I29" s="22">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="J29" s="22">
-        <v>85.02864472783574</v>
+        <v>84.840772567004279</v>
       </c>
       <c r="K29" s="21">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="L29" s="7"/>
     </row>
@@ -10906,7 +10995,7 @@
         <v>1.12294</v>
       </c>
       <c r="C30" s="20">
-        <v>1.0254032800000001</v>
+        <v>1.0253235600000004</v>
       </c>
       <c r="D30" s="21">
         <v>0</v>
@@ -10921,16 +11010,16 @@
         <v>0</v>
       </c>
       <c r="H30" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I30" s="22">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="J30" s="22">
-        <v>85.02864472783574</v>
+        <v>84.840772567004279</v>
       </c>
       <c r="K30" s="21">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="L30" s="7"/>
     </row>
@@ -10942,7 +11031,7 @@
         <v>1.25214</v>
       </c>
       <c r="C31" s="20">
-        <v>1.0521240799999996</v>
+        <v>1.0521225599999997</v>
       </c>
       <c r="D31" s="21">
         <v>0</v>
@@ -10957,16 +11046,16 @@
         <v>0</v>
       </c>
       <c r="H31" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I31" s="22">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="J31" s="22">
-        <v>85.02864472783574</v>
+        <v>84.840772567004279</v>
       </c>
       <c r="K31" s="21">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="L31" s="7"/>
     </row>
@@ -10978,7 +11067,7 @@
         <v>1.3561700000000001</v>
       </c>
       <c r="C32" s="20">
-        <v>1.09524756</v>
+        <v>1.09525304</v>
       </c>
       <c r="D32" s="21">
         <v>0</v>
@@ -10993,16 +11082,16 @@
         <v>0</v>
       </c>
       <c r="H32" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I32" s="22">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="J32" s="22">
-        <v>85.02864472783574</v>
+        <v>84.840772567004279</v>
       </c>
       <c r="K32" s="21">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="L32" s="7"/>
     </row>
@@ -11029,16 +11118,16 @@
         <v>0</v>
       </c>
       <c r="H33" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I33" s="22">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="J33" s="22">
-        <v>85.02864472783574</v>
+        <v>84.840772567004279</v>
       </c>
       <c r="K33" s="21">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="L33" s="7"/>
     </row>
@@ -11065,16 +11154,16 @@
         <v>0</v>
       </c>
       <c r="H34" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I34" s="22">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="J34" s="22">
-        <v>85.02864472783574</v>
+        <v>84.840772567004279</v>
       </c>
       <c r="K34" s="21">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="L34" s="7"/>
       <c r="O34" s="3"/>
@@ -11102,16 +11191,16 @@
         <v>0</v>
       </c>
       <c r="H35" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I35" s="22">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="J35" s="22">
-        <v>85.02864472783574</v>
+        <v>84.840772567004279</v>
       </c>
       <c r="K35" s="21">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="L35" s="7"/>
     </row>
@@ -11138,16 +11227,16 @@
         <v>0</v>
       </c>
       <c r="H36" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I36" s="22">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="J36" s="22">
-        <v>85.02864472783574</v>
+        <v>84.840772567004279</v>
       </c>
       <c r="K36" s="21">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="L36" s="7"/>
     </row>
@@ -11174,16 +11263,16 @@
         <v>0</v>
       </c>
       <c r="H37" s="22">
-        <v>209.14011370667839</v>
+        <v>209.1825781335356</v>
       </c>
       <c r="I37" s="22">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="J37" s="22">
-        <v>85.02864472783574</v>
+        <v>84.840772567004279</v>
       </c>
       <c r="K37" s="21">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="L37" s="7"/>
     </row>
@@ -11210,16 +11299,16 @@
         <v>8.5555045580028403E-3</v>
       </c>
       <c r="H38" s="22">
-        <v>209.14866921123638</v>
+        <v>209.19113363809359</v>
       </c>
       <c r="I38" s="22">
-        <v>294.17731393907212</v>
+        <v>294.03190620509787</v>
       </c>
       <c r="J38" s="22">
-        <v>85.02864472783574</v>
+        <v>84.840772567004279</v>
       </c>
       <c r="K38" s="21">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="L38" s="7"/>
     </row>
@@ -11246,16 +11335,16 @@
         <v>8.2439606879804145E-2</v>
       </c>
       <c r="H39" s="22">
-        <v>209.22253831117848</v>
+        <v>209.26500273803569</v>
       </c>
       <c r="I39" s="22">
-        <v>294.25119804139393</v>
+        <v>294.10579030741968</v>
       </c>
       <c r="J39" s="22">
-        <v>85.028659730215452</v>
+        <v>84.840787569383991</v>
       </c>
       <c r="K39" s="21">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="L39" s="7"/>
     </row>
@@ -11282,16 +11371,16 @@
         <v>11.073701039471924</v>
       </c>
       <c r="H40" s="22">
-        <v>220.2192914171483</v>
+        <v>220.26175584400551</v>
       </c>
       <c r="I40" s="22">
-        <v>305.24245947398606</v>
+        <v>305.09705174001181</v>
       </c>
       <c r="J40" s="22">
-        <v>85.023168056837761</v>
+        <v>84.835295896006301</v>
       </c>
       <c r="K40" s="21">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="L40" s="7"/>
     </row>
@@ -11318,16 +11407,16 @@
         <v>18.256665057539632</v>
       </c>
       <c r="H41" s="22">
-        <v>227.18319121653508</v>
+        <v>227.22565564339229</v>
       </c>
       <c r="I41" s="22">
-        <v>312.42542349205377</v>
+        <v>312.28001575807951</v>
       </c>
       <c r="J41" s="22">
-        <v>85.242232275518688</v>
+        <v>85.054360114687228</v>
       </c>
       <c r="K41" s="21">
-        <v>294.16875843451413</v>
+        <v>294.02335070053988</v>
       </c>
       <c r="L41" s="7"/>
     </row>
@@ -11354,16 +11443,16 @@
         <v>19.31704629582477</v>
       </c>
       <c r="H42" s="22">
-        <v>227.18319121653508</v>
+        <v>227.22565564339229</v>
       </c>
       <c r="I42" s="22">
-        <v>313.69907954345859</v>
+        <v>313.55367180948434</v>
       </c>
       <c r="J42" s="22">
-        <v>86.515888326923516</v>
+        <v>86.328016166092056</v>
       </c>
       <c r="K42" s="21">
-        <v>294.38203324763384</v>
+        <v>294.23662551365959</v>
       </c>
       <c r="L42" s="7"/>
     </row>
@@ -11390,16 +11479,16 @@
         <v>11.647549309575558</v>
       </c>
       <c r="H43" s="22">
-        <v>227.18319121653508</v>
+        <v>227.22565564339229</v>
       </c>
       <c r="I43" s="22">
-        <v>314.83349500880718</v>
+        <v>314.68808727483292</v>
       </c>
       <c r="J43" s="22">
-        <v>87.650303792272098</v>
+        <v>87.462431631440637</v>
       </c>
       <c r="K43" s="21">
-        <v>303.18594569923164</v>
+        <v>303.04053796525739</v>
       </c>
       <c r="L43" s="7"/>
     </row>
@@ -11426,16 +11515,16 @@
         <v>9.9914726733259922</v>
       </c>
       <c r="H44" s="22">
-        <v>227.18319121653508</v>
+        <v>227.22565564339229</v>
       </c>
       <c r="I44" s="22">
-        <v>314.39624236642305</v>
+        <v>314.2508346324488</v>
       </c>
       <c r="J44" s="22">
-        <v>87.213051149887974</v>
+        <v>87.025178989056514</v>
       </c>
       <c r="K44" s="21">
-        <v>304.40476969309708</v>
+        <v>304.25936195912283</v>
       </c>
       <c r="L44" s="7"/>
     </row>
@@ -11462,16 +11551,16 @@
         <v>11.205665104964165</v>
       </c>
       <c r="H45" s="22">
-        <v>228.92924822760713</v>
+        <v>228.97171265446434</v>
       </c>
       <c r="I45" s="22">
-        <v>315.61043479806125</v>
+        <v>315.465027064087</v>
       </c>
       <c r="J45" s="22">
-        <v>86.681186570454116</v>
+        <v>86.493314409622656</v>
       </c>
       <c r="K45" s="21">
-        <v>304.40476969309708</v>
+        <v>304.25936195912283</v>
       </c>
       <c r="L45" s="7"/>
     </row>
@@ -11498,16 +11587,16 @@
         <v>13.685908300986778</v>
       </c>
       <c r="H46" s="22">
-        <v>231.54125890759914</v>
+        <v>231.58372333445635</v>
       </c>
       <c r="I46" s="22">
-        <v>318.09067799408388</v>
+        <v>317.94527026010962</v>
       </c>
       <c r="J46" s="22">
-        <v>86.549419086484733</v>
+        <v>86.361546925653272</v>
       </c>
       <c r="K46" s="21">
-        <v>304.40476969309708</v>
+        <v>304.25936195912283</v>
       </c>
       <c r="L46" s="7"/>
     </row>
@@ -11534,16 +11623,16 @@
         <v>16.558886039800385</v>
       </c>
       <c r="H47" s="22">
-        <v>234.48667653762507</v>
+        <v>234.52914096448228</v>
       </c>
       <c r="I47" s="22">
-        <v>320.96365573289745</v>
+        <v>320.8182479989232</v>
       </c>
       <c r="J47" s="22">
-        <v>86.476979195272378</v>
+        <v>86.289107034440917</v>
       </c>
       <c r="K47" s="21">
-        <v>304.40476969309708</v>
+        <v>304.25936195912283</v>
       </c>
       <c r="L47" s="7"/>
     </row>
@@ -11570,16 +11659,16 @@
         <v>17.10110478058246</v>
       </c>
       <c r="H48" s="22">
-        <v>234.52221079453955</v>
+        <v>234.56467522139675</v>
       </c>
       <c r="I48" s="22">
-        <v>321.50587447367957</v>
+        <v>321.36046673970532</v>
       </c>
       <c r="J48" s="22">
-        <v>86.983663679140022</v>
+        <v>86.795791518308562</v>
       </c>
       <c r="K48" s="21">
-        <v>304.40476969309708</v>
+        <v>304.25936195912283</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="14.1" customHeight="1">
@@ -11605,16 +11694,16 @@
         <v>16.9407039091877</v>
       </c>
       <c r="H49" s="22">
-        <v>234.52221079453955</v>
+        <v>234.56467522139675</v>
       </c>
       <c r="I49" s="22">
-        <v>321.80638751270993</v>
+        <v>321.66097977873568</v>
       </c>
       <c r="J49" s="22">
-        <v>87.284176718170386</v>
+        <v>87.096304557338925</v>
       </c>
       <c r="K49" s="21">
-        <v>304.86568360352226</v>
+        <v>304.720275869548</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="14.1" customHeight="1">
@@ -11625,31 +11714,31 @@
         <v>1.11076</v>
       </c>
       <c r="C50" s="20">
-        <v>1.2355355200000004</v>
+        <v>1.2350539200000008</v>
       </c>
       <c r="D50" s="21">
-        <v>24.131842106469303</v>
+        <v>23.945916750898242</v>
       </c>
       <c r="E50" s="22">
-        <v>21.725523161141293</v>
+        <v>21.558137447241748</v>
       </c>
       <c r="F50" s="22">
-        <v>35.219683562275343</v>
+        <v>35.052297848375801</v>
       </c>
       <c r="G50" s="22">
-        <v>39.120615713632958</v>
+        <v>38.934690358061907</v>
       </c>
       <c r="H50" s="22">
-        <v>258.65405290100887</v>
+        <v>258.510591972295</v>
       </c>
       <c r="I50" s="22">
-        <v>343.98629931715521</v>
+        <v>343.65496622760992</v>
       </c>
       <c r="J50" s="22">
-        <v>85.332246416146347</v>
+        <v>85.144374255314915</v>
       </c>
       <c r="K50" s="21">
-        <v>304.86568360352226</v>
+        <v>304.720275869548</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="14.1" customHeight="1">
@@ -11660,31 +11749,31 @@
         <v>1.15177</v>
       </c>
       <c r="C51" s="20">
-        <v>1.2277890400000004</v>
+        <v>1.2271850000000004</v>
       </c>
       <c r="D51" s="21">
-        <v>8.9572863859085938</v>
+        <v>8.8155044487501062</v>
       </c>
       <c r="E51" s="22">
-        <v>7.7769749046325174</v>
+        <v>7.653875729312368</v>
       </c>
       <c r="F51" s="22">
-        <v>42.99665846690786</v>
+        <v>42.706173577688169</v>
       </c>
       <c r="G51" s="22">
-        <v>49.522261322430467</v>
+        <v>49.187689541573903</v>
       </c>
       <c r="H51" s="22">
-        <v>267.61133928691748</v>
+        <v>267.32609642104512</v>
       </c>
       <c r="I51" s="22">
-        <v>354.38794492595275</v>
+        <v>353.90796541112189</v>
       </c>
       <c r="J51" s="22">
-        <v>86.776605639035267</v>
+        <v>86.581868990076771</v>
       </c>
       <c r="K51" s="21">
-        <v>304.86568360352226</v>
+        <v>304.720275869548</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="14.1" customHeight="1">
@@ -11695,31 +11784,31 @@
         <v>1.0468499999999998</v>
       </c>
       <c r="C52" s="20">
-        <v>1.2143669200000002</v>
+        <v>1.2143919600000004</v>
       </c>
       <c r="D52" s="21">
-        <v>43.49597365374413</v>
+        <v>43.508977958994763</v>
       </c>
       <c r="E52" s="22">
-        <v>41.549384967993632</v>
+        <v>41.561807287572023</v>
       </c>
       <c r="F52" s="22">
-        <v>84.546043434901492</v>
+        <v>84.267980865260199</v>
       </c>
       <c r="G52" s="22">
-        <v>88.50702556982661</v>
+        <v>88.215935768797621</v>
       </c>
       <c r="H52" s="22">
-        <v>311.10731294066159</v>
+        <v>310.83507438003988</v>
       </c>
       <c r="I52" s="22">
-        <v>393.37270917334888</v>
+        <v>392.93621163834564</v>
       </c>
       <c r="J52" s="22">
-        <v>82.265396232687294</v>
+        <v>82.101137258305755</v>
       </c>
       <c r="K52" s="21">
-        <v>304.86568360352226</v>
+        <v>304.720275869548</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="14.1" customHeight="1">
@@ -11730,31 +11819,31 @@
         <v>0.83169999999999999</v>
       </c>
       <c r="C53" s="20">
-        <v>1.1967078799999999</v>
+        <v>1.1965680399999998</v>
       </c>
       <c r="D53" s="21">
-        <v>206.50766631624629</v>
+        <v>206.3494642508343</v>
       </c>
       <c r="E53" s="22">
-        <v>248.29585946404507</v>
+        <v>248.10564416356175</v>
       </c>
       <c r="F53" s="22">
-        <v>332.84190289894656</v>
+        <v>332.37362502882195</v>
       </c>
       <c r="G53" s="22">
-        <v>276.82461064105382</v>
+        <v>276.43514393647121</v>
       </c>
       <c r="H53" s="22">
-        <v>517.61497925690787</v>
+        <v>517.18453863087416</v>
       </c>
       <c r="I53" s="22">
-        <v>581.69029424457608</v>
+        <v>581.15541980601915</v>
       </c>
       <c r="J53" s="22">
-        <v>64.075314987668207</v>
+        <v>63.970881175144996</v>
       </c>
       <c r="K53" s="21">
-        <v>304.86568360352226</v>
+        <v>304.720275869548</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="14.1" customHeight="1">
@@ -11765,31 +11854,31 @@
         <v>0.90644000000000002</v>
       </c>
       <c r="C54" s="20">
-        <v>1.1734625999999997</v>
+        <v>1.1732722399999995</v>
       </c>
       <c r="D54" s="21">
-        <v>110.51665681167773</v>
+        <v>110.35913867029687</v>
       </c>
       <c r="E54" s="22">
-        <v>121.92385244657973</v>
+        <v>121.75007575823757</v>
       </c>
       <c r="F54" s="22">
-        <v>454.76575534552626</v>
+        <v>454.12370078705953</v>
       </c>
       <c r="G54" s="22">
-        <v>412.21787127539881</v>
+        <v>411.63588734142223</v>
       </c>
       <c r="H54" s="22">
-        <v>628.13163606858564</v>
+        <v>627.54367730117099</v>
       </c>
       <c r="I54" s="22">
-        <v>717.08355487892106</v>
+        <v>716.35616321097018</v>
       </c>
       <c r="J54" s="22">
-        <v>88.951918810335428</v>
+        <v>88.812485909799193</v>
       </c>
       <c r="K54" s="21">
-        <v>304.86568360352226</v>
+        <v>304.720275869548</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="14.1" customHeight="1">
@@ -11800,31 +11889,31 @@
         <v>0.99066999999999994</v>
       </c>
       <c r="C55" s="20">
-        <v>1.1480034399999997</v>
+        <v>1.1474773999999999</v>
       </c>
       <c r="D55" s="21">
-        <v>38.368407580461941</v>
+        <v>38.112269076877965</v>
       </c>
       <c r="E55" s="22">
-        <v>38.729756205862643</v>
+        <v>38.471205423479027</v>
       </c>
       <c r="F55" s="22">
-        <v>493.49551155138892</v>
+        <v>492.59490621053857</v>
       </c>
       <c r="G55" s="22">
-        <v>488.89119842861442</v>
+        <v>487.99899573559424</v>
       </c>
       <c r="H55" s="22">
-        <v>666.5000436490476</v>
+        <v>665.65594637804895</v>
       </c>
       <c r="I55" s="22">
-        <v>793.75688203213667</v>
+        <v>792.71927160514224</v>
       </c>
       <c r="J55" s="22">
-        <v>127.25683838308908</v>
+        <v>127.06332522709329</v>
       </c>
       <c r="K55" s="21">
-        <v>304.86568360352226</v>
+        <v>304.720275869548</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="14.1" customHeight="1">
@@ -11835,31 +11924,31 @@
         <v>1.01267</v>
       </c>
       <c r="C56" s="20">
-        <v>1.1203607999999998</v>
+        <v>1.1197452399999999</v>
       </c>
       <c r="D56" s="21">
-        <v>17.975828027191955</v>
+        <v>17.770915882639247</v>
       </c>
       <c r="E56" s="22">
-        <v>17.750923822362623</v>
+        <v>17.548575431916863</v>
       </c>
       <c r="F56" s="22">
-        <v>511.24643537375152</v>
+        <v>510.14348164245541</v>
       </c>
       <c r="G56" s="22">
-        <v>517.7239277099369</v>
+        <v>516.6069995548653</v>
       </c>
       <c r="H56" s="22">
-        <v>684.47587167623954</v>
+        <v>683.42686226068815</v>
       </c>
       <c r="I56" s="22">
-        <v>822.58961131345916</v>
+        <v>821.3272754244133</v>
       </c>
       <c r="J56" s="22">
-        <v>138.11373963721962</v>
+        <v>137.90041316372515</v>
       </c>
       <c r="K56" s="21">
-        <v>304.86568360352226</v>
+        <v>304.720275869548</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="14.1" customHeight="1">
@@ -11870,31 +11959,31 @@
         <v>0.95750000000000002</v>
       </c>
       <c r="C57" s="20">
-        <v>1.0959177199999997</v>
+        <v>1.0955673599999998</v>
       </c>
       <c r="D57" s="21">
-        <v>29.697171075497362</v>
+        <v>29.547023640922774</v>
       </c>
       <c r="E57" s="22">
-        <v>31.015322272059908</v>
+        <v>30.858510329945457</v>
       </c>
       <c r="F57" s="22">
-        <v>542.26175764581149</v>
+        <v>541.0019919724009</v>
       </c>
       <c r="G57" s="22">
-        <v>519.21563294586451</v>
+        <v>518.00940731357389</v>
       </c>
       <c r="H57" s="22">
-        <v>714.17304275173694</v>
+        <v>712.97388590161097</v>
       </c>
       <c r="I57" s="22">
-        <v>824.08131654938677</v>
+        <v>822.72968318312189</v>
       </c>
       <c r="J57" s="22">
-        <v>109.90827379764983</v>
+        <v>109.75579728151092</v>
       </c>
       <c r="K57" s="21">
-        <v>304.86568360352226</v>
+        <v>304.720275869548</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="14.1" customHeight="1">
@@ -11905,31 +11994,31 @@
         <v>0.85887999999999998</v>
       </c>
       <c r="C58" s="20">
-        <v>1.06964792</v>
+        <v>1.0694000799999999</v>
       </c>
       <c r="D58" s="21">
-        <v>68.855829956745922</v>
+        <v>68.693991328969844</v>
       </c>
       <c r="E58" s="22">
-        <v>80.169325117299181</v>
+        <v>79.980895269385528</v>
       </c>
       <c r="F58" s="22">
-        <v>622.43108276311068</v>
+        <v>620.98288724178644</v>
       </c>
       <c r="G58" s="22">
-        <v>534.59360836358053</v>
+        <v>533.34978219422555</v>
       </c>
       <c r="H58" s="22">
-        <v>783.02887270848282</v>
+        <v>781.66787723058087</v>
       </c>
       <c r="I58" s="22">
-        <v>839.45929196710279</v>
+        <v>838.07005806377356</v>
       </c>
       <c r="J58" s="22">
-        <v>56.430419258619963</v>
+        <v>56.402180833192688</v>
       </c>
       <c r="K58" s="21">
-        <v>304.86568360352226</v>
+        <v>304.720275869548</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="14.1" customHeight="1">
@@ -11940,31 +12029,31 @@
         <v>0.96957000000000004</v>
       </c>
       <c r="C59" s="20">
-        <v>1.0512867600000002</v>
+        <v>1.0510960000000003</v>
       </c>
       <c r="D59" s="21">
-        <v>10.350324740591322</v>
+        <v>10.302057447800053</v>
       </c>
       <c r="E59" s="22">
-        <v>10.675170168828782</v>
+        <v>10.62538800478568</v>
       </c>
       <c r="F59" s="22">
-        <v>633.10625293193948</v>
+        <v>631.60827524657213</v>
       </c>
       <c r="G59" s="22">
-        <v>613.84082965522055</v>
+        <v>612.38843543081896</v>
       </c>
       <c r="H59" s="22">
-        <v>793.37919744907413</v>
+        <v>791.96993467838092</v>
       </c>
       <c r="I59" s="22">
-        <v>918.7065132587428</v>
+        <v>917.10871130036696</v>
       </c>
       <c r="J59" s="22">
-        <v>125.32731580966868</v>
+        <v>125.13877662198604</v>
       </c>
       <c r="K59" s="21">
-        <v>304.86568360352226</v>
+        <v>304.720275869548</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="14.1" customHeight="1">
@@ -11975,31 +12064,31 @@
         <v>0.99405999999999994</v>
       </c>
       <c r="C60" s="20">
-        <v>1.0324731600000001</v>
+        <v>1.0321424800000001</v>
       </c>
       <c r="D60" s="21">
-        <v>2.2871348348376999</v>
+        <v>2.2479266885731368</v>
       </c>
       <c r="E60" s="22">
-        <v>2.30080159631984</v>
+        <v>2.2613591619953897</v>
       </c>
       <c r="F60" s="22">
-        <v>635.40705452825932</v>
+        <v>633.86963440856755</v>
       </c>
       <c r="G60" s="22">
-        <v>631.63273662436143</v>
+        <v>630.10444878018063</v>
       </c>
       <c r="H60" s="22">
-        <v>795.66633228391186</v>
+        <v>794.21786136695403</v>
       </c>
       <c r="I60" s="22">
-        <v>936.49842022788368</v>
+        <v>934.82472464972864</v>
       </c>
       <c r="J60" s="22">
-        <v>140.83208794397183</v>
+        <v>140.60686328277461</v>
       </c>
       <c r="K60" s="21">
-        <v>304.86568360352226</v>
+        <v>304.720275869548</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="14.1" customHeight="1">
@@ -12010,31 +12099,31 @@
         <v>0.95635000000000003</v>
       </c>
       <c r="C61" s="20">
-        <v>1.0098818000000001</v>
+        <v>1.00955072</v>
       </c>
       <c r="D61" s="21">
-        <v>4.4417630974220028</v>
+        <v>4.3869907432035165</v>
       </c>
       <c r="E61" s="22">
-        <v>4.6444953180551085</v>
+        <v>4.5872230283928648</v>
       </c>
       <c r="F61" s="22">
-        <v>640.0515498463144</v>
+        <v>638.45685743696038</v>
       </c>
       <c r="G61" s="22">
-        <v>612.11329969552276</v>
+        <v>610.58821560983711</v>
       </c>
       <c r="H61" s="22">
-        <v>800.1080953813339</v>
+        <v>798.60485211015759</v>
       </c>
       <c r="I61" s="22">
-        <v>916.97898329904501</v>
+        <v>915.30849147938511</v>
       </c>
       <c r="J61" s="22">
-        <v>116.87088791771112</v>
+        <v>116.70363936922752</v>
       </c>
       <c r="K61" s="21">
-        <v>304.86568360352226</v>
+        <v>304.720275869548</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="14.1" customHeight="1">
@@ -12045,31 +12134,31 @@
         <v>1.08087</v>
       </c>
       <c r="C62" s="20">
-        <v>0.99600491999999985</v>
+        <v>0.9958413599999999</v>
       </c>
       <c r="D62" s="21">
-        <v>-11.163226795279959</v>
+        <v>-11.206297911386907</v>
       </c>
       <c r="E62" s="22">
-        <v>-10.328001327893233</v>
+        <v>-10.367849890724052</v>
       </c>
       <c r="F62" s="22">
-        <v>629.72354851842113</v>
+        <v>628.0890075462363</v>
       </c>
       <c r="G62" s="22">
-        <v>680.64929188710585</v>
+        <v>678.88256558650039</v>
       </c>
       <c r="H62" s="22">
-        <v>800.1080953813339</v>
+        <v>798.60485211015759</v>
       </c>
       <c r="I62" s="22">
-        <v>996.67820228590813</v>
+        <v>994.80913936743536</v>
       </c>
       <c r="J62" s="22">
-        <v>196.57010690457423</v>
+        <v>196.20428725727777</v>
       </c>
       <c r="K62" s="21">
-        <v>316.02891039880222</v>
+        <v>315.92657378093492</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="14.1" customHeight="1">
@@ -12089,22 +12178,22 @@
         <v>-39.452167990306556</v>
       </c>
       <c r="F63" s="22">
-        <v>590.27138052811461</v>
+        <v>588.63683955592978</v>
       </c>
       <c r="G63" s="22">
-        <v>689.78523257134941</v>
+        <v>687.87512433666404</v>
       </c>
       <c r="H63" s="22">
-        <v>800.1080953813339</v>
+        <v>798.60485211015759</v>
       </c>
       <c r="I63" s="22">
-        <v>1051.9175519619439</v>
+        <v>1049.9051071093913</v>
       </c>
       <c r="J63" s="22">
-        <v>251.80945658061</v>
+        <v>251.30025499923374</v>
       </c>
       <c r="K63" s="21">
-        <v>362.13231939059455</v>
+        <v>362.02998277272724</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="14.1" customHeight="1">
@@ -12124,22 +12213,22 @@
         <v>-101.85827080390294</v>
       </c>
       <c r="F64" s="22">
-        <v>488.41310972421167</v>
+        <v>486.77856875202684</v>
       </c>
       <c r="G64" s="22">
-        <v>634.44374540065371</v>
+        <v>632.32049302319535</v>
       </c>
       <c r="H64" s="22">
-        <v>800.1080953813339</v>
+        <v>798.60485211015759</v>
       </c>
       <c r="I64" s="22">
-        <v>1128.8889399828101</v>
+        <v>1126.6633509874846</v>
       </c>
       <c r="J64" s="22">
-        <v>328.78084460147625</v>
+        <v>328.058498877327</v>
       </c>
       <c r="K64" s="21">
-        <v>494.44519458215643</v>
+        <v>494.34285796428912</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="14.1" customHeight="1">
@@ -12159,22 +12248,22 @@
         <v>-50.623115085809339</v>
       </c>
       <c r="F65" s="22">
-        <v>437.78999463840233</v>
+        <v>436.15545366621751</v>
       </c>
       <c r="G65" s="22">
-        <v>537.78560731375978</v>
+        <v>535.77772083811828</v>
       </c>
       <c r="H65" s="22">
-        <v>800.1080953813339</v>
+        <v>798.60485211015759</v>
       </c>
       <c r="I65" s="22">
-        <v>1094.4167426984752</v>
+        <v>1092.3065196049665</v>
       </c>
       <c r="J65" s="22">
-        <v>294.30864731714132</v>
+        <v>293.70166749480893</v>
       </c>
       <c r="K65" s="21">
-        <v>556.63113538471544</v>
+        <v>556.52879876684813</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="12.75">
@@ -12194,22 +12283,22 @@
         <v>-68.535327690501489</v>
       </c>
       <c r="F66" s="22">
-        <v>369.25466694790083</v>
+        <v>367.62012597571601</v>
       </c>
       <c r="G66" s="22">
-        <v>479.55842105857778</v>
+        <v>477.43561000718194</v>
       </c>
       <c r="H66" s="22">
-        <v>800.1080953813339</v>
+        <v>798.60485211015759</v>
       </c>
       <c r="I66" s="22">
-        <v>1125.1977572215014</v>
+        <v>1122.9726095522383</v>
       </c>
       <c r="J66" s="22">
-        <v>325.08966184016754</v>
+        <v>324.36775744208069</v>
       </c>
       <c r="K66" s="21">
-        <v>645.63933616292354</v>
+        <v>645.53699954505623</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="12.75">
@@ -12229,22 +12318,22 @@
         <v>-60.981517265004292</v>
       </c>
       <c r="F67" s="22">
-        <v>308.27314968289653</v>
+        <v>306.63860871071171</v>
       </c>
       <c r="G67" s="22">
-        <v>407.02228772081878</v>
+        <v>404.864154239014</v>
       </c>
       <c r="H67" s="22">
-        <v>800.1080953813339</v>
+        <v>798.60485211015759</v>
       </c>
       <c r="I67" s="22">
-        <v>1133.1773505742453</v>
+        <v>1130.9168804745734</v>
       </c>
       <c r="J67" s="22">
-        <v>333.06925519291144</v>
+        <v>332.31202836441582</v>
       </c>
       <c r="K67" s="21">
-        <v>726.15506285342667</v>
+        <v>726.05272623555936</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="12.75">
@@ -12264,22 +12353,22 @@
         <v>-24.127474022686147</v>
       </c>
       <c r="F68" s="22">
-        <v>284.14567566021037</v>
+        <v>282.51113468802555</v>
       </c>
       <c r="G68" s="22">
-        <v>357.70530817512565</v>
+        <v>355.64761723606159</v>
       </c>
       <c r="H68" s="22">
-        <v>800.1080953813339</v>
+        <v>798.60485211015759</v>
       </c>
       <c r="I68" s="22">
-        <v>1114.2339655262315</v>
+        <v>1112.0739379693</v>
       </c>
       <c r="J68" s="22">
-        <v>314.12587014489759</v>
+        <v>313.46908585914241</v>
       </c>
       <c r="K68" s="21">
-        <v>756.52865735110584</v>
+        <v>756.42632073323853</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="12.75">
@@ -12299,22 +12388,22 @@
         <v>-16.195369781994554</v>
       </c>
       <c r="F69" s="22">
-        <v>267.95030587821583</v>
+        <v>266.31576490603101</v>
       </c>
       <c r="G69" s="22">
-        <v>335.75513078069832</v>
+        <v>333.70696921550217</v>
       </c>
       <c r="H69" s="22">
-        <v>800.1080953813339</v>
+        <v>798.60485211015759</v>
       </c>
       <c r="I69" s="22">
-        <v>1112.5773962371325</v>
+        <v>1110.4268980540689</v>
       </c>
       <c r="J69" s="22">
-        <v>312.46930085579856</v>
+        <v>311.82204594391135</v>
       </c>
       <c r="K69" s="21">
-        <v>776.82226545643414</v>
+        <v>776.71992883856683</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="12.75">
@@ -12334,22 +12423,57 @@
         <v>-6.527966247638803</v>
       </c>
       <c r="F70" s="22">
-        <v>261.42233963057703</v>
+        <v>259.78779865839221</v>
       </c>
       <c r="G70" s="22">
-        <v>321.96775348901861</v>
+        <v>319.95465282767577</v>
       </c>
       <c r="H70" s="22">
-        <v>800.1080953813339</v>
+        <v>798.60485211015759</v>
       </c>
       <c r="I70" s="22">
-        <v>1106.8298621760446</v>
+        <v>1104.7144248968345</v>
       </c>
       <c r="J70" s="22">
-        <v>306.72176679471067</v>
+        <v>306.10957278667695</v>
       </c>
       <c r="K70" s="21">
-        <v>784.86210868702608</v>
+        <v>784.75977206915877</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="12.75">
+      <c r="A71" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B71" s="25">
+        <v>1.2139500000000001</v>
+      </c>
+      <c r="C71" s="20">
+        <v>1.18105912</v>
+      </c>
+      <c r="D71" s="21">
+        <v>-1.6768054801203269</v>
+      </c>
+      <c r="E71" s="22">
+        <v>-1.3812805141235858</v>
+      </c>
+      <c r="F71" s="22">
+        <v>258.4065181442686</v>
+      </c>
+      <c r="G71" s="22">
+        <v>313.6925927012349</v>
+      </c>
+      <c r="H71" s="22">
+        <v>798.60485211015759</v>
+      </c>
+      <c r="I71" s="22">
+        <v>1100.1291702505141</v>
+      </c>
+      <c r="J71" s="22">
+        <v>301.52431814035651</v>
+      </c>
+      <c r="K71" s="21">
+        <v>786.43657754927915</v>
       </c>
     </row>
   </sheetData>
@@ -12368,7 +12492,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AF70"/>
+  <dimension ref="A1:AF71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12635,22 +12759,22 @@
       </c>
       <c r="Y5" s="1">
         <f>VLOOKUP(X5,O:R,2,)</f>
-        <v>3.0056743465124249</v>
+        <v>3.0136208812590795</v>
       </c>
       <c r="Z5" s="1">
         <f t="shared" si="0"/>
-        <v>-3.0056743465124249</v>
+        <v>-3.0136208812590795</v>
       </c>
       <c r="AA5" s="6">
         <v>43830</v>
       </c>
       <c r="AB5" s="7">
         <f>VLOOKUP(AA5,O:P,2,)</f>
-        <v>3.0056743465124249</v>
+        <v>3.0136208812590795</v>
       </c>
       <c r="AC5" s="7">
         <f t="shared" si="1"/>
-        <v>-3.0056743465124249</v>
+        <v>-3.0136208812590795</v>
       </c>
       <c r="AD5" s="6">
         <v>43830</v>
@@ -12702,31 +12826,31 @@
         <v>43830</v>
       </c>
       <c r="P6" s="10">
-        <v>3.0056743465124249</v>
+        <v>3.0136208812590795</v>
       </c>
       <c r="Q6" s="5">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="R6" s="5">
-        <v>40.052650673906498</v>
+        <v>40.047918583279149</v>
       </c>
       <c r="S6" s="5">
-        <v>11.383169355006938</v>
+        <v>11.370490729632934</v>
       </c>
       <c r="T6" s="5">
-        <v>22.37035212590262</v>
+        <v>22.455572845137382</v>
       </c>
       <c r="U6" s="9">
-        <v>0.39704831867686768</v>
+        <v>0.39649618465301878</v>
       </c>
       <c r="V6" s="9">
-        <v>0.19207956697892992</v>
+        <v>0.19185828660319904</v>
       </c>
       <c r="X6" s="6">
         <v>43830</v>
       </c>
       <c r="Z6" s="1">
-        <v>40.052650673906498</v>
+        <v>40.047918583279149</v>
       </c>
       <c r="AA6" s="6">
         <v>44196</v>
@@ -12792,32 +12916,32 @@
         <v>0</v>
       </c>
       <c r="Q7" s="5">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="R7" s="5">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="S7" s="5">
-        <v>13.358017868613342</v>
+        <v>13.338305636999273</v>
       </c>
       <c r="T7" s="5">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="U7" s="9">
-        <v>0.46593161976067698</v>
+        <v>0.46511513184064601</v>
       </c>
       <c r="V7" s="9">
-        <v>0.14092775697418336</v>
+        <v>0.14072127524152522</v>
       </c>
       <c r="Z7" s="2">
         <f>IRR(Z4:Z6)</f>
-        <v>0.19207956697892992</v>
+        <v>0.19185828660319904</v>
       </c>
       <c r="AA7" s="6">
         <v>44196</v>
       </c>
       <c r="AC7" s="7">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="AD7" s="6">
         <v>44561</v>
@@ -12872,26 +12996,26 @@
         <v>1.6879618273276691</v>
       </c>
       <c r="Q8" s="5">
-        <v>30.357443146227229</v>
+        <v>30.365389680973884</v>
       </c>
       <c r="R8" s="5">
-        <v>43.877765592769855</v>
+        <v>43.865999895902441</v>
       </c>
       <c r="S8" s="5">
-        <v>13.520322446542625</v>
+        <v>13.500610214928557</v>
       </c>
       <c r="T8" s="5">
-        <v>42.735637349930364</v>
+        <v>42.72387165306295</v>
       </c>
       <c r="U8" s="9">
-        <v>0.44537092209700496</v>
+        <v>0.44460520206620852</v>
       </c>
       <c r="V8" s="9">
         <v>0.10297744786565266</v>
       </c>
       <c r="AC8" s="2">
         <f>IRR(AC4:AC7)</f>
-        <v>0.14092775697418336</v>
+        <v>0.14072127524152522</v>
       </c>
       <c r="AD8" s="6">
         <v>44561</v>
@@ -12939,22 +13063,22 @@
         <v>44925</v>
       </c>
       <c r="P9" s="10">
-        <v>143.63277580565705</v>
+        <v>143.24737155600297</v>
       </c>
       <c r="Q9" s="5">
-        <v>173.99021895188429</v>
+        <v>173.61276123697687</v>
       </c>
       <c r="R9" s="5">
-        <v>200.30674170877987</v>
+        <v>199.89872415090301</v>
       </c>
       <c r="S9" s="5">
-        <v>26.31652275689558</v>
+        <v>26.285962913926141</v>
       </c>
       <c r="T9" s="5">
-        <v>42.735637349930364</v>
+        <v>42.72387165306295</v>
       </c>
       <c r="U9" s="9">
-        <v>0.15125288602673245</v>
+        <v>0.15140570731460512</v>
       </c>
       <c r="V9" s="9">
         <v>8.4185988221880725E-2</v>
@@ -13153,31 +13277,31 @@
         <v>43496</v>
       </c>
       <c r="B14" s="25">
-        <v>0.67819000000000007</v>
+        <v>0.67716999999999994</v>
       </c>
       <c r="C14" s="20">
-        <v>0.80289104000000022</v>
+        <v>0.80198084000000014</v>
       </c>
       <c r="D14" s="21">
-        <v>3.0056743465124236</v>
+        <v>3.0136208812590786</v>
       </c>
       <c r="E14" s="22">
-        <v>4.4319060241413517</v>
+        <v>4.4503165841060275</v>
       </c>
       <c r="F14" s="22">
-        <v>40.38164307699158</v>
+        <v>40.400053636956251</v>
       </c>
       <c r="G14" s="22">
-        <v>27.386426518384923</v>
+        <v>27.357704321337661</v>
       </c>
       <c r="H14" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I14" s="22">
-        <v>27.386426518384923</v>
+        <v>27.357704321337661</v>
       </c>
       <c r="J14" s="22">
-        <v>-1.2830548005146376</v>
+        <v>-1.3197235323085543</v>
       </c>
       <c r="K14" s="21">
         <v>0</v>
@@ -13202,31 +13326,31 @@
         <v>0.85648000000000002</v>
       </c>
       <c r="C15" s="20">
-        <v>0.79863988000000019</v>
+        <v>0.79816120000000024</v>
       </c>
       <c r="D15" s="21">
-        <v>-0.2999295487448751</v>
+        <v>-0.30743792163991257</v>
       </c>
       <c r="E15" s="22">
-        <v>-0.35018861940135798</v>
+        <v>-0.3589551672425656</v>
       </c>
       <c r="F15" s="22">
-        <v>40.031454457590222</v>
+        <v>40.041098469713688</v>
       </c>
       <c r="G15" s="22">
-        <v>34.286140113836872</v>
+        <v>34.294400017340379</v>
       </c>
       <c r="H15" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I15" s="22">
-        <v>34.58606966258175</v>
+        <v>34.601837938980289</v>
       </c>
       <c r="J15" s="22">
-        <v>5.9165883436821893</v>
+        <v>5.924410085334074</v>
       </c>
       <c r="K15" s="21">
-        <v>0.2999295487448751</v>
+        <v>0.30743792163991257</v>
       </c>
       <c r="L15" s="7"/>
       <c r="X15" s="6">
@@ -13244,31 +13368,31 @@
         <v>0.94580999999999993</v>
       </c>
       <c r="C16" s="20">
-        <v>0.80337899999999995</v>
+        <v>0.80233468000000008</v>
       </c>
       <c r="D16" s="21">
-        <v>-4.4786308626859341</v>
+        <v>-4.5778684048709888</v>
       </c>
       <c r="E16" s="22">
-        <v>-4.7352331469173876</v>
+        <v>-4.8401564847812875</v>
       </c>
       <c r="F16" s="22">
-        <v>35.296221310672834</v>
+        <v>35.200941984932399</v>
       </c>
       <c r="G16" s="22">
-        <v>33.383519077847474</v>
+        <v>33.293402938768907</v>
       </c>
       <c r="H16" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I16" s="22">
-        <v>38.162079489278284</v>
+        <v>38.178709265279807</v>
       </c>
       <c r="J16" s="22">
-        <v>9.4925981703787237</v>
+        <v>9.5012814116335917</v>
       </c>
       <c r="K16" s="21">
-        <v>4.7785604114308091</v>
+        <v>4.8853063265109018</v>
       </c>
       <c r="L16" s="7"/>
       <c r="Z16" s="2">
@@ -13284,31 +13408,31 @@
         <v>0.9108099999999999</v>
       </c>
       <c r="C17" s="20">
-        <v>0.80660947999999977</v>
+        <v>0.80561315999999961</v>
       </c>
       <c r="D17" s="21">
-        <v>-1.7536436903045434</v>
+        <v>-1.8044289281989621</v>
       </c>
       <c r="E17" s="22">
-        <v>-1.9253671899787481</v>
+        <v>-1.9811255126743912</v>
       </c>
       <c r="F17" s="22">
-        <v>33.370854120694084</v>
+        <v>33.21981647225801</v>
       </c>
       <c r="G17" s="22">
-        <v>30.394507641669374</v>
+        <v>30.256941041097313</v>
       </c>
       <c r="H17" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I17" s="22">
-        <v>36.926711743404724</v>
+        <v>36.94667629580718</v>
       </c>
       <c r="J17" s="22">
-        <v>8.2572304245051633</v>
+        <v>8.2692484421609649</v>
       </c>
       <c r="K17" s="21">
-        <v>6.5322041017353527</v>
+        <v>6.6897352547098636</v>
       </c>
       <c r="L17" s="7"/>
     </row>
@@ -13320,31 +13444,31 @@
         <v>0.86360000000000003</v>
       </c>
       <c r="C18" s="20">
-        <v>0.8020255199999996</v>
+        <v>0.8010060799999994</v>
       </c>
       <c r="D18" s="21">
-        <v>-0.36185448247805929</v>
+        <v>-0.38012650237749257</v>
       </c>
       <c r="E18" s="22">
-        <v>-0.41900704316588616</v>
+        <v>-0.44016500970066297</v>
       </c>
       <c r="F18" s="22">
-        <v>32.9518470775282</v>
+        <v>32.779651462557347</v>
       </c>
       <c r="G18" s="22">
-        <v>28.457215136153355</v>
+        <v>28.308507003064527</v>
       </c>
       <c r="H18" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I18" s="22">
-        <v>35.35127372036677</v>
+        <v>35.378368760151886</v>
       </c>
       <c r="J18" s="22">
-        <v>6.6817924014672094</v>
+        <v>6.7009409065056715</v>
       </c>
       <c r="K18" s="21">
-        <v>6.8940585842134121</v>
+        <v>7.0698617570873559</v>
       </c>
       <c r="L18" s="7"/>
     </row>
@@ -13356,31 +13480,31 @@
         <v>0.88732</v>
       </c>
       <c r="C19" s="20">
-        <v>0.80021431999999926</v>
+        <v>0.79979107999999932</v>
       </c>
       <c r="D19" s="21">
-        <v>-1.0244036673779862</v>
+        <v>-1.039408843771594</v>
       </c>
       <c r="E19" s="22">
-        <v>-1.1544918038340015</v>
+        <v>-1.1714024746107312</v>
       </c>
       <c r="F19" s="22">
-        <v>31.797355273694198</v>
+        <v>31.608248987946617</v>
       </c>
       <c r="G19" s="22">
-        <v>28.214429281454336</v>
+        <v>28.04663149198479</v>
       </c>
       <c r="H19" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I19" s="22">
-        <v>36.132891533045736</v>
+        <v>36.155902092843739</v>
       </c>
       <c r="J19" s="22">
-        <v>7.463410214146176</v>
+        <v>7.4784742391975243</v>
       </c>
       <c r="K19" s="21">
-        <v>7.9184622515913983</v>
+        <v>8.1092706008589506</v>
       </c>
       <c r="L19" s="7"/>
     </row>
@@ -13392,31 +13516,31 @@
         <v>0.89222000000000001</v>
       </c>
       <c r="C20" s="20">
-        <v>0.80840215999999976</v>
+        <v>0.80782763999999974</v>
       </c>
       <c r="D20" s="21">
-        <v>-0.91272740916000517</v>
+        <v>-0.93162491361969113</v>
       </c>
       <c r="E20" s="22">
-        <v>-1.0229847001412264</v>
+        <v>-1.0441650194119063</v>
       </c>
       <c r="F20" s="22">
-        <v>30.774370573552972</v>
+        <v>30.56408396853471</v>
       </c>
       <c r="G20" s="22">
-        <v>27.457508913135431</v>
+        <v>27.26988699840604</v>
       </c>
       <c r="H20" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I20" s="22">
-        <v>36.288698573886833</v>
+        <v>36.310782512884686</v>
       </c>
       <c r="J20" s="22">
-        <v>7.619217254987273</v>
+        <v>7.6333546592384707</v>
       </c>
       <c r="K20" s="21">
-        <v>8.831189660751404</v>
+        <v>9.0408955144786418</v>
       </c>
       <c r="L20" s="7"/>
     </row>
@@ -13428,31 +13552,31 @@
         <v>0.92357</v>
       </c>
       <c r="C21" s="20">
-        <v>0.81579543999999959</v>
+        <v>0.81574827999999955</v>
       </c>
       <c r="D21" s="21">
-        <v>-1.9403517811045978</v>
+        <v>-1.9429000736925599</v>
       </c>
       <c r="E21" s="22">
-        <v>-2.1009255184821916</v>
+        <v>-2.1036846949257337</v>
       </c>
       <c r="F21" s="22">
-        <v>28.673445055070779</v>
+        <v>28.460399273608978</v>
       </c>
       <c r="G21" s="22">
-        <v>26.481933649511721</v>
+        <v>26.285170957127043</v>
       </c>
       <c r="H21" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I21" s="22">
-        <v>37.253475091367719</v>
+        <v>37.268966545298241</v>
       </c>
       <c r="J21" s="22">
-        <v>8.5839937724681583</v>
+        <v>8.5915386916520262</v>
       </c>
       <c r="K21" s="21">
-        <v>10.771541441856002</v>
+        <v>10.983795588171201</v>
       </c>
       <c r="L21" s="8"/>
     </row>
@@ -13464,31 +13588,31 @@
         <v>0.95855999999999997</v>
       </c>
       <c r="C22" s="20">
-        <v>0.83312139999999968</v>
+        <v>0.83330167999999971</v>
       </c>
       <c r="D22" s="21">
-        <v>-3.0593227270681411</v>
+        <v>-3.0461511255786529</v>
       </c>
       <c r="E22" s="22">
-        <v>-3.1915818801829214</v>
+        <v>-3.1778408504200604</v>
       </c>
       <c r="F22" s="22">
-        <v>25.481863174887856</v>
+        <v>25.282558423188917</v>
       </c>
       <c r="G22" s="22">
-        <v>24.425894764920503</v>
+        <v>24.234849202131969</v>
       </c>
       <c r="H22" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I22" s="22">
-        <v>38.256758933844644</v>
+        <v>38.26479591588182</v>
       </c>
       <c r="J22" s="22">
-        <v>9.5872776149450836</v>
+        <v>9.5873680622356048</v>
       </c>
       <c r="K22" s="21">
-        <v>13.830864168924142</v>
+        <v>14.029946713749855</v>
       </c>
       <c r="L22" s="7"/>
     </row>
@@ -13500,31 +13624,31 @@
         <v>0.97238999999999998</v>
       </c>
       <c r="C23" s="20">
-        <v>0.85132979999999947</v>
+        <v>0.85201527999999938</v>
       </c>
       <c r="D23" s="21">
-        <v>-2.7500200445342999</v>
+        <v>-2.7035696843691119</v>
       </c>
       <c r="E23" s="22">
-        <v>-2.8281039958599945</v>
+        <v>-2.780334726158344</v>
       </c>
       <c r="F23" s="22">
-        <v>22.653759179027862</v>
+        <v>22.502223697030573</v>
       </c>
       <c r="G23" s="22">
-        <v>22.028288888094902</v>
+        <v>21.880937300755559</v>
       </c>
       <c r="H23" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I23" s="22">
-        <v>38.609173101553345</v>
+        <v>38.614453698874527</v>
       </c>
       <c r="J23" s="22">
-        <v>9.9396917826537852</v>
+        <v>9.9370258452283124</v>
       </c>
       <c r="K23" s="21">
-        <v>16.580884213458443</v>
+        <v>16.733516398118965</v>
       </c>
       <c r="L23" s="7"/>
       <c r="O23" s="3"/>
@@ -13537,31 +13661,31 @@
         <v>0.97728999999999999</v>
       </c>
       <c r="C24" s="20">
-        <v>0.87548991999999959</v>
+        <v>0.87560303999999967</v>
       </c>
       <c r="D24" s="21">
-        <v>-1.6352194947283292</v>
+        <v>-1.6297743940820615</v>
       </c>
       <c r="E24" s="22">
-        <v>-1.673218281910517</v>
+        <v>-1.6676466494920255</v>
       </c>
       <c r="F24" s="22">
-        <v>20.980540897117343</v>
+        <v>20.834577047538549</v>
       </c>
       <c r="G24" s="22">
-        <v>20.504072813343807</v>
+        <v>20.361423802788948</v>
       </c>
       <c r="H24" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I24" s="22">
-        <v>38.720176521530576</v>
+        <v>38.724714594989976</v>
       </c>
       <c r="J24" s="22">
-        <v>10.050695202631015</v>
+        <v>10.047286741343761</v>
       </c>
       <c r="K24" s="21">
-        <v>18.216103708186772</v>
+        <v>18.363290792201028</v>
       </c>
       <c r="L24" s="7"/>
     </row>
@@ -13573,31 +13697,31 @@
         <v>1.0407999999999999</v>
       </c>
       <c r="C25" s="20">
-        <v>0.90189423999999996</v>
+        <v>0.90258836000000009</v>
       </c>
       <c r="D25" s="21">
-        <v>-4.1542484177158503</v>
+        <v>-4.0922820529363531</v>
       </c>
       <c r="E25" s="22">
-        <v>-3.9913993252458209</v>
+        <v>-3.931862080069517</v>
       </c>
       <c r="F25" s="22">
-        <v>16.989141571871521</v>
+        <v>16.902714967469031</v>
       </c>
       <c r="G25" s="22">
-        <v>17.682298548003878</v>
+        <v>17.592345738141766</v>
       </c>
       <c r="H25" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I25" s="22">
-        <v>40.052650673906498</v>
+        <v>40.047918583279149</v>
       </c>
       <c r="J25" s="22">
-        <v>11.383169355006938</v>
+        <v>11.370490729632934</v>
       </c>
       <c r="K25" s="21">
-        <v>22.37035212590262</v>
+        <v>22.455572845137382</v>
       </c>
       <c r="L25" s="7"/>
     </row>
@@ -13609,31 +13733,31 @@
         <v>1.13632</v>
       </c>
       <c r="C26" s="20">
-        <v>0.92962908</v>
+        <v>0.93022331999999996</v>
       </c>
       <c r="D26" s="21">
-        <v>-13.68661003158703</v>
+        <v>-13.568901367945452</v>
       </c>
       <c r="E26" s="22">
-        <v>-12.044679343483375</v>
+        <v>-11.94109174171488</v>
       </c>
       <c r="F26" s="22">
-        <v>4.9444622283881454</v>
+        <v>4.9616232257541508</v>
       </c>
       <c r="G26" s="22">
-        <v>5.6184913193620174</v>
+        <v>5.6379917038889564</v>
       </c>
       <c r="H26" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I26" s="22">
-        <v>41.675453476851665</v>
+        <v>41.66246591697179</v>
       </c>
       <c r="J26" s="22">
-        <v>13.005972157952105</v>
+        <v>12.985038063325575</v>
       </c>
       <c r="K26" s="21">
-        <v>36.05696215748965</v>
+        <v>36.024474213082833</v>
       </c>
       <c r="L26" s="7"/>
     </row>
@@ -13645,13 +13769,13 @@
         <v>1.2075199999999999</v>
       </c>
       <c r="C27" s="20">
-        <v>0.96966315999999997</v>
+        <v>0.96999144000000015</v>
       </c>
       <c r="D27" s="21">
-        <v>-5.9705370300232534</v>
+        <v>-5.9912592775626514</v>
       </c>
       <c r="E27" s="22">
-        <v>-4.9444622283881454</v>
+        <v>-4.9616232257541508</v>
       </c>
       <c r="F27" s="22">
         <v>0</v>
@@ -13660,16 +13784,16 @@
         <v>0</v>
       </c>
       <c r="H27" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I27" s="22">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="J27" s="22">
-        <v>13.358017868613342</v>
+        <v>13.338305636999273</v>
       </c>
       <c r="K27" s="21">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="L27" s="7"/>
     </row>
@@ -13681,7 +13805,7 @@
         <v>1.0721400000000001</v>
       </c>
       <c r="C28" s="20">
-        <v>0.99416948000000038</v>
+        <v>0.9937777600000004</v>
       </c>
       <c r="D28" s="21">
         <v>0</v>
@@ -13696,16 +13820,16 @@
         <v>0</v>
       </c>
       <c r="H28" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I28" s="22">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="J28" s="22">
-        <v>13.358017868613342</v>
+        <v>13.338305636999273</v>
       </c>
       <c r="K28" s="21">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="L28" s="7"/>
     </row>
@@ -13717,7 +13841,7 @@
         <v>1.13618</v>
       </c>
       <c r="C29" s="20">
-        <v>1.0066833200000003</v>
+        <v>1.0062796800000002</v>
       </c>
       <c r="D29" s="21">
         <v>0</v>
@@ -13732,16 +13856,16 @@
         <v>0</v>
       </c>
       <c r="H29" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I29" s="22">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="J29" s="22">
-        <v>13.358017868613342</v>
+        <v>13.338305636999273</v>
       </c>
       <c r="K29" s="21">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="L29" s="7"/>
     </row>
@@ -13753,7 +13877,7 @@
         <v>1.12294</v>
       </c>
       <c r="C30" s="20">
-        <v>1.0254032800000001</v>
+        <v>1.0253235600000004</v>
       </c>
       <c r="D30" s="21">
         <v>0</v>
@@ -13768,16 +13892,16 @@
         <v>0</v>
       </c>
       <c r="H30" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I30" s="22">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="J30" s="22">
-        <v>13.358017868613342</v>
+        <v>13.338305636999273</v>
       </c>
       <c r="K30" s="21">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="L30" s="7"/>
     </row>
@@ -13789,7 +13913,7 @@
         <v>1.25214</v>
       </c>
       <c r="C31" s="20">
-        <v>1.0521240799999996</v>
+        <v>1.0521225599999997</v>
       </c>
       <c r="D31" s="21">
         <v>0</v>
@@ -13804,16 +13928,16 @@
         <v>0</v>
       </c>
       <c r="H31" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I31" s="22">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="J31" s="22">
-        <v>13.358017868613342</v>
+        <v>13.338305636999273</v>
       </c>
       <c r="K31" s="21">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="L31" s="7"/>
     </row>
@@ -13825,7 +13949,7 @@
         <v>1.3561700000000001</v>
       </c>
       <c r="C32" s="20">
-        <v>1.09524756</v>
+        <v>1.09525304</v>
       </c>
       <c r="D32" s="21">
         <v>0</v>
@@ -13840,16 +13964,16 @@
         <v>0</v>
       </c>
       <c r="H32" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I32" s="22">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="J32" s="22">
-        <v>13.358017868613342</v>
+        <v>13.338305636999273</v>
       </c>
       <c r="K32" s="21">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="L32" s="7"/>
     </row>
@@ -13876,16 +14000,16 @@
         <v>0</v>
       </c>
       <c r="H33" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I33" s="22">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="J33" s="22">
-        <v>13.358017868613342</v>
+        <v>13.338305636999273</v>
       </c>
       <c r="K33" s="21">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="L33" s="7"/>
     </row>
@@ -13912,16 +14036,16 @@
         <v>0</v>
       </c>
       <c r="H34" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I34" s="22">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="J34" s="22">
-        <v>13.358017868613342</v>
+        <v>13.338305636999273</v>
       </c>
       <c r="K34" s="21">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="L34" s="7"/>
       <c r="O34" s="3"/>
@@ -13949,16 +14073,16 @@
         <v>0</v>
       </c>
       <c r="H35" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I35" s="22">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="J35" s="22">
-        <v>13.358017868613342</v>
+        <v>13.338305636999273</v>
       </c>
       <c r="K35" s="21">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="L35" s="7"/>
     </row>
@@ -13985,16 +14109,16 @@
         <v>0</v>
       </c>
       <c r="H36" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I36" s="22">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="J36" s="22">
-        <v>13.358017868613342</v>
+        <v>13.338305636999273</v>
       </c>
       <c r="K36" s="21">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="L36" s="7"/>
     </row>
@@ -14021,16 +14145,16 @@
         <v>0</v>
       </c>
       <c r="H37" s="22">
-        <v>28.66948131889956</v>
+        <v>28.677427853646215</v>
       </c>
       <c r="I37" s="22">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="J37" s="22">
-        <v>13.358017868613342</v>
+        <v>13.338305636999273</v>
       </c>
       <c r="K37" s="21">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="L37" s="7"/>
     </row>
@@ -14057,16 +14181,16 @@
         <v>2.0100302408575209E-5</v>
       </c>
       <c r="H38" s="22">
-        <v>28.669501419201968</v>
+        <v>28.677447953948622</v>
       </c>
       <c r="I38" s="22">
-        <v>42.027519287815309</v>
+        <v>42.015753590947895</v>
       </c>
       <c r="J38" s="22">
-        <v>13.358017868613342</v>
+        <v>13.338305636999273</v>
       </c>
       <c r="K38" s="21">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="L38" s="7"/>
     </row>
@@ -14093,16 +14217,16 @@
         <v>5.3008644830373748E-4</v>
       </c>
       <c r="H39" s="22">
-        <v>28.670011370101271</v>
+        <v>28.677957904847926</v>
       </c>
       <c r="I39" s="22">
-        <v>42.028029273961202</v>
+        <v>42.016263577093788</v>
       </c>
       <c r="J39" s="22">
-        <v>13.358017903859931</v>
+        <v>13.338305672245863</v>
       </c>
       <c r="K39" s="21">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="L39" s="7"/>
     </row>
@@ -14129,16 +14253,16 @@
         <v>0.92675040937898789</v>
       </c>
       <c r="H40" s="22">
-        <v>29.596267004476857</v>
+        <v>29.604213539223512</v>
       </c>
       <c r="I40" s="22">
-        <v>42.954249596891891</v>
+        <v>42.942483900024477</v>
       </c>
       <c r="J40" s="22">
-        <v>13.357982592415034</v>
+        <v>13.338270360800966</v>
       </c>
       <c r="K40" s="21">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="L40" s="7"/>
     </row>
@@ -14165,16 +14289,16 @@
         <v>1.4118644755378071</v>
       </c>
       <c r="H41" s="22">
-        <v>30.063047737126023</v>
+        <v>30.070994271872678</v>
       </c>
       <c r="I41" s="22">
-        <v>43.439363663050706</v>
+        <v>43.427597966183292</v>
       </c>
       <c r="J41" s="22">
-        <v>13.376315925924683</v>
+        <v>13.356603694310614</v>
       </c>
       <c r="K41" s="21">
-        <v>42.027499187512902</v>
+        <v>42.015733490645488</v>
       </c>
       <c r="L41" s="7"/>
     </row>
@@ -14201,16 +14325,16 @@
         <v>1.5078598918979371</v>
       </c>
       <c r="H42" s="22">
-        <v>30.063047737126023</v>
+        <v>30.070994271872678</v>
       </c>
       <c r="I42" s="22">
-        <v>43.5378608270927</v>
+        <v>43.526095130225286</v>
       </c>
       <c r="J42" s="22">
-        <v>13.474813089966677</v>
+        <v>13.455100858352608</v>
       </c>
       <c r="K42" s="21">
-        <v>42.030000935194764</v>
+        <v>42.01823523832735</v>
       </c>
       <c r="L42" s="7"/>
     </row>
@@ -14237,16 +14361,16 @@
         <v>0.93290029173953315</v>
       </c>
       <c r="H43" s="22">
-        <v>30.063047737126023</v>
+        <v>30.070994271872678</v>
       </c>
       <c r="I43" s="22">
-        <v>43.626411610413939</v>
+        <v>43.614645913546525</v>
       </c>
       <c r="J43" s="22">
-        <v>13.563363873287916</v>
+        <v>13.543651641673847</v>
       </c>
       <c r="K43" s="21">
-        <v>42.693511318674403</v>
+        <v>42.681745621806989</v>
       </c>
       <c r="L43" s="7"/>
     </row>
@@ -14273,16 +14397,16 @@
         <v>0.8637010019754191</v>
       </c>
       <c r="H44" s="22">
-        <v>30.063047737126023</v>
+        <v>30.070994271872678</v>
       </c>
       <c r="I44" s="22">
-        <v>43.591390241815077</v>
+        <v>43.579624544947663</v>
       </c>
       <c r="J44" s="22">
-        <v>13.528342504689054</v>
+        <v>13.508630273074985</v>
       </c>
       <c r="K44" s="21">
-        <v>42.727689239839655</v>
+        <v>42.715923542972241</v>
       </c>
       <c r="L44" s="7"/>
     </row>
@@ -14309,16 +14433,16 @@
         <v>0.87632786005178098</v>
       </c>
       <c r="H45" s="22">
-        <v>30.121650997800039</v>
+        <v>30.129597532546693</v>
       </c>
       <c r="I45" s="22">
-        <v>43.604017099891436</v>
+        <v>43.592251403024022</v>
       </c>
       <c r="J45" s="22">
-        <v>13.482366102091397</v>
+        <v>13.462653870477329</v>
       </c>
       <c r="K45" s="21">
-        <v>42.727689239839655</v>
+        <v>42.715923542972241</v>
       </c>
       <c r="L45" s="7"/>
     </row>
@@ -14345,16 +14469,16 @@
         <v>0.97324824344976679</v>
       </c>
       <c r="H46" s="22">
-        <v>30.228876125822254</v>
+        <v>30.236822660568908</v>
       </c>
       <c r="I46" s="22">
-        <v>43.700937483289422</v>
+        <v>43.689171786422008</v>
       </c>
       <c r="J46" s="22">
-        <v>13.472061357467169</v>
+        <v>13.4523491258531</v>
       </c>
       <c r="K46" s="21">
-        <v>42.727689239839655</v>
+        <v>42.715923542972241</v>
       </c>
       <c r="L46" s="7"/>
     </row>
@@ -14381,16 +14505,16 @@
         <v>1.0964936945370078</v>
       </c>
       <c r="H47" s="22">
-        <v>30.357273006783753</v>
+        <v>30.365219541530408</v>
       </c>
       <c r="I47" s="22">
-        <v>43.824182934376665</v>
+        <v>43.812417237509251</v>
       </c>
       <c r="J47" s="22">
-        <v>13.466909927592912</v>
+        <v>13.447197695978844</v>
       </c>
       <c r="K47" s="21">
-        <v>42.727689239839655</v>
+        <v>42.715923542972241</v>
       </c>
       <c r="L47" s="7"/>
     </row>
@@ -14417,16 +14541,16 @@
         <v>1.1302153869258449</v>
       </c>
       <c r="H48" s="22">
-        <v>30.357443146227229</v>
+        <v>30.365389680973884</v>
       </c>
       <c r="I48" s="22">
-        <v>43.857904626765503</v>
+        <v>43.846138929898089</v>
       </c>
       <c r="J48" s="22">
-        <v>13.500461480538274</v>
+        <v>13.480749248924205</v>
       </c>
       <c r="K48" s="21">
-        <v>42.727689239839655</v>
+        <v>42.715923542972241</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="14.1" customHeight="1">
@@ -14452,16 +14576,16 @@
         <v>1.1421282428394894</v>
       </c>
       <c r="H49" s="22">
-        <v>30.357443146227229</v>
+        <v>30.365389680973884</v>
       </c>
       <c r="I49" s="22">
-        <v>43.877765592769855</v>
+        <v>43.865999895902441</v>
       </c>
       <c r="J49" s="22">
-        <v>13.520322446542625</v>
+        <v>13.500610214928557</v>
       </c>
       <c r="K49" s="21">
-        <v>42.735637349930364</v>
+        <v>42.72387165306295</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="14.1" customHeight="1">
@@ -14472,31 +14596,31 @@
         <v>1.11076</v>
       </c>
       <c r="C50" s="20">
-        <v>1.2355355200000004</v>
+        <v>1.2350539200000008</v>
       </c>
       <c r="D50" s="21">
-        <v>3.0110631473926137</v>
+        <v>2.9763318609628255</v>
       </c>
       <c r="E50" s="22">
-        <v>2.7108134497034588</v>
+        <v>2.6795454112164876</v>
       </c>
       <c r="F50" s="22">
-        <v>3.6205785804890103</v>
+        <v>3.589310542002039</v>
       </c>
       <c r="G50" s="22">
-        <v>4.0215938640639726</v>
+        <v>3.9868625776341848</v>
       </c>
       <c r="H50" s="22">
-        <v>33.368506293619845</v>
+        <v>33.341721541936707</v>
       </c>
       <c r="I50" s="22">
-        <v>46.757231213994338</v>
+        <v>46.710734230697135</v>
       </c>
       <c r="J50" s="22">
-        <v>13.388724920374493</v>
+        <v>13.369012688760428</v>
       </c>
       <c r="K50" s="21">
-        <v>42.735637349930364</v>
+        <v>42.72387165306295</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="14.1" customHeight="1">
@@ -14507,31 +14631,31 @@
         <v>1.15177</v>
       </c>
       <c r="C51" s="20">
-        <v>1.2277890400000004</v>
+        <v>1.2271850000000004</v>
       </c>
       <c r="D51" s="21">
-        <v>0.68092431206184523</v>
+        <v>0.66482126800249319</v>
       </c>
       <c r="E51" s="22">
-        <v>0.59119816635425937</v>
+        <v>0.57721703812609571</v>
       </c>
       <c r="F51" s="22">
-        <v>4.2117767468432694</v>
+        <v>4.1665275801281343</v>
       </c>
       <c r="G51" s="22">
-        <v>4.8509981037116718</v>
+        <v>4.7988814709641812</v>
       </c>
       <c r="H51" s="22">
-        <v>34.049430605681692</v>
+        <v>34.006542809939198</v>
       </c>
       <c r="I51" s="22">
-        <v>47.586635453642039</v>
+        <v>47.522753124027133</v>
       </c>
       <c r="J51" s="22">
-        <v>13.537204847960346</v>
+        <v>13.516210314087935</v>
       </c>
       <c r="K51" s="21">
-        <v>42.735637349930364</v>
+        <v>42.72387165306295</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="14.1" customHeight="1">
@@ -14542,31 +14666,31 @@
         <v>1.0468499999999998</v>
       </c>
       <c r="C52" s="20">
-        <v>1.2143669200000002</v>
+        <v>1.2143919600000004</v>
       </c>
       <c r="D52" s="21">
-        <v>7.2863115388763804</v>
+        <v>7.2895794448468054</v>
       </c>
       <c r="E52" s="22">
-        <v>6.9602249977326087</v>
+        <v>6.9633466541021223</v>
       </c>
       <c r="F52" s="22">
-        <v>11.172001744575878</v>
+        <v>11.129874234230257</v>
       </c>
       <c r="G52" s="22">
-        <v>11.695410026309256</v>
+        <v>11.651308842103942</v>
       </c>
       <c r="H52" s="22">
-        <v>41.335742144558075</v>
+        <v>41.296122254786006</v>
       </c>
       <c r="I52" s="22">
-        <v>54.431047376239619</v>
+        <v>54.375180495166894</v>
       </c>
       <c r="J52" s="22">
-        <v>13.095305231681543</v>
+        <v>13.079058240380888</v>
       </c>
       <c r="K52" s="21">
-        <v>42.735637349930364</v>
+        <v>42.72387165306295</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="14.1" customHeight="1">
@@ -14577,31 +14701,31 @@
         <v>0.83169999999999999</v>
       </c>
       <c r="C53" s="20">
-        <v>1.1967078799999999</v>
+        <v>1.1965680399999998</v>
       </c>
       <c r="D53" s="21">
-        <v>75.376925485840445</v>
+        <v>75.290324576251948</v>
       </c>
       <c r="E53" s="22">
-        <v>90.629945275749009</v>
+        <v>90.525820098896176</v>
       </c>
       <c r="F53" s="22">
-        <v>101.80194702032489</v>
+        <v>101.65569433312643</v>
       </c>
       <c r="G53" s="22">
-        <v>84.668679336804203</v>
+        <v>84.547040976861254</v>
       </c>
       <c r="H53" s="22">
-        <v>116.71266763039853</v>
+        <v>116.58644683103796</v>
       </c>
       <c r="I53" s="22">
-        <v>127.40431668673457</v>
+        <v>127.2709126299242</v>
       </c>
       <c r="J53" s="22">
-        <v>10.691649056336047</v>
+        <v>10.684465798886237</v>
       </c>
       <c r="K53" s="21">
-        <v>42.735637349930364</v>
+        <v>42.72387165306295</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="14.1" customHeight="1">
@@ -14612,31 +14736,31 @@
         <v>0.90644000000000002</v>
       </c>
       <c r="C54" s="20">
-        <v>1.1734625999999997</v>
+        <v>1.1732722399999995</v>
       </c>
       <c r="D54" s="21">
-        <v>29.510445045161859</v>
+        <v>29.447376175865877</v>
       </c>
       <c r="E54" s="22">
-        <v>32.556424082302037</v>
+        <v>32.486845434740168</v>
       </c>
       <c r="F54" s="22">
-        <v>134.35837110262693</v>
+        <v>134.14253976786659</v>
       </c>
       <c r="G54" s="22">
-        <v>121.78780190226516</v>
+        <v>121.592163747185</v>
       </c>
       <c r="H54" s="22">
-        <v>146.2231126755604</v>
+        <v>146.03382300690384</v>
       </c>
       <c r="I54" s="22">
-        <v>164.52343925219552</v>
+        <v>164.31603540024796</v>
       </c>
       <c r="J54" s="22">
-        <v>18.300326576635115</v>
+        <v>18.282212393344111</v>
       </c>
       <c r="K54" s="21">
-        <v>42.735637349930364</v>
+        <v>42.72387165306295</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="14.1" customHeight="1">
@@ -14647,31 +14771,31 @@
         <v>0.99066999999999994</v>
       </c>
       <c r="C55" s="20">
-        <v>1.1480034399999997</v>
+        <v>1.1474773999999999</v>
       </c>
       <c r="D55" s="21">
-        <v>6.0366335519561423</v>
+        <v>5.9762858220456314</v>
       </c>
       <c r="E55" s="22">
-        <v>6.0934857742297055</v>
+        <v>6.0325696973216427</v>
       </c>
       <c r="F55" s="22">
-        <v>140.45185687685665</v>
+        <v>140.17510946518823</v>
       </c>
       <c r="G55" s="22">
-        <v>139.14144105219557</v>
+        <v>138.86727569387801</v>
       </c>
       <c r="H55" s="22">
-        <v>152.25974622751653</v>
+        <v>152.01010882894948</v>
       </c>
       <c r="I55" s="22">
-        <v>181.87707840212593</v>
+        <v>181.59114734694097</v>
       </c>
       <c r="J55" s="22">
-        <v>29.617332174609402</v>
+        <v>29.581038517991487</v>
       </c>
       <c r="K55" s="21">
-        <v>42.735637349930364</v>
+        <v>42.72387165306295</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="14.1" customHeight="1">
@@ -14682,31 +14806,31 @@
         <v>1.01267</v>
       </c>
       <c r="C56" s="20">
-        <v>1.1203607999999998</v>
+        <v>1.1197452399999999</v>
       </c>
       <c r="D56" s="21">
-        <v>1.9358313009107209</v>
+        <v>1.9028250831534077</v>
       </c>
       <c r="E56" s="22">
-        <v>1.911611187169286</v>
+        <v>1.8790179260306001</v>
       </c>
       <c r="F56" s="22">
-        <v>142.36346806402594</v>
+        <v>142.05412739121883</v>
       </c>
       <c r="G56" s="22">
-        <v>144.16721320439714</v>
+        <v>143.85395318526557</v>
       </c>
       <c r="H56" s="22">
-        <v>154.19557752842726</v>
+        <v>153.91293391210289</v>
       </c>
       <c r="I56" s="22">
-        <v>186.9028505543275</v>
+        <v>186.57782483832852</v>
       </c>
       <c r="J56" s="22">
-        <v>32.707273025900236</v>
+        <v>32.664890926225638</v>
       </c>
       <c r="K56" s="21">
-        <v>42.735637349930364</v>
+        <v>42.72387165306295</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="14.1" customHeight="1">
@@ -14717,31 +14841,31 @@
         <v>0.95750000000000002</v>
       </c>
       <c r="C57" s="20">
-        <v>1.0959177199999997</v>
+        <v>1.0955673599999998</v>
       </c>
       <c r="D57" s="21">
-        <v>4.1106147107202817</v>
+        <v>4.079479549959788</v>
       </c>
       <c r="E57" s="22">
-        <v>4.2930701939637403</v>
+        <v>4.2605530547882902</v>
       </c>
       <c r="F57" s="22">
-        <v>146.65653825798967</v>
+        <v>146.31468044600712</v>
       </c>
       <c r="G57" s="22">
-        <v>140.42363538202511</v>
+        <v>140.09630652705181</v>
       </c>
       <c r="H57" s="22">
-        <v>158.30619223914755</v>
+        <v>157.99241346206267</v>
       </c>
       <c r="I57" s="22">
-        <v>183.15927273195547</v>
+        <v>182.82017818011477</v>
       </c>
       <c r="J57" s="22">
-        <v>24.853080492807919</v>
+        <v>24.827764718052094</v>
       </c>
       <c r="K57" s="21">
-        <v>42.735637349930364</v>
+        <v>42.72387165306295</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="14.1" customHeight="1">
@@ -14752,31 +14876,31 @@
         <v>0.85887999999999998</v>
       </c>
       <c r="C58" s="20">
-        <v>1.06964792</v>
+        <v>1.0694000799999999</v>
       </c>
       <c r="D58" s="21">
-        <v>14.512600059857027</v>
+        <v>14.461464550094032</v>
       </c>
       <c r="E58" s="22">
-        <v>16.897121902776902</v>
+        <v>16.837584470582655</v>
       </c>
       <c r="F58" s="22">
-        <v>163.55366016076658</v>
+        <v>163.15226491658979</v>
       </c>
       <c r="G58" s="22">
-        <v>140.4729676388792</v>
+        <v>140.12821729156065</v>
       </c>
       <c r="H58" s="22">
-        <v>172.81879229900457</v>
+        <v>172.45387801215671</v>
       </c>
       <c r="I58" s="22">
-        <v>183.20860498880955</v>
+        <v>182.8520889446236</v>
       </c>
       <c r="J58" s="22">
-        <v>10.389812689804984</v>
+        <v>10.398210932466895</v>
       </c>
       <c r="K58" s="21">
-        <v>42.735637349930364</v>
+        <v>42.72387165306295</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="14.1" customHeight="1">
@@ -14787,31 +14911,31 @@
         <v>0.96957000000000004</v>
       </c>
       <c r="C59" s="20">
-        <v>1.0512867600000002</v>
+        <v>1.0510960000000003</v>
       </c>
       <c r="D59" s="21">
-        <v>0.84579500274896502</v>
+        <v>0.8398855354893493</v>
       </c>
       <c r="E59" s="22">
-        <v>0.87234031864534278</v>
+        <v>0.86624538247815963</v>
       </c>
       <c r="F59" s="22">
-        <v>164.42600047941193</v>
+        <v>164.01851029906794</v>
       </c>
       <c r="G59" s="22">
-        <v>159.42251728482341</v>
+        <v>159.0274270306673</v>
       </c>
       <c r="H59" s="22">
-        <v>173.66458730175353</v>
+        <v>173.29376354764605</v>
       </c>
       <c r="I59" s="22">
-        <v>202.15815463475377</v>
+        <v>201.75129868373025</v>
       </c>
       <c r="J59" s="22">
-        <v>28.493567333000243</v>
+        <v>28.457535136084203</v>
       </c>
       <c r="K59" s="21">
-        <v>42.735637349930364</v>
+        <v>42.72387165306295</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="14.1" customHeight="1">
@@ -14822,31 +14946,31 @@
         <v>0.99405999999999994</v>
       </c>
       <c r="C60" s="20">
-        <v>1.0324731600000001</v>
+        <v>1.0321424800000001</v>
       </c>
       <c r="D60" s="21">
-        <v>8.7856076352194529E-2</v>
+        <v>8.5606623159053014E-2</v>
       </c>
       <c r="E60" s="22">
-        <v>8.8381059847689805E-2</v>
+        <v>8.6118165059506493E-2</v>
       </c>
       <c r="F60" s="22">
-        <v>164.5143815392596</v>
+        <v>164.10462846412744</v>
       </c>
       <c r="G60" s="22">
-        <v>163.5371661129164</v>
+        <v>163.12984697105051</v>
       </c>
       <c r="H60" s="22">
-        <v>173.75244337810571</v>
+        <v>173.37937017080512</v>
       </c>
       <c r="I60" s="22">
-        <v>206.27280346284675</v>
+        <v>205.85371862411347</v>
       </c>
       <c r="J60" s="22">
-        <v>32.520360084741043</v>
+        <v>32.474348453308352</v>
       </c>
       <c r="K60" s="21">
-        <v>42.735637349930364</v>
+        <v>42.72387165306295</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="14.1" customHeight="1">
@@ -14857,31 +14981,31 @@
         <v>0.95635000000000003</v>
       </c>
       <c r="C61" s="20">
-        <v>1.0098818000000001</v>
+        <v>1.00955072</v>
       </c>
       <c r="D61" s="21">
-        <v>0.23777557377857525</v>
+        <v>0.23339106617176208</v>
       </c>
       <c r="E61" s="22">
-        <v>0.24862819446706252</v>
+        <v>0.24404356791108076</v>
       </c>
       <c r="F61" s="22">
-        <v>164.76300973372668</v>
+        <v>164.34867203203854</v>
       </c>
       <c r="G61" s="22">
-        <v>157.57110435884951</v>
+        <v>157.17485249784005</v>
       </c>
       <c r="H61" s="22">
-        <v>173.99021895188429</v>
+        <v>173.61276123697687</v>
       </c>
       <c r="I61" s="22">
-        <v>200.30674170877987</v>
+        <v>199.89872415090301</v>
       </c>
       <c r="J61" s="22">
-        <v>26.31652275689558</v>
+        <v>26.285962913926141</v>
       </c>
       <c r="K61" s="21">
-        <v>42.735637349930364</v>
+        <v>42.72387165306295</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="14.1" customHeight="1">
@@ -14892,31 +15016,31 @@
         <v>1.08087</v>
       </c>
       <c r="C62" s="20">
-        <v>0.99600491999999985</v>
+        <v>0.9958413599999999</v>
       </c>
       <c r="D62" s="21">
-        <v>-0.94736813503957917</v>
+        <v>-0.9528562708400703</v>
       </c>
       <c r="E62" s="22">
-        <v>-0.87648665893176714</v>
+        <v>-0.88156417593241587</v>
       </c>
       <c r="F62" s="22">
-        <v>163.88652307479492</v>
+        <v>163.46710785610611</v>
       </c>
       <c r="G62" s="22">
-        <v>177.14002619585358</v>
+        <v>176.68669286842942</v>
       </c>
       <c r="H62" s="22">
-        <v>173.99021895188429</v>
+        <v>173.61276123697687</v>
       </c>
       <c r="I62" s="22">
-        <v>220.82303168082353</v>
+        <v>220.36342079233245</v>
       </c>
       <c r="J62" s="22">
-        <v>46.832812728939246</v>
+        <v>46.750659555355583</v>
       </c>
       <c r="K62" s="21">
-        <v>43.683005484969947</v>
+        <v>43.676727923903023</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="14.1" customHeight="1">
@@ -14936,22 +15060,22 @@
         <v>-6.8041134181880638</v>
       </c>
       <c r="F63" s="22">
-        <v>157.08240965660687</v>
+        <v>156.66299443791806</v>
       </c>
       <c r="G63" s="22">
-        <v>183.56493310061421</v>
+        <v>183.07480867020666</v>
       </c>
       <c r="H63" s="22">
-        <v>173.99021895188429</v>
+        <v>173.61276123697687</v>
       </c>
       <c r="I63" s="22">
-        <v>235.19915748494455</v>
+        <v>234.70275549347008</v>
       </c>
       <c r="J63" s="22">
-        <v>61.208938533060262</v>
+        <v>61.089994256493213</v>
       </c>
       <c r="K63" s="21">
-        <v>51.634224384330338</v>
+        <v>51.627946823263414</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="14.1" customHeight="1">
@@ -14971,22 +15095,22 @@
         <v>-29.759902460460534</v>
       </c>
       <c r="F64" s="22">
-        <v>127.32250719614633</v>
+        <v>126.90309197745752</v>
       </c>
       <c r="G64" s="22">
-        <v>165.39066362272214</v>
+        <v>164.84584744779755</v>
       </c>
       <c r="H64" s="22">
-        <v>173.99021895188429</v>
+        <v>173.61276123697687</v>
       </c>
       <c r="I64" s="22">
-        <v>255.6827037041661</v>
+        <v>255.13160996817459</v>
       </c>
       <c r="J64" s="22">
-        <v>81.692484752281814</v>
+        <v>81.518848731197721</v>
       </c>
       <c r="K64" s="21">
-        <v>90.292040081443972</v>
+        <v>90.285762520377048</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="14.1" customHeight="1">
@@ -15006,22 +15130,22 @@
         <v>-10.139793752290812</v>
       </c>
       <c r="F65" s="22">
-        <v>117.18271344385552</v>
+        <v>116.76329822516671</v>
       </c>
       <c r="G65" s="22">
-        <v>143.94841702156657</v>
+        <v>143.43320317277704</v>
       </c>
       <c r="H65" s="22">
-        <v>173.99021895188429</v>
+        <v>173.61276123697687</v>
       </c>
       <c r="I65" s="22">
-        <v>246.69628114626209</v>
+        <v>246.17478973640564</v>
       </c>
       <c r="J65" s="22">
-        <v>72.706062194377807</v>
+        <v>72.562028499428777</v>
       </c>
       <c r="K65" s="21">
-        <v>102.74786412469552</v>
+        <v>102.7415865636286</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="12.75">
@@ -15041,22 +15165,22 @@
         <v>-16.42342212991672</v>
       </c>
       <c r="F66" s="22">
-        <v>100.7592913139388</v>
+        <v>100.33987609524999</v>
       </c>
       <c r="G66" s="22">
-        <v>130.85810681523861</v>
+        <v>130.31340388242307</v>
       </c>
       <c r="H66" s="22">
-        <v>173.99021895188429</v>
+        <v>173.61276123697687</v>
       </c>
       <c r="I66" s="22">
-        <v>254.93539772849959</v>
+        <v>254.3844172346171</v>
       </c>
       <c r="J66" s="22">
-        <v>80.945178776615307</v>
+        <v>80.771655997640238</v>
       </c>
       <c r="K66" s="21">
-        <v>124.07729091326097</v>
+        <v>124.07101335219404</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="12.75">
@@ -15076,22 +15200,22 @@
         <v>-13.898653731927908</v>
       </c>
       <c r="F67" s="22">
-        <v>86.860637582010895</v>
+        <v>86.441222363322083</v>
       </c>
       <c r="G67" s="22">
-        <v>114.68470561865645</v>
+        <v>114.13093912296505</v>
       </c>
       <c r="H67" s="22">
-        <v>173.99021895188429</v>
+        <v>173.61276123697687</v>
       </c>
       <c r="I67" s="22">
-        <v>257.11280601379377</v>
+        <v>256.55276195703544</v>
       </c>
       <c r="J67" s="22">
-        <v>83.122587061909485</v>
+        <v>82.940000720058578</v>
       </c>
       <c r="K67" s="21">
-        <v>142.42810039513733</v>
+        <v>142.42182283407041</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="12.75">
@@ -15111,22 +15235,22 @@
         <v>-3.3774902416594776</v>
       </c>
       <c r="F68" s="22">
-        <v>83.483147340351422</v>
+        <v>83.063732121662611</v>
       </c>
       <c r="G68" s="22">
-        <v>105.0952645238216</v>
+        <v>104.56727109331862</v>
       </c>
       <c r="H68" s="22">
-        <v>173.99021895188429</v>
+        <v>173.61276123697687</v>
       </c>
       <c r="I68" s="22">
-        <v>251.77521983437924</v>
+        <v>251.24094884280933</v>
       </c>
       <c r="J68" s="22">
-        <v>77.785000882494955</v>
+        <v>77.628187605832466</v>
       </c>
       <c r="K68" s="21">
-        <v>146.67995531055763</v>
+        <v>146.67367774949071</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="12.75">
@@ -15146,22 +15270,22 @@
         <v>-1.8531247400095345</v>
       </c>
       <c r="F69" s="22">
-        <v>81.630022600341889</v>
+        <v>81.210607381653077</v>
       </c>
       <c r="G69" s="22">
-        <v>102.2864998193584</v>
+        <v>101.76095157958039</v>
       </c>
       <c r="H69" s="22">
-        <v>173.99021895188429</v>
+        <v>173.61276123697687</v>
       </c>
       <c r="I69" s="22">
-        <v>251.28851308538498</v>
+        <v>250.75668728454005</v>
       </c>
       <c r="J69" s="22">
-        <v>77.29829413350069</v>
+        <v>77.143926047563184</v>
       </c>
       <c r="K69" s="21">
-        <v>149.00201326602658</v>
+        <v>148.99573570495966</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="12.75">
@@ -15181,22 +15305,57 @@
         <v>-0.47014935152794324</v>
       </c>
       <c r="F70" s="22">
-        <v>81.159873248813952</v>
+        <v>80.74045803012514</v>
       </c>
       <c r="G70" s="22">
-        <v>99.956499893239254</v>
+        <v>99.439948109902105</v>
       </c>
       <c r="H70" s="22">
-        <v>173.99021895188429</v>
+        <v>173.61276123697687</v>
       </c>
       <c r="I70" s="22">
-        <v>249.53754910060766</v>
+        <v>249.01471975620359</v>
       </c>
       <c r="J70" s="22">
-        <v>75.547330148723375</v>
+        <v>75.401958519226724</v>
       </c>
       <c r="K70" s="21">
-        <v>149.58104920736841</v>
+        <v>149.57477164630149</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="12.75">
+      <c r="A71" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B71" s="25">
+        <v>1.2139500000000001</v>
+      </c>
+      <c r="C71" s="20">
+        <v>1.18105912</v>
+      </c>
+      <c r="D71" s="21">
+        <v>-5.5151607829980173E-2</v>
+      </c>
+      <c r="E71" s="22">
+        <v>-4.5431531636377254E-2</v>
+      </c>
+      <c r="F71" s="22">
+        <v>80.695026498488758</v>
+      </c>
+      <c r="G71" s="22">
+        <v>97.95972741784044</v>
+      </c>
+      <c r="H71" s="22">
+        <v>173.61276123697687</v>
+      </c>
+      <c r="I71" s="22">
+        <v>247.5896506719719</v>
+      </c>
+      <c r="J71" s="22">
+        <v>73.97688943499503</v>
+      </c>
+      <c r="K71" s="21">
+        <v>149.62992325413146</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
@@ -715,7 +715,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -955,6 +955,12 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -964,7 +970,7 @@
               <c:f>'model4(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1203,6 +1209,12 @@
                   <c:v>477.7906842909785</c:v>
                 </c:pt>
                 <c:pt idx="79">
+                  <c:v>477.7906842909785</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>477.7906842909785</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>477.7906842909785</c:v>
                 </c:pt>
               </c:numCache>
@@ -1246,7 +1258,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1486,6 +1498,12 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1495,7 +1513,7 @@
               <c:f>'model4(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1731,6 +1749,12 @@
                   <c:v>720.0405566801802</c:v>
                 </c:pt>
                 <c:pt idx="79">
+                  <c:v>720.0405566801802</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>720.0405566801802</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>720.0405566801802</c:v>
                 </c:pt>
               </c:numCache>
@@ -1774,7 +1798,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2014,6 +2038,12 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2023,7 +2053,7 @@
               <c:f>'model4(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2262,6 +2292,12 @@
                   <c:v>242.2498723892017</c:v>
                 </c:pt>
                 <c:pt idx="79">
+                  <c:v>242.2498723892017</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>242.2498723892017</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>242.2498723892017</c:v>
                 </c:pt>
               </c:numCache>
@@ -2284,11 +2320,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40718336"/>
-        <c:axId val="40751104"/>
+        <c:axId val="492738432"/>
+        <c:axId val="492739968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="40718336"/>
+        <c:axId val="492738432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2331,14 +2367,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40751104"/>
+        <c:crossAx val="492739968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="40751104"/>
+        <c:axId val="492739968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2387,7 +2423,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40718336"/>
+        <c:crossAx val="492738432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2584,7 +2620,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2788,6 +2824,12 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2797,7 +2839,7 @@
               <c:f>'model4(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3000,6 +3042,12 @@
                   <c:v>798.60485211015759</c:v>
                 </c:pt>
                 <c:pt idx="67">
+                  <c:v>798.60485211015759</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>798.60485211015759</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>798.60485211015759</c:v>
                 </c:pt>
               </c:numCache>
@@ -3043,7 +3091,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3247,6 +3295,12 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3256,7 +3310,7 @@
               <c:f>'model4(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3460,6 +3514,12 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>1100.1291702505141</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1116.3002501559822</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1113.7391918934893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3502,7 +3562,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3706,6 +3766,12 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3715,7 +3781,7 @@
               <c:f>'model4(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3919,6 +3985,12 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>301.52431814035651</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>317.69539804582462</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>315.13433978333171</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3940,11 +4012,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="444489088"/>
-        <c:axId val="447552128"/>
+        <c:axId val="494180608"/>
+        <c:axId val="494899584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="444489088"/>
+        <c:axId val="494180608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3987,14 +4059,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447552128"/>
+        <c:crossAx val="494899584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="447552128"/>
+        <c:axId val="494899584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4043,7 +4115,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444489088"/>
+        <c:crossAx val="494180608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4240,7 +4312,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4444,6 +4516,12 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4453,7 +4531,7 @@
               <c:f>'model4(3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4656,6 +4734,12 @@
                   <c:v>173.61276123697687</c:v>
                 </c:pt>
                 <c:pt idx="67">
+                  <c:v>173.61276123697687</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>173.61276123697687</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>173.61276123697687</c:v>
                 </c:pt>
               </c:numCache>
@@ -4699,7 +4783,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4903,6 +4987,12 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4912,7 +5002,7 @@
               <c:f>'model4(3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5116,6 +5206,12 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>247.5896506719719</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>252.6395454302473</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>251.82540118075337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5158,7 +5254,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5362,6 +5458,12 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5371,7 +5473,7 @@
               <c:f>'model4(3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5575,6 +5677,12 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>73.97688943499503</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>79.02678419327043</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>78.212639943776509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5596,11 +5704,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="504782208"/>
-        <c:axId val="504784000"/>
+        <c:axId val="493157760"/>
+        <c:axId val="493421696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="504782208"/>
+        <c:axId val="493157760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5643,14 +5751,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504784000"/>
+        <c:crossAx val="493421696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="504784000"/>
+        <c:axId val="493421696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5699,7 +5807,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504782208"/>
+        <c:crossAx val="493157760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5792,22 +5900,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5835,22 +5943,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5878,22 +5986,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6206,7 +6314,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF83"/>
+  <dimension ref="A1:AF85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6802,7 +6910,7 @@
         <v>0.5372560236774544</v>
       </c>
       <c r="V9" s="9">
-        <v>0.11623036743162096</v>
+        <v>0.11658256234767994</v>
       </c>
       <c r="AF9" s="2">
         <f>IRR(AF4:AF8)</f>
@@ -6866,7 +6974,7 @@
         <v>0.39793050930471513</v>
       </c>
       <c r="V10" s="9">
-        <v>9.2107928430304797E-2</v>
+        <v>9.2371161110481603E-2</v>
       </c>
       <c r="X10" s="6">
         <v>43098</v>
@@ -7152,17 +7260,17 @@
         <v>44561</v>
       </c>
       <c r="Z15" s="1">
-        <v>499.59426954009558</v>
+        <v>500.21251916564194</v>
       </c>
       <c r="AA15" s="6">
         <v>44925</v>
       </c>
       <c r="AB15" s="1">
-        <v>153.10026037530758</v>
+        <v>152.39757379984275</v>
       </c>
       <c r="AC15" s="1">
         <f t="shared" si="5"/>
-        <v>-153.10026037530758</v>
+        <v>-152.39757379984275</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="14.1" customHeight="1">
@@ -7202,13 +7310,13 @@
       <c r="L16" s="7"/>
       <c r="Z16" s="2">
         <f>IRR(Z10:Z15)</f>
-        <v>0.11623036743162096</v>
+        <v>0.11658256234767994</v>
       </c>
       <c r="AA16" s="6">
         <v>44925</v>
       </c>
       <c r="AC16" s="1">
-        <v>668.05173961811045</v>
+        <v>667.91817463193593</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="14.1" customHeight="1">
@@ -7248,7 +7356,7 @@
       <c r="L17" s="7"/>
       <c r="AC17" s="2">
         <f>IRR(AC10:AC16)</f>
-        <v>9.2107928430304797E-2</v>
+        <v>9.2371161110481603E-2</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="14.1" customHeight="1">
@@ -9591,6 +9699,76 @@
         <v>242.2498723892017</v>
       </c>
       <c r="K83" s="21">
+        <v>720.0405566801802</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="12.75">
+      <c r="A84" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B84" s="25">
+        <v>1.2765299999999999</v>
+      </c>
+      <c r="C84" s="20">
+        <v>1.0525251376146776</v>
+      </c>
+      <c r="D84" s="21">
+        <v>0</v>
+      </c>
+      <c r="E84" s="22">
+        <v>0</v>
+      </c>
+      <c r="F84" s="22">
+        <v>0</v>
+      </c>
+      <c r="G84" s="22">
+        <v>0</v>
+      </c>
+      <c r="H84" s="22">
+        <v>477.7906842909785</v>
+      </c>
+      <c r="I84" s="22">
+        <v>720.0405566801802</v>
+      </c>
+      <c r="J84" s="22">
+        <v>242.2498723892017</v>
+      </c>
+      <c r="K84" s="21">
+        <v>720.0405566801802</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="12.75">
+      <c r="A85" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B85" s="25">
+        <v>1.2663900000000001</v>
+      </c>
+      <c r="C85" s="20">
+        <v>1.0554007487922688</v>
+      </c>
+      <c r="D85" s="21">
+        <v>0</v>
+      </c>
+      <c r="E85" s="22">
+        <v>0</v>
+      </c>
+      <c r="F85" s="22">
+        <v>0</v>
+      </c>
+      <c r="G85" s="22">
+        <v>0</v>
+      </c>
+      <c r="H85" s="22">
+        <v>477.7906842909785</v>
+      </c>
+      <c r="I85" s="22">
+        <v>720.0405566801802</v>
+      </c>
+      <c r="J85" s="22">
+        <v>242.2498723892017</v>
+      </c>
+      <c r="K85" s="21">
         <v>720.0405566801802</v>
       </c>
     </row>
@@ -9610,7 +9788,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF71"/>
+  <dimension ref="A1:AF73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10129,7 +10307,7 @@
         <v>0.3713104050093306</v>
       </c>
       <c r="V8" s="9">
-        <v>9.161448749478418E-2</v>
+        <v>9.1479115748108075E-2</v>
       </c>
       <c r="AC8" s="2">
         <f>IRR(AC4:AC7)</f>
@@ -10139,7 +10317,7 @@
         <v>44561</v>
       </c>
       <c r="AF8" s="1">
-        <v>321.80638751270993</v>
+        <v>321.66097977873568</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="14.1" customHeight="1">
@@ -10203,7 +10381,7 @@
       </c>
       <c r="AF9" s="2">
         <f>IRR(AF4:AF8)</f>
-        <v>9.161448749478418E-2</v>
+        <v>9.1479115748108075E-2</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="14.1" customHeight="1">
@@ -10429,11 +10607,11 @@
         <v>44925</v>
       </c>
       <c r="Y14" s="1">
-        <v>565.58588458679435</v>
+        <v>564.04017688876081</v>
       </c>
       <c r="Z14" s="1">
         <f>-Y14</f>
-        <v>-565.58588458679435</v>
+        <v>-564.04017688876081</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="14.1" customHeight="1">
@@ -10475,7 +10653,7 @@
         <v>44925</v>
       </c>
       <c r="Z15" s="1">
-        <v>916.97898329904501</v>
+        <v>915.30849147938511</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="14.1" customHeight="1">
@@ -10515,7 +10693,7 @@
       <c r="L16" s="7"/>
       <c r="Z16" s="2">
         <f>IRR(Z10:Z15)</f>
-        <v>6.5682800424140098E-2</v>
+        <v>6.5670737731836848E-2</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="14.1" customHeight="1">
@@ -12474,6 +12652,76 @@
       </c>
       <c r="K71" s="21">
         <v>786.43657754927915</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="12.75">
+      <c r="A72" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B72" s="25">
+        <v>1.2765299999999999</v>
+      </c>
+      <c r="C72" s="20">
+        <v>1.2071982400000003</v>
+      </c>
+      <c r="D72" s="21">
+        <v>-7.4506840642812007</v>
+      </c>
+      <c r="E72" s="22">
+        <v>-5.8366697721802083</v>
+      </c>
+      <c r="F72" s="22">
+        <v>252.56984837208839</v>
+      </c>
+      <c r="G72" s="22">
+        <v>322.412988542422</v>
+      </c>
+      <c r="H72" s="22">
+        <v>798.60485211015759</v>
+      </c>
+      <c r="I72" s="22">
+        <v>1116.3002501559822</v>
+      </c>
+      <c r="J72" s="22">
+        <v>317.69539804582462</v>
+      </c>
+      <c r="K72" s="21">
+        <v>793.88726161356033</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="12.75">
+      <c r="A73" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B73" s="25">
+        <v>1.2663900000000001</v>
+      </c>
+      <c r="C73" s="20">
+        <v>1.2301022400000003</v>
+      </c>
+      <c r="D73" s="21">
+        <v>-2.0410423650172551</v>
+      </c>
+      <c r="E73" s="22">
+        <v>-1.6117012650267728</v>
+      </c>
+      <c r="F73" s="22">
+        <v>250.95814710706162</v>
+      </c>
+      <c r="G73" s="22">
+        <v>317.8108879149118</v>
+      </c>
+      <c r="H73" s="22">
+        <v>798.60485211015759</v>
+      </c>
+      <c r="I73" s="22">
+        <v>1113.7391918934893</v>
+      </c>
+      <c r="J73" s="22">
+        <v>315.13433978333171</v>
+      </c>
+      <c r="K73" s="21">
+        <v>795.92830397857756</v>
       </c>
     </row>
   </sheetData>
@@ -12492,7 +12740,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AF71"/>
+  <dimension ref="A1:AF73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13011,7 +13259,7 @@
         <v>0.44460520206620852</v>
       </c>
       <c r="V8" s="9">
-        <v>0.10297744786565266</v>
+        <v>0.10289921272307767</v>
       </c>
       <c r="AC8" s="2">
         <f>IRR(AC4:AC7)</f>
@@ -13021,7 +13269,7 @@
         <v>44561</v>
       </c>
       <c r="AF8" s="1">
-        <v>43.877765592769855</v>
+        <v>43.865999895902441</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="14.1" customHeight="1">
@@ -13085,7 +13333,7 @@
       </c>
       <c r="AF9" s="2">
         <f>IRR(AF4:AF8)</f>
-        <v>0.10297744786565266</v>
+        <v>0.10289921272307767</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="14.1" customHeight="1">
@@ -13311,11 +13559,11 @@
         <v>44925</v>
       </c>
       <c r="Y14" s="1">
-        <v>143.63277580565705</v>
+        <v>143.24737155600297</v>
       </c>
       <c r="Z14" s="1">
         <f>-Y14</f>
-        <v>-143.63277580565705</v>
+        <v>-143.24737155600297</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="14.1" customHeight="1">
@@ -13357,7 +13605,7 @@
         <v>44925</v>
       </c>
       <c r="Z15" s="1">
-        <v>200.30674170877987</v>
+        <v>199.89872415090301</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="14.1" customHeight="1">
@@ -13397,7 +13645,7 @@
       <c r="L16" s="7"/>
       <c r="Z16" s="2">
         <f>IRR(Z10:Z15)</f>
-        <v>8.4185988221880725E-2</v>
+        <v>8.4214946140441116E-2</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="14.1" customHeight="1">
@@ -15356,6 +15604,76 @@
       </c>
       <c r="K71" s="21">
         <v>149.62992325413146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="12.75">
+      <c r="A72" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B72" s="25">
+        <v>1.2765299999999999</v>
+      </c>
+      <c r="C72" s="20">
+        <v>1.2071982400000003</v>
+      </c>
+      <c r="D72" s="21">
+        <v>-0.51656903938056609</v>
+      </c>
+      <c r="E72" s="22">
+        <v>-0.40466658784405074</v>
+      </c>
+      <c r="F72" s="22">
+        <v>80.29035991064471</v>
+      </c>
+      <c r="G72" s="22">
+        <v>102.49305313673528</v>
+      </c>
+      <c r="H72" s="22">
+        <v>173.61276123697687</v>
+      </c>
+      <c r="I72" s="22">
+        <v>252.6395454302473</v>
+      </c>
+      <c r="J72" s="22">
+        <v>79.02678419327043</v>
+      </c>
+      <c r="K72" s="21">
+        <v>150.14649229351201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="12.75">
+      <c r="A73" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B73" s="25">
+        <v>1.2663900000000001</v>
+      </c>
+      <c r="C73" s="20">
+        <v>1.2301022400000003</v>
+      </c>
+      <c r="D73" s="21">
+        <v>-7.406485549157811E-2</v>
+      </c>
+      <c r="E73" s="22">
+        <v>-5.848502869698758E-2</v>
+      </c>
+      <c r="F73" s="22">
+        <v>80.231874881947718</v>
+      </c>
+      <c r="G73" s="22">
+        <v>101.60484403174978</v>
+      </c>
+      <c r="H73" s="22">
+        <v>173.61276123697687</v>
+      </c>
+      <c r="I73" s="22">
+        <v>251.82540118075337</v>
+      </c>
+      <c r="J73" s="22">
+        <v>78.212639943776509</v>
+      </c>
+      <c r="K73" s="21">
+        <v>150.22055714900358</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
@@ -715,7 +715,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -961,6 +961,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -970,7 +973,7 @@
               <c:f>'model4(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1216,6 +1219,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>477.7906842909785</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>490.23708852463466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1258,7 +1264,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1504,6 +1510,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1513,7 +1522,7 @@
               <c:f>'model4(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1755,6 +1764,9 @@
                   <c:v>720.0405566801802</c:v>
                 </c:pt>
                 <c:pt idx="81">
+                  <c:v>720.0405566801802</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>720.0405566801802</c:v>
                 </c:pt>
               </c:numCache>
@@ -1798,7 +1810,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2044,6 +2056,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2053,7 +2068,7 @@
               <c:f>'model4(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2298,6 +2313,9 @@
                   <c:v>242.2498723892017</c:v>
                 </c:pt>
                 <c:pt idx="81">
+                  <c:v>242.2498723892017</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>242.2498723892017</c:v>
                 </c:pt>
               </c:numCache>
@@ -2320,11 +2338,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492738432"/>
-        <c:axId val="492739968"/>
+        <c:axId val="404256640"/>
+        <c:axId val="404258176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="492738432"/>
+        <c:axId val="404256640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2367,14 +2385,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492739968"/>
+        <c:crossAx val="404258176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="492739968"/>
+        <c:axId val="404258176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2423,7 +2441,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492738432"/>
+        <c:crossAx val="404256640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2620,7 +2638,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2830,6 +2848,9 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2839,7 +2860,7 @@
               <c:f>'model4(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3049,6 +3070,9 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>798.60485211015759</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>916.96832409659487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3091,7 +3115,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3301,6 +3325,9 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3310,7 +3337,7 @@
               <c:f>'model4(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3520,6 +3547,9 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>1113.7391918934893</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1156.9432084028326</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3562,7 +3592,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3772,6 +3802,9 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3781,7 +3814,7 @@
               <c:f>'model4(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3991,6 +4024,9 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>315.13433978333171</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>239.97488430623775</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4012,11 +4048,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="494180608"/>
-        <c:axId val="494899584"/>
+        <c:axId val="457934720"/>
+        <c:axId val="458294400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="494180608"/>
+        <c:axId val="457934720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4059,14 +4095,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494899584"/>
+        <c:crossAx val="458294400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="494899584"/>
+        <c:axId val="458294400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4115,7 +4151,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494180608"/>
+        <c:crossAx val="457934720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4312,7 +4348,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4522,6 +4558,9 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4531,7 +4570,7 @@
               <c:f>'model4(3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4741,6 +4780,9 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>173.61276123697687</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>206.32126627124239</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4783,7 +4825,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4993,6 +5035,9 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5002,7 +5047,7 @@
               <c:f>'model4(3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5212,6 +5257,9 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>251.82540118075337</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>260.50526200662438</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5254,7 +5302,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5464,6 +5512,9 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5473,7 +5524,7 @@
               <c:f>'model4(3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5683,6 +5734,9 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>78.212639943776509</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>54.183995735381984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5704,11 +5758,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493157760"/>
-        <c:axId val="493421696"/>
+        <c:axId val="448145280"/>
+        <c:axId val="448146816"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493157760"/>
+        <c:axId val="448145280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5751,14 +5805,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493421696"/>
+        <c:crossAx val="448146816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="493421696"/>
+        <c:axId val="448146816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5807,7 +5861,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493157760"/>
+        <c:crossAx val="448145280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5915,7 +5969,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5958,7 +6012,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6001,7 +6055,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6311,10 +6365,8 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1">
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:AF85"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AF86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9772,6 +9824,41 @@
         <v>720.0405566801802</v>
       </c>
     </row>
+    <row r="86" spans="1:11" ht="12.75">
+      <c r="A86" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B86" s="25">
+        <v>0.96689999999999998</v>
+      </c>
+      <c r="C86" s="20">
+        <v>1.0565099225268164</v>
+      </c>
+      <c r="D86" s="21">
+        <v>12.446404233656166</v>
+      </c>
+      <c r="E86" s="22">
+        <v>12.872483435366807</v>
+      </c>
+      <c r="F86" s="22">
+        <v>12.872483435366807</v>
+      </c>
+      <c r="G86" s="22">
+        <v>12.446404233656166</v>
+      </c>
+      <c r="H86" s="22">
+        <v>490.23708852463466</v>
+      </c>
+      <c r="I86" s="22">
+        <v>732.48696091383636</v>
+      </c>
+      <c r="J86" s="22">
+        <v>242.2498723892017</v>
+      </c>
+      <c r="K86" s="21">
+        <v>720.0405566801802</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -9788,7 +9875,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF73"/>
+  <dimension ref="A1:AF74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12724,6 +12811,41 @@
         <v>795.92830397857756</v>
       </c>
     </row>
+    <row r="74" spans="1:11" ht="12.75">
+      <c r="A74" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B74" s="25">
+        <v>0.96689999999999998</v>
+      </c>
+      <c r="C74" s="20">
+        <v>1.2432395200000002</v>
+      </c>
+      <c r="D74" s="21">
+        <v>118.36347198643726</v>
+      </c>
+      <c r="E74" s="22">
+        <v>122.41542247020091</v>
+      </c>
+      <c r="F74" s="22">
+        <v>373.37356957726251</v>
+      </c>
+      <c r="G74" s="22">
+        <v>361.01490442425512</v>
+      </c>
+      <c r="H74" s="22">
+        <v>916.96832409659487</v>
+      </c>
+      <c r="I74" s="22">
+        <v>1156.9432084028326</v>
+      </c>
+      <c r="J74" s="22">
+        <v>239.97488430623775</v>
+      </c>
+      <c r="K74" s="21">
+        <v>795.92830397857756</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -12740,7 +12862,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AF73"/>
+  <dimension ref="A1:AF74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15676,6 +15798,41 @@
         <v>150.22055714900358</v>
       </c>
     </row>
+    <row r="74" spans="1:11" ht="12.75">
+      <c r="A74" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B74" s="25">
+        <v>0.96689999999999998</v>
+      </c>
+      <c r="C74" s="20">
+        <v>1.2432395200000002</v>
+      </c>
+      <c r="D74" s="21">
+        <v>32.708505034265535</v>
+      </c>
+      <c r="E74" s="22">
+        <v>33.828219086012552</v>
+      </c>
+      <c r="F74" s="22">
+        <v>114.06009396796027</v>
+      </c>
+      <c r="G74" s="22">
+        <v>110.28470485762078</v>
+      </c>
+      <c r="H74" s="22">
+        <v>206.32126627124239</v>
+      </c>
+      <c r="I74" s="22">
+        <v>260.50526200662438</v>
+      </c>
+      <c r="J74" s="22">
+        <v>54.183995735381984</v>
+      </c>
+      <c r="K74" s="21">
+        <v>150.22055714900358</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
@@ -715,7 +715,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -964,6 +964,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -973,7 +976,7 @@
               <c:f>'model4(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1221,6 +1224,9 @@
                   <c:v>477.7906842909785</c:v>
                 </c:pt>
                 <c:pt idx="82">
+                  <c:v>490.23708852463466</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>490.23708852463466</c:v>
                 </c:pt>
               </c:numCache>
@@ -1264,7 +1270,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1513,6 +1519,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1522,7 +1531,7 @@
               <c:f>'model4(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1768,6 +1777,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>720.0405566801802</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>732.48696091383636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1810,7 +1822,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2059,6 +2071,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2068,7 +2083,7 @@
               <c:f>'model4(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2317,6 +2332,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>242.2498723892017</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>243.93578154473181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2338,11 +2356,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="404256640"/>
-        <c:axId val="404258176"/>
+        <c:axId val="92246784"/>
+        <c:axId val="92248704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="404256640"/>
+        <c:axId val="92246784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2385,14 +2403,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404258176"/>
+        <c:crossAx val="92248704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="404258176"/>
+        <c:axId val="92248704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2441,7 +2459,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404256640"/>
+        <c:crossAx val="92246784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2638,7 +2656,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2851,6 +2869,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2860,7 +2881,7 @@
               <c:f>'model4(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3073,6 +3094,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>916.96832409659487</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>945.11687376895588</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3115,7 +3139,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3328,6 +3352,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3337,7 +3364,7 @@
               <c:f>'model4(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3550,6 +3577,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>1156.9432084028326</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1233.9924944827276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3592,7 +3622,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3805,6 +3835,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3814,7 +3847,7 @@
               <c:f>'model4(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4027,6 +4060,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>239.97488430623775</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>288.8756207137717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4048,11 +4084,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="457934720"/>
-        <c:axId val="458294400"/>
+        <c:axId val="405011456"/>
+        <c:axId val="405058688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="457934720"/>
+        <c:axId val="405011456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4095,14 +4131,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458294400"/>
+        <c:crossAx val="405058688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="458294400"/>
+        <c:axId val="405058688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4151,7 +4187,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457934720"/>
+        <c:crossAx val="405011456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4348,7 +4384,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4561,6 +4597,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4570,7 +4609,7 @@
               <c:f>'model4(3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4783,6 +4822,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>206.32126627124239</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>210.11457495856766</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4825,7 +4867,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5038,6 +5080,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5047,7 +5092,7 @@
               <c:f>'model4(3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5260,6 +5305,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>260.50526200662438</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>279.23702120093338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5302,7 +5350,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5515,6 +5563,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5524,7 +5575,7 @@
               <c:f>'model4(3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5737,6 +5788,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>54.183995735381984</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>69.122446242365726</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5758,11 +5812,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="448145280"/>
-        <c:axId val="448146816"/>
+        <c:axId val="450599552"/>
+        <c:axId val="518849280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="448145280"/>
+        <c:axId val="450599552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5805,14 +5859,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448146816"/>
+        <c:crossAx val="518849280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="448146816"/>
+        <c:axId val="518849280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5861,7 +5915,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448145280"/>
+        <c:crossAx val="450599552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5969,7 +6023,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6012,7 +6066,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6055,7 +6109,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6366,7 +6420,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF86"/>
+  <dimension ref="A1:AF87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9859,6 +9913,41 @@
         <v>720.0405566801802</v>
       </c>
     </row>
+    <row r="87" spans="1:11" ht="12.75">
+      <c r="A87" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B87" s="25">
+        <v>1.0978699999999999</v>
+      </c>
+      <c r="C87" s="20">
+        <v>1.0558294743059644</v>
+      </c>
+      <c r="D87" s="21">
+        <v>-2.7394789909778305</v>
+      </c>
+      <c r="E87" s="22">
+        <v>-2.4952671909951367</v>
+      </c>
+      <c r="F87" s="22">
+        <v>10.37721624437167</v>
+      </c>
+      <c r="G87" s="22">
+        <v>11.392834398208324</v>
+      </c>
+      <c r="H87" s="22">
+        <v>490.23708852463466</v>
+      </c>
+      <c r="I87" s="22">
+        <v>734.17287006936647</v>
+      </c>
+      <c r="J87" s="22">
+        <v>243.93578154473181</v>
+      </c>
+      <c r="K87" s="21">
+        <v>722.78003567115809</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -9875,7 +9964,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF74"/>
+  <dimension ref="A1:AF75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12846,6 +12935,41 @@
         <v>795.92830397857756</v>
       </c>
     </row>
+    <row r="75" spans="1:11" ht="12.75">
+      <c r="A75" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B75" s="25">
+        <v>1.0978699999999999</v>
+      </c>
+      <c r="C75" s="20">
+        <v>1.2326303600000001</v>
+      </c>
+      <c r="D75" s="21">
+        <v>28.148549672360986</v>
+      </c>
+      <c r="E75" s="22">
+        <v>25.639237498393243</v>
+      </c>
+      <c r="F75" s="22">
+        <v>399.01280707565576</v>
+      </c>
+      <c r="G75" s="22">
+        <v>438.06419050415013</v>
+      </c>
+      <c r="H75" s="22">
+        <v>945.11687376895588</v>
+      </c>
+      <c r="I75" s="22">
+        <v>1233.9924944827276</v>
+      </c>
+      <c r="J75" s="22">
+        <v>288.8756207137717</v>
+      </c>
+      <c r="K75" s="21">
+        <v>795.92830397857756</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -12862,7 +12986,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AF74"/>
+  <dimension ref="A1:AF75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15833,6 +15957,41 @@
         <v>150.22055714900358</v>
       </c>
     </row>
+    <row r="75" spans="1:11" ht="12.75">
+      <c r="A75" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B75" s="25">
+        <v>1.0978699999999999</v>
+      </c>
+      <c r="C75" s="20">
+        <v>1.2326303600000001</v>
+      </c>
+      <c r="D75" s="21">
+        <v>3.7933086873252555</v>
+      </c>
+      <c r="E75" s="22">
+        <v>3.4551528754089791</v>
+      </c>
+      <c r="F75" s="22">
+        <v>117.51524684336925</v>
+      </c>
+      <c r="G75" s="22">
+        <v>129.0164640519298</v>
+      </c>
+      <c r="H75" s="22">
+        <v>210.11457495856766</v>
+      </c>
+      <c r="I75" s="22">
+        <v>279.23702120093338</v>
+      </c>
+      <c r="J75" s="22">
+        <v>69.122446242365726</v>
+      </c>
+      <c r="K75" s="21">
+        <v>150.22055714900358</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
@@ -715,7 +715,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -967,6 +967,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -976,7 +979,7 @@
               <c:f>'model4(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1227,6 +1230,9 @@
                   <c:v>490.23708852463466</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>490.23708852463466</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>490.23708852463466</c:v>
                 </c:pt>
               </c:numCache>
@@ -1270,7 +1276,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1522,6 +1528,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1531,7 +1540,7 @@
               <c:f>'model4(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1780,6 +1789,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>732.48696091383636</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>734.17287006936647</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1822,7 +1834,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2074,6 +2086,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2083,7 +2098,7 @@
               <c:f>'model4(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2335,6 +2350,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>243.93578154473181</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>244.35813424587769</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2356,11 +2374,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92246784"/>
-        <c:axId val="92248704"/>
+        <c:axId val="524280960"/>
+        <c:axId val="524282496"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="92246784"/>
+        <c:axId val="524280960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2403,14 +2421,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92248704"/>
+        <c:crossAx val="524282496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="92248704"/>
+        <c:axId val="524282496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2459,7 +2477,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92246784"/>
+        <c:crossAx val="524280960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2656,7 +2674,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2872,6 +2890,9 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2881,7 +2902,7 @@
               <c:f>'model4(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3097,6 +3118,9 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>945.11687376895588</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>958.07628092715584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3139,7 +3163,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3355,6 +3379,9 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3364,7 +3391,7 @@
               <c:f>'model4(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3580,6 +3607,9 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>1233.9924944827276</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1263.1917228889067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3622,7 +3652,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3838,6 +3868,9 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3847,7 +3880,7 @@
               <c:f>'model4(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4063,6 +4096,9 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>288.8756207137717</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>305.11544196175089</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4084,11 +4120,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="405011456"/>
-        <c:axId val="405058688"/>
+        <c:axId val="617528704"/>
+        <c:axId val="617546880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="405011456"/>
+        <c:axId val="617528704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4131,14 +4167,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405058688"/>
+        <c:crossAx val="617546880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="405058688"/>
+        <c:axId val="617546880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4187,7 +4223,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405011456"/>
+        <c:crossAx val="617528704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4384,7 +4420,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4600,6 +4636,9 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4609,7 +4648,7 @@
               <c:f>'model4(3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4825,6 +4864,9 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>210.11457495856766</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>211.29955723029914</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4867,7 +4909,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5083,6 +5125,9 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5092,7 +5137,7 @@
               <c:f>'model4(3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5308,6 +5353,9 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>279.23702120093338</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>285.20487401919002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5350,7 +5398,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5566,6 +5614,9 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5575,7 +5626,7 @@
               <c:f>'model4(3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5791,6 +5842,9 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>69.122446242365726</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73.905316788890872</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5812,11 +5866,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="450599552"/>
-        <c:axId val="518849280"/>
+        <c:axId val="617590144"/>
+        <c:axId val="617604224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="450599552"/>
+        <c:axId val="617590144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5859,14 +5913,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518849280"/>
+        <c:crossAx val="617604224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="518849280"/>
+        <c:axId val="617604224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5915,7 +5969,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="450599552"/>
+        <c:crossAx val="617590144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6420,7 +6474,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF87"/>
+  <dimension ref="A1:AF88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9948,6 +10002,41 @@
         <v>722.78003567115809</v>
       </c>
     </row>
+    <row r="88" spans="1:11" ht="12.75">
+      <c r="A88" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B88" s="25">
+        <v>1.1385699999999999</v>
+      </c>
+      <c r="C88" s="20">
+        <v>1.0570255600933478</v>
+      </c>
+      <c r="D88" s="21">
+        <v>-10.306718303518862</v>
+      </c>
+      <c r="E88" s="22">
+        <v>-9.0523360913416511</v>
+      </c>
+      <c r="F88" s="22">
+        <v>1.3248801530300192</v>
+      </c>
+      <c r="G88" s="22">
+        <v>1.5084687958353886</v>
+      </c>
+      <c r="H88" s="22">
+        <v>490.23708852463466</v>
+      </c>
+      <c r="I88" s="22">
+        <v>734.59522277051235</v>
+      </c>
+      <c r="J88" s="22">
+        <v>244.35813424587769</v>
+      </c>
+      <c r="K88" s="21">
+        <v>733.08675397467698</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -9964,7 +10053,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF75"/>
+  <dimension ref="A1:AF76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12970,6 +13059,41 @@
         <v>795.92830397857756</v>
       </c>
     </row>
+    <row r="76" spans="1:11" ht="12.75">
+      <c r="A76" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B76" s="25">
+        <v>1.1385699999999999</v>
+      </c>
+      <c r="C76" s="20">
+        <v>1.2300079999999995</v>
+      </c>
+      <c r="D76" s="21">
+        <v>12.959407158199911</v>
+      </c>
+      <c r="E76" s="22">
+        <v>11.382178661127478</v>
+      </c>
+      <c r="F76" s="22">
+        <v>410.39498573678321</v>
+      </c>
+      <c r="G76" s="22">
+        <v>467.26341891032922</v>
+      </c>
+      <c r="H76" s="22">
+        <v>958.07628092715584</v>
+      </c>
+      <c r="I76" s="22">
+        <v>1263.1917228889067</v>
+      </c>
+      <c r="J76" s="22">
+        <v>305.11544196175089</v>
+      </c>
+      <c r="K76" s="21">
+        <v>795.92830397857756</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -12986,7 +13110,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AF75"/>
+  <dimension ref="A1:AF76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15992,6 +16116,41 @@
         <v>150.22055714900358</v>
       </c>
     </row>
+    <row r="76" spans="1:11" ht="12.75">
+      <c r="A76" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B76" s="25">
+        <v>1.1385699999999999</v>
+      </c>
+      <c r="C76" s="20">
+        <v>1.2300079999999995</v>
+      </c>
+      <c r="D76" s="21">
+        <v>1.1849822717314793</v>
+      </c>
+      <c r="E76" s="22">
+        <v>1.0407636524161707</v>
+      </c>
+      <c r="F76" s="22">
+        <v>118.55601049578543</v>
+      </c>
+      <c r="G76" s="22">
+        <v>134.9843168701864</v>
+      </c>
+      <c r="H76" s="22">
+        <v>211.29955723029914</v>
+      </c>
+      <c r="I76" s="22">
+        <v>285.20487401919002</v>
+      </c>
+      <c r="J76" s="22">
+        <v>73.905316788890872</v>
+      </c>
+      <c r="K76" s="21">
+        <v>150.22055714900358</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
@@ -715,7 +715,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -970,6 +970,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -979,7 +982,7 @@
               <c:f>'model4(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1233,6 +1236,9 @@
                   <c:v>490.23708852463466</c:v>
                 </c:pt>
                 <c:pt idx="84">
+                  <c:v>490.23708852463466</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>490.23708852463466</c:v>
                 </c:pt>
               </c:numCache>
@@ -1276,7 +1282,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1531,6 +1537,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1540,7 +1549,7 @@
               <c:f>'model4(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1792,6 +1801,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>734.17287006936647</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>734.59522277051235</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1834,7 +1846,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2089,6 +2101,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2098,7 +2113,7 @@
               <c:f>'model4(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2353,6 +2368,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>244.35813424587769</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>244.28865753065276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2374,11 +2392,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="524280960"/>
-        <c:axId val="524282496"/>
+        <c:axId val="407598208"/>
+        <c:axId val="407600128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="524280960"/>
+        <c:axId val="407598208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2421,14 +2439,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524282496"/>
+        <c:crossAx val="407600128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="524282496"/>
+        <c:axId val="407600128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2477,7 +2495,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524280960"/>
+        <c:crossAx val="407598208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2674,7 +2692,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2893,6 +2911,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2902,7 +2923,7 @@
               <c:f>'model4(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3121,6 +3142,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>958.07628092715584</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>981.77805809313656</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3163,7 +3187,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3382,6 +3406,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3391,7 +3418,7 @@
               <c:f>'model4(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3610,6 +3637,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>1263.1917228889067</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1265.3723870028507</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3652,7 +3682,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3871,6 +3901,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3880,7 +3913,7 @@
               <c:f>'model4(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4099,6 +4132,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>305.11544196175089</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>283.59432890971414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4120,11 +4156,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617528704"/>
-        <c:axId val="617546880"/>
+        <c:axId val="458234496"/>
+        <c:axId val="458363648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617528704"/>
+        <c:axId val="458234496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4167,14 +4203,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617546880"/>
+        <c:crossAx val="458363648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617546880"/>
+        <c:axId val="458363648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4223,7 +4259,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617528704"/>
+        <c:crossAx val="458234496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4420,7 +4456,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4639,6 +4675,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4648,7 +4687,7 @@
               <c:f>'model4(3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4867,6 +4906,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>211.29955723029914</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>214.23048770829848</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4909,7 +4951,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5128,6 +5170,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5137,7 +5182,7 @@
               <c:f>'model4(3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5356,6 +5401,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>285.20487401919002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>281.91872730679034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5398,7 +5446,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5617,6 +5665,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5626,7 +5677,7 @@
               <c:f>'model4(3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5845,6 +5896,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>73.905316788890872</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>67.688239598491862</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5866,11 +5920,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617590144"/>
-        <c:axId val="617604224"/>
+        <c:axId val="537683072"/>
+        <c:axId val="537684992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617590144"/>
+        <c:axId val="537683072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5913,14 +5967,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617604224"/>
+        <c:crossAx val="537684992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617604224"/>
+        <c:axId val="537684992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5969,7 +6023,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617590144"/>
+        <c:crossAx val="537683072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6077,7 +6131,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6120,7 +6174,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6163,7 +6217,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6474,7 +6528,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF88"/>
+  <dimension ref="A1:AF89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10037,6 +10091,41 @@
         <v>733.08675397467698</v>
       </c>
     </row>
+    <row r="89" spans="1:11" ht="12.75">
+      <c r="A89" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B89" s="25">
+        <v>1.08613</v>
+      </c>
+      <c r="C89" s="20">
+        <v>1.0569674567474039</v>
+      </c>
+      <c r="D89" s="21">
+        <v>-1.318203589887289</v>
+      </c>
+      <c r="E89" s="22">
+        <v>-1.2136701774992764</v>
+      </c>
+      <c r="F89" s="22">
+        <v>0.11120997553074274</v>
+      </c>
+      <c r="G89" s="22">
+        <v>0.12078849072320562</v>
+      </c>
+      <c r="H89" s="22">
+        <v>490.23708852463466</v>
+      </c>
+      <c r="I89" s="22">
+        <v>734.52574605528741</v>
+      </c>
+      <c r="J89" s="22">
+        <v>244.28865753065276</v>
+      </c>
+      <c r="K89" s="21">
+        <v>734.40495756456426</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -10053,7 +10142,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF76"/>
+  <dimension ref="A1:AF77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13094,6 +13183,41 @@
         <v>795.92830397857756</v>
       </c>
     </row>
+    <row r="77" spans="1:11" ht="12.75">
+      <c r="A77" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B77" s="25">
+        <v>1.08613</v>
+      </c>
+      <c r="C77" s="20">
+        <v>1.2097886800000002</v>
+      </c>
+      <c r="D77" s="21">
+        <v>23.701777165980769</v>
+      </c>
+      <c r="E77" s="22">
+        <v>21.822228615341412</v>
+      </c>
+      <c r="F77" s="22">
+        <v>432.21721435212464</v>
+      </c>
+      <c r="G77" s="22">
+        <v>469.44408302427314</v>
+      </c>
+      <c r="H77" s="22">
+        <v>981.77805809313656</v>
+      </c>
+      <c r="I77" s="22">
+        <v>1265.3723870028507</v>
+      </c>
+      <c r="J77" s="22">
+        <v>283.59432890971414</v>
+      </c>
+      <c r="K77" s="21">
+        <v>795.92830397857756</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -13110,7 +13234,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AF76"/>
+  <dimension ref="A1:AF77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16151,6 +16275,41 @@
         <v>150.22055714900358</v>
       </c>
     </row>
+    <row r="77" spans="1:11" ht="12.75">
+      <c r="A77" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B77" s="25">
+        <v>1.08613</v>
+      </c>
+      <c r="C77" s="20">
+        <v>1.2097886800000002</v>
+      </c>
+      <c r="D77" s="21">
+        <v>2.9309304779993259</v>
+      </c>
+      <c r="E77" s="22">
+        <v>2.6985079852313496</v>
+      </c>
+      <c r="F77" s="22">
+        <v>121.25451848101677</v>
+      </c>
+      <c r="G77" s="22">
+        <v>131.69817015778676</v>
+      </c>
+      <c r="H77" s="22">
+        <v>214.23048770829848</v>
+      </c>
+      <c r="I77" s="22">
+        <v>281.91872730679034</v>
+      </c>
+      <c r="J77" s="22">
+        <v>67.688239598491862</v>
+      </c>
+      <c r="K77" s="21">
+        <v>150.22055714900358</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
@@ -715,7 +715,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -973,6 +973,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -982,7 +985,7 @@
               <c:f>'model4(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1240,6 +1243,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>490.23708852463466</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>492.16591731121503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1282,7 +1288,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1540,6 +1546,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1549,7 +1558,7 @@
               <c:f>'model4(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1804,6 +1813,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>734.59522277051235</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>734.52574605528741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1846,7 +1858,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2104,6 +2116,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2113,7 +2128,7 @@
               <c:f>'model4(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2371,6 +2386,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>244.28865753065276</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>244.28147781463247</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2392,11 +2410,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="407598208"/>
-        <c:axId val="407600128"/>
+        <c:axId val="77338496"/>
+        <c:axId val="77340032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="407598208"/>
+        <c:axId val="77338496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2439,14 +2457,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="407600128"/>
+        <c:crossAx val="77340032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="407600128"/>
+        <c:axId val="77340032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2495,7 +2513,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="407598208"/>
+        <c:crossAx val="77338496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2692,7 +2710,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2914,6 +2932,9 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2923,7 +2944,7 @@
               <c:f>'model4(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3145,6 +3166,9 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>981.77805809313656</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1028.0677741950865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3187,7 +3211,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3409,6 +3433,9 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3418,7 +3445,7 @@
               <c:f>'model4(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3640,6 +3667,9 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>1265.3723870028507</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1283.7581597462274</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3682,7 +3712,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3904,6 +3934,9 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3913,7 +3946,7 @@
               <c:f>'model4(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4135,6 +4168,9 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>283.59432890971414</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>255.69038555114093</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4156,11 +4192,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="458234496"/>
-        <c:axId val="458363648"/>
+        <c:axId val="98957184"/>
+        <c:axId val="98958720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="458234496"/>
+        <c:axId val="98957184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4203,14 +4239,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458363648"/>
+        <c:crossAx val="98958720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="458363648"/>
+        <c:axId val="98958720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4259,7 +4295,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458234496"/>
+        <c:crossAx val="98957184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4456,7 +4492,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4678,6 +4714,9 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4687,7 +4726,7 @@
               <c:f>'model4(3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4909,6 +4948,9 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>214.23048770829848</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>222.22995241702472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4951,7 +4993,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5173,6 +5215,9 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5182,7 +5227,7 @@
               <c:f>'model4(3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5404,6 +5449,9 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>281.91872730679034</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>282.09000030238212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5446,7 +5494,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5668,6 +5716,9 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5677,7 +5728,7 @@
               <c:f>'model4(3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5899,6 +5950,9 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>67.688239598491862</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>59.860047885357403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5920,11 +5974,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="537683072"/>
-        <c:axId val="537684992"/>
+        <c:axId val="393182592"/>
+        <c:axId val="418409472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="537683072"/>
+        <c:axId val="393182592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5967,14 +6021,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537684992"/>
+        <c:crossAx val="418409472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="537684992"/>
+        <c:axId val="418409472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6023,7 +6077,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537683072"/>
+        <c:crossAx val="393182592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6528,7 +6582,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF89"/>
+  <dimension ref="A1:AF90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7210,6 +7264,16 @@
         <f t="shared" ref="AC10:AC15" si="5">-AB10</f>
         <v>-18.350992705669857</v>
       </c>
+      <c r="AD10" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>18.350992705669857</v>
+      </c>
+      <c r="AF10" s="1">
+        <f t="shared" ref="AF10:AF16" si="6">-AE10</f>
+        <v>-18.350992705669857</v>
+      </c>
     </row>
     <row r="11" spans="1:32" ht="14.1" customHeight="1">
       <c r="A11" s="15">
@@ -7246,6 +7310,30 @@
         <v>12.737939751259454</v>
       </c>
       <c r="L11" s="7"/>
+      <c r="O11" s="6">
+        <v>45289</v>
+      </c>
+      <c r="P11" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>477.7906842909785</v>
+      </c>
+      <c r="R11" s="5">
+        <v>720.0405566801802</v>
+      </c>
+      <c r="S11" s="5">
+        <v>242.2498723892017</v>
+      </c>
+      <c r="T11" s="5">
+        <v>720.0405566801802</v>
+      </c>
+      <c r="U11" s="9">
+        <v>0.50702092015186617</v>
+      </c>
+      <c r="V11" s="9">
+        <v>8.92869255584543E-2</v>
+      </c>
       <c r="X11" s="6">
         <v>43462</v>
       </c>
@@ -7266,6 +7354,16 @@
         <f t="shared" si="5"/>
         <v>-255.17901000780921</v>
       </c>
+      <c r="AD11" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>255.17901000780921</v>
+      </c>
+      <c r="AF11" s="1">
+        <f t="shared" si="6"/>
+        <v>-255.17901000780921</v>
+      </c>
     </row>
     <row r="12" spans="1:32" ht="14.1" customHeight="1">
       <c r="A12" s="15">
@@ -7322,6 +7420,16 @@
         <f t="shared" si="5"/>
         <v>-51.512876965237467</v>
       </c>
+      <c r="AD12" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>51.863107777656694</v>
+      </c>
+      <c r="AF12" s="1">
+        <f t="shared" si="6"/>
+        <v>-51.863107777656694</v>
+      </c>
     </row>
     <row r="13" spans="1:32" ht="14.1" customHeight="1">
       <c r="A13" s="15">
@@ -7378,6 +7486,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AD13" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:32" ht="14.1" customHeight="1">
       <c r="A14" s="15">
@@ -7434,6 +7552,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AD14" s="6">
+        <v>44561</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:32" ht="14.1" customHeight="1">
       <c r="A15" s="15">
@@ -7484,6 +7612,16 @@
       </c>
       <c r="AC15" s="1">
         <f t="shared" si="5"/>
+        <v>-152.39757379984275</v>
+      </c>
+      <c r="AD15" s="6">
+        <v>44925</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>152.39757379984275</v>
+      </c>
+      <c r="AF15" s="1">
+        <f t="shared" si="6"/>
         <v>-152.39757379984275</v>
       </c>
     </row>
@@ -7532,8 +7670,18 @@
       <c r="AC16" s="1">
         <v>667.91817463193593</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" ht="14.1" customHeight="1">
+      <c r="AD16" s="6">
+        <v>45289</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="14.1" customHeight="1">
       <c r="A17" s="15">
         <v>43217</v>
       </c>
@@ -7572,8 +7720,14 @@
         <f>IRR(AC10:AC16)</f>
         <v>9.2371161110481603E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" ht="14.1" customHeight="1">
+      <c r="AD17" s="6">
+        <v>45289</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>720.0405566801802</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="14.1" customHeight="1">
       <c r="A18" s="15">
         <v>43251</v>
       </c>
@@ -7608,8 +7762,12 @@
         <v>14.977026913543675</v>
       </c>
       <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:29" ht="14.1" customHeight="1">
+      <c r="AF18" s="2">
+        <f>IRR(AF10:AF17)</f>
+        <v>8.92869255584543E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="14.1" customHeight="1">
       <c r="A19" s="15">
         <v>43280</v>
       </c>
@@ -7645,7 +7803,7 @@
       </c>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:29" ht="14.1" customHeight="1">
+    <row r="20" spans="1:32" ht="14.1" customHeight="1">
       <c r="A20" s="15">
         <v>43312</v>
       </c>
@@ -7681,7 +7839,7 @@
       </c>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:29" ht="14.1" customHeight="1">
+    <row r="21" spans="1:32" ht="14.1" customHeight="1">
       <c r="A21" s="15">
         <v>43343</v>
       </c>
@@ -7717,7 +7875,7 @@
       </c>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:29" ht="14.1" customHeight="1">
+    <row r="22" spans="1:32" ht="14.1" customHeight="1">
       <c r="A22" s="15">
         <v>43371</v>
       </c>
@@ -7753,7 +7911,7 @@
       </c>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:29" ht="14.1" customHeight="1">
+    <row r="23" spans="1:32" ht="14.1" customHeight="1">
       <c r="A23" s="15">
         <v>43404</v>
       </c>
@@ -7789,7 +7947,7 @@
       </c>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" spans="1:29" ht="14.1" customHeight="1">
+    <row r="24" spans="1:32" ht="14.1" customHeight="1">
       <c r="A24" s="15">
         <v>43434</v>
       </c>
@@ -7826,7 +7984,7 @@
       <c r="L24" s="7"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:29" ht="14.1" customHeight="1">
+    <row r="25" spans="1:32" ht="14.1" customHeight="1">
       <c r="A25" s="15">
         <v>43462</v>
       </c>
@@ -7862,7 +8020,7 @@
       </c>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:29" ht="14.1" customHeight="1">
+    <row r="26" spans="1:32" ht="14.1" customHeight="1">
       <c r="A26" s="15">
         <v>43496</v>
       </c>
@@ -7898,7 +8056,7 @@
       </c>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:29" ht="14.1" customHeight="1">
+    <row r="27" spans="1:32" ht="14.1" customHeight="1">
       <c r="A27" s="15">
         <v>43524</v>
       </c>
@@ -7934,7 +8092,7 @@
       </c>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:29" ht="14.1" customHeight="1">
+    <row r="28" spans="1:32" ht="14.1" customHeight="1">
       <c r="A28" s="15">
         <v>43553</v>
       </c>
@@ -7970,7 +8128,7 @@
       </c>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:29" ht="14.1" customHeight="1">
+    <row r="29" spans="1:32" ht="14.1" customHeight="1">
       <c r="A29" s="15">
         <v>43585</v>
       </c>
@@ -8006,7 +8164,7 @@
       </c>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" spans="1:29" ht="14.1" customHeight="1">
+    <row r="30" spans="1:32" ht="14.1" customHeight="1">
       <c r="A30" s="15">
         <v>43616</v>
       </c>
@@ -8042,7 +8200,7 @@
       </c>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="1:29" ht="14.1" customHeight="1">
+    <row r="31" spans="1:32" ht="14.1" customHeight="1">
       <c r="A31" s="15">
         <v>43644</v>
       </c>
@@ -8078,7 +8236,7 @@
       </c>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:29" ht="14.1" customHeight="1">
+    <row r="32" spans="1:32" ht="14.1" customHeight="1">
       <c r="A32" s="15">
         <v>43677</v>
       </c>
@@ -10123,6 +10281,41 @@
         <v>244.28865753065276</v>
       </c>
       <c r="K89" s="21">
+        <v>734.40495756456426</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="12.75">
+      <c r="A90" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B90" s="25">
+        <v>1.0215700000000001</v>
+      </c>
+      <c r="C90" s="20">
+        <v>1.0568461345496005</v>
+      </c>
+      <c r="D90" s="21">
+        <v>1.928828786580346</v>
+      </c>
+      <c r="E90" s="22">
+        <v>1.888102417436246</v>
+      </c>
+      <c r="F90" s="22">
+        <v>1.9993123929669887</v>
+      </c>
+      <c r="G90" s="22">
+        <v>2.042437561283287</v>
+      </c>
+      <c r="H90" s="22">
+        <v>492.16591731121503</v>
+      </c>
+      <c r="I90" s="22">
+        <v>736.44739512584749</v>
+      </c>
+      <c r="J90" s="22">
+        <v>244.28147781463247</v>
+      </c>
+      <c r="K90" s="21">
         <v>734.40495756456426</v>
       </c>
     </row>
@@ -10142,7 +10335,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF77"/>
+  <dimension ref="A1:AF78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10731,7 +10924,7 @@
         <v>0.14613439808293288</v>
       </c>
       <c r="V9" s="9">
-        <v>6.5682800424140098E-2</v>
+        <v>6.5670737731836848E-2</v>
       </c>
       <c r="AF9" s="2">
         <f>IRR(AF4:AF8)</f>
@@ -10773,6 +10966,30 @@
         <v>0</v>
       </c>
       <c r="L10" s="7"/>
+      <c r="O10" s="6">
+        <v>45289</v>
+      </c>
+      <c r="P10" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>798.60485211015759</v>
+      </c>
+      <c r="R10" s="5">
+        <v>1113.7391918934893</v>
+      </c>
+      <c r="S10" s="5">
+        <v>315.13433978333171</v>
+      </c>
+      <c r="T10" s="5">
+        <v>795.92830397857756</v>
+      </c>
+      <c r="U10" s="9">
+        <v>0.39460609204996772</v>
+      </c>
+      <c r="V10" s="9">
+        <v>0.10920178480959164</v>
+      </c>
       <c r="X10" s="6">
         <v>43462</v>
       </c>
@@ -10783,6 +11000,16 @@
         <f>-Y10</f>
         <v>-185.03707217220185</v>
       </c>
+      <c r="AA10" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>185.03707217220185</v>
+      </c>
+      <c r="AC10" s="1">
+        <f t="shared" ref="AC10:AC15" si="3">-AB10</f>
+        <v>-185.03707217220185</v>
+      </c>
     </row>
     <row r="11" spans="1:32" ht="14.1" customHeight="1">
       <c r="A11" s="15">
@@ -10829,6 +11056,16 @@
         <f>-Y11</f>
         <v>-24.103041534476546</v>
       </c>
+      <c r="AA11" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>24.145505961333754</v>
+      </c>
+      <c r="AC11" s="1">
+        <f t="shared" si="3"/>
+        <v>-24.145505961333754</v>
+      </c>
     </row>
     <row r="12" spans="1:32" ht="14.1" customHeight="1">
       <c r="A12" s="15">
@@ -10875,6 +11112,16 @@
         <f>-Y12</f>
         <v>0</v>
       </c>
+      <c r="AA12" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:32" ht="14.1" customHeight="1">
       <c r="A13" s="15">
@@ -10921,6 +11168,16 @@
         <f>-Y13</f>
         <v>-25.382097087861155</v>
       </c>
+      <c r="AA13" s="6">
+        <v>44561</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>25.382097087861155</v>
+      </c>
+      <c r="AC13" s="1">
+        <f t="shared" si="3"/>
+        <v>-25.382097087861155</v>
+      </c>
     </row>
     <row r="14" spans="1:32" ht="14.1" customHeight="1">
       <c r="A14" s="15">
@@ -10967,6 +11224,16 @@
         <f>-Y14</f>
         <v>-564.04017688876081</v>
       </c>
+      <c r="AA14" s="6">
+        <v>44925</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>564.04017688876081</v>
+      </c>
+      <c r="AC14" s="1">
+        <f t="shared" si="3"/>
+        <v>-564.04017688876081</v>
+      </c>
     </row>
     <row r="15" spans="1:32" ht="14.1" customHeight="1">
       <c r="A15" s="15">
@@ -11008,6 +11275,16 @@
       </c>
       <c r="Z15" s="1">
         <v>915.30849147938511</v>
+      </c>
+      <c r="AA15" s="6">
+        <v>45289</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="14.1" customHeight="1">
@@ -11049,8 +11326,14 @@
         <f>IRR(Z10:Z15)</f>
         <v>6.5670737731836848E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="14.1" customHeight="1">
+      <c r="AA16" s="6">
+        <v>45289</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>1113.7391918934893</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="14.1" customHeight="1">
       <c r="A17" s="15">
         <v>43585</v>
       </c>
@@ -11085,8 +11368,12 @@
         <v>54.331568794218384</v>
       </c>
       <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="1:15" ht="14.1" customHeight="1">
+      <c r="AC17" s="2">
+        <f>IRR(AC10:AC16)</f>
+        <v>0.10920178480959164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="14.1" customHeight="1">
       <c r="A18" s="15">
         <v>43616</v>
       </c>
@@ -11122,7 +11409,7 @@
       </c>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="1:15" ht="14.1" customHeight="1">
+    <row r="19" spans="1:29" ht="14.1" customHeight="1">
       <c r="A19" s="15">
         <v>43644</v>
       </c>
@@ -11158,7 +11445,7 @@
       </c>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:15" ht="14.1" customHeight="1">
+    <row r="20" spans="1:29" ht="14.1" customHeight="1">
       <c r="A20" s="15">
         <v>43677</v>
       </c>
@@ -11194,7 +11481,7 @@
       </c>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:15" ht="14.1" customHeight="1">
+    <row r="21" spans="1:29" ht="14.1" customHeight="1">
       <c r="A21" s="15">
         <v>43707</v>
       </c>
@@ -11230,7 +11517,7 @@
       </c>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:15" ht="14.1" customHeight="1">
+    <row r="22" spans="1:29" ht="14.1" customHeight="1">
       <c r="A22" s="15">
         <v>43738</v>
       </c>
@@ -11266,7 +11553,7 @@
       </c>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:15" ht="14.1" customHeight="1">
+    <row r="23" spans="1:29" ht="14.1" customHeight="1">
       <c r="A23" s="15">
         <v>43769</v>
       </c>
@@ -11303,7 +11590,7 @@
       <c r="L23" s="7"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="14.1" customHeight="1">
+    <row r="24" spans="1:29" ht="14.1" customHeight="1">
       <c r="A24" s="15">
         <v>43798</v>
       </c>
@@ -11339,7 +11626,7 @@
       </c>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:15" ht="14.1" customHeight="1">
+    <row r="25" spans="1:29" ht="14.1" customHeight="1">
       <c r="A25" s="15">
         <v>43830</v>
       </c>
@@ -11375,7 +11662,7 @@
       </c>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:15" ht="14.1" customHeight="1">
+    <row r="26" spans="1:29" ht="14.1" customHeight="1">
       <c r="A26" s="15">
         <v>43853</v>
       </c>
@@ -11411,7 +11698,7 @@
       </c>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:15" ht="14.1" customHeight="1">
+    <row r="27" spans="1:29" ht="14.1" customHeight="1">
       <c r="A27" s="15">
         <v>43889</v>
       </c>
@@ -11447,7 +11734,7 @@
       </c>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:15" ht="14.1" customHeight="1">
+    <row r="28" spans="1:29" ht="14.1" customHeight="1">
       <c r="A28" s="15">
         <v>43921</v>
       </c>
@@ -11483,7 +11770,7 @@
       </c>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:15" ht="14.1" customHeight="1">
+    <row r="29" spans="1:29" ht="14.1" customHeight="1">
       <c r="A29" s="15">
         <v>43951</v>
       </c>
@@ -11519,7 +11806,7 @@
       </c>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" spans="1:15" ht="14.1" customHeight="1">
+    <row r="30" spans="1:29" ht="14.1" customHeight="1">
       <c r="A30" s="15">
         <v>43980</v>
       </c>
@@ -11555,7 +11842,7 @@
       </c>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="1:15" ht="14.1" customHeight="1">
+    <row r="31" spans="1:29" ht="14.1" customHeight="1">
       <c r="A31" s="15">
         <v>44012</v>
       </c>
@@ -11591,7 +11878,7 @@
       </c>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:15" ht="14.1" customHeight="1">
+    <row r="32" spans="1:29" ht="14.1" customHeight="1">
       <c r="A32" s="15">
         <v>44043</v>
       </c>
@@ -13215,6 +13502,41 @@
         <v>283.59432890971414</v>
       </c>
       <c r="K77" s="21">
+        <v>795.92830397857756</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="12.75">
+      <c r="A78" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B78" s="25">
+        <v>1.0215700000000001</v>
+      </c>
+      <c r="C78" s="20">
+        <v>1.1943829999999998</v>
+      </c>
+      <c r="D78" s="21">
+        <v>46.289716101949821</v>
+      </c>
+      <c r="E78" s="22">
+        <v>45.312329161927053</v>
+      </c>
+      <c r="F78" s="22">
+        <v>477.52954351405168</v>
+      </c>
+      <c r="G78" s="22">
+        <v>487.8298557676498</v>
+      </c>
+      <c r="H78" s="22">
+        <v>1028.0677741950865</v>
+      </c>
+      <c r="I78" s="22">
+        <v>1283.7581597462274</v>
+      </c>
+      <c r="J78" s="22">
+        <v>255.69038555114093</v>
+      </c>
+      <c r="K78" s="21">
         <v>795.92830397857756</v>
       </c>
     </row>
@@ -13234,7 +13556,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AF77"/>
+  <dimension ref="A1:AF78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13823,7 +14145,7 @@
         <v>0.15140570731460512</v>
       </c>
       <c r="V9" s="9">
-        <v>8.4185988221880725E-2</v>
+        <v>8.4214946140441116E-2</v>
       </c>
       <c r="AF9" s="2">
         <f>IRR(AF4:AF8)</f>
@@ -13865,6 +14187,30 @@
         <v>0</v>
       </c>
       <c r="L10" s="7"/>
+      <c r="O10" s="6">
+        <v>45289</v>
+      </c>
+      <c r="P10" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>173.61276123697687</v>
+      </c>
+      <c r="R10" s="5">
+        <v>251.82540118075337</v>
+      </c>
+      <c r="S10" s="5">
+        <v>78.212639943776509</v>
+      </c>
+      <c r="T10" s="5">
+        <v>150.22055714900358</v>
+      </c>
+      <c r="U10" s="9">
+        <v>0.45050052419256387</v>
+      </c>
+      <c r="V10" s="9">
+        <v>0.14156375156582657</v>
+      </c>
       <c r="X10" s="6">
         <v>43462</v>
       </c>
@@ -13875,6 +14221,16 @@
         <f>-Y10</f>
         <v>-25.663806972387135</v>
       </c>
+      <c r="AA10" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>25.663806972387135</v>
+      </c>
+      <c r="AC10" s="1">
+        <f t="shared" ref="AC10:AC15" si="2">-AB10</f>
+        <v>-25.663806972387135</v>
+      </c>
     </row>
     <row r="11" spans="1:32" ht="14.1" customHeight="1">
       <c r="A11" s="15">
@@ -13921,6 +14277,16 @@
         <f>-Y11</f>
         <v>-3.0056743465124249</v>
       </c>
+      <c r="AA11" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>3.0136208812590795</v>
+      </c>
+      <c r="AC11" s="1">
+        <f t="shared" si="2"/>
+        <v>-3.0136208812590795</v>
+      </c>
     </row>
     <row r="12" spans="1:32" ht="14.1" customHeight="1">
       <c r="A12" s="15">
@@ -13967,6 +14333,16 @@
         <f>-Y12</f>
         <v>0</v>
       </c>
+      <c r="AA12" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:32" ht="14.1" customHeight="1">
       <c r="A13" s="15">
@@ -14013,6 +14389,16 @@
         <f>-Y13</f>
         <v>-1.6879618273276691</v>
       </c>
+      <c r="AA13" s="6">
+        <v>44561</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>1.6879618273276691</v>
+      </c>
+      <c r="AC13" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.6879618273276691</v>
+      </c>
     </row>
     <row r="14" spans="1:32" ht="14.1" customHeight="1">
       <c r="A14" s="15">
@@ -14059,6 +14445,16 @@
         <f>-Y14</f>
         <v>-143.24737155600297</v>
       </c>
+      <c r="AA14" s="6">
+        <v>44925</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>143.24737155600297</v>
+      </c>
+      <c r="AC14" s="1">
+        <f t="shared" si="2"/>
+        <v>-143.24737155600297</v>
+      </c>
     </row>
     <row r="15" spans="1:32" ht="14.1" customHeight="1">
       <c r="A15" s="15">
@@ -14100,6 +14496,16 @@
       </c>
       <c r="Z15" s="1">
         <v>199.89872415090301</v>
+      </c>
+      <c r="AA15" s="6">
+        <v>45289</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="14.1" customHeight="1">
@@ -14141,8 +14547,14 @@
         <f>IRR(Z10:Z15)</f>
         <v>8.4214946140441116E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="14.1" customHeight="1">
+      <c r="AA16" s="6">
+        <v>45289</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>251.82540118075337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="14.1" customHeight="1">
       <c r="A17" s="15">
         <v>43585</v>
       </c>
@@ -14177,8 +14589,12 @@
         <v>6.6897352547098636</v>
       </c>
       <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="1:15" ht="14.1" customHeight="1">
+      <c r="AC17" s="2">
+        <f>IRR(AC10:AC16)</f>
+        <v>0.14156375156582657</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="14.1" customHeight="1">
       <c r="A18" s="15">
         <v>43616</v>
       </c>
@@ -14214,7 +14630,7 @@
       </c>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="1:15" ht="14.1" customHeight="1">
+    <row r="19" spans="1:29" ht="14.1" customHeight="1">
       <c r="A19" s="15">
         <v>43644</v>
       </c>
@@ -14250,7 +14666,7 @@
       </c>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:15" ht="14.1" customHeight="1">
+    <row r="20" spans="1:29" ht="14.1" customHeight="1">
       <c r="A20" s="15">
         <v>43677</v>
       </c>
@@ -14286,7 +14702,7 @@
       </c>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:15" ht="14.1" customHeight="1">
+    <row r="21" spans="1:29" ht="14.1" customHeight="1">
       <c r="A21" s="15">
         <v>43707</v>
       </c>
@@ -14322,7 +14738,7 @@
       </c>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:15" ht="14.1" customHeight="1">
+    <row r="22" spans="1:29" ht="14.1" customHeight="1">
       <c r="A22" s="15">
         <v>43738</v>
       </c>
@@ -14358,7 +14774,7 @@
       </c>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:15" ht="14.1" customHeight="1">
+    <row r="23" spans="1:29" ht="14.1" customHeight="1">
       <c r="A23" s="15">
         <v>43769</v>
       </c>
@@ -14395,7 +14811,7 @@
       <c r="L23" s="7"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="14.1" customHeight="1">
+    <row r="24" spans="1:29" ht="14.1" customHeight="1">
       <c r="A24" s="15">
         <v>43798</v>
       </c>
@@ -14431,7 +14847,7 @@
       </c>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:15" ht="14.1" customHeight="1">
+    <row r="25" spans="1:29" ht="14.1" customHeight="1">
       <c r="A25" s="15">
         <v>43830</v>
       </c>
@@ -14467,7 +14883,7 @@
       </c>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:15" ht="14.1" customHeight="1">
+    <row r="26" spans="1:29" ht="14.1" customHeight="1">
       <c r="A26" s="15">
         <v>43853</v>
       </c>
@@ -14503,7 +14919,7 @@
       </c>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:15" ht="14.1" customHeight="1">
+    <row r="27" spans="1:29" ht="14.1" customHeight="1">
       <c r="A27" s="15">
         <v>43889</v>
       </c>
@@ -14539,7 +14955,7 @@
       </c>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:15" ht="14.1" customHeight="1">
+    <row r="28" spans="1:29" ht="14.1" customHeight="1">
       <c r="A28" s="15">
         <v>43921</v>
       </c>
@@ -14575,7 +14991,7 @@
       </c>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:15" ht="14.1" customHeight="1">
+    <row r="29" spans="1:29" ht="14.1" customHeight="1">
       <c r="A29" s="15">
         <v>43951</v>
       </c>
@@ -14611,7 +15027,7 @@
       </c>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" spans="1:15" ht="14.1" customHeight="1">
+    <row r="30" spans="1:29" ht="14.1" customHeight="1">
       <c r="A30" s="15">
         <v>43980</v>
       </c>
@@ -14647,7 +15063,7 @@
       </c>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="1:15" ht="14.1" customHeight="1">
+    <row r="31" spans="1:29" ht="14.1" customHeight="1">
       <c r="A31" s="15">
         <v>44012</v>
       </c>
@@ -14683,7 +15099,7 @@
       </c>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:15" ht="14.1" customHeight="1">
+    <row r="32" spans="1:29" ht="14.1" customHeight="1">
       <c r="A32" s="15">
         <v>44043</v>
       </c>
@@ -16307,6 +16723,41 @@
         <v>67.688239598491862</v>
       </c>
       <c r="K77" s="21">
+        <v>150.22055714900358</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="12.75">
+      <c r="A78" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B78" s="25">
+        <v>1.0215700000000001</v>
+      </c>
+      <c r="C78" s="20">
+        <v>1.1943829999999998</v>
+      </c>
+      <c r="D78" s="21">
+        <v>7.9994647087262383</v>
+      </c>
+      <c r="E78" s="22">
+        <v>7.8305595394600838</v>
+      </c>
+      <c r="F78" s="22">
+        <v>129.08507802047686</v>
+      </c>
+      <c r="G78" s="22">
+        <v>131.86944315337854</v>
+      </c>
+      <c r="H78" s="22">
+        <v>222.22995241702472</v>
+      </c>
+      <c r="I78" s="22">
+        <v>282.09000030238212</v>
+      </c>
+      <c r="J78" s="22">
+        <v>59.860047885357403</v>
+      </c>
+      <c r="K78" s="21">
         <v>150.22055714900358</v>
       </c>
     </row>

--- a/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
@@ -715,7 +715,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -976,6 +976,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -985,7 +988,7 @@
               <c:f>'model4(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1246,6 +1249,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>492.16591731121503</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>507.5142572355013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1288,7 +1294,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1549,6 +1555,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1558,7 +1567,7 @@
               <c:f>'model4(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1816,6 +1825,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>734.52574605528741</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>736.44739512584749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1858,7 +1870,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2119,6 +2131,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2128,7 +2143,7 @@
               <c:f>'model4(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2389,6 +2404,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>244.28147781463247</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>244.1512426053547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2410,11 +2428,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77338496"/>
-        <c:axId val="77340032"/>
+        <c:axId val="105021440"/>
+        <c:axId val="462321536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="77338496"/>
+        <c:axId val="105021440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2457,14 +2475,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77340032"/>
+        <c:crossAx val="462321536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="77340032"/>
+        <c:axId val="462321536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2513,7 +2531,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77338496"/>
+        <c:crossAx val="105021440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2710,7 +2728,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2935,6 +2953,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2944,7 +2965,7 @@
               <c:f>'model4(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3169,6 +3190,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>1028.0677741950865</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1098.482223004449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3211,7 +3235,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3436,6 +3460,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3445,7 +3472,7 @@
               <c:f>'model4(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3670,6 +3697,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>1283.7581597462274</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1323.0663340910844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3712,7 +3742,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3937,6 +3967,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3946,7 +3979,7 @@
               <c:f>'model4(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4171,6 +4204,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>255.69038555114093</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>224.5841110866354</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4192,11 +4228,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98957184"/>
-        <c:axId val="98958720"/>
+        <c:axId val="524428032"/>
+        <c:axId val="524429568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="98957184"/>
+        <c:axId val="524428032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4239,14 +4275,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98958720"/>
+        <c:crossAx val="524429568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="98958720"/>
+        <c:axId val="524429568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4295,7 +4331,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98957184"/>
+        <c:crossAx val="524428032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4492,7 +4528,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4717,6 +4753,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4726,7 +4765,7 @@
               <c:f>'model4(3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4951,6 +4990,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>222.22995241702472</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>237.2380908528302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4993,7 +5035,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5218,6 +5260,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5227,7 +5272,7 @@
               <c:f>'model4(3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5452,6 +5497,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>282.09000030238212</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>288.68953675593372</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5494,7 +5542,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5719,6 +5767,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5728,7 +5779,7 @@
               <c:f>'model4(3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5953,6 +6004,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>59.860047885357403</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>51.451445903103519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5974,11 +6028,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="393182592"/>
-        <c:axId val="418409472"/>
+        <c:axId val="155274240"/>
+        <c:axId val="155284224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="393182592"/>
+        <c:axId val="155274240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6021,14 +6075,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418409472"/>
+        <c:crossAx val="155284224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="418409472"/>
+        <c:axId val="155284224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6077,7 +6131,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393182592"/>
+        <c:crossAx val="155274240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6185,7 +6239,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6228,7 +6282,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6271,7 +6325,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6582,7 +6636,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF90"/>
+  <dimension ref="A1:AF91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10319,6 +10373,41 @@
         <v>734.40495756456426</v>
       </c>
     </row>
+    <row r="91" spans="1:11" ht="12.75">
+      <c r="A91" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B91" s="25">
+        <v>0.95643</v>
+      </c>
+      <c r="C91" s="20">
+        <v>1.0559395713479971</v>
+      </c>
+      <c r="D91" s="21">
+        <v>15.348339924286291</v>
+      </c>
+      <c r="E91" s="22">
+        <v>16.047530843121077</v>
+      </c>
+      <c r="F91" s="22">
+        <v>18.046843236088066</v>
+      </c>
+      <c r="G91" s="22">
+        <v>17.260542276291709</v>
+      </c>
+      <c r="H91" s="22">
+        <v>507.5142572355013</v>
+      </c>
+      <c r="I91" s="22">
+        <v>751.665499840856</v>
+      </c>
+      <c r="J91" s="22">
+        <v>244.1512426053547</v>
+      </c>
+      <c r="K91" s="21">
+        <v>734.40495756456426</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -10335,7 +10424,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF78"/>
+  <dimension ref="A1:AF79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13540,6 +13629,41 @@
         <v>795.92830397857756</v>
       </c>
     </row>
+    <row r="79" spans="1:11" ht="12.75">
+      <c r="A79" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B79" s="25">
+        <v>0.95643</v>
+      </c>
+      <c r="C79" s="20">
+        <v>1.16957004</v>
+      </c>
+      <c r="D79" s="21">
+        <v>70.414448809362455</v>
+      </c>
+      <c r="E79" s="22">
+        <v>73.622166608494567</v>
+      </c>
+      <c r="F79" s="22">
+        <v>551.15171012254621</v>
+      </c>
+      <c r="G79" s="22">
+        <v>527.13803011250684</v>
+      </c>
+      <c r="H79" s="22">
+        <v>1098.482223004449</v>
+      </c>
+      <c r="I79" s="22">
+        <v>1323.0663340910844</v>
+      </c>
+      <c r="J79" s="22">
+        <v>224.5841110866354</v>
+      </c>
+      <c r="K79" s="21">
+        <v>795.92830397857756</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -13556,7 +13680,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AF78"/>
+  <dimension ref="A1:AF79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16761,6 +16885,41 @@
         <v>150.22055714900358</v>
       </c>
     </row>
+    <row r="79" spans="1:11" ht="12.75">
+      <c r="A79" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B79" s="25">
+        <v>0.95643</v>
+      </c>
+      <c r="C79" s="20">
+        <v>1.16957004</v>
+      </c>
+      <c r="D79" s="21">
+        <v>15.008138435805467</v>
+      </c>
+      <c r="E79" s="22">
+        <v>15.691831535821196</v>
+      </c>
+      <c r="F79" s="22">
+        <v>144.77690955629805</v>
+      </c>
+      <c r="G79" s="22">
+        <v>138.46897960693013</v>
+      </c>
+      <c r="H79" s="22">
+        <v>237.2380908528302</v>
+      </c>
+      <c r="I79" s="22">
+        <v>288.68953675593372</v>
+      </c>
+      <c r="J79" s="22">
+        <v>51.451445903103519</v>
+      </c>
+      <c r="K79" s="21">
+        <v>150.22055714900358</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="15" windowWidth="17280" windowHeight="8880" activeTab="2"/>
+    <workbookView xWindow="4860" yWindow="15" windowWidth="15600" windowHeight="8880" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="model4(1)mean" sheetId="13" r:id="rId1"/>
@@ -715,7 +715,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -979,6 +979,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -988,7 +991,7 @@
               <c:f>'model4(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1252,6 +1255,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>507.5142572355013</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>516.24907214557675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1294,7 +1300,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1558,6 +1564,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1567,7 +1576,7 @@
               <c:f>'model4(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1828,6 +1837,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>736.44739512584749</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>751.665499840856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1870,7 +1882,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2134,6 +2146,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2143,7 +2158,7 @@
               <c:f>'model4(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2407,6 +2422,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>244.1512426053547</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>244.5648762523258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2428,11 +2446,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105021440"/>
-        <c:axId val="462321536"/>
+        <c:axId val="225121792"/>
+        <c:axId val="225123328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="105021440"/>
+        <c:axId val="225121792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2475,14 +2493,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462321536"/>
+        <c:crossAx val="225123328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="462321536"/>
+        <c:axId val="225123328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2531,7 +2549,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105021440"/>
+        <c:crossAx val="225121792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2728,7 +2746,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2956,6 +2974,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2965,7 +2986,7 @@
               <c:f>'model4(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3193,6 +3214,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>1098.482223004449</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1135.9040565646148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3235,7 +3259,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3463,6 +3487,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3472,7 +3499,7 @@
               <c:f>'model4(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3700,6 +3727,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>1323.0663340910844</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1373.1205648472592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3742,7 +3772,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3970,6 +4000,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3979,7 +4012,7 @@
               <c:f>'model4(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4207,6 +4240,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>224.5841110866354</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>237.21650828264433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4228,11 +4264,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="524428032"/>
-        <c:axId val="524429568"/>
+        <c:axId val="442637696"/>
+        <c:axId val="442678272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="524428032"/>
+        <c:axId val="442637696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4275,14 +4311,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524429568"/>
+        <c:crossAx val="442678272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="524429568"/>
+        <c:axId val="442678272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4331,7 +4367,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524428032"/>
+        <c:crossAx val="442637696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4528,7 +4564,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4756,6 +4792,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4765,7 +4804,7 @@
               <c:f>'model4(3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4993,6 +5032,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>237.2380908528302</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>243.05271630763554</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5035,7 +5077,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5263,6 +5305,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5272,7 +5317,7 @@
               <c:f>'model4(3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5500,6 +5545,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>288.68953675593372</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>297.82244897776945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5542,7 +5590,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5770,6 +5818,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5779,7 +5830,7 @@
               <c:f>'model4(3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6007,6 +6058,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>51.451445903103519</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>54.769732670133919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6028,11 +6082,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="155274240"/>
-        <c:axId val="155284224"/>
+        <c:axId val="499799552"/>
+        <c:axId val="499801088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="155274240"/>
+        <c:axId val="499799552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6075,14 +6129,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155284224"/>
+        <c:crossAx val="499801088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="155284224"/>
+        <c:axId val="499801088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6131,7 +6185,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155274240"/>
+        <c:crossAx val="499799552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6239,7 +6293,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6282,7 +6336,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6325,7 +6379,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6636,7 +6690,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF91"/>
+  <dimension ref="A1:AF92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10408,6 +10462,41 @@
         <v>734.40495756456426</v>
       </c>
     </row>
+    <row r="92" spans="1:11" ht="12.75">
+      <c r="A92" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B92" s="25">
+        <v>0.97935000000000005</v>
+      </c>
+      <c r="C92" s="20">
+        <v>1.0544190645879727</v>
+      </c>
+      <c r="D92" s="21">
+        <v>8.7348149100754835</v>
+      </c>
+      <c r="E92" s="22">
+        <v>8.9189920968759715</v>
+      </c>
+      <c r="F92" s="22">
+        <v>26.965835332964037</v>
+      </c>
+      <c r="G92" s="22">
+        <v>26.408990833338333</v>
+      </c>
+      <c r="H92" s="22">
+        <v>516.24907214557675</v>
+      </c>
+      <c r="I92" s="22">
+        <v>760.81394839790255</v>
+      </c>
+      <c r="J92" s="22">
+        <v>244.5648762523258</v>
+      </c>
+      <c r="K92" s="21">
+        <v>734.40495756456426</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -10424,7 +10513,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF79"/>
+  <dimension ref="A1:AF80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13664,6 +13753,41 @@
         <v>795.92830397857756</v>
       </c>
     </row>
+    <row r="80" spans="1:11" ht="12.75">
+      <c r="A80" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B80" s="25">
+        <v>0.97935000000000005</v>
+      </c>
+      <c r="C80" s="20">
+        <v>1.1347305599999995</v>
+      </c>
+      <c r="D80" s="21">
+        <v>37.421833560165815</v>
+      </c>
+      <c r="E80" s="22">
+        <v>38.210888405744434</v>
+      </c>
+      <c r="F80" s="22">
+        <v>589.36259852829062</v>
+      </c>
+      <c r="G80" s="22">
+        <v>577.1922608686815</v>
+      </c>
+      <c r="H80" s="22">
+        <v>1135.9040565646148</v>
+      </c>
+      <c r="I80" s="22">
+        <v>1373.1205648472592</v>
+      </c>
+      <c r="J80" s="22">
+        <v>237.21650828264433</v>
+      </c>
+      <c r="K80" s="21">
+        <v>795.92830397857756</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -13680,7 +13804,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AF79"/>
+  <dimension ref="A1:AF80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16920,6 +17044,41 @@
         <v>150.22055714900358</v>
       </c>
     </row>
+    <row r="80" spans="1:11" ht="12.75">
+      <c r="A80" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B80" s="25">
+        <v>0.97935000000000005</v>
+      </c>
+      <c r="C80" s="20">
+        <v>1.1347305599999995</v>
+      </c>
+      <c r="D80" s="21">
+        <v>5.8146254548053369</v>
+      </c>
+      <c r="E80" s="22">
+        <v>5.9372292385820558</v>
+      </c>
+      <c r="F80" s="22">
+        <v>150.71413879488011</v>
+      </c>
+      <c r="G80" s="22">
+        <v>147.60189182876584</v>
+      </c>
+      <c r="H80" s="22">
+        <v>243.05271630763554</v>
+      </c>
+      <c r="I80" s="22">
+        <v>297.82244897776945</v>
+      </c>
+      <c r="J80" s="22">
+        <v>54.769732670133919</v>
+      </c>
+      <c r="K80" s="21">
+        <v>150.22055714900358</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
@@ -715,7 +715,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -982,6 +982,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -991,7 +994,7 @@
               <c:f>'model4(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1258,6 +1261,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>516.24907214557675</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>536.33990866859824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1300,7 +1306,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1567,6 +1573,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1576,7 +1585,7 @@
               <c:f>'model4(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1840,6 +1849,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>751.665499840856</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>760.81394839790255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1882,7 +1894,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2149,6 +2161,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2158,7 +2173,7 @@
               <c:f>'model4(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2425,6 +2440,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>244.5648762523258</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>243.4776137717007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2446,11 +2464,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="225121792"/>
-        <c:axId val="225123328"/>
+        <c:axId val="322838912"/>
+        <c:axId val="322840832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="225121792"/>
+        <c:axId val="322838912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2493,14 +2511,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225123328"/>
+        <c:crossAx val="322840832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="225123328"/>
+        <c:axId val="322840832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2549,7 +2567,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225121792"/>
+        <c:crossAx val="322838912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2746,7 +2764,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2977,6 +2995,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2986,7 +3007,7 @@
               <c:f>'model4(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3217,6 +3238,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>1135.9040565646148</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1179.2233563460313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3259,7 +3283,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3490,6 +3514,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3499,7 +3526,7 @@
               <c:f>'model4(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3730,6 +3757,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>1373.1205648472592</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1392.6767646560147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3772,7 +3802,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4003,6 +4033,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4012,7 +4045,7 @@
               <c:f>'model4(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4243,6 +4276,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>237.21650828264433</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>213.45340830998339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4264,11 +4300,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442637696"/>
-        <c:axId val="442678272"/>
+        <c:axId val="497785472"/>
+        <c:axId val="500838784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442637696"/>
+        <c:axId val="497785472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4311,14 +4347,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442678272"/>
+        <c:crossAx val="500838784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442678272"/>
+        <c:axId val="500838784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4367,7 +4403,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442637696"/>
+        <c:crossAx val="497785472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4564,7 +4600,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4795,6 +4831,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4804,7 +4843,7 @@
               <c:f>'model4(3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5035,6 +5074,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>243.05271630763554</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>250.29467916284148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5077,7 +5119,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5308,6 +5350,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5317,7 +5362,7 @@
               <c:f>'model4(3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5548,6 +5593,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>297.82244897776945</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>298.98761775676576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5590,7 +5638,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5821,6 +5869,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5830,7 +5881,7 @@
               <c:f>'model4(3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6061,6 +6112,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>54.769732670133919</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>48.692938593924282</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6082,11 +6136,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="499799552"/>
-        <c:axId val="499801088"/>
+        <c:axId val="554134912"/>
+        <c:axId val="554354176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="499799552"/>
+        <c:axId val="554134912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6129,14 +6183,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499801088"/>
+        <c:crossAx val="554354176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="499801088"/>
+        <c:axId val="554354176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6185,7 +6239,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499799552"/>
+        <c:crossAx val="554134912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6293,7 +6347,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6336,7 +6390,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6379,7 +6433,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6690,7 +6744,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF92"/>
+  <dimension ref="A1:AF93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10497,6 +10551,41 @@
         <v>734.40495756456426</v>
       </c>
     </row>
+    <row r="93" spans="1:11" ht="12.75">
+      <c r="A93" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B93" s="25">
+        <v>0.93902999999999992</v>
+      </c>
+      <c r="C93" s="20">
+        <v>1.0528800330033004</v>
+      </c>
+      <c r="D93" s="21">
+        <v>20.090836523021526</v>
+      </c>
+      <c r="E93" s="22">
+        <v>21.395308481115116</v>
+      </c>
+      <c r="F93" s="22">
+        <v>48.361143814079156</v>
+      </c>
+      <c r="G93" s="22">
+        <v>45.412564875734745</v>
+      </c>
+      <c r="H93" s="22">
+        <v>536.33990866859824</v>
+      </c>
+      <c r="I93" s="22">
+        <v>779.81752244029894</v>
+      </c>
+      <c r="J93" s="22">
+        <v>243.4776137717007</v>
+      </c>
+      <c r="K93" s="21">
+        <v>734.40495756456426</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -10513,7 +10602,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF80"/>
+  <dimension ref="A1:AF81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13788,6 +13877,41 @@
         <v>795.92830397857756</v>
       </c>
     </row>
+    <row r="81" spans="1:11" ht="12.75">
+      <c r="A81" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B81" s="25">
+        <v>0.93902999999999992</v>
+      </c>
+      <c r="C81" s="20">
+        <v>1.1062063599999989</v>
+      </c>
+      <c r="D81" s="21">
+        <v>43.319299781416376</v>
+      </c>
+      <c r="E81" s="22">
+        <v>46.131965732102678</v>
+      </c>
+      <c r="F81" s="22">
+        <v>635.4945642603933</v>
+      </c>
+      <c r="G81" s="22">
+        <v>596.74846067743704</v>
+      </c>
+      <c r="H81" s="22">
+        <v>1179.2233563460313</v>
+      </c>
+      <c r="I81" s="22">
+        <v>1392.6767646560147</v>
+      </c>
+      <c r="J81" s="22">
+        <v>213.45340830998339</v>
+      </c>
+      <c r="K81" s="21">
+        <v>795.92830397857756</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -13804,7 +13928,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AF80"/>
+  <dimension ref="A1:AF81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17079,6 +17203,41 @@
         <v>150.22055714900358</v>
       </c>
     </row>
+    <row r="81" spans="1:11" ht="12.75">
+      <c r="A81" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B81" s="25">
+        <v>0.93902999999999992</v>
+      </c>
+      <c r="C81" s="20">
+        <v>1.1062063599999989</v>
+      </c>
+      <c r="D81" s="21">
+        <v>7.2419628552059425</v>
+      </c>
+      <c r="E81" s="22">
+        <v>7.7121741107376156</v>
+      </c>
+      <c r="F81" s="22">
+        <v>158.42631290561772</v>
+      </c>
+      <c r="G81" s="22">
+        <v>148.7670606077622</v>
+      </c>
+      <c r="H81" s="22">
+        <v>250.29467916284148</v>
+      </c>
+      <c r="I81" s="22">
+        <v>298.98761775676576</v>
+      </c>
+      <c r="J81" s="22">
+        <v>48.692938593924282</v>
+      </c>
+      <c r="K81" s="21">
+        <v>150.22055714900358</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
@@ -715,7 +715,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -985,6 +985,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -994,7 +997,7 @@
               <c:f>'model4(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1263,6 +1266,9 @@
                   <c:v>516.24907214557675</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>536.33990866859824</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
               </c:numCache>
@@ -1306,7 +1312,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1576,6 +1582,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1585,7 +1594,7 @@
               <c:f>'model4(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1852,6 +1861,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>760.81394839790255</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>779.81752244029894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1894,7 +1906,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2164,6 +2176,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2173,7 +2188,7 @@
               <c:f>'model4(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2443,6 +2458,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>243.4776137717007</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>256.97665984452465</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2464,11 +2482,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="322838912"/>
-        <c:axId val="322840832"/>
+        <c:axId val="370582656"/>
+        <c:axId val="370584192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="322838912"/>
+        <c:axId val="370582656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2511,14 +2529,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322840832"/>
+        <c:crossAx val="370584192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="322840832"/>
+        <c:axId val="370584192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2567,7 +2585,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322838912"/>
+        <c:crossAx val="370582656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2764,7 +2782,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2998,6 +3016,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3007,7 +3028,7 @@
               <c:f>'model4(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3240,6 +3261,9 @@
                   <c:v>1135.9040565646148</c:v>
                 </c:pt>
                 <c:pt idx="77">
+                  <c:v>1179.2233563460313</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
               </c:numCache>
@@ -3283,7 +3307,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3517,6 +3541,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3526,7 +3553,7 @@
               <c:f>'model4(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3760,6 +3787,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>1392.6767646560147</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1570.0623623780184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3802,7 +3832,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4036,6 +4066,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4045,7 +4078,7 @@
               <c:f>'model4(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4279,6 +4312,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>213.45340830998339</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>390.83900603198708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4300,11 +4336,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="497785472"/>
-        <c:axId val="500838784"/>
+        <c:axId val="467768448"/>
+        <c:axId val="467770368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="497785472"/>
+        <c:axId val="467768448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4347,14 +4383,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500838784"/>
+        <c:crossAx val="467770368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="500838784"/>
+        <c:axId val="467770368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4403,7 +4439,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497785472"/>
+        <c:crossAx val="467768448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4600,7 +4636,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4834,6 +4870,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4843,7 +4882,7 @@
               <c:f>'model4(3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5076,6 +5115,9 @@
                   <c:v>243.05271630763554</c:v>
                 </c:pt>
                 <c:pt idx="77">
+                  <c:v>250.29467916284148</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
               </c:numCache>
@@ -5119,7 +5161,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5353,6 +5395,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5362,7 +5407,7 @@
               <c:f>'model4(3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5596,6 +5641,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>298.98761775676576</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>343.20915447811092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5638,7 +5686,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5872,6 +5920,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5881,7 +5932,7 @@
               <c:f>'model4(3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6115,6 +6166,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>48.692938593924282</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>92.914475315269442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6136,11 +6190,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="554134912"/>
-        <c:axId val="554354176"/>
+        <c:axId val="615969152"/>
+        <c:axId val="615970688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="554134912"/>
+        <c:axId val="615969152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6183,14 +6237,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="554354176"/>
+        <c:crossAx val="615970688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="554354176"/>
+        <c:axId val="615970688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6239,7 +6293,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="554134912"/>
+        <c:crossAx val="615969152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6347,7 +6401,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6390,7 +6444,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6433,7 +6487,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6744,7 +6798,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF93"/>
+  <dimension ref="A1:AF94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10586,6 +10640,41 @@
         <v>734.40495756456426</v>
       </c>
     </row>
+    <row r="94" spans="1:11" ht="12.75">
+      <c r="A94" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B94" s="25">
+        <v>1.2181600000000001</v>
+      </c>
+      <c r="C94" s="20">
+        <v>1.0519209798584648</v>
+      </c>
+      <c r="D94" s="21">
+        <v>-42.834888317307588</v>
+      </c>
+      <c r="E94" s="22">
+        <v>-35.163597817452207</v>
+      </c>
+      <c r="F94" s="22">
+        <v>13.19754599662695</v>
+      </c>
+      <c r="G94" s="22">
+        <v>16.076722631251087</v>
+      </c>
+      <c r="H94" s="22">
+        <v>536.33990866859824</v>
+      </c>
+      <c r="I94" s="22">
+        <v>793.31656851312289</v>
+      </c>
+      <c r="J94" s="22">
+        <v>256.97665984452465</v>
+      </c>
+      <c r="K94" s="21">
+        <v>777.23984588187182</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -10602,7 +10691,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF81"/>
+  <dimension ref="A1:AF82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13912,6 +14001,41 @@
         <v>795.92830397857756</v>
       </c>
     </row>
+    <row r="82" spans="1:11" ht="12.75">
+      <c r="A82" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B82" s="25">
+        <v>1.2181600000000001</v>
+      </c>
+      <c r="C82" s="20">
+        <v>1.0854110799999994</v>
+      </c>
+      <c r="D82" s="21">
+        <v>-27.314527429808216</v>
+      </c>
+      <c r="E82" s="22">
+        <v>-22.422774865213285</v>
+      </c>
+      <c r="F82" s="22">
+        <v>613.07178939518008</v>
+      </c>
+      <c r="G82" s="22">
+        <v>746.81953096963264</v>
+      </c>
+      <c r="H82" s="22">
+        <v>1179.2233563460313</v>
+      </c>
+      <c r="I82" s="22">
+        <v>1570.0623623780184</v>
+      </c>
+      <c r="J82" s="22">
+        <v>390.83900603198708</v>
+      </c>
+      <c r="K82" s="21">
+        <v>823.24283140838577</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -13928,7 +14052,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AF81"/>
+  <dimension ref="A1:AF82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17238,6 +17362,41 @@
         <v>150.22055714900358</v>
       </c>
     </row>
+    <row r="82" spans="1:11" ht="12.75">
+      <c r="A82" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B82" s="25">
+        <v>1.2181600000000001</v>
+      </c>
+      <c r="C82" s="20">
+        <v>1.0854110799999994</v>
+      </c>
+      <c r="D82" s="21">
+        <v>-3.6259740166174361</v>
+      </c>
+      <c r="E82" s="22">
+        <v>-2.9765991467602251</v>
+      </c>
+      <c r="F82" s="22">
+        <v>155.44971375885748</v>
+      </c>
+      <c r="G82" s="22">
+        <v>189.36262331248986</v>
+      </c>
+      <c r="H82" s="22">
+        <v>250.29467916284148</v>
+      </c>
+      <c r="I82" s="22">
+        <v>343.20915447811092</v>
+      </c>
+      <c r="J82" s="22">
+        <v>92.914475315269442</v>
+      </c>
+      <c r="K82" s="21">
+        <v>153.84653116562103</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
@@ -715,7 +715,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -988,6 +988,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -997,7 +1000,7 @@
               <c:f>'model4(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1269,6 +1272,9 @@
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>536.33990866859824</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
               </c:numCache>
@@ -1312,7 +1318,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1585,6 +1591,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1594,7 +1603,7 @@
               <c:f>'model4(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1864,6 +1873,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>779.81752244029894</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>793.31656851312289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1906,7 +1918,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2179,6 +2191,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2188,7 +2203,7 @@
               <c:f>'model4(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2461,6 +2476,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>256.97665984452465</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>259.19582720385745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2482,11 +2500,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="370582656"/>
-        <c:axId val="370584192"/>
+        <c:axId val="70804992"/>
+        <c:axId val="87314432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="370582656"/>
+        <c:axId val="70804992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2529,14 +2547,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370584192"/>
+        <c:crossAx val="87314432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="370584192"/>
+        <c:axId val="87314432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2585,7 +2603,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370582656"/>
+        <c:crossAx val="70804992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2782,7 +2800,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3019,6 +3037,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3028,7 +3049,7 @@
               <c:f>'model4(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3264,6 +3285,9 @@
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
                 <c:pt idx="78">
+                  <c:v>1179.2233563460313</c:v>
+                </c:pt>
+                <c:pt idx="79">
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
               </c:numCache>
@@ -3307,7 +3331,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3544,6 +3568,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3553,7 +3580,7 @@
               <c:f>'model4(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3790,6 +3817,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>1570.0623623780184</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1673.1503837648179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3832,7 +3862,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4069,6 +4099,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4078,7 +4111,7 @@
               <c:f>'model4(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4315,6 +4348,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>390.83900603198708</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>493.92702741878657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4336,11 +4372,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="467768448"/>
-        <c:axId val="467770368"/>
+        <c:axId val="98326784"/>
+        <c:axId val="102852864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="467768448"/>
+        <c:axId val="98326784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4383,14 +4419,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467770368"/>
+        <c:crossAx val="102852864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="467770368"/>
+        <c:axId val="102852864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4439,7 +4475,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467768448"/>
+        <c:crossAx val="98326784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4636,7 +4672,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4873,6 +4909,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4882,7 +4921,7 @@
               <c:f>'model4(3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5118,6 +5157,9 @@
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
                 <c:pt idx="78">
+                  <c:v>250.29467916284148</c:v>
+                </c:pt>
+                <c:pt idx="79">
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
               </c:numCache>
@@ -5161,7 +5203,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5398,6 +5440,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5407,7 +5452,7 @@
               <c:f>'model4(3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5644,6 +5689,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>343.20915447811092</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>369.34802384666273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5686,7 +5734,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5923,6 +5971,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5932,7 +5983,7 @@
               <c:f>'model4(3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6169,6 +6220,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>92.914475315269442</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>119.05334468382125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6190,11 +6244,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="615969152"/>
-        <c:axId val="615970688"/>
+        <c:axId val="90226048"/>
+        <c:axId val="90231936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="615969152"/>
+        <c:axId val="90226048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6237,14 +6291,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615970688"/>
+        <c:crossAx val="90231936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="615970688"/>
+        <c:axId val="90231936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6293,7 +6347,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615969152"/>
+        <c:crossAx val="90226048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6797,8 +6851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF94"/>
+  <sheetPr codeName="Sheet1">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AF95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6901,7 +6957,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>0</v>
+        <v>-109.96867428250766</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -10673,6 +10729,41 @@
       </c>
       <c r="K94" s="21">
         <v>777.23984588187182</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="12.75">
+      <c r="A95" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B95" s="25">
+        <v>1.3863099999999999</v>
+      </c>
+      <c r="C95" s="20">
+        <v>1.0544077963362068</v>
+      </c>
+      <c r="D95" s="21">
+        <v>-170.74656283516708</v>
+      </c>
+      <c r="E95" s="22">
+        <v>-123.16622027913461</v>
+      </c>
+      <c r="F95" s="22">
+        <v>-109.96867428250766</v>
+      </c>
+      <c r="G95" s="22">
+        <v>-152.45067284458318</v>
+      </c>
+      <c r="H95" s="22">
+        <v>536.33990866859824</v>
+      </c>
+      <c r="I95" s="22">
+        <v>795.53573587245569</v>
+      </c>
+      <c r="J95" s="22">
+        <v>259.19582720385745</v>
+      </c>
+      <c r="K95" s="21">
+        <v>947.9864087170389</v>
       </c>
     </row>
   </sheetData>
@@ -10691,7 +10782,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF82"/>
+  <dimension ref="A1:AF83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14036,6 +14127,41 @@
         <v>823.24283140838577</v>
       </c>
     </row>
+    <row r="83" spans="1:11" ht="12.75">
+      <c r="A83" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B83" s="25">
+        <v>1.3863099999999999</v>
+      </c>
+      <c r="C83" s="20">
+        <v>1.0912980399999994</v>
+      </c>
+      <c r="D83" s="21">
+        <v>-134.89968764171493</v>
+      </c>
+      <c r="E83" s="22">
+        <v>-97.308457445820153</v>
+      </c>
+      <c r="F83" s="22">
+        <v>515.76333194935989</v>
+      </c>
+      <c r="G83" s="22">
+        <v>715.00786471471713</v>
+      </c>
+      <c r="H83" s="22">
+        <v>1179.2233563460313</v>
+      </c>
+      <c r="I83" s="22">
+        <v>1673.1503837648179</v>
+      </c>
+      <c r="J83" s="22">
+        <v>493.92702741878657</v>
+      </c>
+      <c r="K83" s="21">
+        <v>958.14251905010065</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -14052,7 +14178,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AF82"/>
+  <dimension ref="A1:AF83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17397,6 +17523,41 @@
         <v>153.84653116562103</v>
       </c>
     </row>
+    <row r="83" spans="1:11" ht="12.75">
+      <c r="A83" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B83" s="25">
+        <v>1.3863099999999999</v>
+      </c>
+      <c r="C83" s="20">
+        <v>1.0912980399999994</v>
+      </c>
+      <c r="D83" s="21">
+        <v>-39.797021254570176</v>
+      </c>
+      <c r="E83" s="22">
+        <v>-28.707158755668051</v>
+      </c>
+      <c r="F83" s="22">
+        <v>126.74255500318944</v>
+      </c>
+      <c r="G83" s="22">
+        <v>175.70447142647154</v>
+      </c>
+      <c r="H83" s="22">
+        <v>250.29467916284148</v>
+      </c>
+      <c r="I83" s="22">
+        <v>369.34802384666273</v>
+      </c>
+      <c r="J83" s="22">
+        <v>119.05334468382125</v>
+      </c>
+      <c r="K83" s="21">
+        <v>193.64355242019121</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
@@ -715,7 +715,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -991,6 +991,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1000,7 +1003,7 @@
               <c:f>'model4(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1275,6 +1278,9 @@
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>536.33990866859824</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
               </c:numCache>
@@ -1318,7 +1324,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1594,6 +1600,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1603,7 +1612,7 @@
               <c:f>'model4(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1876,6 +1885,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>793.31656851312289</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>795.53573587245569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1918,7 +1930,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2194,6 +2206,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2203,7 +2218,7 @@
               <c:f>'model4(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2478,6 +2493,9 @@
                   <c:v>256.97665984452465</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>259.19582720385745</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
               </c:numCache>
@@ -2500,11 +2518,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70804992"/>
-        <c:axId val="87314432"/>
+        <c:axId val="436229632"/>
+        <c:axId val="436231552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="70804992"/>
+        <c:axId val="436229632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2547,14 +2565,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87314432"/>
+        <c:crossAx val="436231552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="87314432"/>
+        <c:axId val="436231552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2603,7 +2621,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70804992"/>
+        <c:crossAx val="436229632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2800,7 +2818,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3040,6 +3058,9 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3049,7 +3070,7 @@
               <c:f>'model4(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3288,6 +3309,9 @@
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
                 <c:pt idx="79">
+                  <c:v>1179.2233563460313</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
               </c:numCache>
@@ -3331,7 +3355,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3571,6 +3595,9 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3580,7 +3607,7 @@
               <c:f>'model4(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3820,6 +3847,9 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>1673.1503837648179</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1712.5443870591098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3862,7 +3892,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4102,6 +4132,9 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4111,7 +4144,7 @@
               <c:f>'model4(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4351,6 +4384,9 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>493.92702741878657</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>533.32103071307847</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4372,11 +4408,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98326784"/>
-        <c:axId val="102852864"/>
+        <c:axId val="500874624"/>
+        <c:axId val="603575808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="98326784"/>
+        <c:axId val="500874624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4419,14 +4455,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102852864"/>
+        <c:crossAx val="603575808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="102852864"/>
+        <c:axId val="603575808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4475,7 +4511,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98326784"/>
+        <c:crossAx val="500874624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4672,7 +4708,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4912,6 +4948,9 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4921,7 +4960,7 @@
               <c:f>'model4(3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5160,6 +5199,9 @@
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
                 <c:pt idx="79">
+                  <c:v>250.29467916284148</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
               </c:numCache>
@@ -5203,7 +5245,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5443,6 +5485,9 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5452,7 +5497,7 @@
               <c:f>'model4(3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5692,6 +5737,9 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>369.34802384666273</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>379.02862019780639</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5734,7 +5782,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5974,6 +6022,9 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5983,7 +6034,7 @@
               <c:f>'model4(3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6223,6 +6274,9 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>119.05334468382125</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>128.73394103496491</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6244,11 +6298,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90226048"/>
-        <c:axId val="90231936"/>
+        <c:axId val="105558400"/>
+        <c:axId val="105559936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="90226048"/>
+        <c:axId val="105558400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6291,14 +6345,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90231936"/>
+        <c:crossAx val="105559936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="90231936"/>
+        <c:axId val="105559936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6347,7 +6401,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90226048"/>
+        <c:crossAx val="105558400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6854,7 +6908,3970 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF95"/>
+  <dimension ref="A1:AF96"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="3" customWidth="1"/>
+    <col min="7" max="8" width="11.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.75" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="2"/>
+    <col min="14" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.375" style="1" customWidth="1"/>
+    <col min="18" max="19" width="11.125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.25" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="9" style="1"/>
+    <col min="24" max="24" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="9" style="1"/>
+    <col min="27" max="27" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="9" style="1"/>
+    <col min="30" max="30" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="50" width="9" style="1"/>
+    <col min="51" max="51" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="13"/>
+    </row>
+    <row r="2" spans="1:32" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="23"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="24"/>
+      <c r="M2" s="19"/>
+    </row>
+    <row r="3" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5">
+        <v>1550</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5">
+        <f>MIN(F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="8"/>
+    </row>
+    <row r="4" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A4" s="15">
+        <v>42825</v>
+      </c>
+      <c r="B4" s="25">
+        <v>0.97609000000000001</v>
+      </c>
+      <c r="C4" s="20">
+        <v>0.99386428571428564</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0.48968411061224032</v>
+      </c>
+      <c r="E4" s="22">
+        <v>0.50167926176094446</v>
+      </c>
+      <c r="F4" s="22">
+        <v>0.50167926176094446</v>
+      </c>
+      <c r="G4" s="22">
+        <v>0.48968411061224026</v>
+      </c>
+      <c r="H4" s="22">
+        <v>0.48968411061224032</v>
+      </c>
+      <c r="I4" s="22">
+        <v>0.48968411061224026</v>
+      </c>
+      <c r="J4" s="22">
+        <v>0</v>
+      </c>
+      <c r="K4" s="21">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="O4" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="T4" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="X4" s="6">
+        <v>43098</v>
+      </c>
+      <c r="Y4" s="7">
+        <f>VLOOKUP(X4,O:P,2,)</f>
+        <v>18.350992705669857</v>
+      </c>
+      <c r="Z4" s="7">
+        <f t="shared" ref="Z4:Z5" si="0">0-Y4</f>
+        <v>-18.350992705669857</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AB4" s="1">
+        <f>VLOOKUP(AA4,O:P,2,)</f>
+        <v>18.350992705669857</v>
+      </c>
+      <c r="AC4" s="1">
+        <f t="shared" ref="AC4" si="1">0-AB4</f>
+        <v>-18.350992705669857</v>
+      </c>
+      <c r="AD4" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AE4" s="7">
+        <f>VLOOKUP(AD4,O:P,2,)</f>
+        <v>18.350992705669857</v>
+      </c>
+      <c r="AF4" s="7">
+        <f t="shared" ref="AF4" si="2">0-AE4</f>
+        <v>-18.350992705669857</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A5" s="15">
+        <v>42853</v>
+      </c>
+      <c r="B5" s="25">
+        <v>0.88445000000000007</v>
+      </c>
+      <c r="C5" s="20">
+        <v>0.95655781250000005</v>
+      </c>
+      <c r="D5" s="21">
+        <v>8.0592817664794882</v>
+      </c>
+      <c r="E5" s="22">
+        <v>9.112196016145047</v>
+      </c>
+      <c r="F5" s="22">
+        <v>9.6138752779059917</v>
+      </c>
+      <c r="G5" s="22">
+        <v>8.5029919895439559</v>
+      </c>
+      <c r="H5" s="22">
+        <v>8.5489658770917281</v>
+      </c>
+      <c r="I5" s="22">
+        <v>8.5029919895439559</v>
+      </c>
+      <c r="J5" s="22">
+        <v>-4.5973887547772208E-2</v>
+      </c>
+      <c r="K5" s="21">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="O5" s="6">
+        <v>43098</v>
+      </c>
+      <c r="P5" s="10">
+        <v>18.350992705669857</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>18.350992705669857</v>
+      </c>
+      <c r="R5" s="5">
+        <v>20.013489454489903</v>
+      </c>
+      <c r="S5" s="5">
+        <v>1.6624967488200468</v>
+      </c>
+      <c r="T5" s="5">
+        <v>12.856156424569493</v>
+      </c>
+      <c r="U5" s="9">
+        <v>9.0594376853868494E-2</v>
+      </c>
+      <c r="V5" s="9">
+        <v>9.0594376853868494E-2</v>
+      </c>
+      <c r="X5" s="6">
+        <v>43462</v>
+      </c>
+      <c r="Y5" s="7">
+        <f>VLOOKUP(X5,O:P,2,)</f>
+        <v>255.17901000780921</v>
+      </c>
+      <c r="Z5" s="7">
+        <f t="shared" si="0"/>
+        <v>-255.17901000780921</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AB5" s="1">
+        <f>VLOOKUP(AA5,O:P,2,)</f>
+        <v>255.17901000780921</v>
+      </c>
+      <c r="AC5" s="1">
+        <f t="shared" ref="AC5:AC6" si="3">0-AB5</f>
+        <v>-255.17901000780921</v>
+      </c>
+      <c r="AD5" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AE5" s="7">
+        <f>VLOOKUP(AD5,O:P,2,)</f>
+        <v>255.17901000780921</v>
+      </c>
+      <c r="AF5" s="7">
+        <f t="shared" ref="AF5:AF7" si="4">0-AE5</f>
+        <v>-255.17901000780921</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A6" s="15">
+        <v>42886</v>
+      </c>
+      <c r="B6" s="25">
+        <v>0.84275</v>
+      </c>
+      <c r="C6" s="20">
+        <v>0.91796173076923115</v>
+      </c>
+      <c r="D6" s="21">
+        <v>8.7680468902201341</v>
+      </c>
+      <c r="E6" s="22">
+        <v>10.404090050691348</v>
+      </c>
+      <c r="F6" s="22">
+        <v>20.017965328597342</v>
+      </c>
+      <c r="G6" s="22">
+        <v>16.870140280675411</v>
+      </c>
+      <c r="H6" s="22">
+        <v>17.317012767311862</v>
+      </c>
+      <c r="I6" s="22">
+        <v>16.870140280675411</v>
+      </c>
+      <c r="J6" s="22">
+        <v>-0.44687248663645107</v>
+      </c>
+      <c r="K6" s="21">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="O6" s="6">
+        <v>43462</v>
+      </c>
+      <c r="P6" s="10">
+        <v>255.17901000780921</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>273.53000271347906</v>
+      </c>
+      <c r="R6" s="5">
+        <v>256.81815366368033</v>
+      </c>
+      <c r="S6" s="5">
+        <v>-16.71184904979873</v>
+      </c>
+      <c r="T6" s="5">
+        <v>14.977026913543675</v>
+      </c>
+      <c r="U6" s="9">
+        <v>-6.1096950550262985E-2</v>
+      </c>
+      <c r="V6" s="9">
+        <v>-5.7463297893912024E-2</v>
+      </c>
+      <c r="X6" s="6">
+        <v>43462</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>256.81815366368033</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AB6" s="1">
+        <f>VLOOKUP(AA6,O:P,2,)</f>
+        <v>51.863107777656694</v>
+      </c>
+      <c r="AC6" s="1">
+        <f t="shared" si="3"/>
+        <v>-51.863107777656694</v>
+      </c>
+      <c r="AD6" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AE6" s="7">
+        <f>VLOOKUP(AD6,O:P,2,)</f>
+        <v>51.863107777656694</v>
+      </c>
+      <c r="AF6" s="7">
+        <f t="shared" si="4"/>
+        <v>-51.863107777656694</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A7" s="15">
+        <v>42916</v>
+      </c>
+      <c r="B7" s="25">
+        <v>0.91246000000000005</v>
+      </c>
+      <c r="C7" s="20">
+        <v>0.90437932432432466</v>
+      </c>
+      <c r="D7" s="21">
+        <v>-0.10121084503195038</v>
+      </c>
+      <c r="E7" s="22">
+        <v>-0.11092085683969749</v>
+      </c>
+      <c r="F7" s="22">
+        <v>19.907044471757644</v>
+      </c>
+      <c r="G7" s="22">
+        <v>18.164381798699981</v>
+      </c>
+      <c r="H7" s="22">
+        <v>17.317012767311862</v>
+      </c>
+      <c r="I7" s="22">
+        <v>18.265592643731932</v>
+      </c>
+      <c r="J7" s="22">
+        <v>0.94857987642006947</v>
+      </c>
+      <c r="K7" s="21">
+        <v>0.10121084503195038</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="O7" s="6">
+        <v>43830</v>
+      </c>
+      <c r="P7" s="10">
+        <v>51.863107777656694</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>325.39311049113576</v>
+      </c>
+      <c r="R7" s="5">
+        <v>462.4989477732662</v>
+      </c>
+      <c r="S7" s="5">
+        <v>137.10583728213044</v>
+      </c>
+      <c r="T7" s="5">
+        <v>117.2927175491765</v>
+      </c>
+      <c r="U7" s="9">
+        <v>0.42135445669144067</v>
+      </c>
+      <c r="V7" s="9">
+        <v>0.20147159559258454</v>
+      </c>
+      <c r="Z7" s="8">
+        <f>IRR(Z4:Z6)</f>
+        <v>-5.7463297893912024E-2</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>462.4989477732662</v>
+      </c>
+      <c r="AD7" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AE7" s="7">
+        <f>VLOOKUP(AD7,O:P,2,)</f>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A8" s="15">
+        <v>42947</v>
+      </c>
+      <c r="B8" s="25">
+        <v>0.89419999999999999</v>
+      </c>
+      <c r="C8" s="20">
+        <v>0.90019273684210555</v>
+      </c>
+      <c r="D8" s="21">
+        <v>5.5664987031030275E-2</v>
+      </c>
+      <c r="E8" s="22">
+        <v>6.2251159730519208E-2</v>
+      </c>
+      <c r="F8" s="22">
+        <v>19.969295631488162</v>
+      </c>
+      <c r="G8" s="22">
+        <v>17.856544153676715</v>
+      </c>
+      <c r="H8" s="22">
+        <v>17.372677754342892</v>
+      </c>
+      <c r="I8" s="22">
+        <v>17.957754998708666</v>
+      </c>
+      <c r="J8" s="22">
+        <v>0.58507724436577391</v>
+      </c>
+      <c r="K8" s="21">
+        <v>0.10121084503195038</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="O8" s="6">
+        <v>44196</v>
+      </c>
+      <c r="P8" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>325.39311049113576</v>
+      </c>
+      <c r="R8" s="5">
+        <v>500.21251916564194</v>
+      </c>
+      <c r="S8" s="5">
+        <v>174.81940867450618</v>
+      </c>
+      <c r="T8" s="5">
+        <v>500.21251916564194</v>
+      </c>
+      <c r="U8" s="9">
+        <v>0.5372560236774544</v>
+      </c>
+      <c r="V8" s="9">
+        <v>0.15912234163115446</v>
+      </c>
+      <c r="AC8" s="2">
+        <f>IRR(AC4:AC7)</f>
+        <v>0.20147159559258454</v>
+      </c>
+      <c r="AD8" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AF8" s="7">
+        <v>500.21251916564194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A9" s="15">
+        <v>42978</v>
+      </c>
+      <c r="B9" s="25">
+        <v>0.97410000000000008</v>
+      </c>
+      <c r="C9" s="20">
+        <v>0.90535008474576273</v>
+      </c>
+      <c r="D9" s="21">
+        <v>-7.3261538135704667</v>
+      </c>
+      <c r="E9" s="22">
+        <v>-7.5209463233451039</v>
+      </c>
+      <c r="F9" s="22">
+        <v>12.448349308143058</v>
+      </c>
+      <c r="G9" s="22">
+        <v>12.125937061062153</v>
+      </c>
+      <c r="H9" s="22">
+        <v>17.372677754342892</v>
+      </c>
+      <c r="I9" s="22">
+        <v>19.553301719664571</v>
+      </c>
+      <c r="J9" s="22">
+        <v>2.1806239653216792</v>
+      </c>
+      <c r="K9" s="21">
+        <v>7.4273646586024169</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="O9" s="6">
+        <v>44561</v>
+      </c>
+      <c r="P9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>325.39311049113576</v>
+      </c>
+      <c r="R9" s="5">
+        <v>500.21251916564194</v>
+      </c>
+      <c r="S9" s="5">
+        <v>174.81940867450618</v>
+      </c>
+      <c r="T9" s="5">
+        <v>500.21251916564194</v>
+      </c>
+      <c r="U9" s="9">
+        <v>0.5372560236774544</v>
+      </c>
+      <c r="V9" s="9">
+        <v>0.11658256234767994</v>
+      </c>
+      <c r="AF9" s="2">
+        <f>IRR(AF4:AF8)</f>
+        <v>0.15912234163115446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A10" s="15">
+        <v>43007</v>
+      </c>
+      <c r="B10" s="25">
+        <v>0.97174000000000005</v>
+      </c>
+      <c r="C10" s="20">
+        <v>0.91768381294964019</v>
+      </c>
+      <c r="D10" s="21">
+        <v>-4.5292106055564147</v>
+      </c>
+      <c r="E10" s="22">
+        <v>-4.6609284433659361</v>
+      </c>
+      <c r="F10" s="22">
+        <v>7.7874208647771219</v>
+      </c>
+      <c r="G10" s="22">
+        <v>7.5673483511385209</v>
+      </c>
+      <c r="H10" s="22">
+        <v>17.372677754342892</v>
+      </c>
+      <c r="I10" s="22">
+        <v>19.523923615297353</v>
+      </c>
+      <c r="J10" s="22">
+        <v>2.1512458609544609</v>
+      </c>
+      <c r="K10" s="21">
+        <v>11.956575264158833</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="O10" s="6">
+        <v>44925</v>
+      </c>
+      <c r="P10" s="10">
+        <v>152.39757379984275</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>477.7906842909785</v>
+      </c>
+      <c r="R10" s="5">
+        <v>667.91817463193593</v>
+      </c>
+      <c r="S10" s="5">
+        <v>190.12749034095742</v>
+      </c>
+      <c r="T10" s="5">
+        <v>500.21251916564194</v>
+      </c>
+      <c r="U10" s="9">
+        <v>0.39793050930471513</v>
+      </c>
+      <c r="V10" s="9">
+        <v>9.2371161110481603E-2</v>
+      </c>
+      <c r="X10" s="6">
+        <v>43098</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>18.350992705669857</v>
+      </c>
+      <c r="Z10" s="1">
+        <f>-Y10</f>
+        <v>-18.350992705669857</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>18.350992705669857</v>
+      </c>
+      <c r="AC10" s="1">
+        <f t="shared" ref="AC10:AC15" si="5">-AB10</f>
+        <v>-18.350992705669857</v>
+      </c>
+      <c r="AD10" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>18.350992705669857</v>
+      </c>
+      <c r="AF10" s="1">
+        <f t="shared" ref="AF10:AF16" si="6">-AE10</f>
+        <v>-18.350992705669857</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A11" s="15">
+        <v>43039</v>
+      </c>
+      <c r="B11" s="25">
+        <v>0.94596999999999998</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0.92351769230769187</v>
+      </c>
+      <c r="D11" s="21">
+        <v>-0.78136448710062045</v>
+      </c>
+      <c r="E11" s="22">
+        <v>-0.82599288254449976</v>
+      </c>
+      <c r="F11" s="22">
+        <v>6.9614279822326219</v>
+      </c>
+      <c r="G11" s="22">
+        <v>6.5853020283525936</v>
+      </c>
+      <c r="H11" s="22">
+        <v>17.372677754342892</v>
+      </c>
+      <c r="I11" s="22">
+        <v>19.323241779612047</v>
+      </c>
+      <c r="J11" s="22">
+        <v>1.9505640252691556</v>
+      </c>
+      <c r="K11" s="21">
+        <v>12.737939751259454</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="O11" s="6">
+        <v>45289</v>
+      </c>
+      <c r="P11" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>477.7906842909785</v>
+      </c>
+      <c r="R11" s="5">
+        <v>720.0405566801802</v>
+      </c>
+      <c r="S11" s="5">
+        <v>242.2498723892017</v>
+      </c>
+      <c r="T11" s="5">
+        <v>720.0405566801802</v>
+      </c>
+      <c r="U11" s="9">
+        <v>0.50702092015186617</v>
+      </c>
+      <c r="V11" s="9">
+        <v>8.92869255584543E-2</v>
+      </c>
+      <c r="X11" s="6">
+        <v>43462</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>255.17901000780921</v>
+      </c>
+      <c r="Z11" s="1">
+        <f>-Y11</f>
+        <v>-255.17901000780921</v>
+      </c>
+      <c r="AA11" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>255.17901000780921</v>
+      </c>
+      <c r="AC11" s="1">
+        <f t="shared" si="5"/>
+        <v>-255.17901000780921</v>
+      </c>
+      <c r="AD11" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>255.17901000780921</v>
+      </c>
+      <c r="AF11" s="1">
+        <f t="shared" si="6"/>
+        <v>-255.17901000780921</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A12" s="15">
+        <v>43069</v>
+      </c>
+      <c r="B12" s="25">
+        <v>0.93876000000000004</v>
+      </c>
+      <c r="C12" s="20">
+        <v>0.93002679775280872</v>
+      </c>
+      <c r="D12" s="21">
+        <v>-0.11821667331003861</v>
+      </c>
+      <c r="E12" s="22">
+        <v>-0.12592853691043357</v>
+      </c>
+      <c r="F12" s="22">
+        <v>6.8354994453221884</v>
+      </c>
+      <c r="G12" s="22">
+        <v>6.4168934592906579</v>
+      </c>
+      <c r="H12" s="22">
+        <v>17.372677754342892</v>
+      </c>
+      <c r="I12" s="22">
+        <v>19.27304988386015</v>
+      </c>
+      <c r="J12" s="22">
+        <v>1.9003721295172582</v>
+      </c>
+      <c r="K12" s="21">
+        <v>12.856156424569493</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="X12" s="6">
+        <v>43830</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>51.512876965237467</v>
+      </c>
+      <c r="Z12" s="1">
+        <f>-Y12</f>
+        <v>-51.512876965237467</v>
+      </c>
+      <c r="AA12" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>51.512876965237467</v>
+      </c>
+      <c r="AC12" s="1">
+        <f t="shared" si="5"/>
+        <v>-51.512876965237467</v>
+      </c>
+      <c r="AD12" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>51.863107777656694</v>
+      </c>
+      <c r="AF12" s="1">
+        <f t="shared" si="6"/>
+        <v>-51.863107777656694</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A13" s="15">
+        <v>43098</v>
+      </c>
+      <c r="B13" s="25">
+        <v>0.90395999999999999</v>
+      </c>
+      <c r="C13" s="20">
+        <v>0.92908311557788914</v>
+      </c>
+      <c r="D13" s="21">
+        <v>0.97831495132696389</v>
+      </c>
+      <c r="E13" s="22">
+        <v>1.0822546919409752</v>
+      </c>
+      <c r="F13" s="22">
+        <v>7.9177541372631639</v>
+      </c>
+      <c r="G13" s="22">
+        <v>7.1573330299204097</v>
+      </c>
+      <c r="H13" s="22">
+        <v>18.350992705669857</v>
+      </c>
+      <c r="I13" s="22">
+        <v>20.013489454489903</v>
+      </c>
+      <c r="J13" s="22">
+        <v>1.6624967488200468</v>
+      </c>
+      <c r="K13" s="21">
+        <v>12.856156424569493</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="X13" s="6">
+        <v>44196</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="1">
+        <f>-Y13</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A14" s="15">
+        <v>43131</v>
+      </c>
+      <c r="B14" s="25">
+        <v>0.86690999999999996</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0.92713140271493188</v>
+      </c>
+      <c r="D14" s="21">
+        <v>5.6212568846787159</v>
+      </c>
+      <c r="E14" s="22">
+        <v>6.4842450596702266</v>
+      </c>
+      <c r="F14" s="22">
+        <v>14.40199919693339</v>
+      </c>
+      <c r="G14" s="22">
+        <v>12.485237123813524</v>
+      </c>
+      <c r="H14" s="22">
+        <v>23.972249590348572</v>
+      </c>
+      <c r="I14" s="22">
+        <v>25.341393548383017</v>
+      </c>
+      <c r="J14" s="22">
+        <v>1.3691439580344458</v>
+      </c>
+      <c r="K14" s="21">
+        <v>12.856156424569493</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="X14" s="6">
+        <v>44561</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1">
+        <f>-Y14</f>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="6">
+        <v>44561</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="6">
+        <v>44561</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A15" s="15">
+        <v>43159</v>
+      </c>
+      <c r="B15" s="25">
+        <v>0.8518</v>
+      </c>
+      <c r="C15" s="20">
+        <v>0.91968983050847442</v>
+      </c>
+      <c r="D15" s="21">
+        <v>7.1439950840275444</v>
+      </c>
+      <c r="E15" s="22">
+        <v>8.38693952104666</v>
+      </c>
+      <c r="F15" s="22">
+        <v>22.788938717980052</v>
+      </c>
+      <c r="G15" s="22">
+        <v>19.411617999975409</v>
+      </c>
+      <c r="H15" s="22">
+        <v>31.116244674376116</v>
+      </c>
+      <c r="I15" s="22">
+        <v>32.267774424544903</v>
+      </c>
+      <c r="J15" s="22">
+        <v>1.1515297501687876</v>
+      </c>
+      <c r="K15" s="21">
+        <v>12.856156424569493</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="X15" s="6">
+        <v>44561</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>500.21251916564194</v>
+      </c>
+      <c r="AA15" s="6">
+        <v>44925</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>152.39757379984275</v>
+      </c>
+      <c r="AC15" s="1">
+        <f t="shared" si="5"/>
+        <v>-152.39757379984275</v>
+      </c>
+      <c r="AD15" s="6">
+        <v>44925</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>152.39757379984275</v>
+      </c>
+      <c r="AF15" s="1">
+        <f t="shared" si="6"/>
+        <v>-152.39757379984275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A16" s="15">
+        <v>43189</v>
+      </c>
+      <c r="B16" s="25">
+        <v>0.95575999999999994</v>
+      </c>
+      <c r="C16" s="20">
+        <v>0.91931608527131781</v>
+      </c>
+      <c r="D16" s="21">
+        <v>-2.0586463271647548</v>
+      </c>
+      <c r="E16" s="22">
+        <v>-2.153936476902941</v>
+      </c>
+      <c r="F16" s="22">
+        <v>20.63500224107711</v>
+      </c>
+      <c r="G16" s="22">
+        <v>19.722109741931856</v>
+      </c>
+      <c r="H16" s="22">
+        <v>31.116244674376116</v>
+      </c>
+      <c r="I16" s="22">
+        <v>34.636912493666102</v>
+      </c>
+      <c r="J16" s="22">
+        <v>3.5206678192899865</v>
+      </c>
+      <c r="K16" s="21">
+        <v>14.914802751734248</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="Z16" s="2">
+        <f>IRR(Z10:Z15)</f>
+        <v>0.11658256234767994</v>
+      </c>
+      <c r="AA16" s="6">
+        <v>44925</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>667.91817463193593</v>
+      </c>
+      <c r="AD16" s="6">
+        <v>45289</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A17" s="15">
+        <v>43217</v>
+      </c>
+      <c r="B17" s="25">
+        <v>0.92662</v>
+      </c>
+      <c r="C17" s="20">
+        <v>0.92028402173913049</v>
+      </c>
+      <c r="D17" s="21">
+        <v>-6.2224161809427136E-2</v>
+      </c>
+      <c r="E17" s="22">
+        <v>-6.7151757796537023E-2</v>
+      </c>
+      <c r="F17" s="22">
+        <v>20.567850483280573</v>
+      </c>
+      <c r="G17" s="22">
+        <v>19.058581614817445</v>
+      </c>
+      <c r="H17" s="22">
+        <v>31.116244674376116</v>
+      </c>
+      <c r="I17" s="22">
+        <v>34.035608528361124</v>
+      </c>
+      <c r="J17" s="22">
+        <v>2.9193638539850078</v>
+      </c>
+      <c r="K17" s="21">
+        <v>14.977026913543675</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="AC17" s="2">
+        <f>IRR(AC10:AC16)</f>
+        <v>9.2371161110481603E-2</v>
+      </c>
+      <c r="AD17" s="6">
+        <v>45289</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>720.0405566801802</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A18" s="15">
+        <v>43251</v>
+      </c>
+      <c r="B18" s="25">
+        <v>0.88405999999999996</v>
+      </c>
+      <c r="C18" s="20">
+        <v>0.91991989932885943</v>
+      </c>
+      <c r="D18" s="21">
+        <v>1.9931951888077002</v>
+      </c>
+      <c r="E18" s="22">
+        <v>2.2545926620452237</v>
+      </c>
+      <c r="F18" s="22">
+        <v>22.822443145325796</v>
+      </c>
+      <c r="G18" s="22">
+        <v>20.176409087056722</v>
+      </c>
+      <c r="H18" s="22">
+        <v>33.109439863183816</v>
+      </c>
+      <c r="I18" s="22">
+        <v>35.153436000600394</v>
+      </c>
+      <c r="J18" s="22">
+        <v>2.0439961374165776</v>
+      </c>
+      <c r="K18" s="21">
+        <v>14.977026913543675</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="AF18" s="2">
+        <f>IRR(AF10:AF17)</f>
+        <v>8.92869255584543E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A19" s="15">
+        <v>43280</v>
+      </c>
+      <c r="B19" s="25">
+        <v>0.81235999999999997</v>
+      </c>
+      <c r="C19" s="20">
+        <v>0.91462415094339644</v>
+      </c>
+      <c r="D19" s="21">
+        <v>16.209832680669354</v>
+      </c>
+      <c r="E19" s="22">
+        <v>19.954001527240823</v>
+      </c>
+      <c r="F19" s="22">
+        <v>42.776444672566619</v>
+      </c>
+      <c r="G19" s="22">
+        <v>34.749872594206217</v>
+      </c>
+      <c r="H19" s="22">
+        <v>49.319272543853174</v>
+      </c>
+      <c r="I19" s="22">
+        <v>49.726899507749891</v>
+      </c>
+      <c r="J19" s="22">
+        <v>0.4076269638967176</v>
+      </c>
+      <c r="K19" s="21">
+        <v>14.977026913543675</v>
+      </c>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A20" s="15">
+        <v>43312</v>
+      </c>
+      <c r="B20" s="25">
+        <v>0.8131799999999999</v>
+      </c>
+      <c r="C20" s="20">
+        <v>0.90820861764705896</v>
+      </c>
+      <c r="D20" s="21">
+        <v>13.997179166461963</v>
+      </c>
+      <c r="E20" s="22">
+        <v>17.212891569470433</v>
+      </c>
+      <c r="F20" s="22">
+        <v>59.989336242037055</v>
+      </c>
+      <c r="G20" s="22">
+        <v>48.782128445299684</v>
+      </c>
+      <c r="H20" s="22">
+        <v>63.316451710315135</v>
+      </c>
+      <c r="I20" s="22">
+        <v>63.759155358843358</v>
+      </c>
+      <c r="J20" s="22">
+        <v>0.44270364852822297</v>
+      </c>
+      <c r="K20" s="21">
+        <v>14.977026913543675</v>
+      </c>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A21" s="15">
+        <v>43343</v>
+      </c>
+      <c r="B21" s="25">
+        <v>0.77766999999999997</v>
+      </c>
+      <c r="C21" s="20">
+        <v>0.90034011019283766</v>
+      </c>
+      <c r="D21" s="21">
+        <v>23.324331698820558</v>
+      </c>
+      <c r="E21" s="22">
+        <v>29.992582584927487</v>
+      </c>
+      <c r="F21" s="22">
+        <v>89.981918826964545</v>
+      </c>
+      <c r="G21" s="22">
+        <v>69.976238814165512</v>
+      </c>
+      <c r="H21" s="22">
+        <v>86.640783409135693</v>
+      </c>
+      <c r="I21" s="22">
+        <v>84.95326572770918</v>
+      </c>
+      <c r="J21" s="22">
+        <v>-1.6875176814265131</v>
+      </c>
+      <c r="K21" s="21">
+        <v>14.977026913543675</v>
+      </c>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A22" s="15">
+        <v>43371</v>
+      </c>
+      <c r="B22" s="25">
+        <v>0.76784000000000008</v>
+      </c>
+      <c r="C22" s="20">
+        <v>0.8937382984293194</v>
+      </c>
+      <c r="D22" s="21">
+        <v>24.568091398466816</v>
+      </c>
+      <c r="E22" s="22">
+        <v>31.996368251806121</v>
+      </c>
+      <c r="F22" s="22">
+        <v>121.97828707877066</v>
+      </c>
+      <c r="G22" s="22">
+        <v>93.659807950563277</v>
+      </c>
+      <c r="H22" s="22">
+        <v>111.20887480760251</v>
+      </c>
+      <c r="I22" s="22">
+        <v>108.63683486410696</v>
+      </c>
+      <c r="J22" s="22">
+        <v>-2.5720399434955539</v>
+      </c>
+      <c r="K22" s="21">
+        <v>14.977026913543675</v>
+      </c>
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A23" s="15">
+        <v>43404</v>
+      </c>
+      <c r="B23" s="25">
+        <v>0.67677999999999994</v>
+      </c>
+      <c r="C23" s="20">
+        <v>0.88415025000000003</v>
+      </c>
+      <c r="D23" s="21">
+        <v>66.653751906846935</v>
+      </c>
+      <c r="E23" s="22">
+        <v>98.486586345410529</v>
+      </c>
+      <c r="F23" s="22">
+        <v>220.46487342418118</v>
+      </c>
+      <c r="G23" s="22">
+        <v>149.20621703601734</v>
+      </c>
+      <c r="H23" s="22">
+        <v>177.86262671444945</v>
+      </c>
+      <c r="I23" s="22">
+        <v>164.18324394956102</v>
+      </c>
+      <c r="J23" s="22">
+        <v>-13.67938276488843</v>
+      </c>
+      <c r="K23" s="21">
+        <v>14.977026913543675</v>
+      </c>
+      <c r="L23" s="7"/>
+    </row>
+    <row r="24" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A24" s="15">
+        <v>43434</v>
+      </c>
+      <c r="B24" s="25">
+        <v>0.7214299999999999</v>
+      </c>
+      <c r="C24" s="20">
+        <v>0.87621106635071089</v>
+      </c>
+      <c r="D24" s="21">
+        <v>37.133626676027951</v>
+      </c>
+      <c r="E24" s="22">
+        <v>51.472251883104327</v>
+      </c>
+      <c r="F24" s="22">
+        <v>271.9371253072855</v>
+      </c>
+      <c r="G24" s="22">
+        <v>196.18360031043494</v>
+      </c>
+      <c r="H24" s="22">
+        <v>214.99625339047739</v>
+      </c>
+      <c r="I24" s="22">
+        <v>211.16062722397862</v>
+      </c>
+      <c r="J24" s="22">
+        <v>-3.8356261664987699</v>
+      </c>
+      <c r="K24" s="21">
+        <v>14.977026913543675</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A25" s="15">
+        <v>43462</v>
+      </c>
+      <c r="B25" s="25">
+        <v>0.67408000000000001</v>
+      </c>
+      <c r="C25" s="20">
+        <v>0.86840886877828072</v>
+      </c>
+      <c r="D25" s="21">
+        <v>58.533749323001672</v>
+      </c>
+      <c r="E25" s="22">
+        <v>86.835018577916074</v>
+      </c>
+      <c r="F25" s="22">
+        <v>358.77214388520156</v>
+      </c>
+      <c r="G25" s="22">
+        <v>241.84112675013668</v>
+      </c>
+      <c r="H25" s="22">
+        <v>273.53000271347906</v>
+      </c>
+      <c r="I25" s="22">
+        <v>256.81815366368033</v>
+      </c>
+      <c r="J25" s="22">
+        <v>-16.71184904979873</v>
+      </c>
+      <c r="K25" s="21">
+        <v>14.977026913543675</v>
+      </c>
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A26" s="15">
+        <v>43496</v>
+      </c>
+      <c r="B26" s="25">
+        <v>0.67716999999999994</v>
+      </c>
+      <c r="C26" s="20">
+        <v>0.86008008620689669</v>
+      </c>
+      <c r="D26" s="21">
+        <v>51.856954436132327</v>
+      </c>
+      <c r="E26" s="22">
+        <v>76.578930602555246</v>
+      </c>
+      <c r="F26" s="22">
+        <v>435.35107448775682</v>
+      </c>
+      <c r="G26" s="22">
+        <v>294.80668711087424</v>
+      </c>
+      <c r="H26" s="22">
+        <v>325.38695714961136</v>
+      </c>
+      <c r="I26" s="22">
+        <v>309.78371402441792</v>
+      </c>
+      <c r="J26" s="22">
+        <v>-15.603243125193444</v>
+      </c>
+      <c r="K26" s="21">
+        <v>14.977026913543675</v>
+      </c>
+      <c r="L26" s="7"/>
+    </row>
+    <row r="27" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A27" s="15">
+        <v>43524</v>
+      </c>
+      <c r="B27" s="25">
+        <v>0.85648000000000002</v>
+      </c>
+      <c r="C27" s="20">
+        <v>0.85765524008350746</v>
+      </c>
+      <c r="D27" s="21">
+        <v>2.1408433435180091E-3</v>
+      </c>
+      <c r="E27" s="22">
+        <v>2.4995835787385685E-3</v>
+      </c>
+      <c r="F27" s="22">
+        <v>435.35357407133557</v>
+      </c>
+      <c r="G27" s="22">
+        <v>372.87162912061751</v>
+      </c>
+      <c r="H27" s="22">
+        <v>325.38909799295487</v>
+      </c>
+      <c r="I27" s="22">
+        <v>387.84865603416119</v>
+      </c>
+      <c r="J27" s="22">
+        <v>62.459558041206321</v>
+      </c>
+      <c r="K27" s="21">
+        <v>14.977026913543675</v>
+      </c>
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A28" s="15">
+        <v>43553</v>
+      </c>
+      <c r="B28" s="25">
+        <v>0.94580999999999993</v>
+      </c>
+      <c r="C28" s="20">
+        <v>0.86087282000000032</v>
+      </c>
+      <c r="D28" s="21">
+        <v>-11.182203046846118</v>
+      </c>
+      <c r="E28" s="22">
+        <v>-11.822885195595434</v>
+      </c>
+      <c r="F28" s="22">
+        <v>423.53068887574011</v>
+      </c>
+      <c r="G28" s="22">
+        <v>400.57956084556372</v>
+      </c>
+      <c r="H28" s="22">
+        <v>325.38909799295487</v>
+      </c>
+      <c r="I28" s="22">
+        <v>426.7387908059535</v>
+      </c>
+      <c r="J28" s="22">
+        <v>101.34969281299863</v>
+      </c>
+      <c r="K28" s="21">
+        <v>26.159229960389794</v>
+      </c>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A29" s="15">
+        <v>43585</v>
+      </c>
+      <c r="B29" s="25">
+        <v>0.9108099999999999</v>
+      </c>
+      <c r="C29" s="20">
+        <v>0.86513197696737065</v>
+      </c>
+      <c r="D29" s="21">
+        <v>-3.2340467716625816</v>
+      </c>
+      <c r="E29" s="22">
+        <v>-3.5507370051520977</v>
+      </c>
+      <c r="F29" s="22">
+        <v>419.97995187058802</v>
+      </c>
+      <c r="G29" s="22">
+        <v>382.52193996325025</v>
+      </c>
+      <c r="H29" s="22">
+        <v>325.38909799295487</v>
+      </c>
+      <c r="I29" s="22">
+        <v>411.9152166953026</v>
+      </c>
+      <c r="J29" s="22">
+        <v>86.526118702347731</v>
+      </c>
+      <c r="K29" s="21">
+        <v>29.393276732052374</v>
+      </c>
+      <c r="L29" s="7"/>
+    </row>
+    <row r="30" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A30" s="15">
+        <v>43616</v>
+      </c>
+      <c r="B30" s="25">
+        <v>0.86360000000000003</v>
+      </c>
+      <c r="C30" s="20">
+        <v>0.86520894639556412</v>
+      </c>
+      <c r="D30" s="21">
+        <v>4.0124981808879077E-3</v>
+      </c>
+      <c r="E30" s="22">
+        <v>4.6462461566557523E-3</v>
+      </c>
+      <c r="F30" s="22">
+        <v>419.98459811674468</v>
+      </c>
+      <c r="G30" s="22">
+        <v>362.69869893362073</v>
+      </c>
+      <c r="H30" s="22">
+        <v>325.39311049113576</v>
+      </c>
+      <c r="I30" s="22">
+        <v>392.09197566567309</v>
+      </c>
+      <c r="J30" s="22">
+        <v>66.698865174537332</v>
+      </c>
+      <c r="K30" s="21">
+        <v>29.393276732052374</v>
+      </c>
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A31" s="15">
+        <v>43644</v>
+      </c>
+      <c r="B31" s="25">
+        <v>0.88732</v>
+      </c>
+      <c r="C31" s="20">
+        <v>0.86520416071428607</v>
+      </c>
+      <c r="D31" s="21">
+        <v>-0.75812103833286737</v>
+      </c>
+      <c r="E31" s="22">
+        <v>-0.85439417384130567</v>
+      </c>
+      <c r="F31" s="22">
+        <v>419.13020394290339</v>
+      </c>
+      <c r="G31" s="22">
+        <v>371.90261256261704</v>
+      </c>
+      <c r="H31" s="22">
+        <v>325.39311049113576</v>
+      </c>
+      <c r="I31" s="22">
+        <v>402.05401033300228</v>
+      </c>
+      <c r="J31" s="22">
+        <v>76.660899841866524</v>
+      </c>
+      <c r="K31" s="21">
+        <v>30.151397770385241</v>
+      </c>
+      <c r="L31" s="7"/>
+    </row>
+    <row r="32" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A32" s="15">
+        <v>43677</v>
+      </c>
+      <c r="B32" s="25">
+        <v>0.89222000000000001</v>
+      </c>
+      <c r="C32" s="20">
+        <v>0.86610048027444275</v>
+      </c>
+      <c r="D32" s="21">
+        <v>-1.057455431575351</v>
+      </c>
+      <c r="E32" s="22">
+        <v>-1.1851958391151858</v>
+      </c>
+      <c r="F32" s="22">
+        <v>417.94500810378821</v>
+      </c>
+      <c r="G32" s="22">
+        <v>372.89889513036195</v>
+      </c>
+      <c r="H32" s="22">
+        <v>325.39311049113576</v>
+      </c>
+      <c r="I32" s="22">
+        <v>404.10774833232256</v>
+      </c>
+      <c r="J32" s="22">
+        <v>78.7146378411868</v>
+      </c>
+      <c r="K32" s="21">
+        <v>31.208853201960594</v>
+      </c>
+      <c r="L32" s="7"/>
+    </row>
+    <row r="33" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A33" s="15">
+        <v>43707</v>
+      </c>
+      <c r="B33" s="25">
+        <v>0.92357</v>
+      </c>
+      <c r="C33" s="20">
+        <v>0.86687626446280996</v>
+      </c>
+      <c r="D33" s="21">
+        <v>-4.9819784561993092</v>
+      </c>
+      <c r="E33" s="22">
+        <v>-5.3942618926549253</v>
+      </c>
+      <c r="F33" s="22">
+        <v>412.55074621113329</v>
+      </c>
+      <c r="G33" s="22">
+        <v>381.01949267821635</v>
+      </c>
+      <c r="H33" s="22">
+        <v>325.39311049113576</v>
+      </c>
+      <c r="I33" s="22">
+        <v>417.21032433637623</v>
+      </c>
+      <c r="J33" s="22">
+        <v>91.817213845240474</v>
+      </c>
+      <c r="K33" s="21">
+        <v>36.190831658159901</v>
+      </c>
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A34" s="15">
+        <v>43738</v>
+      </c>
+      <c r="B34" s="25">
+        <v>0.95855999999999997</v>
+      </c>
+      <c r="C34" s="20">
+        <v>0.87099716799999982</v>
+      </c>
+      <c r="D34" s="21">
+        <v>-11.884236799183387</v>
+      </c>
+      <c r="E34" s="22">
+        <v>-12.398010348004703</v>
+      </c>
+      <c r="F34" s="22">
+        <v>400.15273586312856</v>
+      </c>
+      <c r="G34" s="22">
+        <v>383.57040648896049</v>
+      </c>
+      <c r="H34" s="22">
+        <v>325.39311049113576</v>
+      </c>
+      <c r="I34" s="22">
+        <v>431.64547494630381</v>
+      </c>
+      <c r="J34" s="22">
+        <v>106.25236445516805</v>
+      </c>
+      <c r="K34" s="21">
+        <v>48.075068457343292</v>
+      </c>
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A35" s="15">
+        <v>43769</v>
+      </c>
+      <c r="B35" s="25">
+        <v>0.97238999999999998</v>
+      </c>
+      <c r="C35" s="20">
+        <v>0.87394309486780741</v>
+      </c>
+      <c r="D35" s="21">
+        <v>-15.02227935166573</v>
+      </c>
+      <c r="E35" s="22">
+        <v>-15.448821307979031</v>
+      </c>
+      <c r="F35" s="22">
+        <v>384.70391455514954</v>
+      </c>
+      <c r="G35" s="22">
+        <v>374.08223947428183</v>
+      </c>
+      <c r="H35" s="22">
+        <v>325.39311049113576</v>
+      </c>
+      <c r="I35" s="22">
+        <v>437.17958728329086</v>
+      </c>
+      <c r="J35" s="22">
+        <v>111.7864767921551</v>
+      </c>
+      <c r="K35" s="21">
+        <v>63.097347809009023</v>
+      </c>
+      <c r="L35" s="7"/>
+    </row>
+    <row r="36" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A36" s="15">
+        <v>43798</v>
+      </c>
+      <c r="B36" s="25">
+        <v>0.97728999999999999</v>
+      </c>
+      <c r="C36" s="20">
+        <v>0.87774004518072291</v>
+      </c>
+      <c r="D36" s="21">
+        <v>-15.360799932006168</v>
+      </c>
+      <c r="E36" s="22">
+        <v>-15.717750035308013</v>
+      </c>
+      <c r="F36" s="22">
+        <v>368.98616451984151</v>
+      </c>
+      <c r="G36" s="22">
+        <v>360.60648872359593</v>
+      </c>
+      <c r="H36" s="22">
+        <v>325.39311049113576</v>
+      </c>
+      <c r="I36" s="22">
+        <v>439.06463646461111</v>
+      </c>
+      <c r="J36" s="22">
+        <v>113.67152597347535</v>
+      </c>
+      <c r="K36" s="21">
+        <v>78.458147741015196</v>
+      </c>
+      <c r="L36" s="7"/>
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A37" s="15">
+        <v>43830</v>
+      </c>
+      <c r="B37" s="25">
+        <v>1.0407999999999999</v>
+      </c>
+      <c r="C37" s="20">
+        <v>0.88251367346938747</v>
+      </c>
+      <c r="D37" s="21">
+        <v>-38.834569808161298</v>
+      </c>
+      <c r="E37" s="22">
+        <v>-37.312230791853672</v>
+      </c>
+      <c r="F37" s="22">
+        <v>331.67393372798784</v>
+      </c>
+      <c r="G37" s="22">
+        <v>345.20623022408972</v>
+      </c>
+      <c r="H37" s="22">
+        <v>325.39311049113576</v>
+      </c>
+      <c r="I37" s="22">
+        <v>462.4989477732662</v>
+      </c>
+      <c r="J37" s="22">
+        <v>137.10583728213044</v>
+      </c>
+      <c r="K37" s="21">
+        <v>117.2927175491765</v>
+      </c>
+      <c r="L37" s="7"/>
+    </row>
+    <row r="38" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A38" s="15">
+        <v>43853</v>
+      </c>
+      <c r="B38" s="25">
+        <v>1.13632</v>
+      </c>
+      <c r="C38" s="20">
+        <v>0.88787240740740703</v>
+      </c>
+      <c r="D38" s="21">
+        <v>-95.675619710835349</v>
+      </c>
+      <c r="E38" s="22">
+        <v>-84.197778540231056</v>
+      </c>
+      <c r="F38" s="22">
+        <v>247.47615518775677</v>
+      </c>
+      <c r="G38" s="22">
+        <v>281.21210466295179</v>
+      </c>
+      <c r="H38" s="22">
+        <v>325.39311049113576</v>
+      </c>
+      <c r="I38" s="22">
+        <v>494.18044192296361</v>
+      </c>
+      <c r="J38" s="22">
+        <v>168.78733143182785</v>
+      </c>
+      <c r="K38" s="21">
+        <v>212.96833726001185</v>
+      </c>
+      <c r="L38" s="7"/>
+    </row>
+    <row r="39" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A39" s="15">
+        <v>43889</v>
+      </c>
+      <c r="B39" s="25">
+        <v>1.2075199999999999</v>
+      </c>
+      <c r="C39" s="20">
+        <v>0.89685198060941806</v>
+      </c>
+      <c r="D39" s="21">
+        <v>-149.59765832170376</v>
+      </c>
+      <c r="E39" s="22">
+        <v>-123.88834828549736</v>
+      </c>
+      <c r="F39" s="22">
+        <v>123.58780690225942</v>
+      </c>
+      <c r="G39" s="22">
+        <v>149.23474859061628</v>
+      </c>
+      <c r="H39" s="22">
+        <v>325.39311049113576</v>
+      </c>
+      <c r="I39" s="22">
+        <v>511.80074417233186</v>
+      </c>
+      <c r="J39" s="22">
+        <v>186.4076336811961</v>
+      </c>
+      <c r="K39" s="21">
+        <v>362.56599558171558</v>
+      </c>
+      <c r="L39" s="7"/>
+    </row>
+    <row r="40" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A40" s="15">
+        <v>43921</v>
+      </c>
+      <c r="B40" s="25">
+        <v>1.0721400000000001</v>
+      </c>
+      <c r="C40" s="20">
+        <v>0.90492893817204278</v>
+      </c>
+      <c r="D40" s="21">
+        <v>-43.337285756331092</v>
+      </c>
+      <c r="E40" s="22">
+        <v>-40.421293633602971</v>
+      </c>
+      <c r="F40" s="22">
+        <v>83.166513268656445</v>
+      </c>
+      <c r="G40" s="22">
+        <v>89.166145535857325</v>
+      </c>
+      <c r="H40" s="22">
+        <v>325.39311049113576</v>
+      </c>
+      <c r="I40" s="22">
+        <v>495.06942687390398</v>
+      </c>
+      <c r="J40" s="22">
+        <v>169.67631638276822</v>
+      </c>
+      <c r="K40" s="21">
+        <v>405.90328133804667</v>
+      </c>
+      <c r="L40" s="7"/>
+    </row>
+    <row r="41" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A41" s="15">
+        <v>43951</v>
+      </c>
+      <c r="B41" s="25">
+        <v>1.13618</v>
+      </c>
+      <c r="C41" s="20">
+        <v>0.91070921568627439</v>
+      </c>
+      <c r="D41" s="21">
+        <v>-78.797465597522176</v>
+      </c>
+      <c r="E41" s="22">
+        <v>-69.352977166929691</v>
+      </c>
+      <c r="F41" s="22">
+        <v>13.813536101726754</v>
+      </c>
+      <c r="G41" s="22">
+        <v>15.694663448059902</v>
+      </c>
+      <c r="H41" s="22">
+        <v>325.39311049113576</v>
+      </c>
+      <c r="I41" s="22">
+        <v>500.39541038362876</v>
+      </c>
+      <c r="J41" s="22">
+        <v>175.002299892493</v>
+      </c>
+      <c r="K41" s="21">
+        <v>484.70074693556887</v>
+      </c>
+      <c r="L41" s="7"/>
+    </row>
+    <row r="42" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A42" s="15">
+        <v>43980</v>
+      </c>
+      <c r="B42" s="25">
+        <v>1.12294</v>
+      </c>
+      <c r="C42" s="20">
+        <v>0.91629127713920799</v>
+      </c>
+      <c r="D42" s="21">
+        <v>-15.511772230073042</v>
+      </c>
+      <c r="E42" s="22">
+        <v>-13.813536101726754</v>
+      </c>
+      <c r="F42" s="22">
+        <v>0</v>
+      </c>
+      <c r="G42" s="22">
+        <v>0</v>
+      </c>
+      <c r="H42" s="22">
+        <v>325.39311049113576</v>
+      </c>
+      <c r="I42" s="22">
+        <v>500.21251916564194</v>
+      </c>
+      <c r="J42" s="22">
+        <v>174.81940867450618</v>
+      </c>
+      <c r="K42" s="21">
+        <v>500.21251916564194</v>
+      </c>
+      <c r="L42" s="7"/>
+    </row>
+    <row r="43" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A43" s="15">
+        <v>44012</v>
+      </c>
+      <c r="B43" s="25">
+        <v>1.25214</v>
+      </c>
+      <c r="C43" s="20">
+        <v>0.92317073474470712</v>
+      </c>
+      <c r="D43" s="21">
+        <v>0</v>
+      </c>
+      <c r="E43" s="22">
+        <v>0</v>
+      </c>
+      <c r="F43" s="22">
+        <v>0</v>
+      </c>
+      <c r="G43" s="22">
+        <v>0</v>
+      </c>
+      <c r="H43" s="22">
+        <v>325.39311049113576</v>
+      </c>
+      <c r="I43" s="22">
+        <v>500.21251916564194</v>
+      </c>
+      <c r="J43" s="22">
+        <v>174.81940867450618</v>
+      </c>
+      <c r="K43" s="21">
+        <v>500.21251916564194</v>
+      </c>
+      <c r="L43" s="7"/>
+    </row>
+    <row r="44" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A44" s="15">
+        <v>44043</v>
+      </c>
+      <c r="B44" s="25">
+        <v>1.3561700000000001</v>
+      </c>
+      <c r="C44" s="20">
+        <v>0.93524518159806236</v>
+      </c>
+      <c r="D44" s="21">
+        <v>0</v>
+      </c>
+      <c r="E44" s="22">
+        <v>0</v>
+      </c>
+      <c r="F44" s="22">
+        <v>0</v>
+      </c>
+      <c r="G44" s="22">
+        <v>0</v>
+      </c>
+      <c r="H44" s="22">
+        <v>325.39311049113576</v>
+      </c>
+      <c r="I44" s="22">
+        <v>500.21251916564194</v>
+      </c>
+      <c r="J44" s="22">
+        <v>174.81940867450618</v>
+      </c>
+      <c r="K44" s="21">
+        <v>500.21251916564194</v>
+      </c>
+      <c r="L44" s="7"/>
+    </row>
+    <row r="45" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A45" s="15">
+        <v>44074</v>
+      </c>
+      <c r="B45" s="25">
+        <v>1.35833</v>
+      </c>
+      <c r="C45" s="20">
+        <v>0.9455635537190078</v>
+      </c>
+      <c r="D45" s="21">
+        <v>0</v>
+      </c>
+      <c r="E45" s="22">
+        <v>0</v>
+      </c>
+      <c r="F45" s="22">
+        <v>0</v>
+      </c>
+      <c r="G45" s="22">
+        <v>0</v>
+      </c>
+      <c r="H45" s="22">
+        <v>325.39311049113576</v>
+      </c>
+      <c r="I45" s="22">
+        <v>500.21251916564194</v>
+      </c>
+      <c r="J45" s="22">
+        <v>174.81940867450618</v>
+      </c>
+      <c r="K45" s="21">
+        <v>500.21251916564194</v>
+      </c>
+      <c r="L45" s="7"/>
+    </row>
+    <row r="46" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A46" s="15">
+        <v>44104</v>
+      </c>
+      <c r="B46" s="25">
+        <v>1.2336199999999999</v>
+      </c>
+      <c r="C46" s="20">
+        <v>0.9540192059838889</v>
+      </c>
+      <c r="D46" s="21">
+        <v>0</v>
+      </c>
+      <c r="E46" s="22">
+        <v>0</v>
+      </c>
+      <c r="F46" s="22">
+        <v>0</v>
+      </c>
+      <c r="G46" s="22">
+        <v>0</v>
+      </c>
+      <c r="H46" s="22">
+        <v>325.39311049113576</v>
+      </c>
+      <c r="I46" s="22">
+        <v>500.21251916564194</v>
+      </c>
+      <c r="J46" s="22">
+        <v>174.81940867450618</v>
+      </c>
+      <c r="K46" s="21">
+        <v>500.21251916564194</v>
+      </c>
+      <c r="L46" s="7"/>
+    </row>
+    <row r="47" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A47" s="15">
+        <v>44134</v>
+      </c>
+      <c r="B47" s="25">
+        <v>1.2367600000000001</v>
+      </c>
+      <c r="C47" s="20">
+        <v>0.95971613559321989</v>
+      </c>
+      <c r="D47" s="21">
+        <v>0</v>
+      </c>
+      <c r="E47" s="22">
+        <v>0</v>
+      </c>
+      <c r="F47" s="22">
+        <v>0</v>
+      </c>
+      <c r="G47" s="22">
+        <v>0</v>
+      </c>
+      <c r="H47" s="22">
+        <v>325.39311049113576</v>
+      </c>
+      <c r="I47" s="22">
+        <v>500.21251916564194</v>
+      </c>
+      <c r="J47" s="22">
+        <v>174.81940867450618</v>
+      </c>
+      <c r="K47" s="21">
+        <v>500.21251916564194</v>
+      </c>
+      <c r="L47" s="7"/>
+    </row>
+    <row r="48" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A48" s="15">
+        <v>44165</v>
+      </c>
+      <c r="B48" s="25">
+        <v>1.23942</v>
+      </c>
+      <c r="C48" s="20">
+        <v>0.96667163355408336</v>
+      </c>
+      <c r="D48" s="21">
+        <v>0</v>
+      </c>
+      <c r="E48" s="22">
+        <v>0</v>
+      </c>
+      <c r="F48" s="22">
+        <v>0</v>
+      </c>
+      <c r="G48" s="22">
+        <v>0</v>
+      </c>
+      <c r="H48" s="22">
+        <v>325.39311049113576</v>
+      </c>
+      <c r="I48" s="22">
+        <v>500.21251916564194</v>
+      </c>
+      <c r="J48" s="22">
+        <v>174.81940867450618</v>
+      </c>
+      <c r="K48" s="21">
+        <v>500.21251916564194</v>
+      </c>
+      <c r="L48" s="7"/>
+    </row>
+    <row r="49" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A49" s="15">
+        <v>44196</v>
+      </c>
+      <c r="B49" s="25">
+        <v>1.2531099999999999</v>
+      </c>
+      <c r="C49" s="20">
+        <v>0.9734885360602793</v>
+      </c>
+      <c r="D49" s="21">
+        <v>0</v>
+      </c>
+      <c r="E49" s="22">
+        <v>0</v>
+      </c>
+      <c r="F49" s="22">
+        <v>0</v>
+      </c>
+      <c r="G49" s="22">
+        <v>0</v>
+      </c>
+      <c r="H49" s="22">
+        <v>325.39311049113576</v>
+      </c>
+      <c r="I49" s="22">
+        <v>500.21251916564194</v>
+      </c>
+      <c r="J49" s="22">
+        <v>174.81940867450618</v>
+      </c>
+      <c r="K49" s="21">
+        <v>500.21251916564194</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A50" s="15">
+        <v>44225</v>
+      </c>
+      <c r="B50" s="25">
+        <v>1.2375</v>
+      </c>
+      <c r="C50" s="20">
+        <v>0.97975223393045274</v>
+      </c>
+      <c r="D50" s="21">
+        <v>0</v>
+      </c>
+      <c r="E50" s="22">
+        <v>0</v>
+      </c>
+      <c r="F50" s="22">
+        <v>0</v>
+      </c>
+      <c r="G50" s="22">
+        <v>0</v>
+      </c>
+      <c r="H50" s="22">
+        <v>325.39311049113576</v>
+      </c>
+      <c r="I50" s="22">
+        <v>500.21251916564194</v>
+      </c>
+      <c r="J50" s="22">
+        <v>174.81940867450618</v>
+      </c>
+      <c r="K50" s="21">
+        <v>500.21251916564194</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A51" s="15">
+        <v>44253</v>
+      </c>
+      <c r="B51" s="25">
+        <v>1.23967</v>
+      </c>
+      <c r="C51" s="20">
+        <v>0.98431195020746853</v>
+      </c>
+      <c r="D51" s="21">
+        <v>0</v>
+      </c>
+      <c r="E51" s="22">
+        <v>0</v>
+      </c>
+      <c r="F51" s="22">
+        <v>0</v>
+      </c>
+      <c r="G51" s="22">
+        <v>0</v>
+      </c>
+      <c r="H51" s="22">
+        <v>325.39311049113576</v>
+      </c>
+      <c r="I51" s="22">
+        <v>500.21251916564194</v>
+      </c>
+      <c r="J51" s="22">
+        <v>174.81940867450618</v>
+      </c>
+      <c r="K51" s="21">
+        <v>500.21251916564194</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A52" s="15">
+        <v>44286</v>
+      </c>
+      <c r="B52" s="25">
+        <v>1.15709</v>
+      </c>
+      <c r="C52" s="20">
+        <v>0.98874740628166125</v>
+      </c>
+      <c r="D52" s="21">
+        <v>0</v>
+      </c>
+      <c r="E52" s="22">
+        <v>0</v>
+      </c>
+      <c r="F52" s="22">
+        <v>0</v>
+      </c>
+      <c r="G52" s="22">
+        <v>0</v>
+      </c>
+      <c r="H52" s="22">
+        <v>325.39311049113576</v>
+      </c>
+      <c r="I52" s="22">
+        <v>500.21251916564194</v>
+      </c>
+      <c r="J52" s="22">
+        <v>174.81940867450618</v>
+      </c>
+      <c r="K52" s="21">
+        <v>500.21251916564194</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A53" s="15">
+        <v>44316</v>
+      </c>
+      <c r="B53" s="25">
+        <v>1.17998</v>
+      </c>
+      <c r="C53" s="20">
+        <v>0.99267334325396761</v>
+      </c>
+      <c r="D53" s="21">
+        <v>0</v>
+      </c>
+      <c r="E53" s="22">
+        <v>0</v>
+      </c>
+      <c r="F53" s="22">
+        <v>0</v>
+      </c>
+      <c r="G53" s="22">
+        <v>0</v>
+      </c>
+      <c r="H53" s="22">
+        <v>325.39311049113576</v>
+      </c>
+      <c r="I53" s="22">
+        <v>500.21251916564194</v>
+      </c>
+      <c r="J53" s="22">
+        <v>174.81940867450618</v>
+      </c>
+      <c r="K53" s="21">
+        <v>500.21251916564194</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A54" s="15">
+        <v>44347</v>
+      </c>
+      <c r="B54" s="25">
+        <v>1.2623</v>
+      </c>
+      <c r="C54" s="20">
+        <v>0.99633758284600327</v>
+      </c>
+      <c r="D54" s="21">
+        <v>0</v>
+      </c>
+      <c r="E54" s="22">
+        <v>0</v>
+      </c>
+      <c r="F54" s="22">
+        <v>0</v>
+      </c>
+      <c r="G54" s="22">
+        <v>0</v>
+      </c>
+      <c r="H54" s="22">
+        <v>325.39311049113576</v>
+      </c>
+      <c r="I54" s="22">
+        <v>500.21251916564194</v>
+      </c>
+      <c r="J54" s="22">
+        <v>174.81940867450618</v>
+      </c>
+      <c r="K54" s="21">
+        <v>500.21251916564194</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A55" s="15">
+        <v>44377</v>
+      </c>
+      <c r="B55" s="25">
+        <v>1.33643</v>
+      </c>
+      <c r="C55" s="20">
+        <v>1.0020695033428839</v>
+      </c>
+      <c r="D55" s="21">
+        <v>0</v>
+      </c>
+      <c r="E55" s="22">
+        <v>0</v>
+      </c>
+      <c r="F55" s="22">
+        <v>0</v>
+      </c>
+      <c r="G55" s="22">
+        <v>0</v>
+      </c>
+      <c r="H55" s="22">
+        <v>325.39311049113576</v>
+      </c>
+      <c r="I55" s="22">
+        <v>500.21251916564194</v>
+      </c>
+      <c r="J55" s="22">
+        <v>174.81940867450618</v>
+      </c>
+      <c r="K55" s="21">
+        <v>500.21251916564194</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A56" s="15">
+        <v>44407</v>
+      </c>
+      <c r="B56" s="25">
+        <v>1.28626</v>
+      </c>
+      <c r="C56" s="20">
+        <v>1.0081902338634234</v>
+      </c>
+      <c r="D56" s="21">
+        <v>0</v>
+      </c>
+      <c r="E56" s="22">
+        <v>0</v>
+      </c>
+      <c r="F56" s="22">
+        <v>0</v>
+      </c>
+      <c r="G56" s="22">
+        <v>0</v>
+      </c>
+      <c r="H56" s="22">
+        <v>325.39311049113576</v>
+      </c>
+      <c r="I56" s="22">
+        <v>500.21251916564194</v>
+      </c>
+      <c r="J56" s="22">
+        <v>174.81940867450618</v>
+      </c>
+      <c r="K56" s="21">
+        <v>500.21251916564194</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A57" s="15">
+        <v>44439</v>
+      </c>
+      <c r="B57" s="25">
+        <v>1.2177899999999999</v>
+      </c>
+      <c r="C57" s="20">
+        <v>1.0134350962419794</v>
+      </c>
+      <c r="D57" s="21">
+        <v>0</v>
+      </c>
+      <c r="E57" s="22">
+        <v>0</v>
+      </c>
+      <c r="F57" s="22">
+        <v>0</v>
+      </c>
+      <c r="G57" s="22">
+        <v>0</v>
+      </c>
+      <c r="H57" s="22">
+        <v>325.39311049113576</v>
+      </c>
+      <c r="I57" s="22">
+        <v>500.21251916564194</v>
+      </c>
+      <c r="J57" s="22">
+        <v>174.81940867450618</v>
+      </c>
+      <c r="K57" s="21">
+        <v>500.21251916564194</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A58" s="15">
+        <v>44469</v>
+      </c>
+      <c r="B58" s="25">
+        <v>1.20347</v>
+      </c>
+      <c r="C58" s="20">
+        <v>1.0173092439243918</v>
+      </c>
+      <c r="D58" s="21">
+        <v>0</v>
+      </c>
+      <c r="E58" s="22">
+        <v>0</v>
+      </c>
+      <c r="F58" s="22">
+        <v>0</v>
+      </c>
+      <c r="G58" s="22">
+        <v>0</v>
+      </c>
+      <c r="H58" s="22">
+        <v>325.39311049113576</v>
+      </c>
+      <c r="I58" s="22">
+        <v>500.21251916564194</v>
+      </c>
+      <c r="J58" s="22">
+        <v>174.81940867450618</v>
+      </c>
+      <c r="K58" s="21">
+        <v>500.21251916564194</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A59" s="15">
+        <v>44498</v>
+      </c>
+      <c r="B59" s="25">
+        <v>1.1970999999999998</v>
+      </c>
+      <c r="C59" s="20">
+        <v>1.0199570984915698</v>
+      </c>
+      <c r="D59" s="21">
+        <v>0</v>
+      </c>
+      <c r="E59" s="22">
+        <v>0</v>
+      </c>
+      <c r="F59" s="22">
+        <v>0</v>
+      </c>
+      <c r="G59" s="22">
+        <v>0</v>
+      </c>
+      <c r="H59" s="22">
+        <v>325.39311049113576</v>
+      </c>
+      <c r="I59" s="22">
+        <v>500.21251916564194</v>
+      </c>
+      <c r="J59" s="22">
+        <v>174.81940867450618</v>
+      </c>
+      <c r="K59" s="21">
+        <v>500.21251916564194</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A60" s="15">
+        <v>44530</v>
+      </c>
+      <c r="B60" s="25">
+        <v>1.23373</v>
+      </c>
+      <c r="C60" s="20">
+        <v>1.0241169103568308</v>
+      </c>
+      <c r="D60" s="21">
+        <v>0</v>
+      </c>
+      <c r="E60" s="22">
+        <v>0</v>
+      </c>
+      <c r="F60" s="22">
+        <v>0</v>
+      </c>
+      <c r="G60" s="22">
+        <v>0</v>
+      </c>
+      <c r="H60" s="22">
+        <v>325.39311049113576</v>
+      </c>
+      <c r="I60" s="22">
+        <v>500.21251916564194</v>
+      </c>
+      <c r="J60" s="22">
+        <v>174.81940867450618</v>
+      </c>
+      <c r="K60" s="21">
+        <v>500.21251916564194</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A61" s="15">
+        <v>44561</v>
+      </c>
+      <c r="B61" s="25">
+        <v>1.2554100000000001</v>
+      </c>
+      <c r="C61" s="20">
+        <v>1.0284987286689407</v>
+      </c>
+      <c r="D61" s="21">
+        <v>0</v>
+      </c>
+      <c r="E61" s="22">
+        <v>0</v>
+      </c>
+      <c r="F61" s="22">
+        <v>0</v>
+      </c>
+      <c r="G61" s="22">
+        <v>0</v>
+      </c>
+      <c r="H61" s="22">
+        <v>325.39311049113576</v>
+      </c>
+      <c r="I61" s="22">
+        <v>500.21251916564194</v>
+      </c>
+      <c r="J61" s="22">
+        <v>174.81940867450618</v>
+      </c>
+      <c r="K61" s="21">
+        <v>500.21251916564194</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A62" s="15">
+        <v>44589</v>
+      </c>
+      <c r="B62" s="25">
+        <v>1.11076</v>
+      </c>
+      <c r="C62" s="20">
+        <v>1.0313231318219969</v>
+      </c>
+      <c r="D62" s="21">
+        <v>0</v>
+      </c>
+      <c r="E62" s="22">
+        <v>0</v>
+      </c>
+      <c r="F62" s="22">
+        <v>0</v>
+      </c>
+      <c r="G62" s="22">
+        <v>0</v>
+      </c>
+      <c r="H62" s="22">
+        <v>325.39311049113576</v>
+      </c>
+      <c r="I62" s="22">
+        <v>500.21251916564194</v>
+      </c>
+      <c r="J62" s="22">
+        <v>174.81940867450618</v>
+      </c>
+      <c r="K62" s="21">
+        <v>500.21251916564194</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A63" s="15">
+        <v>44620</v>
+      </c>
+      <c r="B63" s="25">
+        <v>1.15177</v>
+      </c>
+      <c r="C63" s="20">
+        <v>1.0328605716652843</v>
+      </c>
+      <c r="D63" s="21">
+        <v>0</v>
+      </c>
+      <c r="E63" s="22">
+        <v>0</v>
+      </c>
+      <c r="F63" s="22">
+        <v>0</v>
+      </c>
+      <c r="G63" s="22">
+        <v>0</v>
+      </c>
+      <c r="H63" s="22">
+        <v>325.39311049113576</v>
+      </c>
+      <c r="I63" s="22">
+        <v>500.21251916564194</v>
+      </c>
+      <c r="J63" s="22">
+        <v>174.81940867450618</v>
+      </c>
+      <c r="K63" s="21">
+        <v>500.21251916564194</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A64" s="15">
+        <v>44651</v>
+      </c>
+      <c r="B64" s="25">
+        <v>1.0468499999999998</v>
+      </c>
+      <c r="C64" s="20">
+        <v>1.0336782682926817</v>
+      </c>
+      <c r="D64" s="21">
+        <v>0</v>
+      </c>
+      <c r="E64" s="22">
+        <v>0</v>
+      </c>
+      <c r="F64" s="22">
+        <v>0</v>
+      </c>
+      <c r="G64" s="22">
+        <v>0</v>
+      </c>
+      <c r="H64" s="22">
+        <v>325.39311049113576</v>
+      </c>
+      <c r="I64" s="22">
+        <v>500.21251916564194</v>
+      </c>
+      <c r="J64" s="22">
+        <v>174.81940867450618</v>
+      </c>
+      <c r="K64" s="21">
+        <v>500.21251916564194</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A65" s="15">
+        <v>44680</v>
+      </c>
+      <c r="B65" s="25">
+        <v>0.83169999999999999</v>
+      </c>
+      <c r="C65" s="20">
+        <v>1.0320684787830248</v>
+      </c>
+      <c r="D65" s="21">
+        <v>62.228667299226338</v>
+      </c>
+      <c r="E65" s="22">
+        <v>74.821050017105136</v>
+      </c>
+      <c r="F65" s="22">
+        <v>74.821050017105136</v>
+      </c>
+      <c r="G65" s="22">
+        <v>62.228667299226345</v>
+      </c>
+      <c r="H65" s="22">
+        <v>387.6217777903621</v>
+      </c>
+      <c r="I65" s="22">
+        <v>562.44118646486822</v>
+      </c>
+      <c r="J65" s="22">
+        <v>174.81940867450612</v>
+      </c>
+      <c r="K65" s="21">
+        <v>500.21251916564194</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A66" s="15">
+        <v>44712</v>
+      </c>
+      <c r="B66" s="25">
+        <v>0.90644000000000002</v>
+      </c>
+      <c r="C66" s="20">
+        <v>1.0297221608832787</v>
+      </c>
+      <c r="D66" s="21">
+        <v>23.557661347678451</v>
+      </c>
+      <c r="E66" s="22">
+        <v>25.989212024710351</v>
+      </c>
+      <c r="F66" s="22">
+        <v>100.81026204181549</v>
+      </c>
+      <c r="G66" s="22">
+        <v>91.378453925183237</v>
+      </c>
+      <c r="H66" s="22">
+        <v>411.17943913804055</v>
+      </c>
+      <c r="I66" s="22">
+        <v>591.59097309082517</v>
+      </c>
+      <c r="J66" s="22">
+        <v>180.41153395278462</v>
+      </c>
+      <c r="K66" s="21">
+        <v>500.21251916564194</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A67" s="15">
+        <v>44742</v>
+      </c>
+      <c r="B67" s="25">
+        <v>0.99066999999999994</v>
+      </c>
+      <c r="C67" s="20">
+        <v>1.0283833281613628</v>
+      </c>
+      <c r="D67" s="21">
+        <v>2.2045574375602994</v>
+      </c>
+      <c r="E67" s="22">
+        <v>2.225319670082166</v>
+      </c>
+      <c r="F67" s="22">
+        <v>103.03558171189766</v>
+      </c>
+      <c r="G67" s="22">
+        <v>102.07425973452565</v>
+      </c>
+      <c r="H67" s="22">
+        <v>413.38399657560086</v>
+      </c>
+      <c r="I67" s="22">
+        <v>602.28677890016763</v>
+      </c>
+      <c r="J67" s="22">
+        <v>188.90278232456677</v>
+      </c>
+      <c r="K67" s="21">
+        <v>500.21251916564194</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A68" s="15">
+        <v>44771</v>
+      </c>
+      <c r="B68" s="25">
+        <v>1.01267</v>
+      </c>
+      <c r="C68" s="20">
+        <v>1.027569496183204</v>
+      </c>
+      <c r="D68" s="21">
+        <v>0.34409222909563486</v>
+      </c>
+      <c r="E68" s="22">
+        <v>0.33978712620659729</v>
+      </c>
+      <c r="F68" s="22">
+        <v>103.37536883810427</v>
+      </c>
+      <c r="G68" s="22">
+        <v>104.68513476128304</v>
+      </c>
+      <c r="H68" s="22">
+        <v>413.72808880469648</v>
+      </c>
+      <c r="I68" s="22">
+        <v>604.89765392692493</v>
+      </c>
+      <c r="J68" s="22">
+        <v>191.16956512222845</v>
+      </c>
+      <c r="K68" s="21">
+        <v>500.21251916564194</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A69" s="15">
+        <v>44804</v>
+      </c>
+      <c r="B69" s="25">
+        <v>0.95750000000000002</v>
+      </c>
+      <c r="C69" s="20">
+        <v>1.027452408102024</v>
+      </c>
+      <c r="D69" s="21">
+        <v>7.5846760688717678</v>
+      </c>
+      <c r="E69" s="22">
+        <v>7.9213327090044574</v>
+      </c>
+      <c r="F69" s="22">
+        <v>111.29670154710873</v>
+      </c>
+      <c r="G69" s="22">
+        <v>106.56659173135661</v>
+      </c>
+      <c r="H69" s="22">
+        <v>421.31276487356826</v>
+      </c>
+      <c r="I69" s="22">
+        <v>606.77911089699853</v>
+      </c>
+      <c r="J69" s="22">
+        <v>185.46634602343028</v>
+      </c>
+      <c r="K69" s="21">
+        <v>500.21251916564194</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A70" s="15">
+        <v>44834</v>
+      </c>
+      <c r="B70" s="25">
+        <v>0.85887999999999998</v>
+      </c>
+      <c r="C70" s="20">
+        <v>1.0259159970457883</v>
+      </c>
+      <c r="D70" s="21">
+        <v>43.246587679074935</v>
+      </c>
+      <c r="E70" s="22">
+        <v>50.352304954213551</v>
+      </c>
+      <c r="F70" s="22">
+        <v>161.64900650132228</v>
+      </c>
+      <c r="G70" s="22">
+        <v>138.83709870385567</v>
+      </c>
+      <c r="H70" s="22">
+        <v>464.55935255264319</v>
+      </c>
+      <c r="I70" s="22">
+        <v>639.04961786949764</v>
+      </c>
+      <c r="J70" s="22">
+        <v>174.49026531685445</v>
+      </c>
+      <c r="K70" s="21">
+        <v>500.21251916564194</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A71" s="15">
+        <v>44865</v>
+      </c>
+      <c r="B71" s="25">
+        <v>0.96957000000000004</v>
+      </c>
+      <c r="C71" s="20">
+        <v>1.0247332043795603</v>
+      </c>
+      <c r="D71" s="21">
+        <v>4.716617632002758</v>
+      </c>
+      <c r="E71" s="22">
+        <v>4.8646488979679212</v>
+      </c>
+      <c r="F71" s="22">
+        <v>166.5136553992902</v>
+      </c>
+      <c r="G71" s="22">
+        <v>161.44664486548982</v>
+      </c>
+      <c r="H71" s="22">
+        <v>469.27597018464593</v>
+      </c>
+      <c r="I71" s="22">
+        <v>661.6591640311317</v>
+      </c>
+      <c r="J71" s="22">
+        <v>192.38319384648577</v>
+      </c>
+      <c r="K71" s="21">
+        <v>500.21251916564194</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A72" s="15">
+        <v>44895</v>
+      </c>
+      <c r="B72" s="25">
+        <v>0.99405999999999994</v>
+      </c>
+      <c r="C72" s="20">
+        <v>1.0244747054597683</v>
+      </c>
+      <c r="D72" s="21">
+        <v>1.4338341777169143</v>
+      </c>
+      <c r="E72" s="22">
+        <v>1.4424020458693785</v>
+      </c>
+      <c r="F72" s="22">
+        <v>167.95605744515959</v>
+      </c>
+      <c r="G72" s="22">
+        <v>166.95839846393534</v>
+      </c>
+      <c r="H72" s="22">
+        <v>470.70980436236283</v>
+      </c>
+      <c r="I72" s="22">
+        <v>667.17091762957727</v>
+      </c>
+      <c r="J72" s="22">
+        <v>196.46111326721444</v>
+      </c>
+      <c r="K72" s="21">
+        <v>500.21251916564194</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A73" s="15">
+        <v>44925</v>
+      </c>
+      <c r="B73" s="25">
+        <v>0.95635000000000003</v>
+      </c>
+      <c r="C73" s="20">
+        <v>1.0239392715700129</v>
+      </c>
+      <c r="D73" s="21">
+        <v>7.0808799286156621</v>
+      </c>
+      <c r="E73" s="22">
+        <v>7.4040674738491781</v>
+      </c>
+      <c r="F73" s="22">
+        <v>175.36012491900877</v>
+      </c>
+      <c r="G73" s="22">
+        <v>167.70565546629405</v>
+      </c>
+      <c r="H73" s="22">
+        <v>477.7906842909785</v>
+      </c>
+      <c r="I73" s="22">
+        <v>667.91817463193593</v>
+      </c>
+      <c r="J73" s="22">
+        <v>190.12749034095742</v>
+      </c>
+      <c r="K73" s="21">
+        <v>500.21251916564194</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A74" s="15">
+        <v>44957</v>
+      </c>
+      <c r="B74" s="25">
+        <v>1.08087</v>
+      </c>
+      <c r="C74" s="20">
+        <v>1.0238983146853136</v>
+      </c>
+      <c r="D74" s="21">
+        <v>-5.0309480377732703</v>
+      </c>
+      <c r="E74" s="22">
+        <v>-4.6545357330421515</v>
+      </c>
+      <c r="F74" s="22">
+        <v>170.70558918596663</v>
+      </c>
+      <c r="G74" s="22">
+        <v>184.51055018343575</v>
+      </c>
+      <c r="H74" s="22">
+        <v>477.7906842909785</v>
+      </c>
+      <c r="I74" s="22">
+        <v>689.75401738685093</v>
+      </c>
+      <c r="J74" s="22">
+        <v>211.96333309587243</v>
+      </c>
+      <c r="K74" s="21">
+        <v>505.24346720341521</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A75" s="15">
+        <v>44985</v>
+      </c>
+      <c r="B75" s="25">
+        <v>1.16859</v>
+      </c>
+      <c r="C75" s="20">
+        <v>1.0258963172413778</v>
+      </c>
+      <c r="D75" s="21">
+        <v>-31.560305003788415</v>
+      </c>
+      <c r="E75" s="22">
+        <v>-27.007166759760405</v>
+      </c>
+      <c r="F75" s="22">
+        <v>143.69842242620624</v>
+      </c>
+      <c r="G75" s="22">
+        <v>167.92453946304036</v>
+      </c>
+      <c r="H75" s="22">
+        <v>477.7906842909785</v>
+      </c>
+      <c r="I75" s="22">
+        <v>704.7283116702439</v>
+      </c>
+      <c r="J75" s="22">
+        <v>226.93762737926539</v>
+      </c>
+      <c r="K75" s="21">
+        <v>536.80377220720356</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A76" s="15">
+        <v>45016</v>
+      </c>
+      <c r="B76" s="25">
+        <v>1.2989900000000001</v>
+      </c>
+      <c r="C76" s="20">
+        <v>1.0290512016293265</v>
+      </c>
+      <c r="D76" s="21">
+        <v>-112.9437800419949</v>
+      </c>
+      <c r="E76" s="22">
+        <v>-86.947382229266495</v>
+      </c>
+      <c r="F76" s="22">
+        <v>56.751040196939741</v>
+      </c>
+      <c r="G76" s="22">
+        <v>73.71903370542276</v>
+      </c>
+      <c r="H76" s="22">
+        <v>477.7906842909785</v>
+      </c>
+      <c r="I76" s="22">
+        <v>723.46658595462122</v>
+      </c>
+      <c r="J76" s="22">
+        <v>245.67590166364272</v>
+      </c>
+      <c r="K76" s="21">
+        <v>649.74755224919841</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A77" s="15">
+        <v>45044</v>
+      </c>
+      <c r="B77" s="25">
+        <v>1.22841</v>
+      </c>
+      <c r="C77" s="20">
+        <v>1.0323362533512053</v>
+      </c>
+      <c r="D77" s="21">
+        <v>-59.589616893588399</v>
+      </c>
+      <c r="E77" s="22">
+        <v>-48.509550470598903</v>
+      </c>
+      <c r="F77" s="22">
+        <v>8.2414897263408378</v>
+      </c>
+      <c r="G77" s="22">
+        <v>10.123928394734348</v>
+      </c>
+      <c r="H77" s="22">
+        <v>477.7906842909785</v>
+      </c>
+      <c r="I77" s="22">
+        <v>719.46109753752114</v>
+      </c>
+      <c r="J77" s="22">
+        <v>241.67041324654264</v>
+      </c>
+      <c r="K77" s="21">
+        <v>709.33716914278682</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="12.75">
+      <c r="A78" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B78" s="25">
+        <v>1.2987200000000001</v>
+      </c>
+      <c r="C78" s="20">
+        <v>1.035146144179893</v>
+      </c>
+      <c r="D78" s="21">
+        <v>-10.703387537393374</v>
+      </c>
+      <c r="E78" s="22">
+        <v>-8.2414897263408378</v>
+      </c>
+      <c r="F78" s="22">
+        <v>0</v>
+      </c>
+      <c r="G78" s="22">
+        <v>0</v>
+      </c>
+      <c r="H78" s="22">
+        <v>477.7906842909785</v>
+      </c>
+      <c r="I78" s="22">
+        <v>720.0405566801802</v>
+      </c>
+      <c r="J78" s="22">
+        <v>242.2498723892017</v>
+      </c>
+      <c r="K78" s="21">
+        <v>720.0405566801802</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="12.75">
+      <c r="A79" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B79" s="25">
+        <v>1.32033</v>
+      </c>
+      <c r="C79" s="20">
+        <v>1.0390798825065262</v>
+      </c>
+      <c r="D79" s="21">
+        <v>0</v>
+      </c>
+      <c r="E79" s="22">
+        <v>0</v>
+      </c>
+      <c r="F79" s="22">
+        <v>0</v>
+      </c>
+      <c r="G79" s="22">
+        <v>0</v>
+      </c>
+      <c r="H79" s="22">
+        <v>477.7906842909785</v>
+      </c>
+      <c r="I79" s="22">
+        <v>720.0405566801802</v>
+      </c>
+      <c r="J79" s="22">
+        <v>242.2498723892017</v>
+      </c>
+      <c r="K79" s="21">
+        <v>720.0405566801802</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="12.75">
+      <c r="A80" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B80" s="25">
+        <v>1.25888</v>
+      </c>
+      <c r="C80" s="20">
+        <v>1.0424057115260772</v>
+      </c>
+      <c r="D80" s="21">
+        <v>0</v>
+      </c>
+      <c r="E80" s="22">
+        <v>0</v>
+      </c>
+      <c r="F80" s="22">
+        <v>0</v>
+      </c>
+      <c r="G80" s="22">
+        <v>0</v>
+      </c>
+      <c r="H80" s="22">
+        <v>477.7906842909785</v>
+      </c>
+      <c r="I80" s="22">
+        <v>720.0405566801802</v>
+      </c>
+      <c r="J80" s="22">
+        <v>242.2498723892017</v>
+      </c>
+      <c r="K80" s="21">
+        <v>720.0405566801802</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="12.75">
+      <c r="A81" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B81" s="25">
+        <v>1.25305</v>
+      </c>
+      <c r="C81" s="20">
+        <v>1.0452700190355317</v>
+      </c>
+      <c r="D81" s="21">
+        <v>0</v>
+      </c>
+      <c r="E81" s="22">
+        <v>0</v>
+      </c>
+      <c r="F81" s="22">
+        <v>0</v>
+      </c>
+      <c r="G81" s="22">
+        <v>0</v>
+      </c>
+      <c r="H81" s="22">
+        <v>477.7906842909785</v>
+      </c>
+      <c r="I81" s="22">
+        <v>720.0405566801802</v>
+      </c>
+      <c r="J81" s="22">
+        <v>242.2498723892017</v>
+      </c>
+      <c r="K81" s="21">
+        <v>720.0405566801802</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="12.75">
+      <c r="A82" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B82" s="25">
+        <v>1.2315999999999998</v>
+      </c>
+      <c r="C82" s="20">
+        <v>1.0475409711779438</v>
+      </c>
+      <c r="D82" s="21">
+        <v>0</v>
+      </c>
+      <c r="E82" s="22">
+        <v>0</v>
+      </c>
+      <c r="F82" s="22">
+        <v>0</v>
+      </c>
+      <c r="G82" s="22">
+        <v>0</v>
+      </c>
+      <c r="H82" s="22">
+        <v>477.7906842909785</v>
+      </c>
+      <c r="I82" s="22">
+        <v>720.0405566801802</v>
+      </c>
+      <c r="J82" s="22">
+        <v>242.2498723892017</v>
+      </c>
+      <c r="K82" s="21">
+        <v>720.0405566801802</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="12.75">
+      <c r="A83" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B83" s="25">
+        <v>1.2139500000000001</v>
+      </c>
+      <c r="C83" s="20">
+        <v>1.0492853130812139</v>
+      </c>
+      <c r="D83" s="21">
+        <v>0</v>
+      </c>
+      <c r="E83" s="22">
+        <v>0</v>
+      </c>
+      <c r="F83" s="22">
+        <v>0</v>
+      </c>
+      <c r="G83" s="22">
+        <v>0</v>
+      </c>
+      <c r="H83" s="22">
+        <v>477.7906842909785</v>
+      </c>
+      <c r="I83" s="22">
+        <v>720.0405566801802</v>
+      </c>
+      <c r="J83" s="22">
+        <v>242.2498723892017</v>
+      </c>
+      <c r="K83" s="21">
+        <v>720.0405566801802</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="12.75">
+      <c r="A84" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B84" s="25">
+        <v>1.2765299999999999</v>
+      </c>
+      <c r="C84" s="20">
+        <v>1.0525251376146776</v>
+      </c>
+      <c r="D84" s="21">
+        <v>0</v>
+      </c>
+      <c r="E84" s="22">
+        <v>0</v>
+      </c>
+      <c r="F84" s="22">
+        <v>0</v>
+      </c>
+      <c r="G84" s="22">
+        <v>0</v>
+      </c>
+      <c r="H84" s="22">
+        <v>477.7906842909785</v>
+      </c>
+      <c r="I84" s="22">
+        <v>720.0405566801802</v>
+      </c>
+      <c r="J84" s="22">
+        <v>242.2498723892017</v>
+      </c>
+      <c r="K84" s="21">
+        <v>720.0405566801802</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="12.75">
+      <c r="A85" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B85" s="25">
+        <v>1.2663900000000001</v>
+      </c>
+      <c r="C85" s="20">
+        <v>1.0554007487922688</v>
+      </c>
+      <c r="D85" s="21">
+        <v>0</v>
+      </c>
+      <c r="E85" s="22">
+        <v>0</v>
+      </c>
+      <c r="F85" s="22">
+        <v>0</v>
+      </c>
+      <c r="G85" s="22">
+        <v>0</v>
+      </c>
+      <c r="H85" s="22">
+        <v>477.7906842909785</v>
+      </c>
+      <c r="I85" s="22">
+        <v>720.0405566801802</v>
+      </c>
+      <c r="J85" s="22">
+        <v>242.2498723892017</v>
+      </c>
+      <c r="K85" s="21">
+        <v>720.0405566801802</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="12.75">
+      <c r="A86" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B86" s="25">
+        <v>0.96689999999999998</v>
+      </c>
+      <c r="C86" s="20">
+        <v>1.0565099225268164</v>
+      </c>
+      <c r="D86" s="21">
+        <v>12.446404233656166</v>
+      </c>
+      <c r="E86" s="22">
+        <v>12.872483435366807</v>
+      </c>
+      <c r="F86" s="22">
+        <v>12.872483435366807</v>
+      </c>
+      <c r="G86" s="22">
+        <v>12.446404233656166</v>
+      </c>
+      <c r="H86" s="22">
+        <v>490.23708852463466</v>
+      </c>
+      <c r="I86" s="22">
+        <v>732.48696091383636</v>
+      </c>
+      <c r="J86" s="22">
+        <v>242.2498723892017</v>
+      </c>
+      <c r="K86" s="21">
+        <v>720.0405566801802</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="12.75">
+      <c r="A87" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B87" s="25">
+        <v>1.0978699999999999</v>
+      </c>
+      <c r="C87" s="20">
+        <v>1.0558294743059644</v>
+      </c>
+      <c r="D87" s="21">
+        <v>-2.7394789909778305</v>
+      </c>
+      <c r="E87" s="22">
+        <v>-2.4952671909951367</v>
+      </c>
+      <c r="F87" s="22">
+        <v>10.37721624437167</v>
+      </c>
+      <c r="G87" s="22">
+        <v>11.392834398208324</v>
+      </c>
+      <c r="H87" s="22">
+        <v>490.23708852463466</v>
+      </c>
+      <c r="I87" s="22">
+        <v>734.17287006936647</v>
+      </c>
+      <c r="J87" s="22">
+        <v>243.93578154473181</v>
+      </c>
+      <c r="K87" s="21">
+        <v>722.78003567115809</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="12.75">
+      <c r="A88" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B88" s="25">
+        <v>1.1385699999999999</v>
+      </c>
+      <c r="C88" s="20">
+        <v>1.0570255600933478</v>
+      </c>
+      <c r="D88" s="21">
+        <v>-10.306718303518862</v>
+      </c>
+      <c r="E88" s="22">
+        <v>-9.0523360913416511</v>
+      </c>
+      <c r="F88" s="22">
+        <v>1.3248801530300192</v>
+      </c>
+      <c r="G88" s="22">
+        <v>1.5084687958353886</v>
+      </c>
+      <c r="H88" s="22">
+        <v>490.23708852463466</v>
+      </c>
+      <c r="I88" s="22">
+        <v>734.59522277051235</v>
+      </c>
+      <c r="J88" s="22">
+        <v>244.35813424587769</v>
+      </c>
+      <c r="K88" s="21">
+        <v>733.08675397467698</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="12.75">
+      <c r="A89" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B89" s="25">
+        <v>1.08613</v>
+      </c>
+      <c r="C89" s="20">
+        <v>1.0569674567474039</v>
+      </c>
+      <c r="D89" s="21">
+        <v>-1.318203589887289</v>
+      </c>
+      <c r="E89" s="22">
+        <v>-1.2136701774992764</v>
+      </c>
+      <c r="F89" s="22">
+        <v>0.11120997553074274</v>
+      </c>
+      <c r="G89" s="22">
+        <v>0.12078849072320562</v>
+      </c>
+      <c r="H89" s="22">
+        <v>490.23708852463466</v>
+      </c>
+      <c r="I89" s="22">
+        <v>734.52574605528741</v>
+      </c>
+      <c r="J89" s="22">
+        <v>244.28865753065276</v>
+      </c>
+      <c r="K89" s="21">
+        <v>734.40495756456426</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="12.75">
+      <c r="A90" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B90" s="25">
+        <v>1.0215700000000001</v>
+      </c>
+      <c r="C90" s="20">
+        <v>1.0568461345496005</v>
+      </c>
+      <c r="D90" s="21">
+        <v>1.928828786580346</v>
+      </c>
+      <c r="E90" s="22">
+        <v>1.888102417436246</v>
+      </c>
+      <c r="F90" s="22">
+        <v>1.9993123929669887</v>
+      </c>
+      <c r="G90" s="22">
+        <v>2.042437561283287</v>
+      </c>
+      <c r="H90" s="22">
+        <v>492.16591731121503</v>
+      </c>
+      <c r="I90" s="22">
+        <v>736.44739512584749</v>
+      </c>
+      <c r="J90" s="22">
+        <v>244.28147781463247</v>
+      </c>
+      <c r="K90" s="21">
+        <v>734.40495756456426</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="12.75">
+      <c r="A91" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B91" s="25">
+        <v>0.95643</v>
+      </c>
+      <c r="C91" s="20">
+        <v>1.0559395713479971</v>
+      </c>
+      <c r="D91" s="21">
+        <v>15.348339924286291</v>
+      </c>
+      <c r="E91" s="22">
+        <v>16.047530843121077</v>
+      </c>
+      <c r="F91" s="22">
+        <v>18.046843236088066</v>
+      </c>
+      <c r="G91" s="22">
+        <v>17.260542276291709</v>
+      </c>
+      <c r="H91" s="22">
+        <v>507.5142572355013</v>
+      </c>
+      <c r="I91" s="22">
+        <v>751.665499840856</v>
+      </c>
+      <c r="J91" s="22">
+        <v>244.1512426053547</v>
+      </c>
+      <c r="K91" s="21">
+        <v>734.40495756456426</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="12.75">
+      <c r="A92" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B92" s="25">
+        <v>0.97935000000000005</v>
+      </c>
+      <c r="C92" s="20">
+        <v>1.0544190645879727</v>
+      </c>
+      <c r="D92" s="21">
+        <v>8.7348149100754835</v>
+      </c>
+      <c r="E92" s="22">
+        <v>8.9189920968759715</v>
+      </c>
+      <c r="F92" s="22">
+        <v>26.965835332964037</v>
+      </c>
+      <c r="G92" s="22">
+        <v>26.408990833338333</v>
+      </c>
+      <c r="H92" s="22">
+        <v>516.24907214557675</v>
+      </c>
+      <c r="I92" s="22">
+        <v>760.81394839790255</v>
+      </c>
+      <c r="J92" s="22">
+        <v>244.5648762523258</v>
+      </c>
+      <c r="K92" s="21">
+        <v>734.40495756456426</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="12.75">
+      <c r="A93" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B93" s="25">
+        <v>0.93902999999999992</v>
+      </c>
+      <c r="C93" s="20">
+        <v>1.0528800330033004</v>
+      </c>
+      <c r="D93" s="21">
+        <v>20.090836523021526</v>
+      </c>
+      <c r="E93" s="22">
+        <v>21.395308481115116</v>
+      </c>
+      <c r="F93" s="22">
+        <v>48.361143814079156</v>
+      </c>
+      <c r="G93" s="22">
+        <v>45.412564875734745</v>
+      </c>
+      <c r="H93" s="22">
+        <v>536.33990866859824</v>
+      </c>
+      <c r="I93" s="22">
+        <v>779.81752244029894</v>
+      </c>
+      <c r="J93" s="22">
+        <v>243.4776137717007</v>
+      </c>
+      <c r="K93" s="21">
+        <v>734.40495756456426</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="12.75">
+      <c r="A94" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B94" s="25">
+        <v>1.2181600000000001</v>
+      </c>
+      <c r="C94" s="20">
+        <v>1.0519209798584648</v>
+      </c>
+      <c r="D94" s="21">
+        <v>-42.834888317307588</v>
+      </c>
+      <c r="E94" s="22">
+        <v>-35.163597817452207</v>
+      </c>
+      <c r="F94" s="22">
+        <v>13.19754599662695</v>
+      </c>
+      <c r="G94" s="22">
+        <v>16.076722631251087</v>
+      </c>
+      <c r="H94" s="22">
+        <v>536.33990866859824</v>
+      </c>
+      <c r="I94" s="22">
+        <v>793.31656851312289</v>
+      </c>
+      <c r="J94" s="22">
+        <v>256.97665984452465</v>
+      </c>
+      <c r="K94" s="21">
+        <v>777.23984588187182</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="12.75">
+      <c r="A95" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B95" s="25">
+        <v>1.3863099999999999</v>
+      </c>
+      <c r="C95" s="20">
+        <v>1.0544077963362068</v>
+      </c>
+      <c r="D95" s="21">
+        <v>-18.295889990583905</v>
+      </c>
+      <c r="E95" s="22">
+        <v>-13.19754599662695</v>
+      </c>
+      <c r="F95" s="22">
+        <v>0</v>
+      </c>
+      <c r="G95" s="22">
+        <v>0</v>
+      </c>
+      <c r="H95" s="22">
+        <v>536.33990866859824</v>
+      </c>
+      <c r="I95" s="22">
+        <v>795.53573587245569</v>
+      </c>
+      <c r="J95" s="22">
+        <v>259.19582720385745</v>
+      </c>
+      <c r="K95" s="21">
+        <v>795.53573587245569</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="12.75">
+      <c r="A96" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B96" s="25">
+        <v>1.46269</v>
+      </c>
+      <c r="C96" s="20">
+        <v>1.0582540618336882</v>
+      </c>
+      <c r="D96" s="21">
+        <v>0</v>
+      </c>
+      <c r="E96" s="22">
+        <v>0</v>
+      </c>
+      <c r="F96" s="22">
+        <v>0</v>
+      </c>
+      <c r="G96" s="22">
+        <v>0</v>
+      </c>
+      <c r="H96" s="22">
+        <v>536.33990866859824</v>
+      </c>
+      <c r="I96" s="22">
+        <v>795.53573587245569</v>
+      </c>
+      <c r="J96" s="22">
+        <v>259.19582720385745</v>
+      </c>
+      <c r="K96" s="21">
+        <v>795.53573587245569</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:AF84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6902,7 +10919,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>7</v>
@@ -6952,3946 +10969,18 @@
         <v>1550</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>-109.96867428250766</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="5"/>
       <c r="L3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="8"/>
-    </row>
-    <row r="4" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A4" s="15">
-        <v>42825</v>
-      </c>
-      <c r="B4" s="25">
-        <v>0.97609000000000001</v>
-      </c>
-      <c r="C4" s="20">
-        <v>0.99386428571428564</v>
-      </c>
-      <c r="D4" s="21">
-        <v>0.48968411061224032</v>
-      </c>
-      <c r="E4" s="22">
-        <v>0.50167926176094446</v>
-      </c>
-      <c r="F4" s="22">
-        <v>0.50167926176094446</v>
-      </c>
-      <c r="G4" s="22">
-        <v>0.48968411061224026</v>
-      </c>
-      <c r="H4" s="22">
-        <v>0.48968411061224032</v>
-      </c>
-      <c r="I4" s="22">
-        <v>0.48968411061224026</v>
-      </c>
-      <c r="J4" s="22">
-        <v>0</v>
-      </c>
-      <c r="K4" s="21">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7"/>
-      <c r="O4" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="T4" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="U4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="V4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="X4" s="6">
-        <v>43098</v>
-      </c>
-      <c r="Y4" s="7">
-        <f>VLOOKUP(X4,O:P,2,)</f>
-        <v>18.350992705669857</v>
-      </c>
-      <c r="Z4" s="7">
-        <f t="shared" ref="Z4:Z5" si="0">0-Y4</f>
-        <v>-18.350992705669857</v>
-      </c>
-      <c r="AA4" s="6">
-        <v>43098</v>
-      </c>
-      <c r="AB4" s="1">
-        <f>VLOOKUP(AA4,O:P,2,)</f>
-        <v>18.350992705669857</v>
-      </c>
-      <c r="AC4" s="1">
-        <f t="shared" ref="AC4" si="1">0-AB4</f>
-        <v>-18.350992705669857</v>
-      </c>
-      <c r="AD4" s="6">
-        <v>43098</v>
-      </c>
-      <c r="AE4" s="7">
-        <f>VLOOKUP(AD4,O:P,2,)</f>
-        <v>18.350992705669857</v>
-      </c>
-      <c r="AF4" s="7">
-        <f t="shared" ref="AF4" si="2">0-AE4</f>
-        <v>-18.350992705669857</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A5" s="15">
-        <v>42853</v>
-      </c>
-      <c r="B5" s="25">
-        <v>0.88445000000000007</v>
-      </c>
-      <c r="C5" s="20">
-        <v>0.95655781250000005</v>
-      </c>
-      <c r="D5" s="21">
-        <v>8.0592817664794882</v>
-      </c>
-      <c r="E5" s="22">
-        <v>9.112196016145047</v>
-      </c>
-      <c r="F5" s="22">
-        <v>9.6138752779059917</v>
-      </c>
-      <c r="G5" s="22">
-        <v>8.5029919895439559</v>
-      </c>
-      <c r="H5" s="22">
-        <v>8.5489658770917281</v>
-      </c>
-      <c r="I5" s="22">
-        <v>8.5029919895439559</v>
-      </c>
-      <c r="J5" s="22">
-        <v>-4.5973887547772208E-2</v>
-      </c>
-      <c r="K5" s="21">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7"/>
-      <c r="O5" s="6">
-        <v>43098</v>
-      </c>
-      <c r="P5" s="10">
-        <v>18.350992705669857</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>18.350992705669857</v>
-      </c>
-      <c r="R5" s="5">
-        <v>20.013489454489903</v>
-      </c>
-      <c r="S5" s="5">
-        <v>1.6624967488200468</v>
-      </c>
-      <c r="T5" s="5">
-        <v>12.856156424569493</v>
-      </c>
-      <c r="U5" s="9">
-        <v>9.0594376853868494E-2</v>
-      </c>
-      <c r="V5" s="9">
-        <v>9.0594376853868494E-2</v>
-      </c>
-      <c r="X5" s="6">
-        <v>43462</v>
-      </c>
-      <c r="Y5" s="7">
-        <f>VLOOKUP(X5,O:P,2,)</f>
-        <v>255.17901000780921</v>
-      </c>
-      <c r="Z5" s="7">
-        <f t="shared" si="0"/>
-        <v>-255.17901000780921</v>
-      </c>
-      <c r="AA5" s="6">
-        <v>43462</v>
-      </c>
-      <c r="AB5" s="1">
-        <f>VLOOKUP(AA5,O:P,2,)</f>
-        <v>255.17901000780921</v>
-      </c>
-      <c r="AC5" s="1">
-        <f t="shared" ref="AC5:AC6" si="3">0-AB5</f>
-        <v>-255.17901000780921</v>
-      </c>
-      <c r="AD5" s="6">
-        <v>43462</v>
-      </c>
-      <c r="AE5" s="7">
-        <f>VLOOKUP(AD5,O:P,2,)</f>
-        <v>255.17901000780921</v>
-      </c>
-      <c r="AF5" s="7">
-        <f t="shared" ref="AF5:AF7" si="4">0-AE5</f>
-        <v>-255.17901000780921</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A6" s="15">
-        <v>42886</v>
-      </c>
-      <c r="B6" s="25">
-        <v>0.84275</v>
-      </c>
-      <c r="C6" s="20">
-        <v>0.91796173076923115</v>
-      </c>
-      <c r="D6" s="21">
-        <v>8.7680468902201341</v>
-      </c>
-      <c r="E6" s="22">
-        <v>10.404090050691348</v>
-      </c>
-      <c r="F6" s="22">
-        <v>20.017965328597342</v>
-      </c>
-      <c r="G6" s="22">
-        <v>16.870140280675411</v>
-      </c>
-      <c r="H6" s="22">
-        <v>17.317012767311862</v>
-      </c>
-      <c r="I6" s="22">
-        <v>16.870140280675411</v>
-      </c>
-      <c r="J6" s="22">
-        <v>-0.44687248663645107</v>
-      </c>
-      <c r="K6" s="21">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7"/>
-      <c r="O6" s="6">
-        <v>43462</v>
-      </c>
-      <c r="P6" s="10">
-        <v>255.17901000780921</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>273.53000271347906</v>
-      </c>
-      <c r="R6" s="5">
-        <v>256.81815366368033</v>
-      </c>
-      <c r="S6" s="5">
-        <v>-16.71184904979873</v>
-      </c>
-      <c r="T6" s="5">
-        <v>14.977026913543675</v>
-      </c>
-      <c r="U6" s="9">
-        <v>-6.1096950550262985E-2</v>
-      </c>
-      <c r="V6" s="9">
-        <v>-5.7463297893912024E-2</v>
-      </c>
-      <c r="X6" s="6">
-        <v>43462</v>
-      </c>
-      <c r="Z6" s="7">
-        <v>256.81815366368033</v>
-      </c>
-      <c r="AA6" s="6">
-        <v>43830</v>
-      </c>
-      <c r="AB6" s="1">
-        <f>VLOOKUP(AA6,O:P,2,)</f>
-        <v>51.863107777656694</v>
-      </c>
-      <c r="AC6" s="1">
-        <f t="shared" si="3"/>
-        <v>-51.863107777656694</v>
-      </c>
-      <c r="AD6" s="6">
-        <v>43830</v>
-      </c>
-      <c r="AE6" s="7">
-        <f>VLOOKUP(AD6,O:P,2,)</f>
-        <v>51.863107777656694</v>
-      </c>
-      <c r="AF6" s="7">
-        <f t="shared" si="4"/>
-        <v>-51.863107777656694</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A7" s="15">
-        <v>42916</v>
-      </c>
-      <c r="B7" s="25">
-        <v>0.91246000000000005</v>
-      </c>
-      <c r="C7" s="20">
-        <v>0.90437932432432466</v>
-      </c>
-      <c r="D7" s="21">
-        <v>-0.10121084503195038</v>
-      </c>
-      <c r="E7" s="22">
-        <v>-0.11092085683969749</v>
-      </c>
-      <c r="F7" s="22">
-        <v>19.907044471757644</v>
-      </c>
-      <c r="G7" s="22">
-        <v>18.164381798699981</v>
-      </c>
-      <c r="H7" s="22">
-        <v>17.317012767311862</v>
-      </c>
-      <c r="I7" s="22">
-        <v>18.265592643731932</v>
-      </c>
-      <c r="J7" s="22">
-        <v>0.94857987642006947</v>
-      </c>
-      <c r="K7" s="21">
-        <v>0.10121084503195038</v>
-      </c>
-      <c r="L7" s="7"/>
-      <c r="O7" s="6">
-        <v>43830</v>
-      </c>
-      <c r="P7" s="10">
-        <v>51.863107777656694</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>325.39311049113576</v>
-      </c>
-      <c r="R7" s="5">
-        <v>462.4989477732662</v>
-      </c>
-      <c r="S7" s="5">
-        <v>137.10583728213044</v>
-      </c>
-      <c r="T7" s="5">
-        <v>117.2927175491765</v>
-      </c>
-      <c r="U7" s="9">
-        <v>0.42135445669144067</v>
-      </c>
-      <c r="V7" s="9">
-        <v>0.20147159559258454</v>
-      </c>
-      <c r="Z7" s="8">
-        <f>IRR(Z4:Z6)</f>
-        <v>-5.7463297893912024E-2</v>
-      </c>
-      <c r="AA7" s="6">
-        <v>43830</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>462.4989477732662</v>
-      </c>
-      <c r="AD7" s="6">
-        <v>44196</v>
-      </c>
-      <c r="AE7" s="7">
-        <f>VLOOKUP(AD7,O:P,2,)</f>
-        <v>0</v>
-      </c>
-      <c r="AF7" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A8" s="15">
-        <v>42947</v>
-      </c>
-      <c r="B8" s="25">
-        <v>0.89419999999999999</v>
-      </c>
-      <c r="C8" s="20">
-        <v>0.90019273684210555</v>
-      </c>
-      <c r="D8" s="21">
-        <v>5.5664987031030275E-2</v>
-      </c>
-      <c r="E8" s="22">
-        <v>6.2251159730519208E-2</v>
-      </c>
-      <c r="F8" s="22">
-        <v>19.969295631488162</v>
-      </c>
-      <c r="G8" s="22">
-        <v>17.856544153676715</v>
-      </c>
-      <c r="H8" s="22">
-        <v>17.372677754342892</v>
-      </c>
-      <c r="I8" s="22">
-        <v>17.957754998708666</v>
-      </c>
-      <c r="J8" s="22">
-        <v>0.58507724436577391</v>
-      </c>
-      <c r="K8" s="21">
-        <v>0.10121084503195038</v>
-      </c>
-      <c r="L8" s="7"/>
-      <c r="O8" s="6">
-        <v>44196</v>
-      </c>
-      <c r="P8" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>325.39311049113576</v>
-      </c>
-      <c r="R8" s="5">
-        <v>500.21251916564194</v>
-      </c>
-      <c r="S8" s="5">
-        <v>174.81940867450618</v>
-      </c>
-      <c r="T8" s="5">
-        <v>500.21251916564194</v>
-      </c>
-      <c r="U8" s="9">
-        <v>0.5372560236774544</v>
-      </c>
-      <c r="V8" s="9">
-        <v>0.15912234163115446</v>
-      </c>
-      <c r="AC8" s="2">
-        <f>IRR(AC4:AC7)</f>
-        <v>0.20147159559258454</v>
-      </c>
-      <c r="AD8" s="6">
-        <v>44196</v>
-      </c>
-      <c r="AF8" s="7">
-        <v>500.21251916564194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A9" s="15">
-        <v>42978</v>
-      </c>
-      <c r="B9" s="25">
-        <v>0.97410000000000008</v>
-      </c>
-      <c r="C9" s="20">
-        <v>0.90535008474576273</v>
-      </c>
-      <c r="D9" s="21">
-        <v>-7.3261538135704667</v>
-      </c>
-      <c r="E9" s="22">
-        <v>-7.5209463233451039</v>
-      </c>
-      <c r="F9" s="22">
-        <v>12.448349308143058</v>
-      </c>
-      <c r="G9" s="22">
-        <v>12.125937061062153</v>
-      </c>
-      <c r="H9" s="22">
-        <v>17.372677754342892</v>
-      </c>
-      <c r="I9" s="22">
-        <v>19.553301719664571</v>
-      </c>
-      <c r="J9" s="22">
-        <v>2.1806239653216792</v>
-      </c>
-      <c r="K9" s="21">
-        <v>7.4273646586024169</v>
-      </c>
-      <c r="L9" s="7"/>
-      <c r="O9" s="6">
-        <v>44561</v>
-      </c>
-      <c r="P9" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>325.39311049113576</v>
-      </c>
-      <c r="R9" s="5">
-        <v>500.21251916564194</v>
-      </c>
-      <c r="S9" s="5">
-        <v>174.81940867450618</v>
-      </c>
-      <c r="T9" s="5">
-        <v>500.21251916564194</v>
-      </c>
-      <c r="U9" s="9">
-        <v>0.5372560236774544</v>
-      </c>
-      <c r="V9" s="9">
-        <v>0.11658256234767994</v>
-      </c>
-      <c r="AF9" s="2">
-        <f>IRR(AF4:AF8)</f>
-        <v>0.15912234163115446</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A10" s="15">
-        <v>43007</v>
-      </c>
-      <c r="B10" s="25">
-        <v>0.97174000000000005</v>
-      </c>
-      <c r="C10" s="20">
-        <v>0.91768381294964019</v>
-      </c>
-      <c r="D10" s="21">
-        <v>-4.5292106055564147</v>
-      </c>
-      <c r="E10" s="22">
-        <v>-4.6609284433659361</v>
-      </c>
-      <c r="F10" s="22">
-        <v>7.7874208647771219</v>
-      </c>
-      <c r="G10" s="22">
-        <v>7.5673483511385209</v>
-      </c>
-      <c r="H10" s="22">
-        <v>17.372677754342892</v>
-      </c>
-      <c r="I10" s="22">
-        <v>19.523923615297353</v>
-      </c>
-      <c r="J10" s="22">
-        <v>2.1512458609544609</v>
-      </c>
-      <c r="K10" s="21">
-        <v>11.956575264158833</v>
-      </c>
-      <c r="L10" s="7"/>
-      <c r="O10" s="6">
-        <v>44925</v>
-      </c>
-      <c r="P10" s="10">
-        <v>152.39757379984275</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>477.7906842909785</v>
-      </c>
-      <c r="R10" s="5">
-        <v>667.91817463193593</v>
-      </c>
-      <c r="S10" s="5">
-        <v>190.12749034095742</v>
-      </c>
-      <c r="T10" s="5">
-        <v>500.21251916564194</v>
-      </c>
-      <c r="U10" s="9">
-        <v>0.39793050930471513</v>
-      </c>
-      <c r="V10" s="9">
-        <v>9.2371161110481603E-2</v>
-      </c>
-      <c r="X10" s="6">
-        <v>43098</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>18.350992705669857</v>
-      </c>
-      <c r="Z10" s="1">
-        <f>-Y10</f>
-        <v>-18.350992705669857</v>
-      </c>
-      <c r="AA10" s="6">
-        <v>43098</v>
-      </c>
-      <c r="AB10" s="1">
-        <v>18.350992705669857</v>
-      </c>
-      <c r="AC10" s="1">
-        <f t="shared" ref="AC10:AC15" si="5">-AB10</f>
-        <v>-18.350992705669857</v>
-      </c>
-      <c r="AD10" s="6">
-        <v>43098</v>
-      </c>
-      <c r="AE10" s="1">
-        <v>18.350992705669857</v>
-      </c>
-      <c r="AF10" s="1">
-        <f t="shared" ref="AF10:AF16" si="6">-AE10</f>
-        <v>-18.350992705669857</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A11" s="15">
-        <v>43039</v>
-      </c>
-      <c r="B11" s="25">
-        <v>0.94596999999999998</v>
-      </c>
-      <c r="C11" s="20">
-        <v>0.92351769230769187</v>
-      </c>
-      <c r="D11" s="21">
-        <v>-0.78136448710062045</v>
-      </c>
-      <c r="E11" s="22">
-        <v>-0.82599288254449976</v>
-      </c>
-      <c r="F11" s="22">
-        <v>6.9614279822326219</v>
-      </c>
-      <c r="G11" s="22">
-        <v>6.5853020283525936</v>
-      </c>
-      <c r="H11" s="22">
-        <v>17.372677754342892</v>
-      </c>
-      <c r="I11" s="22">
-        <v>19.323241779612047</v>
-      </c>
-      <c r="J11" s="22">
-        <v>1.9505640252691556</v>
-      </c>
-      <c r="K11" s="21">
-        <v>12.737939751259454</v>
-      </c>
-      <c r="L11" s="7"/>
-      <c r="O11" s="6">
-        <v>45289</v>
-      </c>
-      <c r="P11" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>477.7906842909785</v>
-      </c>
-      <c r="R11" s="5">
-        <v>720.0405566801802</v>
-      </c>
-      <c r="S11" s="5">
-        <v>242.2498723892017</v>
-      </c>
-      <c r="T11" s="5">
-        <v>720.0405566801802</v>
-      </c>
-      <c r="U11" s="9">
-        <v>0.50702092015186617</v>
-      </c>
-      <c r="V11" s="9">
-        <v>8.92869255584543E-2</v>
-      </c>
-      <c r="X11" s="6">
-        <v>43462</v>
-      </c>
-      <c r="Y11" s="1">
-        <v>255.17901000780921</v>
-      </c>
-      <c r="Z11" s="1">
-        <f>-Y11</f>
-        <v>-255.17901000780921</v>
-      </c>
-      <c r="AA11" s="6">
-        <v>43462</v>
-      </c>
-      <c r="AB11" s="1">
-        <v>255.17901000780921</v>
-      </c>
-      <c r="AC11" s="1">
-        <f t="shared" si="5"/>
-        <v>-255.17901000780921</v>
-      </c>
-      <c r="AD11" s="6">
-        <v>43462</v>
-      </c>
-      <c r="AE11" s="1">
-        <v>255.17901000780921</v>
-      </c>
-      <c r="AF11" s="1">
-        <f t="shared" si="6"/>
-        <v>-255.17901000780921</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A12" s="15">
-        <v>43069</v>
-      </c>
-      <c r="B12" s="25">
-        <v>0.93876000000000004</v>
-      </c>
-      <c r="C12" s="20">
-        <v>0.93002679775280872</v>
-      </c>
-      <c r="D12" s="21">
-        <v>-0.11821667331003861</v>
-      </c>
-      <c r="E12" s="22">
-        <v>-0.12592853691043357</v>
-      </c>
-      <c r="F12" s="22">
-        <v>6.8354994453221884</v>
-      </c>
-      <c r="G12" s="22">
-        <v>6.4168934592906579</v>
-      </c>
-      <c r="H12" s="22">
-        <v>17.372677754342892</v>
-      </c>
-      <c r="I12" s="22">
-        <v>19.27304988386015</v>
-      </c>
-      <c r="J12" s="22">
-        <v>1.9003721295172582</v>
-      </c>
-      <c r="K12" s="21">
-        <v>12.856156424569493</v>
-      </c>
-      <c r="L12" s="7"/>
-      <c r="X12" s="6">
-        <v>43830</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>51.512876965237467</v>
-      </c>
-      <c r="Z12" s="1">
-        <f>-Y12</f>
-        <v>-51.512876965237467</v>
-      </c>
-      <c r="AA12" s="6">
-        <v>43830</v>
-      </c>
-      <c r="AB12" s="1">
-        <v>51.512876965237467</v>
-      </c>
-      <c r="AC12" s="1">
-        <f t="shared" si="5"/>
-        <v>-51.512876965237467</v>
-      </c>
-      <c r="AD12" s="6">
-        <v>43830</v>
-      </c>
-      <c r="AE12" s="1">
-        <v>51.863107777656694</v>
-      </c>
-      <c r="AF12" s="1">
-        <f t="shared" si="6"/>
-        <v>-51.863107777656694</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A13" s="15">
-        <v>43098</v>
-      </c>
-      <c r="B13" s="25">
-        <v>0.90395999999999999</v>
-      </c>
-      <c r="C13" s="20">
-        <v>0.92908311557788914</v>
-      </c>
-      <c r="D13" s="21">
-        <v>0.97831495132696389</v>
-      </c>
-      <c r="E13" s="22">
-        <v>1.0822546919409752</v>
-      </c>
-      <c r="F13" s="22">
-        <v>7.9177541372631639</v>
-      </c>
-      <c r="G13" s="22">
-        <v>7.1573330299204097</v>
-      </c>
-      <c r="H13" s="22">
-        <v>18.350992705669857</v>
-      </c>
-      <c r="I13" s="22">
-        <v>20.013489454489903</v>
-      </c>
-      <c r="J13" s="22">
-        <v>1.6624967488200468</v>
-      </c>
-      <c r="K13" s="21">
-        <v>12.856156424569493</v>
-      </c>
-      <c r="L13" s="7"/>
-      <c r="X13" s="6">
-        <v>44196</v>
-      </c>
-      <c r="Y13" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="1">
-        <f>-Y13</f>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="6">
-        <v>44196</v>
-      </c>
-      <c r="AB13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD13" s="6">
-        <v>44196</v>
-      </c>
-      <c r="AE13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A14" s="15">
-        <v>43131</v>
-      </c>
-      <c r="B14" s="25">
-        <v>0.86690999999999996</v>
-      </c>
-      <c r="C14" s="20">
-        <v>0.92713140271493188</v>
-      </c>
-      <c r="D14" s="21">
-        <v>5.6212568846787159</v>
-      </c>
-      <c r="E14" s="22">
-        <v>6.4842450596702266</v>
-      </c>
-      <c r="F14" s="22">
-        <v>14.40199919693339</v>
-      </c>
-      <c r="G14" s="22">
-        <v>12.485237123813524</v>
-      </c>
-      <c r="H14" s="22">
-        <v>23.972249590348572</v>
-      </c>
-      <c r="I14" s="22">
-        <v>25.341393548383017</v>
-      </c>
-      <c r="J14" s="22">
-        <v>1.3691439580344458</v>
-      </c>
-      <c r="K14" s="21">
-        <v>12.856156424569493</v>
-      </c>
-      <c r="L14" s="7"/>
-      <c r="X14" s="6">
-        <v>44561</v>
-      </c>
-      <c r="Y14" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="1">
-        <f>-Y14</f>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="6">
-        <v>44561</v>
-      </c>
-      <c r="AB14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD14" s="6">
-        <v>44561</v>
-      </c>
-      <c r="AE14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A15" s="15">
-        <v>43159</v>
-      </c>
-      <c r="B15" s="25">
-        <v>0.8518</v>
-      </c>
-      <c r="C15" s="20">
-        <v>0.91968983050847442</v>
-      </c>
-      <c r="D15" s="21">
-        <v>7.1439950840275444</v>
-      </c>
-      <c r="E15" s="22">
-        <v>8.38693952104666</v>
-      </c>
-      <c r="F15" s="22">
-        <v>22.788938717980052</v>
-      </c>
-      <c r="G15" s="22">
-        <v>19.411617999975409</v>
-      </c>
-      <c r="H15" s="22">
-        <v>31.116244674376116</v>
-      </c>
-      <c r="I15" s="22">
-        <v>32.267774424544903</v>
-      </c>
-      <c r="J15" s="22">
-        <v>1.1515297501687876</v>
-      </c>
-      <c r="K15" s="21">
-        <v>12.856156424569493</v>
-      </c>
-      <c r="L15" s="7"/>
-      <c r="X15" s="6">
-        <v>44561</v>
-      </c>
-      <c r="Z15" s="1">
-        <v>500.21251916564194</v>
-      </c>
-      <c r="AA15" s="6">
-        <v>44925</v>
-      </c>
-      <c r="AB15" s="1">
-        <v>152.39757379984275</v>
-      </c>
-      <c r="AC15" s="1">
-        <f t="shared" si="5"/>
-        <v>-152.39757379984275</v>
-      </c>
-      <c r="AD15" s="6">
-        <v>44925</v>
-      </c>
-      <c r="AE15" s="1">
-        <v>152.39757379984275</v>
-      </c>
-      <c r="AF15" s="1">
-        <f t="shared" si="6"/>
-        <v>-152.39757379984275</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A16" s="15">
-        <v>43189</v>
-      </c>
-      <c r="B16" s="25">
-        <v>0.95575999999999994</v>
-      </c>
-      <c r="C16" s="20">
-        <v>0.91931608527131781</v>
-      </c>
-      <c r="D16" s="21">
-        <v>-2.0586463271647548</v>
-      </c>
-      <c r="E16" s="22">
-        <v>-2.153936476902941</v>
-      </c>
-      <c r="F16" s="22">
-        <v>20.63500224107711</v>
-      </c>
-      <c r="G16" s="22">
-        <v>19.722109741931856</v>
-      </c>
-      <c r="H16" s="22">
-        <v>31.116244674376116</v>
-      </c>
-      <c r="I16" s="22">
-        <v>34.636912493666102</v>
-      </c>
-      <c r="J16" s="22">
-        <v>3.5206678192899865</v>
-      </c>
-      <c r="K16" s="21">
-        <v>14.914802751734248</v>
-      </c>
-      <c r="L16" s="7"/>
-      <c r="Z16" s="2">
-        <f>IRR(Z10:Z15)</f>
-        <v>0.11658256234767994</v>
-      </c>
-      <c r="AA16" s="6">
-        <v>44925</v>
-      </c>
-      <c r="AC16" s="1">
-        <v>667.91817463193593</v>
-      </c>
-      <c r="AD16" s="6">
-        <v>45289</v>
-      </c>
-      <c r="AE16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A17" s="15">
-        <v>43217</v>
-      </c>
-      <c r="B17" s="25">
-        <v>0.92662</v>
-      </c>
-      <c r="C17" s="20">
-        <v>0.92028402173913049</v>
-      </c>
-      <c r="D17" s="21">
-        <v>-6.2224161809427136E-2</v>
-      </c>
-      <c r="E17" s="22">
-        <v>-6.7151757796537023E-2</v>
-      </c>
-      <c r="F17" s="22">
-        <v>20.567850483280573</v>
-      </c>
-      <c r="G17" s="22">
-        <v>19.058581614817445</v>
-      </c>
-      <c r="H17" s="22">
-        <v>31.116244674376116</v>
-      </c>
-      <c r="I17" s="22">
-        <v>34.035608528361124</v>
-      </c>
-      <c r="J17" s="22">
-        <v>2.9193638539850078</v>
-      </c>
-      <c r="K17" s="21">
-        <v>14.977026913543675</v>
-      </c>
-      <c r="L17" s="7"/>
-      <c r="AC17" s="2">
-        <f>IRR(AC10:AC16)</f>
-        <v>9.2371161110481603E-2</v>
-      </c>
-      <c r="AD17" s="6">
-        <v>45289</v>
-      </c>
-      <c r="AF17" s="1">
-        <v>720.0405566801802</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A18" s="15">
-        <v>43251</v>
-      </c>
-      <c r="B18" s="25">
-        <v>0.88405999999999996</v>
-      </c>
-      <c r="C18" s="20">
-        <v>0.91991989932885943</v>
-      </c>
-      <c r="D18" s="21">
-        <v>1.9931951888077002</v>
-      </c>
-      <c r="E18" s="22">
-        <v>2.2545926620452237</v>
-      </c>
-      <c r="F18" s="22">
-        <v>22.822443145325796</v>
-      </c>
-      <c r="G18" s="22">
-        <v>20.176409087056722</v>
-      </c>
-      <c r="H18" s="22">
-        <v>33.109439863183816</v>
-      </c>
-      <c r="I18" s="22">
-        <v>35.153436000600394</v>
-      </c>
-      <c r="J18" s="22">
-        <v>2.0439961374165776</v>
-      </c>
-      <c r="K18" s="21">
-        <v>14.977026913543675</v>
-      </c>
-      <c r="L18" s="7"/>
-      <c r="AF18" s="2">
-        <f>IRR(AF10:AF17)</f>
-        <v>8.92869255584543E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A19" s="15">
-        <v>43280</v>
-      </c>
-      <c r="B19" s="25">
-        <v>0.81235999999999997</v>
-      </c>
-      <c r="C19" s="20">
-        <v>0.91462415094339644</v>
-      </c>
-      <c r="D19" s="21">
-        <v>16.209832680669354</v>
-      </c>
-      <c r="E19" s="22">
-        <v>19.954001527240823</v>
-      </c>
-      <c r="F19" s="22">
-        <v>42.776444672566619</v>
-      </c>
-      <c r="G19" s="22">
-        <v>34.749872594206217</v>
-      </c>
-      <c r="H19" s="22">
-        <v>49.319272543853174</v>
-      </c>
-      <c r="I19" s="22">
-        <v>49.726899507749891</v>
-      </c>
-      <c r="J19" s="22">
-        <v>0.4076269638967176</v>
-      </c>
-      <c r="K19" s="21">
-        <v>14.977026913543675</v>
-      </c>
-      <c r="L19" s="7"/>
-    </row>
-    <row r="20" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A20" s="15">
-        <v>43312</v>
-      </c>
-      <c r="B20" s="25">
-        <v>0.8131799999999999</v>
-      </c>
-      <c r="C20" s="20">
-        <v>0.90820861764705896</v>
-      </c>
-      <c r="D20" s="21">
-        <v>13.997179166461963</v>
-      </c>
-      <c r="E20" s="22">
-        <v>17.212891569470433</v>
-      </c>
-      <c r="F20" s="22">
-        <v>59.989336242037055</v>
-      </c>
-      <c r="G20" s="22">
-        <v>48.782128445299684</v>
-      </c>
-      <c r="H20" s="22">
-        <v>63.316451710315135</v>
-      </c>
-      <c r="I20" s="22">
-        <v>63.759155358843358</v>
-      </c>
-      <c r="J20" s="22">
-        <v>0.44270364852822297</v>
-      </c>
-      <c r="K20" s="21">
-        <v>14.977026913543675</v>
-      </c>
-      <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A21" s="15">
-        <v>43343</v>
-      </c>
-      <c r="B21" s="25">
-        <v>0.77766999999999997</v>
-      </c>
-      <c r="C21" s="20">
-        <v>0.90034011019283766</v>
-      </c>
-      <c r="D21" s="21">
-        <v>23.324331698820558</v>
-      </c>
-      <c r="E21" s="22">
-        <v>29.992582584927487</v>
-      </c>
-      <c r="F21" s="22">
-        <v>89.981918826964545</v>
-      </c>
-      <c r="G21" s="22">
-        <v>69.976238814165512</v>
-      </c>
-      <c r="H21" s="22">
-        <v>86.640783409135693</v>
-      </c>
-      <c r="I21" s="22">
-        <v>84.95326572770918</v>
-      </c>
-      <c r="J21" s="22">
-        <v>-1.6875176814265131</v>
-      </c>
-      <c r="K21" s="21">
-        <v>14.977026913543675</v>
-      </c>
-      <c r="L21" s="8"/>
-    </row>
-    <row r="22" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A22" s="15">
-        <v>43371</v>
-      </c>
-      <c r="B22" s="25">
-        <v>0.76784000000000008</v>
-      </c>
-      <c r="C22" s="20">
-        <v>0.8937382984293194</v>
-      </c>
-      <c r="D22" s="21">
-        <v>24.568091398466816</v>
-      </c>
-      <c r="E22" s="22">
-        <v>31.996368251806121</v>
-      </c>
-      <c r="F22" s="22">
-        <v>121.97828707877066</v>
-      </c>
-      <c r="G22" s="22">
-        <v>93.659807950563277</v>
-      </c>
-      <c r="H22" s="22">
-        <v>111.20887480760251</v>
-      </c>
-      <c r="I22" s="22">
-        <v>108.63683486410696</v>
-      </c>
-      <c r="J22" s="22">
-        <v>-2.5720399434955539</v>
-      </c>
-      <c r="K22" s="21">
-        <v>14.977026913543675</v>
-      </c>
-      <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A23" s="15">
-        <v>43404</v>
-      </c>
-      <c r="B23" s="25">
-        <v>0.67677999999999994</v>
-      </c>
-      <c r="C23" s="20">
-        <v>0.88415025000000003</v>
-      </c>
-      <c r="D23" s="21">
-        <v>66.653751906846935</v>
-      </c>
-      <c r="E23" s="22">
-        <v>98.486586345410529</v>
-      </c>
-      <c r="F23" s="22">
-        <v>220.46487342418118</v>
-      </c>
-      <c r="G23" s="22">
-        <v>149.20621703601734</v>
-      </c>
-      <c r="H23" s="22">
-        <v>177.86262671444945</v>
-      </c>
-      <c r="I23" s="22">
-        <v>164.18324394956102</v>
-      </c>
-      <c r="J23" s="22">
-        <v>-13.67938276488843</v>
-      </c>
-      <c r="K23" s="21">
-        <v>14.977026913543675</v>
-      </c>
-      <c r="L23" s="7"/>
-    </row>
-    <row r="24" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A24" s="15">
-        <v>43434</v>
-      </c>
-      <c r="B24" s="25">
-        <v>0.7214299999999999</v>
-      </c>
-      <c r="C24" s="20">
-        <v>0.87621106635071089</v>
-      </c>
-      <c r="D24" s="21">
-        <v>37.133626676027951</v>
-      </c>
-      <c r="E24" s="22">
-        <v>51.472251883104327</v>
-      </c>
-      <c r="F24" s="22">
-        <v>271.9371253072855</v>
-      </c>
-      <c r="G24" s="22">
-        <v>196.18360031043494</v>
-      </c>
-      <c r="H24" s="22">
-        <v>214.99625339047739</v>
-      </c>
-      <c r="I24" s="22">
-        <v>211.16062722397862</v>
-      </c>
-      <c r="J24" s="22">
-        <v>-3.8356261664987699</v>
-      </c>
-      <c r="K24" s="21">
-        <v>14.977026913543675</v>
-      </c>
-      <c r="L24" s="7"/>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A25" s="15">
-        <v>43462</v>
-      </c>
-      <c r="B25" s="25">
-        <v>0.67408000000000001</v>
-      </c>
-      <c r="C25" s="20">
-        <v>0.86840886877828072</v>
-      </c>
-      <c r="D25" s="21">
-        <v>58.533749323001672</v>
-      </c>
-      <c r="E25" s="22">
-        <v>86.835018577916074</v>
-      </c>
-      <c r="F25" s="22">
-        <v>358.77214388520156</v>
-      </c>
-      <c r="G25" s="22">
-        <v>241.84112675013668</v>
-      </c>
-      <c r="H25" s="22">
-        <v>273.53000271347906</v>
-      </c>
-      <c r="I25" s="22">
-        <v>256.81815366368033</v>
-      </c>
-      <c r="J25" s="22">
-        <v>-16.71184904979873</v>
-      </c>
-      <c r="K25" s="21">
-        <v>14.977026913543675</v>
-      </c>
-      <c r="L25" s="7"/>
-    </row>
-    <row r="26" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A26" s="15">
-        <v>43496</v>
-      </c>
-      <c r="B26" s="25">
-        <v>0.67716999999999994</v>
-      </c>
-      <c r="C26" s="20">
-        <v>0.86008008620689669</v>
-      </c>
-      <c r="D26" s="21">
-        <v>51.856954436132327</v>
-      </c>
-      <c r="E26" s="22">
-        <v>76.578930602555246</v>
-      </c>
-      <c r="F26" s="22">
-        <v>435.35107448775682</v>
-      </c>
-      <c r="G26" s="22">
-        <v>294.80668711087424</v>
-      </c>
-      <c r="H26" s="22">
-        <v>325.38695714961136</v>
-      </c>
-      <c r="I26" s="22">
-        <v>309.78371402441792</v>
-      </c>
-      <c r="J26" s="22">
-        <v>-15.603243125193444</v>
-      </c>
-      <c r="K26" s="21">
-        <v>14.977026913543675</v>
-      </c>
-      <c r="L26" s="7"/>
-    </row>
-    <row r="27" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A27" s="15">
-        <v>43524</v>
-      </c>
-      <c r="B27" s="25">
-        <v>0.85648000000000002</v>
-      </c>
-      <c r="C27" s="20">
-        <v>0.85765524008350746</v>
-      </c>
-      <c r="D27" s="21">
-        <v>2.1408433435180091E-3</v>
-      </c>
-      <c r="E27" s="22">
-        <v>2.4995835787385685E-3</v>
-      </c>
-      <c r="F27" s="22">
-        <v>435.35357407133557</v>
-      </c>
-      <c r="G27" s="22">
-        <v>372.87162912061751</v>
-      </c>
-      <c r="H27" s="22">
-        <v>325.38909799295487</v>
-      </c>
-      <c r="I27" s="22">
-        <v>387.84865603416119</v>
-      </c>
-      <c r="J27" s="22">
-        <v>62.459558041206321</v>
-      </c>
-      <c r="K27" s="21">
-        <v>14.977026913543675</v>
-      </c>
-      <c r="L27" s="7"/>
-    </row>
-    <row r="28" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A28" s="15">
-        <v>43553</v>
-      </c>
-      <c r="B28" s="25">
-        <v>0.94580999999999993</v>
-      </c>
-      <c r="C28" s="20">
-        <v>0.86087282000000032</v>
-      </c>
-      <c r="D28" s="21">
-        <v>-11.182203046846118</v>
-      </c>
-      <c r="E28" s="22">
-        <v>-11.822885195595434</v>
-      </c>
-      <c r="F28" s="22">
-        <v>423.53068887574011</v>
-      </c>
-      <c r="G28" s="22">
-        <v>400.57956084556372</v>
-      </c>
-      <c r="H28" s="22">
-        <v>325.38909799295487</v>
-      </c>
-      <c r="I28" s="22">
-        <v>426.7387908059535</v>
-      </c>
-      <c r="J28" s="22">
-        <v>101.34969281299863</v>
-      </c>
-      <c r="K28" s="21">
-        <v>26.159229960389794</v>
-      </c>
-      <c r="L28" s="7"/>
-    </row>
-    <row r="29" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A29" s="15">
-        <v>43585</v>
-      </c>
-      <c r="B29" s="25">
-        <v>0.9108099999999999</v>
-      </c>
-      <c r="C29" s="20">
-        <v>0.86513197696737065</v>
-      </c>
-      <c r="D29" s="21">
-        <v>-3.2340467716625816</v>
-      </c>
-      <c r="E29" s="22">
-        <v>-3.5507370051520977</v>
-      </c>
-      <c r="F29" s="22">
-        <v>419.97995187058802</v>
-      </c>
-      <c r="G29" s="22">
-        <v>382.52193996325025</v>
-      </c>
-      <c r="H29" s="22">
-        <v>325.38909799295487</v>
-      </c>
-      <c r="I29" s="22">
-        <v>411.9152166953026</v>
-      </c>
-      <c r="J29" s="22">
-        <v>86.526118702347731</v>
-      </c>
-      <c r="K29" s="21">
-        <v>29.393276732052374</v>
-      </c>
-      <c r="L29" s="7"/>
-    </row>
-    <row r="30" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A30" s="15">
-        <v>43616</v>
-      </c>
-      <c r="B30" s="25">
-        <v>0.86360000000000003</v>
-      </c>
-      <c r="C30" s="20">
-        <v>0.86520894639556412</v>
-      </c>
-      <c r="D30" s="21">
-        <v>4.0124981808879077E-3</v>
-      </c>
-      <c r="E30" s="22">
-        <v>4.6462461566557523E-3</v>
-      </c>
-      <c r="F30" s="22">
-        <v>419.98459811674468</v>
-      </c>
-      <c r="G30" s="22">
-        <v>362.69869893362073</v>
-      </c>
-      <c r="H30" s="22">
-        <v>325.39311049113576</v>
-      </c>
-      <c r="I30" s="22">
-        <v>392.09197566567309</v>
-      </c>
-      <c r="J30" s="22">
-        <v>66.698865174537332</v>
-      </c>
-      <c r="K30" s="21">
-        <v>29.393276732052374</v>
-      </c>
-      <c r="L30" s="7"/>
-    </row>
-    <row r="31" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A31" s="15">
-        <v>43644</v>
-      </c>
-      <c r="B31" s="25">
-        <v>0.88732</v>
-      </c>
-      <c r="C31" s="20">
-        <v>0.86520416071428607</v>
-      </c>
-      <c r="D31" s="21">
-        <v>-0.75812103833286737</v>
-      </c>
-      <c r="E31" s="22">
-        <v>-0.85439417384130567</v>
-      </c>
-      <c r="F31" s="22">
-        <v>419.13020394290339</v>
-      </c>
-      <c r="G31" s="22">
-        <v>371.90261256261704</v>
-      </c>
-      <c r="H31" s="22">
-        <v>325.39311049113576</v>
-      </c>
-      <c r="I31" s="22">
-        <v>402.05401033300228</v>
-      </c>
-      <c r="J31" s="22">
-        <v>76.660899841866524</v>
-      </c>
-      <c r="K31" s="21">
-        <v>30.151397770385241</v>
-      </c>
-      <c r="L31" s="7"/>
-    </row>
-    <row r="32" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A32" s="15">
-        <v>43677</v>
-      </c>
-      <c r="B32" s="25">
-        <v>0.89222000000000001</v>
-      </c>
-      <c r="C32" s="20">
-        <v>0.86610048027444275</v>
-      </c>
-      <c r="D32" s="21">
-        <v>-1.057455431575351</v>
-      </c>
-      <c r="E32" s="22">
-        <v>-1.1851958391151858</v>
-      </c>
-      <c r="F32" s="22">
-        <v>417.94500810378821</v>
-      </c>
-      <c r="G32" s="22">
-        <v>372.89889513036195</v>
-      </c>
-      <c r="H32" s="22">
-        <v>325.39311049113576</v>
-      </c>
-      <c r="I32" s="22">
-        <v>404.10774833232256</v>
-      </c>
-      <c r="J32" s="22">
-        <v>78.7146378411868</v>
-      </c>
-      <c r="K32" s="21">
-        <v>31.208853201960594</v>
-      </c>
-      <c r="L32" s="7"/>
-    </row>
-    <row r="33" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A33" s="15">
-        <v>43707</v>
-      </c>
-      <c r="B33" s="25">
-        <v>0.92357</v>
-      </c>
-      <c r="C33" s="20">
-        <v>0.86687626446280996</v>
-      </c>
-      <c r="D33" s="21">
-        <v>-4.9819784561993092</v>
-      </c>
-      <c r="E33" s="22">
-        <v>-5.3942618926549253</v>
-      </c>
-      <c r="F33" s="22">
-        <v>412.55074621113329</v>
-      </c>
-      <c r="G33" s="22">
-        <v>381.01949267821635</v>
-      </c>
-      <c r="H33" s="22">
-        <v>325.39311049113576</v>
-      </c>
-      <c r="I33" s="22">
-        <v>417.21032433637623</v>
-      </c>
-      <c r="J33" s="22">
-        <v>91.817213845240474</v>
-      </c>
-      <c r="K33" s="21">
-        <v>36.190831658159901</v>
-      </c>
-      <c r="L33" s="7"/>
-    </row>
-    <row r="34" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A34" s="15">
-        <v>43738</v>
-      </c>
-      <c r="B34" s="25">
-        <v>0.95855999999999997</v>
-      </c>
-      <c r="C34" s="20">
-        <v>0.87099716799999982</v>
-      </c>
-      <c r="D34" s="21">
-        <v>-11.884236799183387</v>
-      </c>
-      <c r="E34" s="22">
-        <v>-12.398010348004703</v>
-      </c>
-      <c r="F34" s="22">
-        <v>400.15273586312856</v>
-      </c>
-      <c r="G34" s="22">
-        <v>383.57040648896049</v>
-      </c>
-      <c r="H34" s="22">
-        <v>325.39311049113576</v>
-      </c>
-      <c r="I34" s="22">
-        <v>431.64547494630381</v>
-      </c>
-      <c r="J34" s="22">
-        <v>106.25236445516805</v>
-      </c>
-      <c r="K34" s="21">
-        <v>48.075068457343292</v>
-      </c>
-      <c r="L34" s="7"/>
-    </row>
-    <row r="35" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A35" s="15">
-        <v>43769</v>
-      </c>
-      <c r="B35" s="25">
-        <v>0.97238999999999998</v>
-      </c>
-      <c r="C35" s="20">
-        <v>0.87394309486780741</v>
-      </c>
-      <c r="D35" s="21">
-        <v>-15.02227935166573</v>
-      </c>
-      <c r="E35" s="22">
-        <v>-15.448821307979031</v>
-      </c>
-      <c r="F35" s="22">
-        <v>384.70391455514954</v>
-      </c>
-      <c r="G35" s="22">
-        <v>374.08223947428183</v>
-      </c>
-      <c r="H35" s="22">
-        <v>325.39311049113576</v>
-      </c>
-      <c r="I35" s="22">
-        <v>437.17958728329086</v>
-      </c>
-      <c r="J35" s="22">
-        <v>111.7864767921551</v>
-      </c>
-      <c r="K35" s="21">
-        <v>63.097347809009023</v>
-      </c>
-      <c r="L35" s="7"/>
-    </row>
-    <row r="36" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A36" s="15">
-        <v>43798</v>
-      </c>
-      <c r="B36" s="25">
-        <v>0.97728999999999999</v>
-      </c>
-      <c r="C36" s="20">
-        <v>0.87774004518072291</v>
-      </c>
-      <c r="D36" s="21">
-        <v>-15.360799932006168</v>
-      </c>
-      <c r="E36" s="22">
-        <v>-15.717750035308013</v>
-      </c>
-      <c r="F36" s="22">
-        <v>368.98616451984151</v>
-      </c>
-      <c r="G36" s="22">
-        <v>360.60648872359593</v>
-      </c>
-      <c r="H36" s="22">
-        <v>325.39311049113576</v>
-      </c>
-      <c r="I36" s="22">
-        <v>439.06463646461111</v>
-      </c>
-      <c r="J36" s="22">
-        <v>113.67152597347535</v>
-      </c>
-      <c r="K36" s="21">
-        <v>78.458147741015196</v>
-      </c>
-      <c r="L36" s="7"/>
-      <c r="O36" s="3"/>
-    </row>
-    <row r="37" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A37" s="15">
-        <v>43830</v>
-      </c>
-      <c r="B37" s="25">
-        <v>1.0407999999999999</v>
-      </c>
-      <c r="C37" s="20">
-        <v>0.88251367346938747</v>
-      </c>
-      <c r="D37" s="21">
-        <v>-38.834569808161298</v>
-      </c>
-      <c r="E37" s="22">
-        <v>-37.312230791853672</v>
-      </c>
-      <c r="F37" s="22">
-        <v>331.67393372798784</v>
-      </c>
-      <c r="G37" s="22">
-        <v>345.20623022408972</v>
-      </c>
-      <c r="H37" s="22">
-        <v>325.39311049113576</v>
-      </c>
-      <c r="I37" s="22">
-        <v>462.4989477732662</v>
-      </c>
-      <c r="J37" s="22">
-        <v>137.10583728213044</v>
-      </c>
-      <c r="K37" s="21">
-        <v>117.2927175491765</v>
-      </c>
-      <c r="L37" s="7"/>
-    </row>
-    <row r="38" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A38" s="15">
-        <v>43853</v>
-      </c>
-      <c r="B38" s="25">
-        <v>1.13632</v>
-      </c>
-      <c r="C38" s="20">
-        <v>0.88787240740740703</v>
-      </c>
-      <c r="D38" s="21">
-        <v>-95.675619710835349</v>
-      </c>
-      <c r="E38" s="22">
-        <v>-84.197778540231056</v>
-      </c>
-      <c r="F38" s="22">
-        <v>247.47615518775677</v>
-      </c>
-      <c r="G38" s="22">
-        <v>281.21210466295179</v>
-      </c>
-      <c r="H38" s="22">
-        <v>325.39311049113576</v>
-      </c>
-      <c r="I38" s="22">
-        <v>494.18044192296361</v>
-      </c>
-      <c r="J38" s="22">
-        <v>168.78733143182785</v>
-      </c>
-      <c r="K38" s="21">
-        <v>212.96833726001185</v>
-      </c>
-      <c r="L38" s="7"/>
-    </row>
-    <row r="39" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A39" s="15">
-        <v>43889</v>
-      </c>
-      <c r="B39" s="25">
-        <v>1.2075199999999999</v>
-      </c>
-      <c r="C39" s="20">
-        <v>0.89685198060941806</v>
-      </c>
-      <c r="D39" s="21">
-        <v>-149.59765832170376</v>
-      </c>
-      <c r="E39" s="22">
-        <v>-123.88834828549736</v>
-      </c>
-      <c r="F39" s="22">
-        <v>123.58780690225942</v>
-      </c>
-      <c r="G39" s="22">
-        <v>149.23474859061628</v>
-      </c>
-      <c r="H39" s="22">
-        <v>325.39311049113576</v>
-      </c>
-      <c r="I39" s="22">
-        <v>511.80074417233186</v>
-      </c>
-      <c r="J39" s="22">
-        <v>186.4076336811961</v>
-      </c>
-      <c r="K39" s="21">
-        <v>362.56599558171558</v>
-      </c>
-      <c r="L39" s="7"/>
-    </row>
-    <row r="40" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A40" s="15">
-        <v>43921</v>
-      </c>
-      <c r="B40" s="25">
-        <v>1.0721400000000001</v>
-      </c>
-      <c r="C40" s="20">
-        <v>0.90492893817204278</v>
-      </c>
-      <c r="D40" s="21">
-        <v>-43.337285756331092</v>
-      </c>
-      <c r="E40" s="22">
-        <v>-40.421293633602971</v>
-      </c>
-      <c r="F40" s="22">
-        <v>83.166513268656445</v>
-      </c>
-      <c r="G40" s="22">
-        <v>89.166145535857325</v>
-      </c>
-      <c r="H40" s="22">
-        <v>325.39311049113576</v>
-      </c>
-      <c r="I40" s="22">
-        <v>495.06942687390398</v>
-      </c>
-      <c r="J40" s="22">
-        <v>169.67631638276822</v>
-      </c>
-      <c r="K40" s="21">
-        <v>405.90328133804667</v>
-      </c>
-      <c r="L40" s="7"/>
-    </row>
-    <row r="41" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A41" s="15">
-        <v>43951</v>
-      </c>
-      <c r="B41" s="25">
-        <v>1.13618</v>
-      </c>
-      <c r="C41" s="20">
-        <v>0.91070921568627439</v>
-      </c>
-      <c r="D41" s="21">
-        <v>-78.797465597522176</v>
-      </c>
-      <c r="E41" s="22">
-        <v>-69.352977166929691</v>
-      </c>
-      <c r="F41" s="22">
-        <v>13.813536101726754</v>
-      </c>
-      <c r="G41" s="22">
-        <v>15.694663448059902</v>
-      </c>
-      <c r="H41" s="22">
-        <v>325.39311049113576</v>
-      </c>
-      <c r="I41" s="22">
-        <v>500.39541038362876</v>
-      </c>
-      <c r="J41" s="22">
-        <v>175.002299892493</v>
-      </c>
-      <c r="K41" s="21">
-        <v>484.70074693556887</v>
-      </c>
-      <c r="L41" s="7"/>
-    </row>
-    <row r="42" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A42" s="15">
-        <v>43980</v>
-      </c>
-      <c r="B42" s="25">
-        <v>1.12294</v>
-      </c>
-      <c r="C42" s="20">
-        <v>0.91629127713920799</v>
-      </c>
-      <c r="D42" s="21">
-        <v>-15.511772230073042</v>
-      </c>
-      <c r="E42" s="22">
-        <v>-13.813536101726754</v>
-      </c>
-      <c r="F42" s="22">
-        <v>0</v>
-      </c>
-      <c r="G42" s="22">
-        <v>0</v>
-      </c>
-      <c r="H42" s="22">
-        <v>325.39311049113576</v>
-      </c>
-      <c r="I42" s="22">
-        <v>500.21251916564194</v>
-      </c>
-      <c r="J42" s="22">
-        <v>174.81940867450618</v>
-      </c>
-      <c r="K42" s="21">
-        <v>500.21251916564194</v>
-      </c>
-      <c r="L42" s="7"/>
-    </row>
-    <row r="43" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A43" s="15">
-        <v>44012</v>
-      </c>
-      <c r="B43" s="25">
-        <v>1.25214</v>
-      </c>
-      <c r="C43" s="20">
-        <v>0.92317073474470712</v>
-      </c>
-      <c r="D43" s="21">
-        <v>0</v>
-      </c>
-      <c r="E43" s="22">
-        <v>0</v>
-      </c>
-      <c r="F43" s="22">
-        <v>0</v>
-      </c>
-      <c r="G43" s="22">
-        <v>0</v>
-      </c>
-      <c r="H43" s="22">
-        <v>325.39311049113576</v>
-      </c>
-      <c r="I43" s="22">
-        <v>500.21251916564194</v>
-      </c>
-      <c r="J43" s="22">
-        <v>174.81940867450618</v>
-      </c>
-      <c r="K43" s="21">
-        <v>500.21251916564194</v>
-      </c>
-      <c r="L43" s="7"/>
-    </row>
-    <row r="44" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A44" s="15">
-        <v>44043</v>
-      </c>
-      <c r="B44" s="25">
-        <v>1.3561700000000001</v>
-      </c>
-      <c r="C44" s="20">
-        <v>0.93524518159806236</v>
-      </c>
-      <c r="D44" s="21">
-        <v>0</v>
-      </c>
-      <c r="E44" s="22">
-        <v>0</v>
-      </c>
-      <c r="F44" s="22">
-        <v>0</v>
-      </c>
-      <c r="G44" s="22">
-        <v>0</v>
-      </c>
-      <c r="H44" s="22">
-        <v>325.39311049113576</v>
-      </c>
-      <c r="I44" s="22">
-        <v>500.21251916564194</v>
-      </c>
-      <c r="J44" s="22">
-        <v>174.81940867450618</v>
-      </c>
-      <c r="K44" s="21">
-        <v>500.21251916564194</v>
-      </c>
-      <c r="L44" s="7"/>
-    </row>
-    <row r="45" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A45" s="15">
-        <v>44074</v>
-      </c>
-      <c r="B45" s="25">
-        <v>1.35833</v>
-      </c>
-      <c r="C45" s="20">
-        <v>0.9455635537190078</v>
-      </c>
-      <c r="D45" s="21">
-        <v>0</v>
-      </c>
-      <c r="E45" s="22">
-        <v>0</v>
-      </c>
-      <c r="F45" s="22">
-        <v>0</v>
-      </c>
-      <c r="G45" s="22">
-        <v>0</v>
-      </c>
-      <c r="H45" s="22">
-        <v>325.39311049113576</v>
-      </c>
-      <c r="I45" s="22">
-        <v>500.21251916564194</v>
-      </c>
-      <c r="J45" s="22">
-        <v>174.81940867450618</v>
-      </c>
-      <c r="K45" s="21">
-        <v>500.21251916564194</v>
-      </c>
-      <c r="L45" s="7"/>
-    </row>
-    <row r="46" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A46" s="15">
-        <v>44104</v>
-      </c>
-      <c r="B46" s="25">
-        <v>1.2336199999999999</v>
-      </c>
-      <c r="C46" s="20">
-        <v>0.9540192059838889</v>
-      </c>
-      <c r="D46" s="21">
-        <v>0</v>
-      </c>
-      <c r="E46" s="22">
-        <v>0</v>
-      </c>
-      <c r="F46" s="22">
-        <v>0</v>
-      </c>
-      <c r="G46" s="22">
-        <v>0</v>
-      </c>
-      <c r="H46" s="22">
-        <v>325.39311049113576</v>
-      </c>
-      <c r="I46" s="22">
-        <v>500.21251916564194</v>
-      </c>
-      <c r="J46" s="22">
-        <v>174.81940867450618</v>
-      </c>
-      <c r="K46" s="21">
-        <v>500.21251916564194</v>
-      </c>
-      <c r="L46" s="7"/>
-    </row>
-    <row r="47" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A47" s="15">
-        <v>44134</v>
-      </c>
-      <c r="B47" s="25">
-        <v>1.2367600000000001</v>
-      </c>
-      <c r="C47" s="20">
-        <v>0.95971613559321989</v>
-      </c>
-      <c r="D47" s="21">
-        <v>0</v>
-      </c>
-      <c r="E47" s="22">
-        <v>0</v>
-      </c>
-      <c r="F47" s="22">
-        <v>0</v>
-      </c>
-      <c r="G47" s="22">
-        <v>0</v>
-      </c>
-      <c r="H47" s="22">
-        <v>325.39311049113576</v>
-      </c>
-      <c r="I47" s="22">
-        <v>500.21251916564194</v>
-      </c>
-      <c r="J47" s="22">
-        <v>174.81940867450618</v>
-      </c>
-      <c r="K47" s="21">
-        <v>500.21251916564194</v>
-      </c>
-      <c r="L47" s="7"/>
-    </row>
-    <row r="48" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A48" s="15">
-        <v>44165</v>
-      </c>
-      <c r="B48" s="25">
-        <v>1.23942</v>
-      </c>
-      <c r="C48" s="20">
-        <v>0.96667163355408336</v>
-      </c>
-      <c r="D48" s="21">
-        <v>0</v>
-      </c>
-      <c r="E48" s="22">
-        <v>0</v>
-      </c>
-      <c r="F48" s="22">
-        <v>0</v>
-      </c>
-      <c r="G48" s="22">
-        <v>0</v>
-      </c>
-      <c r="H48" s="22">
-        <v>325.39311049113576</v>
-      </c>
-      <c r="I48" s="22">
-        <v>500.21251916564194</v>
-      </c>
-      <c r="J48" s="22">
-        <v>174.81940867450618</v>
-      </c>
-      <c r="K48" s="21">
-        <v>500.21251916564194</v>
-      </c>
-      <c r="L48" s="7"/>
-    </row>
-    <row r="49" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A49" s="15">
-        <v>44196</v>
-      </c>
-      <c r="B49" s="25">
-        <v>1.2531099999999999</v>
-      </c>
-      <c r="C49" s="20">
-        <v>0.9734885360602793</v>
-      </c>
-      <c r="D49" s="21">
-        <v>0</v>
-      </c>
-      <c r="E49" s="22">
-        <v>0</v>
-      </c>
-      <c r="F49" s="22">
-        <v>0</v>
-      </c>
-      <c r="G49" s="22">
-        <v>0</v>
-      </c>
-      <c r="H49" s="22">
-        <v>325.39311049113576</v>
-      </c>
-      <c r="I49" s="22">
-        <v>500.21251916564194</v>
-      </c>
-      <c r="J49" s="22">
-        <v>174.81940867450618</v>
-      </c>
-      <c r="K49" s="21">
-        <v>500.21251916564194</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A50" s="15">
-        <v>44225</v>
-      </c>
-      <c r="B50" s="25">
-        <v>1.2375</v>
-      </c>
-      <c r="C50" s="20">
-        <v>0.97975223393045274</v>
-      </c>
-      <c r="D50" s="21">
-        <v>0</v>
-      </c>
-      <c r="E50" s="22">
-        <v>0</v>
-      </c>
-      <c r="F50" s="22">
-        <v>0</v>
-      </c>
-      <c r="G50" s="22">
-        <v>0</v>
-      </c>
-      <c r="H50" s="22">
-        <v>325.39311049113576</v>
-      </c>
-      <c r="I50" s="22">
-        <v>500.21251916564194</v>
-      </c>
-      <c r="J50" s="22">
-        <v>174.81940867450618</v>
-      </c>
-      <c r="K50" s="21">
-        <v>500.21251916564194</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A51" s="15">
-        <v>44253</v>
-      </c>
-      <c r="B51" s="25">
-        <v>1.23967</v>
-      </c>
-      <c r="C51" s="20">
-        <v>0.98431195020746853</v>
-      </c>
-      <c r="D51" s="21">
-        <v>0</v>
-      </c>
-      <c r="E51" s="22">
-        <v>0</v>
-      </c>
-      <c r="F51" s="22">
-        <v>0</v>
-      </c>
-      <c r="G51" s="22">
-        <v>0</v>
-      </c>
-      <c r="H51" s="22">
-        <v>325.39311049113576</v>
-      </c>
-      <c r="I51" s="22">
-        <v>500.21251916564194</v>
-      </c>
-      <c r="J51" s="22">
-        <v>174.81940867450618</v>
-      </c>
-      <c r="K51" s="21">
-        <v>500.21251916564194</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A52" s="15">
-        <v>44286</v>
-      </c>
-      <c r="B52" s="25">
-        <v>1.15709</v>
-      </c>
-      <c r="C52" s="20">
-        <v>0.98874740628166125</v>
-      </c>
-      <c r="D52" s="21">
-        <v>0</v>
-      </c>
-      <c r="E52" s="22">
-        <v>0</v>
-      </c>
-      <c r="F52" s="22">
-        <v>0</v>
-      </c>
-      <c r="G52" s="22">
-        <v>0</v>
-      </c>
-      <c r="H52" s="22">
-        <v>325.39311049113576</v>
-      </c>
-      <c r="I52" s="22">
-        <v>500.21251916564194</v>
-      </c>
-      <c r="J52" s="22">
-        <v>174.81940867450618</v>
-      </c>
-      <c r="K52" s="21">
-        <v>500.21251916564194</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A53" s="15">
-        <v>44316</v>
-      </c>
-      <c r="B53" s="25">
-        <v>1.17998</v>
-      </c>
-      <c r="C53" s="20">
-        <v>0.99267334325396761</v>
-      </c>
-      <c r="D53" s="21">
-        <v>0</v>
-      </c>
-      <c r="E53" s="22">
-        <v>0</v>
-      </c>
-      <c r="F53" s="22">
-        <v>0</v>
-      </c>
-      <c r="G53" s="22">
-        <v>0</v>
-      </c>
-      <c r="H53" s="22">
-        <v>325.39311049113576</v>
-      </c>
-      <c r="I53" s="22">
-        <v>500.21251916564194</v>
-      </c>
-      <c r="J53" s="22">
-        <v>174.81940867450618</v>
-      </c>
-      <c r="K53" s="21">
-        <v>500.21251916564194</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A54" s="15">
-        <v>44347</v>
-      </c>
-      <c r="B54" s="25">
-        <v>1.2623</v>
-      </c>
-      <c r="C54" s="20">
-        <v>0.99633758284600327</v>
-      </c>
-      <c r="D54" s="21">
-        <v>0</v>
-      </c>
-      <c r="E54" s="22">
-        <v>0</v>
-      </c>
-      <c r="F54" s="22">
-        <v>0</v>
-      </c>
-      <c r="G54" s="22">
-        <v>0</v>
-      </c>
-      <c r="H54" s="22">
-        <v>325.39311049113576</v>
-      </c>
-      <c r="I54" s="22">
-        <v>500.21251916564194</v>
-      </c>
-      <c r="J54" s="22">
-        <v>174.81940867450618</v>
-      </c>
-      <c r="K54" s="21">
-        <v>500.21251916564194</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A55" s="15">
-        <v>44377</v>
-      </c>
-      <c r="B55" s="25">
-        <v>1.33643</v>
-      </c>
-      <c r="C55" s="20">
-        <v>1.0020695033428839</v>
-      </c>
-      <c r="D55" s="21">
-        <v>0</v>
-      </c>
-      <c r="E55" s="22">
-        <v>0</v>
-      </c>
-      <c r="F55" s="22">
-        <v>0</v>
-      </c>
-      <c r="G55" s="22">
-        <v>0</v>
-      </c>
-      <c r="H55" s="22">
-        <v>325.39311049113576</v>
-      </c>
-      <c r="I55" s="22">
-        <v>500.21251916564194</v>
-      </c>
-      <c r="J55" s="22">
-        <v>174.81940867450618</v>
-      </c>
-      <c r="K55" s="21">
-        <v>500.21251916564194</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A56" s="15">
-        <v>44407</v>
-      </c>
-      <c r="B56" s="25">
-        <v>1.28626</v>
-      </c>
-      <c r="C56" s="20">
-        <v>1.0081902338634234</v>
-      </c>
-      <c r="D56" s="21">
-        <v>0</v>
-      </c>
-      <c r="E56" s="22">
-        <v>0</v>
-      </c>
-      <c r="F56" s="22">
-        <v>0</v>
-      </c>
-      <c r="G56" s="22">
-        <v>0</v>
-      </c>
-      <c r="H56" s="22">
-        <v>325.39311049113576</v>
-      </c>
-      <c r="I56" s="22">
-        <v>500.21251916564194</v>
-      </c>
-      <c r="J56" s="22">
-        <v>174.81940867450618</v>
-      </c>
-      <c r="K56" s="21">
-        <v>500.21251916564194</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A57" s="15">
-        <v>44439</v>
-      </c>
-      <c r="B57" s="25">
-        <v>1.2177899999999999</v>
-      </c>
-      <c r="C57" s="20">
-        <v>1.0134350962419794</v>
-      </c>
-      <c r="D57" s="21">
-        <v>0</v>
-      </c>
-      <c r="E57" s="22">
-        <v>0</v>
-      </c>
-      <c r="F57" s="22">
-        <v>0</v>
-      </c>
-      <c r="G57" s="22">
-        <v>0</v>
-      </c>
-      <c r="H57" s="22">
-        <v>325.39311049113576</v>
-      </c>
-      <c r="I57" s="22">
-        <v>500.21251916564194</v>
-      </c>
-      <c r="J57" s="22">
-        <v>174.81940867450618</v>
-      </c>
-      <c r="K57" s="21">
-        <v>500.21251916564194</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A58" s="15">
-        <v>44469</v>
-      </c>
-      <c r="B58" s="25">
-        <v>1.20347</v>
-      </c>
-      <c r="C58" s="20">
-        <v>1.0173092439243918</v>
-      </c>
-      <c r="D58" s="21">
-        <v>0</v>
-      </c>
-      <c r="E58" s="22">
-        <v>0</v>
-      </c>
-      <c r="F58" s="22">
-        <v>0</v>
-      </c>
-      <c r="G58" s="22">
-        <v>0</v>
-      </c>
-      <c r="H58" s="22">
-        <v>325.39311049113576</v>
-      </c>
-      <c r="I58" s="22">
-        <v>500.21251916564194</v>
-      </c>
-      <c r="J58" s="22">
-        <v>174.81940867450618</v>
-      </c>
-      <c r="K58" s="21">
-        <v>500.21251916564194</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A59" s="15">
-        <v>44498</v>
-      </c>
-      <c r="B59" s="25">
-        <v>1.1970999999999998</v>
-      </c>
-      <c r="C59" s="20">
-        <v>1.0199570984915698</v>
-      </c>
-      <c r="D59" s="21">
-        <v>0</v>
-      </c>
-      <c r="E59" s="22">
-        <v>0</v>
-      </c>
-      <c r="F59" s="22">
-        <v>0</v>
-      </c>
-      <c r="G59" s="22">
-        <v>0</v>
-      </c>
-      <c r="H59" s="22">
-        <v>325.39311049113576</v>
-      </c>
-      <c r="I59" s="22">
-        <v>500.21251916564194</v>
-      </c>
-      <c r="J59" s="22">
-        <v>174.81940867450618</v>
-      </c>
-      <c r="K59" s="21">
-        <v>500.21251916564194</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A60" s="15">
-        <v>44530</v>
-      </c>
-      <c r="B60" s="25">
-        <v>1.23373</v>
-      </c>
-      <c r="C60" s="20">
-        <v>1.0241169103568308</v>
-      </c>
-      <c r="D60" s="21">
-        <v>0</v>
-      </c>
-      <c r="E60" s="22">
-        <v>0</v>
-      </c>
-      <c r="F60" s="22">
-        <v>0</v>
-      </c>
-      <c r="G60" s="22">
-        <v>0</v>
-      </c>
-      <c r="H60" s="22">
-        <v>325.39311049113576</v>
-      </c>
-      <c r="I60" s="22">
-        <v>500.21251916564194</v>
-      </c>
-      <c r="J60" s="22">
-        <v>174.81940867450618</v>
-      </c>
-      <c r="K60" s="21">
-        <v>500.21251916564194</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A61" s="15">
-        <v>44561</v>
-      </c>
-      <c r="B61" s="25">
-        <v>1.2554100000000001</v>
-      </c>
-      <c r="C61" s="20">
-        <v>1.0284987286689407</v>
-      </c>
-      <c r="D61" s="21">
-        <v>0</v>
-      </c>
-      <c r="E61" s="22">
-        <v>0</v>
-      </c>
-      <c r="F61" s="22">
-        <v>0</v>
-      </c>
-      <c r="G61" s="22">
-        <v>0</v>
-      </c>
-      <c r="H61" s="22">
-        <v>325.39311049113576</v>
-      </c>
-      <c r="I61" s="22">
-        <v>500.21251916564194</v>
-      </c>
-      <c r="J61" s="22">
-        <v>174.81940867450618</v>
-      </c>
-      <c r="K61" s="21">
-        <v>500.21251916564194</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A62" s="15">
-        <v>44589</v>
-      </c>
-      <c r="B62" s="25">
-        <v>1.11076</v>
-      </c>
-      <c r="C62" s="20">
-        <v>1.0313231318219969</v>
-      </c>
-      <c r="D62" s="21">
-        <v>0</v>
-      </c>
-      <c r="E62" s="22">
-        <v>0</v>
-      </c>
-      <c r="F62" s="22">
-        <v>0</v>
-      </c>
-      <c r="G62" s="22">
-        <v>0</v>
-      </c>
-      <c r="H62" s="22">
-        <v>325.39311049113576</v>
-      </c>
-      <c r="I62" s="22">
-        <v>500.21251916564194</v>
-      </c>
-      <c r="J62" s="22">
-        <v>174.81940867450618</v>
-      </c>
-      <c r="K62" s="21">
-        <v>500.21251916564194</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A63" s="15">
-        <v>44620</v>
-      </c>
-      <c r="B63" s="25">
-        <v>1.15177</v>
-      </c>
-      <c r="C63" s="20">
-        <v>1.0328605716652843</v>
-      </c>
-      <c r="D63" s="21">
-        <v>0</v>
-      </c>
-      <c r="E63" s="22">
-        <v>0</v>
-      </c>
-      <c r="F63" s="22">
-        <v>0</v>
-      </c>
-      <c r="G63" s="22">
-        <v>0</v>
-      </c>
-      <c r="H63" s="22">
-        <v>325.39311049113576</v>
-      </c>
-      <c r="I63" s="22">
-        <v>500.21251916564194</v>
-      </c>
-      <c r="J63" s="22">
-        <v>174.81940867450618</v>
-      </c>
-      <c r="K63" s="21">
-        <v>500.21251916564194</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A64" s="15">
-        <v>44651</v>
-      </c>
-      <c r="B64" s="25">
-        <v>1.0468499999999998</v>
-      </c>
-      <c r="C64" s="20">
-        <v>1.0336782682926817</v>
-      </c>
-      <c r="D64" s="21">
-        <v>0</v>
-      </c>
-      <c r="E64" s="22">
-        <v>0</v>
-      </c>
-      <c r="F64" s="22">
-        <v>0</v>
-      </c>
-      <c r="G64" s="22">
-        <v>0</v>
-      </c>
-      <c r="H64" s="22">
-        <v>325.39311049113576</v>
-      </c>
-      <c r="I64" s="22">
-        <v>500.21251916564194</v>
-      </c>
-      <c r="J64" s="22">
-        <v>174.81940867450618</v>
-      </c>
-      <c r="K64" s="21">
-        <v>500.21251916564194</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A65" s="15">
-        <v>44680</v>
-      </c>
-      <c r="B65" s="25">
-        <v>0.83169999999999999</v>
-      </c>
-      <c r="C65" s="20">
-        <v>1.0320684787830248</v>
-      </c>
-      <c r="D65" s="21">
-        <v>62.228667299226338</v>
-      </c>
-      <c r="E65" s="22">
-        <v>74.821050017105136</v>
-      </c>
-      <c r="F65" s="22">
-        <v>74.821050017105136</v>
-      </c>
-      <c r="G65" s="22">
-        <v>62.228667299226345</v>
-      </c>
-      <c r="H65" s="22">
-        <v>387.6217777903621</v>
-      </c>
-      <c r="I65" s="22">
-        <v>562.44118646486822</v>
-      </c>
-      <c r="J65" s="22">
-        <v>174.81940867450612</v>
-      </c>
-      <c r="K65" s="21">
-        <v>500.21251916564194</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A66" s="15">
-        <v>44712</v>
-      </c>
-      <c r="B66" s="25">
-        <v>0.90644000000000002</v>
-      </c>
-      <c r="C66" s="20">
-        <v>1.0297221608832787</v>
-      </c>
-      <c r="D66" s="21">
-        <v>23.557661347678451</v>
-      </c>
-      <c r="E66" s="22">
-        <v>25.989212024710351</v>
-      </c>
-      <c r="F66" s="22">
-        <v>100.81026204181549</v>
-      </c>
-      <c r="G66" s="22">
-        <v>91.378453925183237</v>
-      </c>
-      <c r="H66" s="22">
-        <v>411.17943913804055</v>
-      </c>
-      <c r="I66" s="22">
-        <v>591.59097309082517</v>
-      </c>
-      <c r="J66" s="22">
-        <v>180.41153395278462</v>
-      </c>
-      <c r="K66" s="21">
-        <v>500.21251916564194</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A67" s="15">
-        <v>44742</v>
-      </c>
-      <c r="B67" s="25">
-        <v>0.99066999999999994</v>
-      </c>
-      <c r="C67" s="20">
-        <v>1.0283833281613628</v>
-      </c>
-      <c r="D67" s="21">
-        <v>2.2045574375602994</v>
-      </c>
-      <c r="E67" s="22">
-        <v>2.225319670082166</v>
-      </c>
-      <c r="F67" s="22">
-        <v>103.03558171189766</v>
-      </c>
-      <c r="G67" s="22">
-        <v>102.07425973452565</v>
-      </c>
-      <c r="H67" s="22">
-        <v>413.38399657560086</v>
-      </c>
-      <c r="I67" s="22">
-        <v>602.28677890016763</v>
-      </c>
-      <c r="J67" s="22">
-        <v>188.90278232456677</v>
-      </c>
-      <c r="K67" s="21">
-        <v>500.21251916564194</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A68" s="15">
-        <v>44771</v>
-      </c>
-      <c r="B68" s="25">
-        <v>1.01267</v>
-      </c>
-      <c r="C68" s="20">
-        <v>1.027569496183204</v>
-      </c>
-      <c r="D68" s="21">
-        <v>0.34409222909563486</v>
-      </c>
-      <c r="E68" s="22">
-        <v>0.33978712620659729</v>
-      </c>
-      <c r="F68" s="22">
-        <v>103.37536883810427</v>
-      </c>
-      <c r="G68" s="22">
-        <v>104.68513476128304</v>
-      </c>
-      <c r="H68" s="22">
-        <v>413.72808880469648</v>
-      </c>
-      <c r="I68" s="22">
-        <v>604.89765392692493</v>
-      </c>
-      <c r="J68" s="22">
-        <v>191.16956512222845</v>
-      </c>
-      <c r="K68" s="21">
-        <v>500.21251916564194</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A69" s="15">
-        <v>44804</v>
-      </c>
-      <c r="B69" s="25">
-        <v>0.95750000000000002</v>
-      </c>
-      <c r="C69" s="20">
-        <v>1.027452408102024</v>
-      </c>
-      <c r="D69" s="21">
-        <v>7.5846760688717678</v>
-      </c>
-      <c r="E69" s="22">
-        <v>7.9213327090044574</v>
-      </c>
-      <c r="F69" s="22">
-        <v>111.29670154710873</v>
-      </c>
-      <c r="G69" s="22">
-        <v>106.56659173135661</v>
-      </c>
-      <c r="H69" s="22">
-        <v>421.31276487356826</v>
-      </c>
-      <c r="I69" s="22">
-        <v>606.77911089699853</v>
-      </c>
-      <c r="J69" s="22">
-        <v>185.46634602343028</v>
-      </c>
-      <c r="K69" s="21">
-        <v>500.21251916564194</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A70" s="15">
-        <v>44834</v>
-      </c>
-      <c r="B70" s="25">
-        <v>0.85887999999999998</v>
-      </c>
-      <c r="C70" s="20">
-        <v>1.0259159970457883</v>
-      </c>
-      <c r="D70" s="21">
-        <v>43.246587679074935</v>
-      </c>
-      <c r="E70" s="22">
-        <v>50.352304954213551</v>
-      </c>
-      <c r="F70" s="22">
-        <v>161.64900650132228</v>
-      </c>
-      <c r="G70" s="22">
-        <v>138.83709870385567</v>
-      </c>
-      <c r="H70" s="22">
-        <v>464.55935255264319</v>
-      </c>
-      <c r="I70" s="22">
-        <v>639.04961786949764</v>
-      </c>
-      <c r="J70" s="22">
-        <v>174.49026531685445</v>
-      </c>
-      <c r="K70" s="21">
-        <v>500.21251916564194</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A71" s="15">
-        <v>44865</v>
-      </c>
-      <c r="B71" s="25">
-        <v>0.96957000000000004</v>
-      </c>
-      <c r="C71" s="20">
-        <v>1.0247332043795603</v>
-      </c>
-      <c r="D71" s="21">
-        <v>4.716617632002758</v>
-      </c>
-      <c r="E71" s="22">
-        <v>4.8646488979679212</v>
-      </c>
-      <c r="F71" s="22">
-        <v>166.5136553992902</v>
-      </c>
-      <c r="G71" s="22">
-        <v>161.44664486548982</v>
-      </c>
-      <c r="H71" s="22">
-        <v>469.27597018464593</v>
-      </c>
-      <c r="I71" s="22">
-        <v>661.6591640311317</v>
-      </c>
-      <c r="J71" s="22">
-        <v>192.38319384648577</v>
-      </c>
-      <c r="K71" s="21">
-        <v>500.21251916564194</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A72" s="15">
-        <v>44895</v>
-      </c>
-      <c r="B72" s="25">
-        <v>0.99405999999999994</v>
-      </c>
-      <c r="C72" s="20">
-        <v>1.0244747054597683</v>
-      </c>
-      <c r="D72" s="21">
-        <v>1.4338341777169143</v>
-      </c>
-      <c r="E72" s="22">
-        <v>1.4424020458693785</v>
-      </c>
-      <c r="F72" s="22">
-        <v>167.95605744515959</v>
-      </c>
-      <c r="G72" s="22">
-        <v>166.95839846393534</v>
-      </c>
-      <c r="H72" s="22">
-        <v>470.70980436236283</v>
-      </c>
-      <c r="I72" s="22">
-        <v>667.17091762957727</v>
-      </c>
-      <c r="J72" s="22">
-        <v>196.46111326721444</v>
-      </c>
-      <c r="K72" s="21">
-        <v>500.21251916564194</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A73" s="15">
-        <v>44925</v>
-      </c>
-      <c r="B73" s="25">
-        <v>0.95635000000000003</v>
-      </c>
-      <c r="C73" s="20">
-        <v>1.0239392715700129</v>
-      </c>
-      <c r="D73" s="21">
-        <v>7.0808799286156621</v>
-      </c>
-      <c r="E73" s="22">
-        <v>7.4040674738491781</v>
-      </c>
-      <c r="F73" s="22">
-        <v>175.36012491900877</v>
-      </c>
-      <c r="G73" s="22">
-        <v>167.70565546629405</v>
-      </c>
-      <c r="H73" s="22">
-        <v>477.7906842909785</v>
-      </c>
-      <c r="I73" s="22">
-        <v>667.91817463193593</v>
-      </c>
-      <c r="J73" s="22">
-        <v>190.12749034095742</v>
-      </c>
-      <c r="K73" s="21">
-        <v>500.21251916564194</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A74" s="15">
-        <v>44957</v>
-      </c>
-      <c r="B74" s="25">
-        <v>1.08087</v>
-      </c>
-      <c r="C74" s="20">
-        <v>1.0238983146853136</v>
-      </c>
-      <c r="D74" s="21">
-        <v>-5.0309480377732703</v>
-      </c>
-      <c r="E74" s="22">
-        <v>-4.6545357330421515</v>
-      </c>
-      <c r="F74" s="22">
-        <v>170.70558918596663</v>
-      </c>
-      <c r="G74" s="22">
-        <v>184.51055018343575</v>
-      </c>
-      <c r="H74" s="22">
-        <v>477.7906842909785</v>
-      </c>
-      <c r="I74" s="22">
-        <v>689.75401738685093</v>
-      </c>
-      <c r="J74" s="22">
-        <v>211.96333309587243</v>
-      </c>
-      <c r="K74" s="21">
-        <v>505.24346720341521</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A75" s="15">
-        <v>44985</v>
-      </c>
-      <c r="B75" s="25">
-        <v>1.16859</v>
-      </c>
-      <c r="C75" s="20">
-        <v>1.0258963172413778</v>
-      </c>
-      <c r="D75" s="21">
-        <v>-31.560305003788415</v>
-      </c>
-      <c r="E75" s="22">
-        <v>-27.007166759760405</v>
-      </c>
-      <c r="F75" s="22">
-        <v>143.69842242620624</v>
-      </c>
-      <c r="G75" s="22">
-        <v>167.92453946304036</v>
-      </c>
-      <c r="H75" s="22">
-        <v>477.7906842909785</v>
-      </c>
-      <c r="I75" s="22">
-        <v>704.7283116702439</v>
-      </c>
-      <c r="J75" s="22">
-        <v>226.93762737926539</v>
-      </c>
-      <c r="K75" s="21">
-        <v>536.80377220720356</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A76" s="15">
-        <v>45016</v>
-      </c>
-      <c r="B76" s="25">
-        <v>1.2989900000000001</v>
-      </c>
-      <c r="C76" s="20">
-        <v>1.0290512016293265</v>
-      </c>
-      <c r="D76" s="21">
-        <v>-112.9437800419949</v>
-      </c>
-      <c r="E76" s="22">
-        <v>-86.947382229266495</v>
-      </c>
-      <c r="F76" s="22">
-        <v>56.751040196939741</v>
-      </c>
-      <c r="G76" s="22">
-        <v>73.71903370542276</v>
-      </c>
-      <c r="H76" s="22">
-        <v>477.7906842909785</v>
-      </c>
-      <c r="I76" s="22">
-        <v>723.46658595462122</v>
-      </c>
-      <c r="J76" s="22">
-        <v>245.67590166364272</v>
-      </c>
-      <c r="K76" s="21">
-        <v>649.74755224919841</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A77" s="15">
-        <v>45044</v>
-      </c>
-      <c r="B77" s="25">
-        <v>1.22841</v>
-      </c>
-      <c r="C77" s="20">
-        <v>1.0323362533512053</v>
-      </c>
-      <c r="D77" s="21">
-        <v>-59.589616893588399</v>
-      </c>
-      <c r="E77" s="22">
-        <v>-48.509550470598903</v>
-      </c>
-      <c r="F77" s="22">
-        <v>8.2414897263408378</v>
-      </c>
-      <c r="G77" s="22">
-        <v>10.123928394734348</v>
-      </c>
-      <c r="H77" s="22">
-        <v>477.7906842909785</v>
-      </c>
-      <c r="I77" s="22">
-        <v>719.46109753752114</v>
-      </c>
-      <c r="J77" s="22">
-        <v>241.67041324654264</v>
-      </c>
-      <c r="K77" s="21">
-        <v>709.33716914278682</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="12.75">
-      <c r="A78" s="15">
-        <v>45077</v>
-      </c>
-      <c r="B78" s="25">
-        <v>1.2987200000000001</v>
-      </c>
-      <c r="C78" s="20">
-        <v>1.035146144179893</v>
-      </c>
-      <c r="D78" s="21">
-        <v>-10.703387537393374</v>
-      </c>
-      <c r="E78" s="22">
-        <v>-8.2414897263408378</v>
-      </c>
-      <c r="F78" s="22">
-        <v>0</v>
-      </c>
-      <c r="G78" s="22">
-        <v>0</v>
-      </c>
-      <c r="H78" s="22">
-        <v>477.7906842909785</v>
-      </c>
-      <c r="I78" s="22">
-        <v>720.0405566801802</v>
-      </c>
-      <c r="J78" s="22">
-        <v>242.2498723892017</v>
-      </c>
-      <c r="K78" s="21">
-        <v>720.0405566801802</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="12.75">
-      <c r="A79" s="15">
-        <v>45107</v>
-      </c>
-      <c r="B79" s="25">
-        <v>1.32033</v>
-      </c>
-      <c r="C79" s="20">
-        <v>1.0390798825065262</v>
-      </c>
-      <c r="D79" s="21">
-        <v>0</v>
-      </c>
-      <c r="E79" s="22">
-        <v>0</v>
-      </c>
-      <c r="F79" s="22">
-        <v>0</v>
-      </c>
-      <c r="G79" s="22">
-        <v>0</v>
-      </c>
-      <c r="H79" s="22">
-        <v>477.7906842909785</v>
-      </c>
-      <c r="I79" s="22">
-        <v>720.0405566801802</v>
-      </c>
-      <c r="J79" s="22">
-        <v>242.2498723892017</v>
-      </c>
-      <c r="K79" s="21">
-        <v>720.0405566801802</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="12.75">
-      <c r="A80" s="15">
-        <v>45138</v>
-      </c>
-      <c r="B80" s="25">
-        <v>1.25888</v>
-      </c>
-      <c r="C80" s="20">
-        <v>1.0424057115260772</v>
-      </c>
-      <c r="D80" s="21">
-        <v>0</v>
-      </c>
-      <c r="E80" s="22">
-        <v>0</v>
-      </c>
-      <c r="F80" s="22">
-        <v>0</v>
-      </c>
-      <c r="G80" s="22">
-        <v>0</v>
-      </c>
-      <c r="H80" s="22">
-        <v>477.7906842909785</v>
-      </c>
-      <c r="I80" s="22">
-        <v>720.0405566801802</v>
-      </c>
-      <c r="J80" s="22">
-        <v>242.2498723892017</v>
-      </c>
-      <c r="K80" s="21">
-        <v>720.0405566801802</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="12.75">
-      <c r="A81" s="15">
-        <v>45169</v>
-      </c>
-      <c r="B81" s="25">
-        <v>1.25305</v>
-      </c>
-      <c r="C81" s="20">
-        <v>1.0452700190355317</v>
-      </c>
-      <c r="D81" s="21">
-        <v>0</v>
-      </c>
-      <c r="E81" s="22">
-        <v>0</v>
-      </c>
-      <c r="F81" s="22">
-        <v>0</v>
-      </c>
-      <c r="G81" s="22">
-        <v>0</v>
-      </c>
-      <c r="H81" s="22">
-        <v>477.7906842909785</v>
-      </c>
-      <c r="I81" s="22">
-        <v>720.0405566801802</v>
-      </c>
-      <c r="J81" s="22">
-        <v>242.2498723892017</v>
-      </c>
-      <c r="K81" s="21">
-        <v>720.0405566801802</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="12.75">
-      <c r="A82" s="15">
-        <v>45197</v>
-      </c>
-      <c r="B82" s="25">
-        <v>1.2315999999999998</v>
-      </c>
-      <c r="C82" s="20">
-        <v>1.0475409711779438</v>
-      </c>
-      <c r="D82" s="21">
-        <v>0</v>
-      </c>
-      <c r="E82" s="22">
-        <v>0</v>
-      </c>
-      <c r="F82" s="22">
-        <v>0</v>
-      </c>
-      <c r="G82" s="22">
-        <v>0</v>
-      </c>
-      <c r="H82" s="22">
-        <v>477.7906842909785</v>
-      </c>
-      <c r="I82" s="22">
-        <v>720.0405566801802</v>
-      </c>
-      <c r="J82" s="22">
-        <v>242.2498723892017</v>
-      </c>
-      <c r="K82" s="21">
-        <v>720.0405566801802</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="12.75">
-      <c r="A83" s="15">
-        <v>45230</v>
-      </c>
-      <c r="B83" s="25">
-        <v>1.2139500000000001</v>
-      </c>
-      <c r="C83" s="20">
-        <v>1.0492853130812139</v>
-      </c>
-      <c r="D83" s="21">
-        <v>0</v>
-      </c>
-      <c r="E83" s="22">
-        <v>0</v>
-      </c>
-      <c r="F83" s="22">
-        <v>0</v>
-      </c>
-      <c r="G83" s="22">
-        <v>0</v>
-      </c>
-      <c r="H83" s="22">
-        <v>477.7906842909785</v>
-      </c>
-      <c r="I83" s="22">
-        <v>720.0405566801802</v>
-      </c>
-      <c r="J83" s="22">
-        <v>242.2498723892017</v>
-      </c>
-      <c r="K83" s="21">
-        <v>720.0405566801802</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="12.75">
-      <c r="A84" s="15">
-        <v>45260</v>
-      </c>
-      <c r="B84" s="25">
-        <v>1.2765299999999999</v>
-      </c>
-      <c r="C84" s="20">
-        <v>1.0525251376146776</v>
-      </c>
-      <c r="D84" s="21">
-        <v>0</v>
-      </c>
-      <c r="E84" s="22">
-        <v>0</v>
-      </c>
-      <c r="F84" s="22">
-        <v>0</v>
-      </c>
-      <c r="G84" s="22">
-        <v>0</v>
-      </c>
-      <c r="H84" s="22">
-        <v>477.7906842909785</v>
-      </c>
-      <c r="I84" s="22">
-        <v>720.0405566801802</v>
-      </c>
-      <c r="J84" s="22">
-        <v>242.2498723892017</v>
-      </c>
-      <c r="K84" s="21">
-        <v>720.0405566801802</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="12.75">
-      <c r="A85" s="15">
-        <v>45289</v>
-      </c>
-      <c r="B85" s="25">
-        <v>1.2663900000000001</v>
-      </c>
-      <c r="C85" s="20">
-        <v>1.0554007487922688</v>
-      </c>
-      <c r="D85" s="21">
-        <v>0</v>
-      </c>
-      <c r="E85" s="22">
-        <v>0</v>
-      </c>
-      <c r="F85" s="22">
-        <v>0</v>
-      </c>
-      <c r="G85" s="22">
-        <v>0</v>
-      </c>
-      <c r="H85" s="22">
-        <v>477.7906842909785</v>
-      </c>
-      <c r="I85" s="22">
-        <v>720.0405566801802</v>
-      </c>
-      <c r="J85" s="22">
-        <v>242.2498723892017</v>
-      </c>
-      <c r="K85" s="21">
-        <v>720.0405566801802</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="12.75">
-      <c r="A86" s="15">
-        <v>45322</v>
-      </c>
-      <c r="B86" s="25">
-        <v>0.96689999999999998</v>
-      </c>
-      <c r="C86" s="20">
-        <v>1.0565099225268164</v>
-      </c>
-      <c r="D86" s="21">
-        <v>12.446404233656166</v>
-      </c>
-      <c r="E86" s="22">
-        <v>12.872483435366807</v>
-      </c>
-      <c r="F86" s="22">
-        <v>12.872483435366807</v>
-      </c>
-      <c r="G86" s="22">
-        <v>12.446404233656166</v>
-      </c>
-      <c r="H86" s="22">
-        <v>490.23708852463466</v>
-      </c>
-      <c r="I86" s="22">
-        <v>732.48696091383636</v>
-      </c>
-      <c r="J86" s="22">
-        <v>242.2498723892017</v>
-      </c>
-      <c r="K86" s="21">
-        <v>720.0405566801802</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="12.75">
-      <c r="A87" s="15">
-        <v>45351</v>
-      </c>
-      <c r="B87" s="25">
-        <v>1.0978699999999999</v>
-      </c>
-      <c r="C87" s="20">
-        <v>1.0558294743059644</v>
-      </c>
-      <c r="D87" s="21">
-        <v>-2.7394789909778305</v>
-      </c>
-      <c r="E87" s="22">
-        <v>-2.4952671909951367</v>
-      </c>
-      <c r="F87" s="22">
-        <v>10.37721624437167</v>
-      </c>
-      <c r="G87" s="22">
-        <v>11.392834398208324</v>
-      </c>
-      <c r="H87" s="22">
-        <v>490.23708852463466</v>
-      </c>
-      <c r="I87" s="22">
-        <v>734.17287006936647</v>
-      </c>
-      <c r="J87" s="22">
-        <v>243.93578154473181</v>
-      </c>
-      <c r="K87" s="21">
-        <v>722.78003567115809</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="12.75">
-      <c r="A88" s="15">
-        <v>45380</v>
-      </c>
-      <c r="B88" s="25">
-        <v>1.1385699999999999</v>
-      </c>
-      <c r="C88" s="20">
-        <v>1.0570255600933478</v>
-      </c>
-      <c r="D88" s="21">
-        <v>-10.306718303518862</v>
-      </c>
-      <c r="E88" s="22">
-        <v>-9.0523360913416511</v>
-      </c>
-      <c r="F88" s="22">
-        <v>1.3248801530300192</v>
-      </c>
-      <c r="G88" s="22">
-        <v>1.5084687958353886</v>
-      </c>
-      <c r="H88" s="22">
-        <v>490.23708852463466</v>
-      </c>
-      <c r="I88" s="22">
-        <v>734.59522277051235</v>
-      </c>
-      <c r="J88" s="22">
-        <v>244.35813424587769</v>
-      </c>
-      <c r="K88" s="21">
-        <v>733.08675397467698</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="12.75">
-      <c r="A89" s="15">
-        <v>45412</v>
-      </c>
-      <c r="B89" s="25">
-        <v>1.08613</v>
-      </c>
-      <c r="C89" s="20">
-        <v>1.0569674567474039</v>
-      </c>
-      <c r="D89" s="21">
-        <v>-1.318203589887289</v>
-      </c>
-      <c r="E89" s="22">
-        <v>-1.2136701774992764</v>
-      </c>
-      <c r="F89" s="22">
-        <v>0.11120997553074274</v>
-      </c>
-      <c r="G89" s="22">
-        <v>0.12078849072320562</v>
-      </c>
-      <c r="H89" s="22">
-        <v>490.23708852463466</v>
-      </c>
-      <c r="I89" s="22">
-        <v>734.52574605528741</v>
-      </c>
-      <c r="J89" s="22">
-        <v>244.28865753065276</v>
-      </c>
-      <c r="K89" s="21">
-        <v>734.40495756456426</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="12.75">
-      <c r="A90" s="15">
-        <v>45443</v>
-      </c>
-      <c r="B90" s="25">
-        <v>1.0215700000000001</v>
-      </c>
-      <c r="C90" s="20">
-        <v>1.0568461345496005</v>
-      </c>
-      <c r="D90" s="21">
-        <v>1.928828786580346</v>
-      </c>
-      <c r="E90" s="22">
-        <v>1.888102417436246</v>
-      </c>
-      <c r="F90" s="22">
-        <v>1.9993123929669887</v>
-      </c>
-      <c r="G90" s="22">
-        <v>2.042437561283287</v>
-      </c>
-      <c r="H90" s="22">
-        <v>492.16591731121503</v>
-      </c>
-      <c r="I90" s="22">
-        <v>736.44739512584749</v>
-      </c>
-      <c r="J90" s="22">
-        <v>244.28147781463247</v>
-      </c>
-      <c r="K90" s="21">
-        <v>734.40495756456426</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="12.75">
-      <c r="A91" s="15">
-        <v>45471</v>
-      </c>
-      <c r="B91" s="25">
-        <v>0.95643</v>
-      </c>
-      <c r="C91" s="20">
-        <v>1.0559395713479971</v>
-      </c>
-      <c r="D91" s="21">
-        <v>15.348339924286291</v>
-      </c>
-      <c r="E91" s="22">
-        <v>16.047530843121077</v>
-      </c>
-      <c r="F91" s="22">
-        <v>18.046843236088066</v>
-      </c>
-      <c r="G91" s="22">
-        <v>17.260542276291709</v>
-      </c>
-      <c r="H91" s="22">
-        <v>507.5142572355013</v>
-      </c>
-      <c r="I91" s="22">
-        <v>751.665499840856</v>
-      </c>
-      <c r="J91" s="22">
-        <v>244.1512426053547</v>
-      </c>
-      <c r="K91" s="21">
-        <v>734.40495756456426</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="12.75">
-      <c r="A92" s="15">
-        <v>45504</v>
-      </c>
-      <c r="B92" s="25">
-        <v>0.97935000000000005</v>
-      </c>
-      <c r="C92" s="20">
-        <v>1.0544190645879727</v>
-      </c>
-      <c r="D92" s="21">
-        <v>8.7348149100754835</v>
-      </c>
-      <c r="E92" s="22">
-        <v>8.9189920968759715</v>
-      </c>
-      <c r="F92" s="22">
-        <v>26.965835332964037</v>
-      </c>
-      <c r="G92" s="22">
-        <v>26.408990833338333</v>
-      </c>
-      <c r="H92" s="22">
-        <v>516.24907214557675</v>
-      </c>
-      <c r="I92" s="22">
-        <v>760.81394839790255</v>
-      </c>
-      <c r="J92" s="22">
-        <v>244.5648762523258</v>
-      </c>
-      <c r="K92" s="21">
-        <v>734.40495756456426</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="12.75">
-      <c r="A93" s="15">
-        <v>45534</v>
-      </c>
-      <c r="B93" s="25">
-        <v>0.93902999999999992</v>
-      </c>
-      <c r="C93" s="20">
-        <v>1.0528800330033004</v>
-      </c>
-      <c r="D93" s="21">
-        <v>20.090836523021526</v>
-      </c>
-      <c r="E93" s="22">
-        <v>21.395308481115116</v>
-      </c>
-      <c r="F93" s="22">
-        <v>48.361143814079156</v>
-      </c>
-      <c r="G93" s="22">
-        <v>45.412564875734745</v>
-      </c>
-      <c r="H93" s="22">
-        <v>536.33990866859824</v>
-      </c>
-      <c r="I93" s="22">
-        <v>779.81752244029894</v>
-      </c>
-      <c r="J93" s="22">
-        <v>243.4776137717007</v>
-      </c>
-      <c r="K93" s="21">
-        <v>734.40495756456426</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="12.75">
-      <c r="A94" s="15">
-        <v>45565</v>
-      </c>
-      <c r="B94" s="25">
-        <v>1.2181600000000001</v>
-      </c>
-      <c r="C94" s="20">
-        <v>1.0519209798584648</v>
-      </c>
-      <c r="D94" s="21">
-        <v>-42.834888317307588</v>
-      </c>
-      <c r="E94" s="22">
-        <v>-35.163597817452207</v>
-      </c>
-      <c r="F94" s="22">
-        <v>13.19754599662695</v>
-      </c>
-      <c r="G94" s="22">
-        <v>16.076722631251087</v>
-      </c>
-      <c r="H94" s="22">
-        <v>536.33990866859824</v>
-      </c>
-      <c r="I94" s="22">
-        <v>793.31656851312289</v>
-      </c>
-      <c r="J94" s="22">
-        <v>256.97665984452465</v>
-      </c>
-      <c r="K94" s="21">
-        <v>777.23984588187182</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="12.75">
-      <c r="A95" s="15">
-        <v>45596</v>
-      </c>
-      <c r="B95" s="25">
-        <v>1.3863099999999999</v>
-      </c>
-      <c r="C95" s="20">
-        <v>1.0544077963362068</v>
-      </c>
-      <c r="D95" s="21">
-        <v>-170.74656283516708</v>
-      </c>
-      <c r="E95" s="22">
-        <v>-123.16622027913461</v>
-      </c>
-      <c r="F95" s="22">
-        <v>-109.96867428250766</v>
-      </c>
-      <c r="G95" s="22">
-        <v>-152.45067284458318</v>
-      </c>
-      <c r="H95" s="22">
-        <v>536.33990866859824</v>
-      </c>
-      <c r="I95" s="22">
-        <v>795.53573587245569</v>
-      </c>
-      <c r="J95" s="22">
-        <v>259.19582720385745</v>
-      </c>
-      <c r="K95" s="21">
-        <v>947.9864087170389</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF83"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C10" sqref="C10"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
-  <cols>
-    <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="3" customWidth="1"/>
-    <col min="7" max="8" width="11.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="2"/>
-    <col min="14" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.375" style="1" customWidth="1"/>
-    <col min="18" max="19" width="11.125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.25" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="9" style="1"/>
-    <col min="24" max="24" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="9" style="1"/>
-    <col min="27" max="27" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="9" style="1"/>
-    <col min="30" max="30" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="50" width="9" style="1"/>
-    <col min="51" max="51" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
-      <c r="A1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="13"/>
-    </row>
-    <row r="2" spans="1:32" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="23"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="24"/>
-      <c r="M2" s="19"/>
-    </row>
-    <row r="3" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5">
-        <v>1550</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5">
-        <f>MIN(F:F)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:32" ht="14.1" customHeight="1">
       <c r="A4" s="15">
@@ -14160,6 +14249,41 @@
       </c>
       <c r="K83" s="21">
         <v>958.14251905010065</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="12.75">
+      <c r="A84" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B84" s="25">
+        <v>1.46269</v>
+      </c>
+      <c r="C84" s="20">
+        <v>1.1046611600000003</v>
+      </c>
+      <c r="D84" s="21">
+        <v>-198.68620792120544</v>
+      </c>
+      <c r="E84" s="22">
+        <v>-135.83617028981223</v>
+      </c>
+      <c r="F84" s="22">
+        <v>379.92716165954766</v>
+      </c>
+      <c r="G84" s="22">
+        <v>555.71566008780383</v>
+      </c>
+      <c r="H84" s="22">
+        <v>1179.2233563460313</v>
+      </c>
+      <c r="I84" s="22">
+        <v>1712.5443870591098</v>
+      </c>
+      <c r="J84" s="22">
+        <v>533.32103071307847</v>
+      </c>
+      <c r="K84" s="21">
+        <v>1156.828726971306</v>
       </c>
     </row>
   </sheetData>
@@ -14178,7 +14302,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AF83"/>
+  <dimension ref="A1:AF84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17558,6 +17682,41 @@
         <v>193.64355242019121</v>
       </c>
     </row>
+    <row r="84" spans="1:11" ht="12.75">
+      <c r="A84" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B84" s="25">
+        <v>1.46269</v>
+      </c>
+      <c r="C84" s="20">
+        <v>1.1046611600000003</v>
+      </c>
+      <c r="D84" s="21">
+        <v>-71.135392546027958</v>
+      </c>
+      <c r="E84" s="22">
+        <v>-48.633266478903906</v>
+      </c>
+      <c r="F84" s="22">
+        <v>78.109288524285532</v>
+      </c>
+      <c r="G84" s="22">
+        <v>114.2496752315872</v>
+      </c>
+      <c r="H84" s="22">
+        <v>250.29467916284148</v>
+      </c>
+      <c r="I84" s="22">
+        <v>379.02862019780639</v>
+      </c>
+      <c r="J84" s="22">
+        <v>128.73394103496491</v>
+      </c>
+      <c r="K84" s="21">
+        <v>264.77894496621917</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
@@ -2536,11 +2536,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="418409088"/>
-        <c:axId val="425952000"/>
+        <c:axId val="403437824"/>
+        <c:axId val="403749504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="418409088"/>
+        <c:axId val="403437824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2583,14 +2583,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425952000"/>
+        <c:crossAx val="403749504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="425952000"/>
+        <c:axId val="403749504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2639,7 +2639,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418409088"/>
+        <c:crossAx val="403437824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4444,11 +4444,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91062656"/>
-        <c:axId val="91064192"/>
+        <c:axId val="453158784"/>
+        <c:axId val="454127616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="91062656"/>
+        <c:axId val="453158784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4491,14 +4491,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91064192"/>
+        <c:crossAx val="454127616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="91064192"/>
+        <c:axId val="454127616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4547,7 +4547,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91062656"/>
+        <c:crossAx val="453158784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6352,11 +6352,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91361280"/>
-        <c:axId val="91362816"/>
+        <c:axId val="457359360"/>
+        <c:axId val="457360896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="91361280"/>
+        <c:axId val="457359360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6399,14 +6399,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91362816"/>
+        <c:crossAx val="457360896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="91362816"/>
+        <c:axId val="457360896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6455,7 +6455,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91361280"/>
+        <c:crossAx val="457359360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>

--- a/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
@@ -715,7 +715,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -997,6 +997,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1006,7 +1009,7 @@
               <c:f>'model4(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1287,6 +1290,9 @@
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>536.33990866859824</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
               </c:numCache>
@@ -1330,7 +1336,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1612,6 +1618,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1621,7 +1630,7 @@
               <c:f>'model4(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1899,6 +1908,9 @@
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>795.53573587245569</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
               </c:numCache>
@@ -1942,7 +1954,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2224,6 +2236,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2233,7 +2248,7 @@
               <c:f>'model4(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2514,6 +2529,9 @@
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>259.19582720385745</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
               </c:numCache>
@@ -2536,11 +2554,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="403437824"/>
-        <c:axId val="403749504"/>
+        <c:axId val="87011712"/>
+        <c:axId val="87112704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="403437824"/>
+        <c:axId val="87011712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2583,14 +2601,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403749504"/>
+        <c:crossAx val="87112704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="403749504"/>
+        <c:axId val="87112704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2639,7 +2657,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403437824"/>
+        <c:crossAx val="87011712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2836,7 +2854,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3082,6 +3100,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3091,7 +3112,7 @@
               <c:f>'model4(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3336,6 +3357,9 @@
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
                 <c:pt idx="81">
+                  <c:v>1179.2233563460313</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
               </c:numCache>
@@ -3379,7 +3403,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3625,6 +3649,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3634,7 +3661,7 @@
               <c:f>'model4(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3880,6 +3907,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>1682.8920126129276</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1684.5031336690745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3922,7 +3952,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4168,6 +4198,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4177,7 +4210,7 @@
               <c:f>'model4(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4423,6 +4456,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>503.66865626689628</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>505.27977732304316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4444,11 +4480,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="453158784"/>
-        <c:axId val="454127616"/>
+        <c:axId val="385116800"/>
+        <c:axId val="385892736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="453158784"/>
+        <c:axId val="385116800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4491,14 +4527,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454127616"/>
+        <c:crossAx val="385892736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="454127616"/>
+        <c:axId val="385892736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4547,7 +4583,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453158784"/>
+        <c:crossAx val="385116800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4744,7 +4780,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4990,6 +5026,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4999,7 +5038,7 @@
               <c:f>'model4(3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5244,6 +5283,9 @@
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
                 <c:pt idx="81">
+                  <c:v>250.29467916284148</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
               </c:numCache>
@@ -5287,7 +5329,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5533,6 +5575,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5542,7 +5587,7 @@
               <c:f>'model4(3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5788,6 +5833,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>372.93260702767509</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>373.23915699877301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5830,7 +5878,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -6076,6 +6124,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6085,7 +6136,7 @@
               <c:f>'model4(3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6331,6 +6382,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>122.63792786483361</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>122.94447783593154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6352,11 +6406,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="457359360"/>
-        <c:axId val="457360896"/>
+        <c:axId val="367458176"/>
+        <c:axId val="367459712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="457359360"/>
+        <c:axId val="367458176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6399,14 +6453,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457360896"/>
+        <c:crossAx val="367459712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="457360896"/>
+        <c:axId val="367459712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6455,7 +6509,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457359360"/>
+        <c:crossAx val="367458176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6563,7 +6617,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6606,7 +6660,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6649,7 +6703,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6962,7 +7016,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF97"/>
+  <dimension ref="A1:AF98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11058,6 +11112,41 @@
         <v>795.53573587245569</v>
       </c>
     </row>
+    <row r="98" spans="1:11" ht="12.75">
+      <c r="A98" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B98" s="25">
+        <v>1.38998</v>
+      </c>
+      <c r="C98" s="20">
+        <v>1.0659416127348635</v>
+      </c>
+      <c r="D98" s="21">
+        <v>0</v>
+      </c>
+      <c r="E98" s="22">
+        <v>0</v>
+      </c>
+      <c r="F98" s="22">
+        <v>0</v>
+      </c>
+      <c r="G98" s="22">
+        <v>0</v>
+      </c>
+      <c r="H98" s="22">
+        <v>536.33990866859824</v>
+      </c>
+      <c r="I98" s="22">
+        <v>795.53573587245569</v>
+      </c>
+      <c r="J98" s="22">
+        <v>259.19582720385745</v>
+      </c>
+      <c r="K98" s="21">
+        <v>795.53573587245569</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -11074,10 +11163,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF85"/>
+  <dimension ref="A1:AF86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C10" sqref="C10"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
@@ -14628,6 +14717,41 @@
         <v>1265.1349603314209</v>
       </c>
     </row>
+    <row r="86" spans="1:11" ht="12.75">
+      <c r="A86" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B86" s="25">
+        <v>1.38998</v>
+      </c>
+      <c r="C86" s="20">
+        <v>1.1301867999999995</v>
+      </c>
+      <c r="D86" s="21">
+        <v>-104.6133854876724</v>
+      </c>
+      <c r="E86" s="22">
+        <v>-75.262511322229386</v>
+      </c>
+      <c r="F86" s="22">
+        <v>226.44555162662863</v>
+      </c>
+      <c r="G86" s="22">
+        <v>314.75478784998126</v>
+      </c>
+      <c r="H86" s="22">
+        <v>1179.2233563460313</v>
+      </c>
+      <c r="I86" s="22">
+        <v>1684.5031336690745</v>
+      </c>
+      <c r="J86" s="22">
+        <v>505.27977732304316</v>
+      </c>
+      <c r="K86" s="21">
+        <v>1369.7483458190932</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -14644,10 +14768,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AF85"/>
+  <dimension ref="A1:AF86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C10" sqref="C10"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
@@ -18198,6 +18322,41 @@
         <v>293.44546246194739</v>
       </c>
     </row>
+    <row r="86" spans="1:11" ht="12.75">
+      <c r="A86" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B86" s="25">
+        <v>1.38998</v>
+      </c>
+      <c r="C86" s="20">
+        <v>1.1301867999999995</v>
+      </c>
+      <c r="D86" s="21">
+        <v>-27.177846178676024</v>
+      </c>
+      <c r="E86" s="22">
+        <v>-19.552688656438239</v>
+      </c>
+      <c r="F86" s="22">
+        <v>37.853672972380608</v>
+      </c>
+      <c r="G86" s="22">
+        <v>52.615848358149599</v>
+      </c>
+      <c r="H86" s="22">
+        <v>250.29467916284148</v>
+      </c>
+      <c r="I86" s="22">
+        <v>373.23915699877301</v>
+      </c>
+      <c r="J86" s="22">
+        <v>122.94447783593154</v>
+      </c>
+      <c r="K86" s="21">
+        <v>320.62330864062341</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
@@ -715,7 +715,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1000,6 +1000,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1009,7 +1012,7 @@
               <c:f>'model4(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1293,6 +1296,9 @@
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>536.33990866859824</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
               </c:numCache>
@@ -1336,7 +1342,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1621,6 +1627,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1630,7 +1639,7 @@
               <c:f>'model4(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1911,6 +1920,9 @@
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>795.53573587245569</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
               </c:numCache>
@@ -1954,7 +1966,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2239,6 +2251,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2248,7 +2263,7 @@
               <c:f>'model4(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2532,6 +2547,9 @@
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>259.19582720385745</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
               </c:numCache>
@@ -2554,11 +2572,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87011712"/>
-        <c:axId val="87112704"/>
+        <c:axId val="97981184"/>
+        <c:axId val="97983104"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="87011712"/>
+        <c:axId val="97981184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2601,14 +2619,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87112704"/>
+        <c:crossAx val="97983104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="87112704"/>
+        <c:axId val="97983104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2657,7 +2675,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87011712"/>
+        <c:crossAx val="97981184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2854,7 +2872,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3103,6 +3121,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3112,7 +3133,7 @@
               <c:f>'model4(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3360,6 +3381,9 @@
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
                 <c:pt idx="82">
+                  <c:v>1179.2233563460313</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
               </c:numCache>
@@ -3403,7 +3427,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3652,6 +3676,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3661,7 +3688,7 @@
               <c:f>'model4(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3910,6 +3937,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>1684.5031336690745</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1727.8063165066346</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3952,7 +3982,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4201,6 +4231,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4210,7 +4243,7 @@
               <c:f>'model4(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4459,6 +4492,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>505.27977732304316</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>548.58296016060331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4480,11 +4516,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="385116800"/>
-        <c:axId val="385892736"/>
+        <c:axId val="442542336"/>
+        <c:axId val="452358144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="385116800"/>
+        <c:axId val="442542336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4527,14 +4563,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385892736"/>
+        <c:crossAx val="452358144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="385892736"/>
+        <c:axId val="452358144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4583,7 +4619,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385116800"/>
+        <c:crossAx val="442542336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4780,7 +4816,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5029,6 +5065,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5038,7 +5077,7 @@
               <c:f>'model4(3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5286,6 +5325,9 @@
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
                 <c:pt idx="82">
+                  <c:v>250.29467916284148</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
               </c:numCache>
@@ -5329,7 +5371,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5578,6 +5620,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5587,7 +5632,7 @@
               <c:f>'model4(3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5836,6 +5881,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>373.23915699877301</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>380.47791488128138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5878,7 +5926,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -6127,6 +6175,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6136,7 +6187,7 @@
               <c:f>'model4(3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6385,6 +6436,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>122.94447783593154</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>130.1832357184399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6406,11 +6460,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="367458176"/>
-        <c:axId val="367459712"/>
+        <c:axId val="518558848"/>
+        <c:axId val="518560384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="367458176"/>
+        <c:axId val="518558848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6453,14 +6507,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367459712"/>
+        <c:crossAx val="518560384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="367459712"/>
+        <c:axId val="518560384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6509,7 +6563,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367458176"/>
+        <c:crossAx val="518558848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7016,7 +7070,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF98"/>
+  <dimension ref="A1:AF99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11147,6 +11201,41 @@
         <v>795.53573587245569</v>
       </c>
     </row>
+    <row r="99" spans="1:11" ht="12.75">
+      <c r="A99" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B99" s="25">
+        <v>1.58121</v>
+      </c>
+      <c r="C99" s="20">
+        <v>1.0709083815925535</v>
+      </c>
+      <c r="D99" s="21">
+        <v>0</v>
+      </c>
+      <c r="E99" s="22">
+        <v>0</v>
+      </c>
+      <c r="F99" s="22">
+        <v>0</v>
+      </c>
+      <c r="G99" s="22">
+        <v>0</v>
+      </c>
+      <c r="H99" s="22">
+        <v>536.33990866859824</v>
+      </c>
+      <c r="I99" s="22">
+        <v>795.53573587245569</v>
+      </c>
+      <c r="J99" s="22">
+        <v>259.19582720385745</v>
+      </c>
+      <c r="K99" s="21">
+        <v>795.53573587245569</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -11163,7 +11252,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF86"/>
+  <dimension ref="A1:AF87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14752,6 +14841,41 @@
         <v>1369.7483458190932</v>
       </c>
     </row>
+    <row r="87" spans="1:11" ht="12.75">
+      <c r="A87" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B87" s="25">
+        <v>1.58121</v>
+      </c>
+      <c r="C87" s="20">
+        <v>1.1721302800000002</v>
+      </c>
+      <c r="D87" s="21">
+        <v>-259.38663683868128</v>
+      </c>
+      <c r="E87" s="22">
+        <v>-164.04312952655326</v>
+      </c>
+      <c r="F87" s="22">
+        <v>62.40242210007537</v>
+      </c>
+      <c r="G87" s="22">
+        <v>98.671333848860172</v>
+      </c>
+      <c r="H87" s="22">
+        <v>1179.2233563460313</v>
+      </c>
+      <c r="I87" s="22">
+        <v>1727.8063165066346</v>
+      </c>
+      <c r="J87" s="22">
+        <v>548.58296016060331</v>
+      </c>
+      <c r="K87" s="21">
+        <v>1629.1349826577743</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -14767,8 +14891,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AF86"/>
+  <sheetPr codeName="Sheet3">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AF87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14871,7 +14997,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>0</v>
+        <v>-29.253044522265498</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -18355,6 +18481,41 @@
       </c>
       <c r="K86" s="21">
         <v>320.62330864062341</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="12.75">
+      <c r="A87" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B87" s="25">
+        <v>1.58121</v>
+      </c>
+      <c r="C87" s="20">
+        <v>1.1721302800000002</v>
+      </c>
+      <c r="D87" s="21">
+        <v>-106.10981276970936</v>
+      </c>
+      <c r="E87" s="22">
+        <v>-67.106717494646105</v>
+      </c>
+      <c r="F87" s="22">
+        <v>-29.253044522265498</v>
+      </c>
+      <c r="G87" s="22">
+        <v>-46.255206529051428</v>
+      </c>
+      <c r="H87" s="22">
+        <v>250.29467916284148</v>
+      </c>
+      <c r="I87" s="22">
+        <v>380.47791488128138</v>
+      </c>
+      <c r="J87" s="22">
+        <v>130.1832357184399</v>
+      </c>
+      <c r="K87" s="21">
+        <v>426.73312141033279</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
@@ -715,7 +715,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1003,6 +1003,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1012,7 +1015,7 @@
               <c:f>'model4(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1299,6 +1302,9 @@
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>536.33990866859824</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
               </c:numCache>
@@ -1342,7 +1348,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1630,6 +1636,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1639,7 +1648,7 @@
               <c:f>'model4(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1923,6 +1932,9 @@
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>795.53573587245569</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
               </c:numCache>
@@ -1966,7 +1978,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2254,6 +2266,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2263,7 +2278,7 @@
               <c:f>'model4(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2550,6 +2565,9 @@
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>259.19582720385745</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
               </c:numCache>
@@ -2572,11 +2590,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97981184"/>
-        <c:axId val="97983104"/>
+        <c:axId val="67591552"/>
+        <c:axId val="89517056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="97981184"/>
+        <c:axId val="67591552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2619,14 +2637,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97983104"/>
+        <c:crossAx val="89517056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="97983104"/>
+        <c:axId val="89517056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2675,7 +2693,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97981184"/>
+        <c:crossAx val="67591552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2872,7 +2890,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3124,6 +3142,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3133,7 +3154,7 @@
               <c:f>'model4(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3384,6 +3405,9 @@
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>1179.2233563460313</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
               </c:numCache>
@@ -3427,7 +3451,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3679,6 +3703,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3688,7 +3715,7 @@
               <c:f>'model4(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3940,6 +3967,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>1727.8063165066346</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1725.4194238613068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3982,7 +4012,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4234,6 +4264,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4243,7 +4276,7 @@
               <c:f>'model4(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4495,6 +4528,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>548.58296016060331</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>546.19606751527544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4516,11 +4552,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442542336"/>
-        <c:axId val="452358144"/>
+        <c:axId val="160766592"/>
+        <c:axId val="161386880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442542336"/>
+        <c:axId val="160766592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4563,14 +4599,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452358144"/>
+        <c:crossAx val="161386880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="452358144"/>
+        <c:axId val="161386880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4619,7 +4655,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442542336"/>
+        <c:crossAx val="160766592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4816,7 +4852,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5068,6 +5104,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5077,7 +5116,7 @@
               <c:f>'model4(3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5328,6 +5367,9 @@
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>250.29467916284148</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
               </c:numCache>
@@ -5371,7 +5413,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5623,6 +5665,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5632,7 +5677,7 @@
               <c:f>'model4(3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5883,7 +5928,10 @@
                   <c:v>373.23915699877301</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>380.47791488128138</c:v>
+                  <c:v>380.47791488128132</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>380.47791488128132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5926,7 +5974,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -6178,6 +6226,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6187,7 +6238,7 @@
               <c:f>'model4(3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6438,7 +6489,10 @@
                   <c:v>122.94447783593154</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>130.1832357184399</c:v>
+                  <c:v>130.18323571843985</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>130.18323571843985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6460,11 +6514,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="518558848"/>
-        <c:axId val="518560384"/>
+        <c:axId val="564147712"/>
+        <c:axId val="564149248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="518558848"/>
+        <c:axId val="564147712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6507,14 +6561,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518560384"/>
+        <c:crossAx val="564149248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="518560384"/>
+        <c:axId val="564149248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6563,7 +6617,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518558848"/>
+        <c:crossAx val="564147712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6671,7 +6725,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6714,7 +6768,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6757,7 +6811,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7070,7 +7124,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF99"/>
+  <dimension ref="A1:AF100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11236,6 +11290,41 @@
         <v>795.53573587245569</v>
       </c>
     </row>
+    <row r="100" spans="1:11" ht="12.75">
+      <c r="A100" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B100" s="25">
+        <v>1.5429600000000001</v>
+      </c>
+      <c r="C100" s="20">
+        <v>1.0770359795396409</v>
+      </c>
+      <c r="D100" s="21">
+        <v>0</v>
+      </c>
+      <c r="E100" s="22">
+        <v>0</v>
+      </c>
+      <c r="F100" s="22">
+        <v>0</v>
+      </c>
+      <c r="G100" s="22">
+        <v>0</v>
+      </c>
+      <c r="H100" s="22">
+        <v>536.33990866859824</v>
+      </c>
+      <c r="I100" s="22">
+        <v>795.53573587245569</v>
+      </c>
+      <c r="J100" s="22">
+        <v>259.19582720385745</v>
+      </c>
+      <c r="K100" s="21">
+        <v>795.53573587245569</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -11251,8 +11340,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF87"/>
+  <sheetPr codeName="Sheet2">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AF88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11355,7 +11446,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>0</v>
+        <v>-43.93282989039696</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -14874,6 +14965,41 @@
       </c>
       <c r="K87" s="21">
         <v>1629.1349826577743</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="12.75">
+      <c r="A88" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B88" s="25">
+        <v>1.5429600000000001</v>
+      </c>
+      <c r="C88" s="20">
+        <v>1.21761052</v>
+      </c>
+      <c r="D88" s="21">
+        <v>-164.0710404112192</v>
+      </c>
+      <c r="E88" s="22">
+        <v>-106.33525199047233</v>
+      </c>
+      <c r="F88" s="22">
+        <v>-43.93282989039696</v>
+      </c>
+      <c r="G88" s="22">
+        <v>-67.786599207686891</v>
+      </c>
+      <c r="H88" s="22">
+        <v>1179.2233563460313</v>
+      </c>
+      <c r="I88" s="22">
+        <v>1725.4194238613068</v>
+      </c>
+      <c r="J88" s="22">
+        <v>546.19606751527544</v>
+      </c>
+      <c r="K88" s="21">
+        <v>1793.2060230689935</v>
       </c>
     </row>
   </sheetData>
@@ -14894,7 +15020,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF87"/>
+  <dimension ref="A1:AF88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14997,7 +15123,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>-29.253044522265498</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -18494,28 +18620,63 @@
         <v>1.1721302800000002</v>
       </c>
       <c r="D87" s="21">
-        <v>-106.10981276970936</v>
+        <v>-59.854606240657944</v>
       </c>
       <c r="E87" s="22">
-        <v>-67.106717494646105</v>
+        <v>-37.853672972380608</v>
       </c>
       <c r="F87" s="22">
-        <v>-29.253044522265498</v>
+        <v>0</v>
       </c>
       <c r="G87" s="22">
-        <v>-46.255206529051428</v>
+        <v>0</v>
       </c>
       <c r="H87" s="22">
         <v>250.29467916284148</v>
       </c>
       <c r="I87" s="22">
-        <v>380.47791488128138</v>
+        <v>380.47791488128132</v>
       </c>
       <c r="J87" s="22">
-        <v>130.1832357184399</v>
+        <v>130.18323571843985</v>
       </c>
       <c r="K87" s="21">
-        <v>426.73312141033279</v>
+        <v>380.47791488128132</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="12.75">
+      <c r="A88" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B88" s="25">
+        <v>1.5429600000000001</v>
+      </c>
+      <c r="C88" s="20">
+        <v>1.21761052</v>
+      </c>
+      <c r="D88" s="21">
+        <v>0</v>
+      </c>
+      <c r="E88" s="22">
+        <v>0</v>
+      </c>
+      <c r="F88" s="22">
+        <v>0</v>
+      </c>
+      <c r="G88" s="22">
+        <v>0</v>
+      </c>
+      <c r="H88" s="22">
+        <v>250.29467916284148</v>
+      </c>
+      <c r="I88" s="22">
+        <v>380.47791488128132</v>
+      </c>
+      <c r="J88" s="22">
+        <v>130.18323571843985</v>
+      </c>
+      <c r="K88" s="21">
+        <v>380.47791488128132</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
@@ -715,7 +715,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1006,6 +1006,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1015,7 +1018,7 @@
               <c:f>'model4(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1305,6 +1308,9 @@
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>536.33990866859824</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
               </c:numCache>
@@ -1348,7 +1354,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1639,6 +1645,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1648,7 +1657,7 @@
               <c:f>'model4(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1935,6 +1944,9 @@
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>795.53573587245569</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
               </c:numCache>
@@ -1978,7 +1990,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2269,6 +2281,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2278,7 +2293,7 @@
               <c:f>'model4(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2568,6 +2583,9 @@
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>259.19582720385745</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
               </c:numCache>
@@ -2590,11 +2608,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="67591552"/>
-        <c:axId val="89517056"/>
+        <c:axId val="75859456"/>
+        <c:axId val="75861376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="67591552"/>
+        <c:axId val="75859456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2637,14 +2655,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89517056"/>
+        <c:crossAx val="75861376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="89517056"/>
+        <c:axId val="75861376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2693,7 +2711,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67591552"/>
+        <c:crossAx val="75859456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2890,7 +2908,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3145,6 +3163,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3154,7 +3175,7 @@
               <c:f>'model4(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3408,6 +3429,9 @@
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
                 <c:pt idx="84">
+                  <c:v>1179.2233563460313</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
               </c:numCache>
@@ -3451,7 +3475,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3706,6 +3730,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3715,7 +3742,7 @@
               <c:f>'model4(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3969,7 +3996,10 @@
                   <c:v>1727.8063165066346</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1725.4194238613068</c:v>
+                  <c:v>1725.4194238613065</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1725.4194238613065</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4012,7 +4042,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4267,6 +4297,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4276,7 +4309,7 @@
               <c:f>'model4(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4530,7 +4563,10 @@
                   <c:v>548.58296016060331</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>546.19606751527544</c:v>
+                  <c:v>546.19606751527522</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>546.19606751527522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4552,11 +4588,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160766592"/>
-        <c:axId val="161386880"/>
+        <c:axId val="450402560"/>
+        <c:axId val="452988928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="160766592"/>
+        <c:axId val="450402560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4599,14 +4635,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161386880"/>
+        <c:crossAx val="452988928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="161386880"/>
+        <c:axId val="452988928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4655,7 +4691,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160766592"/>
+        <c:crossAx val="450402560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4852,7 +4888,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5107,6 +5143,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5116,7 +5155,7 @@
               <c:f>'model4(3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5370,6 +5409,9 @@
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
                 <c:pt idx="84">
+                  <c:v>250.29467916284148</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
               </c:numCache>
@@ -5413,7 +5455,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5668,6 +5710,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5677,7 +5722,7 @@
               <c:f>'model4(3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5931,6 +5976,9 @@
                   <c:v>380.47791488128132</c:v>
                 </c:pt>
                 <c:pt idx="84">
+                  <c:v>380.47791488128132</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>380.47791488128132</c:v>
                 </c:pt>
               </c:numCache>
@@ -5974,7 +6022,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -6229,6 +6277,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6238,7 +6289,7 @@
               <c:f>'model4(3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6492,6 +6543,9 @@
                   <c:v>130.18323571843985</c:v>
                 </c:pt>
                 <c:pt idx="84">
+                  <c:v>130.18323571843985</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>130.18323571843985</c:v>
                 </c:pt>
               </c:numCache>
@@ -6514,11 +6568,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="564147712"/>
-        <c:axId val="564149248"/>
+        <c:axId val="112951680"/>
+        <c:axId val="112953216"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="564147712"/>
+        <c:axId val="112951680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6561,14 +6615,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564149248"/>
+        <c:crossAx val="112953216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="564149248"/>
+        <c:axId val="112953216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6617,7 +6671,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564147712"/>
+        <c:crossAx val="112951680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7124,7 +7178,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF100"/>
+  <dimension ref="A1:AF101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11325,6 +11379,41 @@
         <v>795.53573587245569</v>
       </c>
     </row>
+    <row r="101" spans="1:11" ht="12.75">
+      <c r="A101" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B101" s="25">
+        <v>1.4810300000000001</v>
+      </c>
+      <c r="C101" s="20">
+        <v>1.0809745698380564</v>
+      </c>
+      <c r="D101" s="21">
+        <v>0</v>
+      </c>
+      <c r="E101" s="22">
+        <v>0</v>
+      </c>
+      <c r="F101" s="22">
+        <v>0</v>
+      </c>
+      <c r="G101" s="22">
+        <v>0</v>
+      </c>
+      <c r="H101" s="22">
+        <v>536.33990866859824</v>
+      </c>
+      <c r="I101" s="22">
+        <v>795.53573587245569</v>
+      </c>
+      <c r="J101" s="22">
+        <v>259.19582720385745</v>
+      </c>
+      <c r="K101" s="21">
+        <v>795.53573587245569</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -11343,7 +11432,7 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF88"/>
+  <dimension ref="A1:AF89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11446,7 +11535,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>-43.93282989039696</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -14978,28 +15067,63 @@
         <v>1.21761052</v>
       </c>
       <c r="D88" s="21">
-        <v>-164.0710404112192</v>
+        <v>-96.284441203532296</v>
       </c>
       <c r="E88" s="22">
-        <v>-106.33525199047233</v>
+        <v>-62.40242210007537</v>
       </c>
       <c r="F88" s="22">
-        <v>-43.93282989039696</v>
+        <v>0</v>
       </c>
       <c r="G88" s="22">
-        <v>-67.786599207686891</v>
+        <v>0</v>
       </c>
       <c r="H88" s="22">
         <v>1179.2233563460313</v>
       </c>
       <c r="I88" s="22">
-        <v>1725.4194238613068</v>
+        <v>1725.4194238613065</v>
       </c>
       <c r="J88" s="22">
-        <v>546.19606751527544</v>
+        <v>546.19606751527522</v>
       </c>
       <c r="K88" s="21">
-        <v>1793.2060230689935</v>
+        <v>1725.4194238613065</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="12.75">
+      <c r="A89" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B89" s="25">
+        <v>1.4810300000000001</v>
+      </c>
+      <c r="C89" s="20">
+        <v>1.2460871999999994</v>
+      </c>
+      <c r="D89" s="21">
+        <v>0</v>
+      </c>
+      <c r="E89" s="22">
+        <v>0</v>
+      </c>
+      <c r="F89" s="22">
+        <v>0</v>
+      </c>
+      <c r="G89" s="22">
+        <v>0</v>
+      </c>
+      <c r="H89" s="22">
+        <v>1179.2233563460313</v>
+      </c>
+      <c r="I89" s="22">
+        <v>1725.4194238613065</v>
+      </c>
+      <c r="J89" s="22">
+        <v>546.19606751527522</v>
+      </c>
+      <c r="K89" s="21">
+        <v>1725.4194238613065</v>
       </c>
     </row>
   </sheetData>
@@ -15020,7 +15144,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF88"/>
+  <dimension ref="A1:AF89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18679,6 +18803,41 @@
         <v>380.47791488128132</v>
       </c>
     </row>
+    <row r="89" spans="1:11" ht="12.75">
+      <c r="A89" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B89" s="25">
+        <v>1.4810300000000001</v>
+      </c>
+      <c r="C89" s="20">
+        <v>1.2460871999999994</v>
+      </c>
+      <c r="D89" s="21">
+        <v>0</v>
+      </c>
+      <c r="E89" s="22">
+        <v>0</v>
+      </c>
+      <c r="F89" s="22">
+        <v>0</v>
+      </c>
+      <c r="G89" s="22">
+        <v>0</v>
+      </c>
+      <c r="H89" s="22">
+        <v>250.29467916284148</v>
+      </c>
+      <c r="I89" s="22">
+        <v>380.47791488128132</v>
+      </c>
+      <c r="J89" s="22">
+        <v>130.18323571843985</v>
+      </c>
+      <c r="K89" s="21">
+        <v>380.47791488128132</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
@@ -715,7 +715,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1009,6 +1009,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1018,7 +1021,7 @@
               <c:f>'model4(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1311,6 +1314,9 @@
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>536.33990866859824</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
               </c:numCache>
@@ -1354,7 +1360,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1648,6 +1654,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1657,7 +1666,7 @@
               <c:f>'model4(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1947,6 +1956,9 @@
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>795.53573587245569</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
               </c:numCache>
@@ -1990,7 +2002,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2284,6 +2296,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2293,7 +2308,7 @@
               <c:f>'model4(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2586,6 +2601,9 @@
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>259.19582720385745</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
               </c:numCache>
@@ -2608,11 +2626,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="75859456"/>
-        <c:axId val="75861376"/>
+        <c:axId val="256783104"/>
+        <c:axId val="256785024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="75859456"/>
+        <c:axId val="256783104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2655,14 +2673,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75861376"/>
+        <c:crossAx val="256785024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="75861376"/>
+        <c:axId val="256785024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2711,7 +2729,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75859456"/>
+        <c:crossAx val="256783104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2908,7 +2926,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3166,6 +3184,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3175,7 +3196,7 @@
               <c:f>'model4(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3432,6 +3453,9 @@
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
                 <c:pt idx="85">
+                  <c:v>1179.2233563460313</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
               </c:numCache>
@@ -3475,7 +3499,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3733,6 +3757,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3742,7 +3769,7 @@
               <c:f>'model4(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3999,6 +4026,9 @@
                   <c:v>1725.4194238613065</c:v>
                 </c:pt>
                 <c:pt idx="85">
+                  <c:v>1725.4194238613065</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>1725.4194238613065</c:v>
                 </c:pt>
               </c:numCache>
@@ -4042,7 +4072,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4300,6 +4330,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4309,7 +4342,7 @@
               <c:f>'model4(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4566,6 +4599,9 @@
                   <c:v>546.19606751527522</c:v>
                 </c:pt>
                 <c:pt idx="85">
+                  <c:v>546.19606751527522</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>546.19606751527522</c:v>
                 </c:pt>
               </c:numCache>
@@ -4588,11 +4624,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="450402560"/>
-        <c:axId val="452988928"/>
+        <c:axId val="704073728"/>
+        <c:axId val="704075648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="450402560"/>
+        <c:axId val="704073728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4635,14 +4671,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452988928"/>
+        <c:crossAx val="704075648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="452988928"/>
+        <c:axId val="704075648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4691,7 +4727,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="450402560"/>
+        <c:crossAx val="704073728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4888,7 +4924,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5146,6 +5182,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5155,7 +5194,7 @@
               <c:f>'model4(3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5412,6 +5451,9 @@
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
                 <c:pt idx="85">
+                  <c:v>250.29467916284148</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
               </c:numCache>
@@ -5455,7 +5497,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5713,6 +5755,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5722,7 +5767,7 @@
               <c:f>'model4(3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5979,6 +6024,9 @@
                   <c:v>380.47791488128132</c:v>
                 </c:pt>
                 <c:pt idx="85">
+                  <c:v>380.47791488128132</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>380.47791488128132</c:v>
                 </c:pt>
               </c:numCache>
@@ -6022,7 +6070,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -6280,6 +6328,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6289,7 +6340,7 @@
               <c:f>'model4(3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6546,6 +6597,9 @@
                   <c:v>130.18323571843985</c:v>
                 </c:pt>
                 <c:pt idx="85">
+                  <c:v>130.18323571843985</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>130.18323571843985</c:v>
                 </c:pt>
               </c:numCache>
@@ -6568,11 +6622,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="112951680"/>
-        <c:axId val="112953216"/>
+        <c:axId val="91529216"/>
+        <c:axId val="91530752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="112951680"/>
+        <c:axId val="91529216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6615,14 +6669,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112953216"/>
+        <c:crossAx val="91530752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="112953216"/>
+        <c:axId val="91530752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6671,7 +6725,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112951680"/>
+        <c:crossAx val="91529216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6779,7 +6833,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6822,7 +6876,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6865,7 +6919,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7178,7 +7232,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF101"/>
+  <dimension ref="A1:AF102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11414,6 +11468,41 @@
         <v>795.53573587245569</v>
       </c>
     </row>
+    <row r="102" spans="1:11" ht="12.75">
+      <c r="A102" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B102" s="25">
+        <v>1.53925</v>
+      </c>
+      <c r="C102" s="20">
+        <v>1.0853151779448618</v>
+      </c>
+      <c r="D102" s="21">
+        <v>0</v>
+      </c>
+      <c r="E102" s="22">
+        <v>0</v>
+      </c>
+      <c r="F102" s="22">
+        <v>0</v>
+      </c>
+      <c r="G102" s="22">
+        <v>0</v>
+      </c>
+      <c r="H102" s="22">
+        <v>536.33990866859824</v>
+      </c>
+      <c r="I102" s="22">
+        <v>795.53573587245569</v>
+      </c>
+      <c r="J102" s="22">
+        <v>259.19582720385745</v>
+      </c>
+      <c r="K102" s="21">
+        <v>795.53573587245569</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -11432,7 +11521,7 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF89"/>
+  <dimension ref="A1:AF90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15126,6 +15215,41 @@
         <v>1725.4194238613065</v>
       </c>
     </row>
+    <row r="90" spans="1:11" ht="12.75">
+      <c r="A90" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B90" s="25">
+        <v>1.53925</v>
+      </c>
+      <c r="C90" s="20">
+        <v>1.282875679999999</v>
+      </c>
+      <c r="D90" s="21">
+        <v>0</v>
+      </c>
+      <c r="E90" s="22">
+        <v>0</v>
+      </c>
+      <c r="F90" s="22">
+        <v>0</v>
+      </c>
+      <c r="G90" s="22">
+        <v>0</v>
+      </c>
+      <c r="H90" s="22">
+        <v>1179.2233563460313</v>
+      </c>
+      <c r="I90" s="22">
+        <v>1725.4194238613065</v>
+      </c>
+      <c r="J90" s="22">
+        <v>546.19606751527522</v>
+      </c>
+      <c r="K90" s="21">
+        <v>1725.4194238613065</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -15144,7 +15268,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF89"/>
+  <dimension ref="A1:AF90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18838,6 +18962,41 @@
         <v>380.47791488128132</v>
       </c>
     </row>
+    <row r="90" spans="1:11" ht="12.75">
+      <c r="A90" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B90" s="25">
+        <v>1.53925</v>
+      </c>
+      <c r="C90" s="20">
+        <v>1.282875679999999</v>
+      </c>
+      <c r="D90" s="21">
+        <v>0</v>
+      </c>
+      <c r="E90" s="22">
+        <v>0</v>
+      </c>
+      <c r="F90" s="22">
+        <v>0</v>
+      </c>
+      <c r="G90" s="22">
+        <v>0</v>
+      </c>
+      <c r="H90" s="22">
+        <v>250.29467916284148</v>
+      </c>
+      <c r="I90" s="22">
+        <v>380.47791488128132</v>
+      </c>
+      <c r="J90" s="22">
+        <v>130.18323571843985</v>
+      </c>
+      <c r="K90" s="21">
+        <v>380.47791488128132</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
@@ -715,7 +715,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1012,6 +1012,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1021,7 +1024,7 @@
               <c:f>'model4(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1317,6 +1320,9 @@
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>536.33990866859824</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
               </c:numCache>
@@ -1360,7 +1366,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1657,6 +1663,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1666,7 +1675,7 @@
               <c:f>'model4(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1959,6 +1968,9 @@
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>795.53573587245569</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
               </c:numCache>
@@ -2002,7 +2014,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2299,6 +2311,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2308,7 +2323,7 @@
               <c:f>'model4(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2604,6 +2619,9 @@
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>259.19582720385745</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
               </c:numCache>
@@ -2626,11 +2644,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="256783104"/>
-        <c:axId val="256785024"/>
+        <c:axId val="89037056"/>
+        <c:axId val="90972928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="256783104"/>
+        <c:axId val="89037056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2673,14 +2691,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256785024"/>
+        <c:crossAx val="90972928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="256785024"/>
+        <c:axId val="90972928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2729,7 +2747,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256783104"/>
+        <c:crossAx val="89037056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2926,7 +2944,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3187,6 +3205,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3196,7 +3217,7 @@
               <c:f>'model4(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3456,6 +3477,9 @@
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
                 <c:pt idx="86">
+                  <c:v>1179.2233563460313</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
               </c:numCache>
@@ -3499,7 +3523,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3760,6 +3784,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3769,7 +3796,7 @@
               <c:f>'model4(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4029,6 +4056,9 @@
                   <c:v>1725.4194238613065</c:v>
                 </c:pt>
                 <c:pt idx="86">
+                  <c:v>1725.4194238613065</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>1725.4194238613065</c:v>
                 </c:pt>
               </c:numCache>
@@ -4072,7 +4102,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4333,6 +4363,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4342,7 +4375,7 @@
               <c:f>'model4(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4602,6 +4635,9 @@
                   <c:v>546.19606751527522</c:v>
                 </c:pt>
                 <c:pt idx="86">
+                  <c:v>546.19606751527522</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>546.19606751527522</c:v>
                 </c:pt>
               </c:numCache>
@@ -4624,11 +4660,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="704073728"/>
-        <c:axId val="704075648"/>
+        <c:axId val="161339648"/>
+        <c:axId val="161874688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="704073728"/>
+        <c:axId val="161339648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4671,14 +4707,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="704075648"/>
+        <c:crossAx val="161874688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="704075648"/>
+        <c:axId val="161874688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4727,7 +4763,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="704073728"/>
+        <c:crossAx val="161339648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4924,7 +4960,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5185,6 +5221,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5194,7 +5233,7 @@
               <c:f>'model4(3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5454,6 +5493,9 @@
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
                 <c:pt idx="86">
+                  <c:v>250.29467916284148</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
               </c:numCache>
@@ -5497,7 +5539,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5758,6 +5800,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5767,7 +5812,7 @@
               <c:f>'model4(3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6027,6 +6072,9 @@
                   <c:v>380.47791488128132</c:v>
                 </c:pt>
                 <c:pt idx="86">
+                  <c:v>380.47791488128132</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>380.47791488128132</c:v>
                 </c:pt>
               </c:numCache>
@@ -6070,7 +6118,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -6331,6 +6379,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6340,7 +6391,7 @@
               <c:f>'model4(3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6600,6 +6651,9 @@
                   <c:v>130.18323571843985</c:v>
                 </c:pt>
                 <c:pt idx="86">
+                  <c:v>130.18323571843985</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>130.18323571843985</c:v>
                 </c:pt>
               </c:numCache>
@@ -6622,11 +6676,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91529216"/>
-        <c:axId val="91530752"/>
+        <c:axId val="488932096"/>
+        <c:axId val="488934016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="91529216"/>
+        <c:axId val="488932096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6669,14 +6723,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91530752"/>
+        <c:crossAx val="488934016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="91530752"/>
+        <c:axId val="488934016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6725,7 +6779,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91529216"/>
+        <c:crossAx val="488932096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6833,7 +6887,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6876,7 +6930,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6919,7 +6973,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7232,7 +7286,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF102"/>
+  <dimension ref="A1:AF103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11503,6 +11557,41 @@
         <v>795.53573587245569</v>
       </c>
     </row>
+    <row r="103" spans="1:11" ht="12.75">
+      <c r="A103" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B103" s="25">
+        <v>1.6513</v>
+      </c>
+      <c r="C103" s="20">
+        <v>1.0902648933002479</v>
+      </c>
+      <c r="D103" s="21">
+        <v>0</v>
+      </c>
+      <c r="E103" s="22">
+        <v>0</v>
+      </c>
+      <c r="F103" s="22">
+        <v>0</v>
+      </c>
+      <c r="G103" s="22">
+        <v>0</v>
+      </c>
+      <c r="H103" s="22">
+        <v>536.33990866859824</v>
+      </c>
+      <c r="I103" s="22">
+        <v>795.53573587245569</v>
+      </c>
+      <c r="J103" s="22">
+        <v>259.19582720385745</v>
+      </c>
+      <c r="K103" s="21">
+        <v>795.53573587245569</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -11521,7 +11610,7 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF90"/>
+  <dimension ref="A1:AF91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15250,6 +15339,41 @@
         <v>1725.4194238613065</v>
       </c>
     </row>
+    <row r="91" spans="1:11" ht="12.75">
+      <c r="A91" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B91" s="25">
+        <v>1.6513</v>
+      </c>
+      <c r="C91" s="20">
+        <v>1.3296850799999993</v>
+      </c>
+      <c r="D91" s="21">
+        <v>0</v>
+      </c>
+      <c r="E91" s="22">
+        <v>0</v>
+      </c>
+      <c r="F91" s="22">
+        <v>0</v>
+      </c>
+      <c r="G91" s="22">
+        <v>0</v>
+      </c>
+      <c r="H91" s="22">
+        <v>1179.2233563460313</v>
+      </c>
+      <c r="I91" s="22">
+        <v>1725.4194238613065</v>
+      </c>
+      <c r="J91" s="22">
+        <v>546.19606751527522</v>
+      </c>
+      <c r="K91" s="21">
+        <v>1725.4194238613065</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -15268,7 +15392,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF90"/>
+  <dimension ref="A1:AF91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18997,6 +19121,41 @@
         <v>380.47791488128132</v>
       </c>
     </row>
+    <row r="91" spans="1:11" ht="12.75">
+      <c r="A91" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B91" s="25">
+        <v>1.6513</v>
+      </c>
+      <c r="C91" s="20">
+        <v>1.3296850799999993</v>
+      </c>
+      <c r="D91" s="21">
+        <v>0</v>
+      </c>
+      <c r="E91" s="22">
+        <v>0</v>
+      </c>
+      <c r="F91" s="22">
+        <v>0</v>
+      </c>
+      <c r="G91" s="22">
+        <v>0</v>
+      </c>
+      <c r="H91" s="22">
+        <v>250.29467916284148</v>
+      </c>
+      <c r="I91" s="22">
+        <v>380.47791488128132</v>
+      </c>
+      <c r="J91" s="22">
+        <v>130.18323571843985</v>
+      </c>
+      <c r="K91" s="21">
+        <v>380.47791488128132</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
@@ -715,7 +715,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1015,6 +1015,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1024,7 +1027,7 @@
               <c:f>'model4(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1323,6 +1326,9 @@
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>536.33990866859824</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
               </c:numCache>
@@ -1366,7 +1372,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1666,6 +1672,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1675,7 +1684,7 @@
               <c:f>'model4(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1971,6 +1980,9 @@
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>795.53573587245569</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
               </c:numCache>
@@ -2014,7 +2026,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2314,6 +2326,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2323,7 +2338,7 @@
               <c:f>'model4(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2622,6 +2637,9 @@
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>259.19582720385745</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
               </c:numCache>
@@ -2644,11 +2662,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89037056"/>
-        <c:axId val="90972928"/>
+        <c:axId val="388262912"/>
+        <c:axId val="436920320"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="89037056"/>
+        <c:axId val="388262912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2691,14 +2709,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90972928"/>
+        <c:crossAx val="436920320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="90972928"/>
+        <c:axId val="436920320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2747,7 +2765,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89037056"/>
+        <c:crossAx val="388262912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2944,7 +2962,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3208,6 +3226,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3217,7 +3238,7 @@
               <c:f>'model4(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3480,6 +3501,9 @@
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
                 <c:pt idx="87">
+                  <c:v>1179.2233563460313</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
               </c:numCache>
@@ -3523,7 +3547,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3787,6 +3811,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3796,7 +3823,7 @@
               <c:f>'model4(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4059,6 +4086,9 @@
                   <c:v>1725.4194238613065</c:v>
                 </c:pt>
                 <c:pt idx="87">
+                  <c:v>1725.4194238613065</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>1725.4194238613065</c:v>
                 </c:pt>
               </c:numCache>
@@ -4102,7 +4132,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4366,6 +4396,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4375,7 +4408,7 @@
               <c:f>'model4(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4638,6 +4671,9 @@
                   <c:v>546.19606751527522</c:v>
                 </c:pt>
                 <c:pt idx="87">
+                  <c:v>546.19606751527522</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>546.19606751527522</c:v>
                 </c:pt>
               </c:numCache>
@@ -4660,11 +4696,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="161339648"/>
-        <c:axId val="161874688"/>
+        <c:axId val="464122624"/>
+        <c:axId val="464124544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="161339648"/>
+        <c:axId val="464122624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4707,14 +4743,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161874688"/>
+        <c:crossAx val="464124544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="161874688"/>
+        <c:axId val="464124544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4763,7 +4799,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161339648"/>
+        <c:crossAx val="464122624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4960,7 +4996,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5224,6 +5260,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5233,7 +5272,7 @@
               <c:f>'model4(3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5496,6 +5535,9 @@
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
                 <c:pt idx="87">
+                  <c:v>250.29467916284148</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
               </c:numCache>
@@ -5539,7 +5581,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5803,6 +5845,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5812,7 +5857,7 @@
               <c:f>'model4(3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6075,6 +6120,9 @@
                   <c:v>380.47791488128132</c:v>
                 </c:pt>
                 <c:pt idx="87">
+                  <c:v>380.47791488128132</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>380.47791488128132</c:v>
                 </c:pt>
               </c:numCache>
@@ -6118,7 +6166,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -6382,6 +6430,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6391,7 +6442,7 @@
               <c:f>'model4(3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6654,6 +6705,9 @@
                   <c:v>130.18323571843985</c:v>
                 </c:pt>
                 <c:pt idx="87">
+                  <c:v>130.18323571843985</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>130.18323571843985</c:v>
                 </c:pt>
               </c:numCache>
@@ -6676,11 +6730,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="488932096"/>
-        <c:axId val="488934016"/>
+        <c:axId val="532851328"/>
+        <c:axId val="534339968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="488932096"/>
+        <c:axId val="532851328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6723,14 +6777,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488934016"/>
+        <c:crossAx val="534339968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="488934016"/>
+        <c:axId val="534339968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6779,7 +6833,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488932096"/>
+        <c:crossAx val="532851328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6887,7 +6941,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6930,7 +6984,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6973,7 +7027,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7286,7 +7340,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF103"/>
+  <dimension ref="A1:AF104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11592,6 +11646,41 @@
         <v>795.53573587245569</v>
       </c>
     </row>
+    <row r="104" spans="1:11" ht="12.75">
+      <c r="A104" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B104" s="25">
+        <v>1.72895</v>
+      </c>
+      <c r="C104" s="20">
+        <v>1.0969903631010793</v>
+      </c>
+      <c r="D104" s="21">
+        <v>0</v>
+      </c>
+      <c r="E104" s="22">
+        <v>0</v>
+      </c>
+      <c r="F104" s="22">
+        <v>0</v>
+      </c>
+      <c r="G104" s="22">
+        <v>0</v>
+      </c>
+      <c r="H104" s="22">
+        <v>536.33990866859824</v>
+      </c>
+      <c r="I104" s="22">
+        <v>795.53573587245569</v>
+      </c>
+      <c r="J104" s="22">
+        <v>259.19582720385745</v>
+      </c>
+      <c r="K104" s="21">
+        <v>795.53573587245569</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -11610,7 +11699,7 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF91"/>
+  <dimension ref="A1:AF92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15374,6 +15463,41 @@
         <v>1725.4194238613065</v>
       </c>
     </row>
+    <row r="92" spans="1:11" ht="12.75">
+      <c r="A92" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B92" s="25">
+        <v>1.72895</v>
+      </c>
+      <c r="C92" s="20">
+        <v>1.3976433199999996</v>
+      </c>
+      <c r="D92" s="21">
+        <v>0</v>
+      </c>
+      <c r="E92" s="22">
+        <v>0</v>
+      </c>
+      <c r="F92" s="22">
+        <v>0</v>
+      </c>
+      <c r="G92" s="22">
+        <v>0</v>
+      </c>
+      <c r="H92" s="22">
+        <v>1179.2233563460313</v>
+      </c>
+      <c r="I92" s="22">
+        <v>1725.4194238613065</v>
+      </c>
+      <c r="J92" s="22">
+        <v>546.19606751527522</v>
+      </c>
+      <c r="K92" s="21">
+        <v>1725.4194238613065</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -15392,7 +15516,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF91"/>
+  <dimension ref="A1:AF92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19156,6 +19280,41 @@
         <v>380.47791488128132</v>
       </c>
     </row>
+    <row r="92" spans="1:11" ht="12.75">
+      <c r="A92" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B92" s="25">
+        <v>1.72895</v>
+      </c>
+      <c r="C92" s="20">
+        <v>1.3976433199999996</v>
+      </c>
+      <c r="D92" s="21">
+        <v>0</v>
+      </c>
+      <c r="E92" s="22">
+        <v>0</v>
+      </c>
+      <c r="F92" s="22">
+        <v>0</v>
+      </c>
+      <c r="G92" s="22">
+        <v>0</v>
+      </c>
+      <c r="H92" s="22">
+        <v>250.29467916284148</v>
+      </c>
+      <c r="I92" s="22">
+        <v>380.47791488128132</v>
+      </c>
+      <c r="J92" s="22">
+        <v>130.18323571843985</v>
+      </c>
+      <c r="K92" s="21">
+        <v>380.47791488128132</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
@@ -715,7 +715,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1018,6 +1018,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1027,7 +1030,7 @@
               <c:f>'model4(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1329,6 +1332,9 @@
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>536.33990866859824</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
               </c:numCache>
@@ -1372,7 +1378,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1675,6 +1681,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1684,7 +1693,7 @@
               <c:f>'model4(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1983,6 +1992,9 @@
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>795.53573587245569</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
               </c:numCache>
@@ -2026,7 +2038,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2329,6 +2341,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2338,7 +2353,7 @@
               <c:f>'model4(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2640,6 +2655,9 @@
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>259.19582720385745</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
               </c:numCache>
@@ -2662,11 +2680,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="388262912"/>
-        <c:axId val="436920320"/>
+        <c:axId val="383541248"/>
+        <c:axId val="418151040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="388262912"/>
+        <c:axId val="383541248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2709,14 +2727,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436920320"/>
+        <c:crossAx val="418151040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="436920320"/>
+        <c:axId val="418151040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2765,7 +2783,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388262912"/>
+        <c:crossAx val="383541248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2962,7 +2980,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3229,6 +3247,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3238,7 +3259,7 @@
               <c:f>'model4(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3504,6 +3525,9 @@
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>1179.2233563460313</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
               </c:numCache>
@@ -3547,7 +3571,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3814,6 +3838,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3823,7 +3850,7 @@
               <c:f>'model4(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4089,6 +4116,9 @@
                   <c:v>1725.4194238613065</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>1725.4194238613065</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>1725.4194238613065</c:v>
                 </c:pt>
               </c:numCache>
@@ -4132,7 +4162,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4399,6 +4429,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4408,7 +4441,7 @@
               <c:f>'model4(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4674,6 +4707,9 @@
                   <c:v>546.19606751527522</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>546.19606751527522</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>546.19606751527522</c:v>
                 </c:pt>
               </c:numCache>
@@ -4696,11 +4732,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="464122624"/>
-        <c:axId val="464124544"/>
+        <c:axId val="443280000"/>
+        <c:axId val="443306368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="464122624"/>
+        <c:axId val="443280000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4743,14 +4779,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464124544"/>
+        <c:crossAx val="443306368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="464124544"/>
+        <c:axId val="443306368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4799,7 +4835,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464122624"/>
+        <c:crossAx val="443280000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4996,7 +5032,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5263,6 +5299,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5272,7 +5311,7 @@
               <c:f>'model4(3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5538,6 +5577,9 @@
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>250.29467916284148</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
               </c:numCache>
@@ -5581,7 +5623,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5848,6 +5890,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5857,7 +5902,7 @@
               <c:f>'model4(3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6123,6 +6168,9 @@
                   <c:v>380.47791488128132</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>380.47791488128132</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>380.47791488128132</c:v>
                 </c:pt>
               </c:numCache>
@@ -6166,7 +6214,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -6433,6 +6481,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6442,7 +6493,7 @@
               <c:f>'model4(3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6708,6 +6759,9 @@
                   <c:v>130.18323571843985</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>130.18323571843985</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>130.18323571843985</c:v>
                 </c:pt>
               </c:numCache>
@@ -6730,11 +6784,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="532851328"/>
-        <c:axId val="534339968"/>
+        <c:axId val="94632576"/>
+        <c:axId val="94851456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="532851328"/>
+        <c:axId val="94632576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6777,14 +6831,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534339968"/>
+        <c:crossAx val="94851456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="534339968"/>
+        <c:axId val="94851456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6833,7 +6887,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532851328"/>
+        <c:crossAx val="94632576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6941,7 +6995,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6984,7 +7038,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7027,7 +7081,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7340,7 +7394,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF104"/>
+  <dimension ref="A1:AF105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11681,6 +11735,41 @@
         <v>795.53573587245569</v>
       </c>
     </row>
+    <row r="105" spans="1:11" ht="12.75">
+      <c r="A105" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B105" s="25">
+        <v>1.9015899999999999</v>
+      </c>
+      <c r="C105" s="20">
+        <v>1.1046083681398731</v>
+      </c>
+      <c r="D105" s="21">
+        <v>0</v>
+      </c>
+      <c r="E105" s="22">
+        <v>0</v>
+      </c>
+      <c r="F105" s="22">
+        <v>0</v>
+      </c>
+      <c r="G105" s="22">
+        <v>0</v>
+      </c>
+      <c r="H105" s="22">
+        <v>536.33990866859824</v>
+      </c>
+      <c r="I105" s="22">
+        <v>795.53573587245569</v>
+      </c>
+      <c r="J105" s="22">
+        <v>259.19582720385745</v>
+      </c>
+      <c r="K105" s="21">
+        <v>795.53573587245569</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -11699,7 +11788,7 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF92"/>
+  <dimension ref="A1:AF93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15498,6 +15587,41 @@
         <v>1725.4194238613065</v>
       </c>
     </row>
+    <row r="93" spans="1:11" ht="12.75">
+      <c r="A93" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B93" s="25">
+        <v>1.9015899999999999</v>
+      </c>
+      <c r="C93" s="20">
+        <v>1.4737925600000001</v>
+      </c>
+      <c r="D93" s="21">
+        <v>0</v>
+      </c>
+      <c r="E93" s="22">
+        <v>0</v>
+      </c>
+      <c r="F93" s="22">
+        <v>0</v>
+      </c>
+      <c r="G93" s="22">
+        <v>0</v>
+      </c>
+      <c r="H93" s="22">
+        <v>1179.2233563460313</v>
+      </c>
+      <c r="I93" s="22">
+        <v>1725.4194238613065</v>
+      </c>
+      <c r="J93" s="22">
+        <v>546.19606751527522</v>
+      </c>
+      <c r="K93" s="21">
+        <v>1725.4194238613065</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -15516,7 +15640,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF92"/>
+  <dimension ref="A1:AF93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19315,6 +19439,41 @@
         <v>380.47791488128132</v>
       </c>
     </row>
+    <row r="93" spans="1:11" ht="12.75">
+      <c r="A93" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B93" s="25">
+        <v>1.9015899999999999</v>
+      </c>
+      <c r="C93" s="20">
+        <v>1.4737925600000001</v>
+      </c>
+      <c r="D93" s="21">
+        <v>0</v>
+      </c>
+      <c r="E93" s="22">
+        <v>0</v>
+      </c>
+      <c r="F93" s="22">
+        <v>0</v>
+      </c>
+      <c r="G93" s="22">
+        <v>0</v>
+      </c>
+      <c r="H93" s="22">
+        <v>250.29467916284148</v>
+      </c>
+      <c r="I93" s="22">
+        <v>380.47791488128132</v>
+      </c>
+      <c r="J93" s="22">
+        <v>130.18323571843985</v>
+      </c>
+      <c r="K93" s="21">
+        <v>380.47791488128132</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
@@ -715,7 +715,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1021,6 +1021,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1030,7 +1033,7 @@
               <c:f>'model4(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1335,6 +1338,9 @@
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>536.33990866859824</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
               </c:numCache>
@@ -1378,7 +1384,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1684,6 +1690,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1693,7 +1702,7 @@
               <c:f>'model4(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -1995,6 +2004,9 @@
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>795.53573587245569</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
               </c:numCache>
@@ -2038,7 +2050,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2344,6 +2356,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2353,7 +2368,7 @@
               <c:f>'model4(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2658,6 +2673,9 @@
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>259.19582720385745</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
               </c:numCache>
@@ -2680,11 +2698,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="383541248"/>
-        <c:axId val="418151040"/>
+        <c:axId val="90571904"/>
+        <c:axId val="90574208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="383541248"/>
+        <c:axId val="90571904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2727,14 +2745,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418151040"/>
+        <c:crossAx val="90574208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="418151040"/>
+        <c:axId val="90574208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2783,7 +2801,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383541248"/>
+        <c:crossAx val="90571904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2980,7 +2998,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3250,6 +3268,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3259,7 +3280,7 @@
               <c:f>'model4(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3528,6 +3549,9 @@
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>1179.2233563460313</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
               </c:numCache>
@@ -3571,7 +3595,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3841,6 +3865,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3850,7 +3877,7 @@
               <c:f>'model4(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4119,6 +4146,9 @@
                   <c:v>1725.4194238613065</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>1725.4194238613065</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>1725.4194238613065</c:v>
                 </c:pt>
               </c:numCache>
@@ -4162,7 +4192,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4432,6 +4462,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4441,7 +4474,7 @@
               <c:f>'model4(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4710,6 +4743,9 @@
                   <c:v>546.19606751527522</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>546.19606751527522</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>546.19606751527522</c:v>
                 </c:pt>
               </c:numCache>
@@ -4732,11 +4768,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="443280000"/>
-        <c:axId val="443306368"/>
+        <c:axId val="537725568"/>
+        <c:axId val="538976640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="443280000"/>
+        <c:axId val="537725568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4779,14 +4815,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443306368"/>
+        <c:crossAx val="538976640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="443306368"/>
+        <c:axId val="538976640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4835,7 +4871,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443280000"/>
+        <c:crossAx val="537725568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5032,7 +5068,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5302,6 +5338,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5311,7 +5350,7 @@
               <c:f>'model4(3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5580,6 +5619,9 @@
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>250.29467916284148</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
               </c:numCache>
@@ -5623,7 +5665,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5893,6 +5935,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5902,7 +5947,7 @@
               <c:f>'model4(3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6171,6 +6216,9 @@
                   <c:v>380.47791488128132</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>380.47791488128132</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>380.47791488128132</c:v>
                 </c:pt>
               </c:numCache>
@@ -6214,7 +6262,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -6484,6 +6532,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6493,7 +6544,7 @@
               <c:f>'model4(3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6762,6 +6813,9 @@
                   <c:v>130.18323571843985</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>130.18323571843985</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>130.18323571843985</c:v>
                 </c:pt>
               </c:numCache>
@@ -6784,11 +6838,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94632576"/>
-        <c:axId val="94851456"/>
+        <c:axId val="654464128"/>
+        <c:axId val="654466048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="94632576"/>
+        <c:axId val="654464128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6831,14 +6885,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94851456"/>
+        <c:crossAx val="654466048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="94851456"/>
+        <c:axId val="654466048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6887,7 +6941,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94632576"/>
+        <c:crossAx val="654464128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6995,7 +7049,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7038,7 +7092,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7081,7 +7135,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7394,7 +7448,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF105"/>
+  <dimension ref="A1:AF106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11770,6 +11824,41 @@
         <v>795.53573587245569</v>
       </c>
     </row>
+    <row r="106" spans="1:11" ht="12.75">
+      <c r="A106" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B106" s="25">
+        <v>1.87385</v>
+      </c>
+      <c r="C106" s="20">
+        <v>1.1126600432484375</v>
+      </c>
+      <c r="D106" s="21">
+        <v>0</v>
+      </c>
+      <c r="E106" s="22">
+        <v>0</v>
+      </c>
+      <c r="F106" s="22">
+        <v>0</v>
+      </c>
+      <c r="G106" s="22">
+        <v>0</v>
+      </c>
+      <c r="H106" s="22">
+        <v>536.33990866859824</v>
+      </c>
+      <c r="I106" s="22">
+        <v>795.53573587245569</v>
+      </c>
+      <c r="J106" s="22">
+        <v>259.19582720385745</v>
+      </c>
+      <c r="K106" s="21">
+        <v>795.53573587245569</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -11788,7 +11877,7 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF93"/>
+  <dimension ref="A1:AF94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15622,6 +15711,41 @@
         <v>1725.4194238613065</v>
       </c>
     </row>
+    <row r="94" spans="1:11" ht="12.75">
+      <c r="A94" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B94" s="25">
+        <v>1.87385</v>
+      </c>
+      <c r="C94" s="20">
+        <v>1.5571432000000014</v>
+      </c>
+      <c r="D94" s="21">
+        <v>0</v>
+      </c>
+      <c r="E94" s="22">
+        <v>0</v>
+      </c>
+      <c r="F94" s="22">
+        <v>0</v>
+      </c>
+      <c r="G94" s="22">
+        <v>0</v>
+      </c>
+      <c r="H94" s="22">
+        <v>1179.2233563460313</v>
+      </c>
+      <c r="I94" s="22">
+        <v>1725.4194238613065</v>
+      </c>
+      <c r="J94" s="22">
+        <v>546.19606751527522</v>
+      </c>
+      <c r="K94" s="21">
+        <v>1725.4194238613065</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -15640,7 +15764,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF93"/>
+  <dimension ref="A1:AF94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19474,6 +19598,41 @@
         <v>380.47791488128132</v>
       </c>
     </row>
+    <row r="94" spans="1:11" ht="12.75">
+      <c r="A94" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B94" s="25">
+        <v>1.87385</v>
+      </c>
+      <c r="C94" s="20">
+        <v>1.5571432000000014</v>
+      </c>
+      <c r="D94" s="21">
+        <v>0</v>
+      </c>
+      <c r="E94" s="22">
+        <v>0</v>
+      </c>
+      <c r="F94" s="22">
+        <v>0</v>
+      </c>
+      <c r="G94" s="22">
+        <v>0</v>
+      </c>
+      <c r="H94" s="22">
+        <v>250.29467916284148</v>
+      </c>
+      <c r="I94" s="22">
+        <v>380.47791488128132</v>
+      </c>
+      <c r="J94" s="22">
+        <v>130.18323571843985</v>
+      </c>
+      <c r="K94" s="21">
+        <v>380.47791488128132</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
@@ -715,7 +715,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1024,6 +1024,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1033,7 +1036,7 @@
               <c:f>'model4(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1341,6 +1344,9 @@
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>536.33990866859824</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
               </c:numCache>
@@ -1384,7 +1390,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1693,6 +1699,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1702,7 +1711,7 @@
               <c:f>'model4(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -2007,6 +2016,9 @@
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>795.53573587245569</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
               </c:numCache>
@@ -2050,7 +2062,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2359,6 +2371,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2368,7 +2383,7 @@
               <c:f>'model4(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2676,6 +2691,9 @@
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>259.19582720385745</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
               </c:numCache>
@@ -2698,11 +2716,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90571904"/>
-        <c:axId val="90574208"/>
+        <c:axId val="432303488"/>
+        <c:axId val="452287872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="90571904"/>
+        <c:axId val="432303488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2745,14 +2763,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90574208"/>
+        <c:crossAx val="452287872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="90574208"/>
+        <c:axId val="452287872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2801,7 +2819,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90571904"/>
+        <c:crossAx val="432303488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2998,7 +3016,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3271,6 +3289,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3280,7 +3301,7 @@
               <c:f>'model4(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3552,6 +3573,9 @@
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>1179.2233563460313</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
               </c:numCache>
@@ -3595,7 +3619,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3868,6 +3892,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3877,7 +3904,7 @@
               <c:f>'model4(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4149,6 +4176,9 @@
                   <c:v>1725.4194238613065</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>1725.4194238613065</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>1725.4194238613065</c:v>
                 </c:pt>
               </c:numCache>
@@ -4192,7 +4222,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4465,6 +4495,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4474,7 +4507,7 @@
               <c:f>'model4(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4746,6 +4779,9 @@
                   <c:v>546.19606751527522</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>546.19606751527522</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>546.19606751527522</c:v>
                 </c:pt>
               </c:numCache>
@@ -4768,11 +4804,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="537725568"/>
-        <c:axId val="538976640"/>
+        <c:axId val="470281216"/>
+        <c:axId val="470656512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="537725568"/>
+        <c:axId val="470281216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4815,14 +4851,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538976640"/>
+        <c:crossAx val="470656512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="538976640"/>
+        <c:axId val="470656512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4871,7 +4907,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537725568"/>
+        <c:crossAx val="470281216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5068,7 +5104,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5341,6 +5377,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5350,7 +5389,7 @@
               <c:f>'model4(3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5622,6 +5661,9 @@
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>250.29467916284148</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
               </c:numCache>
@@ -5665,7 +5707,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5938,6 +5980,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5947,7 +5992,7 @@
               <c:f>'model4(3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6219,6 +6264,9 @@
                   <c:v>380.47791488128132</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>380.47791488128132</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>380.47791488128132</c:v>
                 </c:pt>
               </c:numCache>
@@ -6262,7 +6310,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -6535,6 +6583,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6544,7 +6595,7 @@
               <c:f>'model4(3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6816,6 +6867,9 @@
                   <c:v>130.18323571843985</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>130.18323571843985</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>130.18323571843985</c:v>
                 </c:pt>
               </c:numCache>
@@ -6838,11 +6892,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="654464128"/>
-        <c:axId val="654466048"/>
+        <c:axId val="514491136"/>
+        <c:axId val="514493056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="654464128"/>
+        <c:axId val="514491136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6885,14 +6939,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="654466048"/>
+        <c:crossAx val="514493056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="654466048"/>
+        <c:axId val="514493056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6941,7 +6995,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="654464128"/>
+        <c:crossAx val="514491136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7049,7 +7103,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7092,7 +7146,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7135,7 +7189,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7448,7 +7502,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF106"/>
+  <dimension ref="A1:AF107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11859,6 +11913,41 @@
         <v>795.53573587245569</v>
       </c>
     </row>
+    <row r="107" spans="1:11" ht="12.75">
+      <c r="A107" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B107" s="25">
+        <v>1.88497</v>
+      </c>
+      <c r="C107" s="20">
+        <v>1.1186502812202088</v>
+      </c>
+      <c r="D107" s="21">
+        <v>0</v>
+      </c>
+      <c r="E107" s="22">
+        <v>0</v>
+      </c>
+      <c r="F107" s="22">
+        <v>0</v>
+      </c>
+      <c r="G107" s="22">
+        <v>0</v>
+      </c>
+      <c r="H107" s="22">
+        <v>536.33990866859824</v>
+      </c>
+      <c r="I107" s="22">
+        <v>795.53573587245569</v>
+      </c>
+      <c r="J107" s="22">
+        <v>259.19582720385745</v>
+      </c>
+      <c r="K107" s="21">
+        <v>795.53573587245569</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -11877,7 +11966,7 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF94"/>
+  <dimension ref="A1:AF95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15746,6 +15835,41 @@
         <v>1725.4194238613065</v>
       </c>
     </row>
+    <row r="95" spans="1:11" ht="12.75">
+      <c r="A95" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B95" s="25">
+        <v>1.88497</v>
+      </c>
+      <c r="C95" s="20">
+        <v>1.6029035600000012</v>
+      </c>
+      <c r="D95" s="21">
+        <v>0</v>
+      </c>
+      <c r="E95" s="22">
+        <v>0</v>
+      </c>
+      <c r="F95" s="22">
+        <v>0</v>
+      </c>
+      <c r="G95" s="22">
+        <v>0</v>
+      </c>
+      <c r="H95" s="22">
+        <v>1179.2233563460313</v>
+      </c>
+      <c r="I95" s="22">
+        <v>1725.4194238613065</v>
+      </c>
+      <c r="J95" s="22">
+        <v>546.19606751527522</v>
+      </c>
+      <c r="K95" s="21">
+        <v>1725.4194238613065</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -15764,7 +15888,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF94"/>
+  <dimension ref="A1:AF95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19633,6 +19757,41 @@
         <v>380.47791488128132</v>
       </c>
     </row>
+    <row r="95" spans="1:11" ht="12.75">
+      <c r="A95" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B95" s="25">
+        <v>1.88497</v>
+      </c>
+      <c r="C95" s="20">
+        <v>1.6029035600000012</v>
+      </c>
+      <c r="D95" s="21">
+        <v>0</v>
+      </c>
+      <c r="E95" s="22">
+        <v>0</v>
+      </c>
+      <c r="F95" s="22">
+        <v>0</v>
+      </c>
+      <c r="G95" s="22">
+        <v>0</v>
+      </c>
+      <c r="H95" s="22">
+        <v>250.29467916284148</v>
+      </c>
+      <c r="I95" s="22">
+        <v>380.47791488128132</v>
+      </c>
+      <c r="J95" s="22">
+        <v>130.18323571843985</v>
+      </c>
+      <c r="K95" s="21">
+        <v>380.47791488128132</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel4.xlsx
@@ -715,7 +715,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1027,6 +1027,9 @@
                 </c:pt>
                 <c:pt idx="103">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1036,7 +1039,7 @@
               <c:f>'model4(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>0.48968411061224032</c:v>
                 </c:pt>
@@ -1347,6 +1350,9 @@
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
                 <c:pt idx="103">
+                  <c:v>536.33990866859824</c:v>
+                </c:pt>
+                <c:pt idx="104">
                   <c:v>536.33990866859824</c:v>
                 </c:pt>
               </c:numCache>
@@ -1390,7 +1396,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1702,6 +1708,9 @@
                 </c:pt>
                 <c:pt idx="103">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1711,7 +1720,7 @@
               <c:f>'model4(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="1">
                   <c:v>0.48968411061224026</c:v>
                 </c:pt>
@@ -2019,6 +2028,9 @@
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
                 <c:pt idx="103">
+                  <c:v>795.53573587245569</c:v>
+                </c:pt>
+                <c:pt idx="104">
                   <c:v>795.53573587245569</c:v>
                 </c:pt>
               </c:numCache>
@@ -2062,7 +2074,7 @@
               <c:f>'model4(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2374,6 +2386,9 @@
                 </c:pt>
                 <c:pt idx="103">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2383,7 +2398,7 @@
               <c:f>'model4(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2694,6 +2709,9 @@
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
                 <c:pt idx="103">
+                  <c:v>259.19582720385745</c:v>
+                </c:pt>
+                <c:pt idx="104">
                   <c:v>259.19582720385745</c:v>
                 </c:pt>
               </c:numCache>
@@ -2716,11 +2734,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="432303488"/>
-        <c:axId val="452287872"/>
+        <c:axId val="433547904"/>
+        <c:axId val="466712448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="432303488"/>
+        <c:axId val="433547904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2763,14 +2781,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452287872"/>
+        <c:crossAx val="466712448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="452287872"/>
+        <c:axId val="466712448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2819,7 +2837,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432303488"/>
+        <c:crossAx val="433547904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3016,7 +3034,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3292,6 +3310,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3301,7 +3322,7 @@
               <c:f>'model4(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3576,6 +3597,9 @@
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>1179.2233563460313</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>1179.2233563460313</c:v>
                 </c:pt>
               </c:numCache>
@@ -3619,7 +3643,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3895,6 +3919,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3904,7 +3931,7 @@
               <c:f>'model4(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4179,6 +4206,9 @@
                   <c:v>1725.4194238613065</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>1725.4194238613065</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>1725.4194238613065</c:v>
                 </c:pt>
               </c:numCache>
@@ -4222,7 +4252,7 @@
               <c:f>'model4(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4498,6 +4528,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4507,7 +4540,7 @@
               <c:f>'model4(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4782,6 +4815,9 @@
                   <c:v>546.19606751527522</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>546.19606751527522</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>546.19606751527522</c:v>
                 </c:pt>
               </c:numCache>
@@ -4804,11 +4840,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="470281216"/>
-        <c:axId val="470656512"/>
+        <c:axId val="487244544"/>
+        <c:axId val="487246464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="470281216"/>
+        <c:axId val="487244544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4851,14 +4887,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470656512"/>
+        <c:crossAx val="487246464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="470656512"/>
+        <c:axId val="487246464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4907,7 +4943,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470281216"/>
+        <c:crossAx val="487244544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5104,7 +5140,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5380,6 +5416,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5389,7 +5428,7 @@
               <c:f>'model4(3)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5664,6 +5703,9 @@
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>250.29467916284148</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>250.29467916284148</c:v>
                 </c:pt>
               </c:numCache>
@@ -5707,7 +5749,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -5983,6 +6025,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5992,7 +6037,7 @@
               <c:f>'model4(3)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6267,6 +6312,9 @@
                   <c:v>380.47791488128132</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>380.47791488128132</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>380.47791488128132</c:v>
                 </c:pt>
               </c:numCache>
@@ -6310,7 +6358,7 @@
               <c:f>'model4(3)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -6586,6 +6634,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6595,7 +6646,7 @@
               <c:f>'model4(3)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6870,6 +6921,9 @@
                   <c:v>130.18323571843985</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>130.18323571843985</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>130.18323571843985</c:v>
                 </c:pt>
               </c:numCache>
@@ -6892,11 +6946,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="514491136"/>
-        <c:axId val="514493056"/>
+        <c:axId val="533718528"/>
+        <c:axId val="533720064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="514491136"/>
+        <c:axId val="533718528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6939,14 +6993,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514493056"/>
+        <c:crossAx val="533720064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="514493056"/>
+        <c:axId val="533720064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6995,7 +7049,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514491136"/>
+        <c:crossAx val="533718528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7103,7 +7157,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7146,7 +7200,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7189,7 +7243,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7502,7 +7556,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF107"/>
+  <dimension ref="A1:AF108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11948,6 +12002,41 @@
         <v>795.53573587245569</v>
       </c>
     </row>
+    <row r="108" spans="1:11" ht="12.75">
+      <c r="A108" s="15">
+        <v>45989</v>
+      </c>
+      <c r="B108" s="25">
+        <v>1.87002</v>
+      </c>
+      <c r="C108" s="20">
+        <v>1.1261140396413394</v>
+      </c>
+      <c r="D108" s="21">
+        <v>0</v>
+      </c>
+      <c r="E108" s="22">
+        <v>0</v>
+      </c>
+      <c r="F108" s="22">
+        <v>0</v>
+      </c>
+      <c r="G108" s="22">
+        <v>0</v>
+      </c>
+      <c r="H108" s="22">
+        <v>536.33990866859824</v>
+      </c>
+      <c r="I108" s="22">
+        <v>795.53573587245569</v>
+      </c>
+      <c r="J108" s="22">
+        <v>259.19582720385745</v>
+      </c>
+      <c r="K108" s="21">
+        <v>795.53573587245569</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -11966,7 +12055,7 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF95"/>
+  <dimension ref="A1:AF96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15870,6 +15959,41 @@
         <v>1725.4194238613065</v>
       </c>
     </row>
+    <row r="96" spans="1:11" ht="12.75">
+      <c r="A96" s="15">
+        <v>45989</v>
+      </c>
+      <c r="B96" s="25">
+        <v>1.87002</v>
+      </c>
+      <c r="C96" s="20">
+        <v>1.6436552000000013</v>
+      </c>
+      <c r="D96" s="21">
+        <v>0</v>
+      </c>
+      <c r="E96" s="22">
+        <v>0</v>
+      </c>
+      <c r="F96" s="22">
+        <v>0</v>
+      </c>
+      <c r="G96" s="22">
+        <v>0</v>
+      </c>
+      <c r="H96" s="22">
+        <v>1179.2233563460313</v>
+      </c>
+      <c r="I96" s="22">
+        <v>1725.4194238613065</v>
+      </c>
+      <c r="J96" s="22">
+        <v>546.19606751527522</v>
+      </c>
+      <c r="K96" s="21">
+        <v>1725.4194238613065</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -15888,7 +16012,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF95"/>
+  <dimension ref="A1:AF96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19792,6 +19916,41 @@
         <v>380.47791488128132</v>
       </c>
     </row>
+    <row r="96" spans="1:11" ht="12.75">
+      <c r="A96" s="15">
+        <v>45989</v>
+      </c>
+      <c r="B96" s="25">
+        <v>1.87002</v>
+      </c>
+      <c r="C96" s="20">
+        <v>1.6436552000000013</v>
+      </c>
+      <c r="D96" s="21">
+        <v>0</v>
+      </c>
+      <c r="E96" s="22">
+        <v>0</v>
+      </c>
+      <c r="F96" s="22">
+        <v>0</v>
+      </c>
+      <c r="G96" s="22">
+        <v>0</v>
+      </c>
+      <c r="H96" s="22">
+        <v>250.29467916284148</v>
+      </c>
+      <c r="I96" s="22">
+        <v>380.47791488128132</v>
+      </c>
+      <c r="J96" s="22">
+        <v>130.18323571843985</v>
+      </c>
+      <c r="K96" s="21">
+        <v>380.47791488128132</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
